--- a/india_REV_input/Scenarios_Cost_Master_v4.xlsx
+++ b/india_REV_input/Scenarios_Cost_Master_v4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14960"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14960" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REvalue_input_csv" sheetId="11" r:id="rId1"/>
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="444">
   <si>
     <t>Screening curves</t>
   </si>
@@ -1784,6 +1784,9 @@
   </si>
   <si>
     <t>add FGD and other adders from CEA report to FC and use INR 3 per kWh VC, change coal price accordingly</t>
+  </si>
+  <si>
+    <t>wind30LC_solar30LC_coalHC</t>
   </si>
 </sst>
 </file>
@@ -1893,10 +1896,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1945,16 +1962,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="25">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2226,7 +2257,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2234,13 +2265,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="Q9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>
+      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2262,10 +2293,10 @@
     <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>228</v>
       </c>
@@ -2344,8 +2375,11 @@
       <c r="Z1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="21" t="s">
         <v>247</v>
       </c>
@@ -2361,7 +2395,7 @@
         <v>ChcC70m</v>
       </c>
       <c r="E2" s="21" t="str">
-        <f t="shared" ref="E2:Z2" si="0">E3</f>
+        <f t="shared" ref="E2:AA2" si="0">E3</f>
         <v>ClcC55m</v>
       </c>
       <c r="F2" s="21" t="str">
@@ -2448,8 +2482,12 @@
         <f t="shared" si="0"/>
         <v>ClcC70mB30B50lc</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>ChcC70mW30lcS30lc</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -2549,8 +2587,12 @@
         <f t="shared" si="1"/>
         <v>ClcC70mB30B50lc</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="str">
+        <f t="shared" ref="AA3" si="2">CONCATENATE(AA10,AA13,AA15,AA17,AA19,AA23,AA27,AA31,AA34,AA37,AA40,AA42,AA45)</f>
+        <v>ChcC70mW30lcS30lc</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>418</v>
       </c>
@@ -2559,71 +2601,71 @@
         <v>ClcC70m</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:V4" si="2">CONCATENATE(D10,D13,D15,D17,D19,D34,D37,D40,D42,D45)</f>
+        <f t="shared" ref="D4:V4" si="3">CONCATENATE(D10,D13,D15,D17,D19,D34,D37,D40,D42,D45)</f>
         <v>ChcC70m</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC55m</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mH-25</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mH25</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mN64</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mB15</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mB30</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70m</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70m</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70m</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70m</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70m</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70m</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70m</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mW120</v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mS1A</v>
       </c>
       <c r="T4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mS90d</v>
       </c>
       <c r="U4" t="str">
@@ -2631,7 +2673,7 @@
         <v>ClcC70mW120S1A</v>
       </c>
       <c r="V4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mLmod</v>
       </c>
       <c r="W4" t="str">
@@ -2650,81 +2692,85 @@
         <f>CONCATENATE(Z10,Z13,Z15,Z17,Z19,Z34,Z37,Z40,Z42,Z45)</f>
         <v>ClcC70mB30</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="str">
+        <f t="shared" ref="AA4" si="4">CONCATENATE(AA10,AA13,AA15,AA17,AA19,AA34,AA37,AA40,AA42,AA45)</f>
+        <v>ChcC70m</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>250</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:V5" si="3">CONCATENATE(C11,C15,C17,C19,C34,C37,C40,C42,C45)</f>
+        <f t="shared" ref="C5:V5" si="5">CONCATENATE(C11,C15,C17,C19,C34,C37,C40,C42,C45)</f>
         <v>coallc</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coalhc</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallc</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcH-25</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcH25</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcN64</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcB15</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcB30</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallc</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallc</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallc</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallc</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallc</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallc</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallc</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcW120</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcS1A</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcS90d</v>
       </c>
       <c r="U5" t="str">
@@ -2732,7 +2778,7 @@
         <v>coallcW120S1A</v>
       </c>
       <c r="V5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcLmod</v>
       </c>
       <c r="W5" t="str">
@@ -2751,13 +2797,17 @@
         <f>CONCATENATE(Z11,Z15,Z17,Z19,Z34,Z37,Z40,Z42,Z45)</f>
         <v>coallcB30</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="str">
+        <f t="shared" ref="AA5" si="6">CONCATENATE(AA11,AA15,AA17,AA19,AA34,AA37,AA40,AA42,AA45)</f>
+        <v>coalhc</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>251</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6:V6" si="4">CONCATENATE(C11,C15,C17,C19,C34,C37,C40,C42,C45)</f>
+        <f t="shared" ref="C6:V6" si="7">CONCATENATE(C11,C15,C17,C19,C34,C37,C40,C42,C45)</f>
         <v>coallc</v>
       </c>
       <c r="D6" t="str">
@@ -2765,67 +2815,67 @@
         <v>coallc</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallc</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcH-25</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcH25</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcN64</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcB15</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcB30</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallc</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallc</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallc</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallc</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallc</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallc</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallc</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcW120</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcS1A</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcS90d</v>
       </c>
       <c r="U6" t="str">
@@ -2833,7 +2883,7 @@
         <v>coallcW120S1A</v>
       </c>
       <c r="V6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcLmod</v>
       </c>
       <c r="W6" t="str">
@@ -2852,81 +2902,85 @@
         <f>CONCATENATE(Z11,Z15,Z17,Z19,Z34,Z37,Z40,Z42,Z45)</f>
         <v>coallcB30</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="str">
+        <f t="shared" ref="AA6" si="8">CONCATENATE(AA11,AA15,AA17,AA19,AA34,AA37,AA40,AA42,AA45)</f>
+        <v>coalhc</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>252</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:V7" si="5">CONCATENATE(C35,"_",C38)</f>
+        <f t="shared" ref="C7:V7" si="9">CONCATENATE(C35,"_",C38)</f>
         <v>W80_S0d</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W120_S0d</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S1A</v>
       </c>
       <c r="T7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S90d</v>
       </c>
       <c r="U7" t="str">
@@ -2934,7 +2988,7 @@
         <v>W120_S1A</v>
       </c>
       <c r="V7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="W7" t="str">
@@ -2953,8 +3007,12 @@
         <f>CONCATENATE(Z35,"_",Z38)</f>
         <v>W80_S0d</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="str">
+        <f t="shared" ref="AA7" si="10">CONCATENATE(AA35,"_",AA38)</f>
+        <v>W80_S0d</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>253</v>
       </c>
@@ -2963,99 +3021,103 @@
         <v>coallc</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" ref="D8:Z8" si="6">CONCATENATE(D11,D27,D31,D23)</f>
+        <f t="shared" ref="D8:Z8" si="11">CONCATENATE(D11,D27,D31,D23)</f>
         <v>coalhc</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcW10lc</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcW20lc</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcW30lc</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcS10lc</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcS20lc</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcS30lc</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcW30lcS30lc</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="V8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcB25lc</v>
       </c>
       <c r="X8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcB50lc</v>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcB25lc</v>
       </c>
       <c r="Z8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcB50lc</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="str">
+        <f t="shared" ref="AA8" si="12">CONCATENATE(AA11,AA27,AA31,AA23)</f>
+        <v>coalhcW30lcS30lc</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="21" t="s">
         <v>254</v>
       </c>
@@ -3134,8 +3196,11 @@
       <c r="Z9" s="21" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>258</v>
       </c>
@@ -3144,71 +3209,71 @@
         <v>Clc</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:V10" si="7">CONCATENATE("C", LEFT(D9,1), "c")</f>
+        <f t="shared" ref="D10:V10" si="13">CONCATENATE("C", LEFT(D9,1), "c")</f>
         <v>Chc</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="U10" t="str">
@@ -3216,7 +3281,7 @@
         <v>Clc</v>
       </c>
       <c r="V10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="W10" t="str">
@@ -3235,81 +3300,85 @@
         <f>CONCATENATE("C", LEFT(Z9,1), "c")</f>
         <v>Clc</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="str">
+        <f t="shared" ref="AA10" si="14">CONCATENATE("C", LEFT(AA9,1), "c")</f>
+        <v>Chc</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>259</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:V11" si="8">CONCATENATE("coal",LEFT(C9,1), "c")</f>
+        <f t="shared" ref="C11:V11" si="15">CONCATENATE("coal",LEFT(C9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coalhc</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="U11" t="str">
@@ -3317,7 +3386,7 @@
         <v>coallc</v>
       </c>
       <c r="V11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="W11" t="str">
@@ -3336,8 +3405,12 @@
         <f>CONCATENATE("coal",LEFT(Z9,1), "c")</f>
         <v>coallc</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="str">
+        <f t="shared" ref="AA11" si="16">CONCATENATE("coal",LEFT(AA9,1), "c")</f>
+        <v>coalhc</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="21" t="s">
         <v>260</v>
       </c>
@@ -3416,8 +3489,11 @@
       <c r="Z12" s="21">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" s="21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -3426,71 +3502,71 @@
         <v>C70m</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ref="D13:V13" si="9">CONCATENATE("C",D12,"m")</f>
+        <f t="shared" ref="D13:V13" si="17">CONCATENATE("C",D12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C55m</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="U13" t="str">
@@ -3498,7 +3574,7 @@
         <v>C70m</v>
       </c>
       <c r="V13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="W13" t="str">
@@ -3517,8 +3593,12 @@
         <f>CONCATENATE("C",Z12,"m")</f>
         <v>C70m</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="str">
+        <f t="shared" ref="AA13" si="18">CONCATENATE("C",AA12,"m")</f>
+        <v>C70m</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="21" t="s">
         <v>263</v>
       </c>
@@ -3597,81 +3677,84 @@
       <c r="Z14" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>265</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ref="C15:V15" si="10">IF(C14=0,"",CONCATENATE("H",C14))</f>
+        <f t="shared" ref="C15:V15" si="19">IF(C14=0,"",CONCATENATE("H",C14))</f>
         <v/>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>H-25</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>H25</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U15" t="str">
@@ -3679,7 +3762,7 @@
         <v/>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W15" t="str">
@@ -3698,8 +3781,12 @@
         <f>IF(Z14=0,"",CONCATENATE("H",Z14))</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="str">
+        <f t="shared" ref="AA15" si="20">IF(AA14=0,"",CONCATENATE("H",AA14))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="21" t="s">
         <v>266</v>
       </c>
@@ -3778,81 +3865,84 @@
       <c r="Z16" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>268</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ref="C17:V17" si="11">IF(C16=0,"",CONCATENATE("N",C16))</f>
+        <f t="shared" ref="C17:V17" si="21">IF(C16=0,"",CONCATENATE("N",C16))</f>
         <v/>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>N64</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="U17" t="str">
@@ -3860,7 +3950,7 @@
         <v/>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="W17" t="str">
@@ -3879,8 +3969,12 @@
         <f>IF(Z16=0,"",CONCATENATE("N",Z16))</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="str">
+        <f t="shared" ref="AA17" si="22">IF(AA16=0,"",CONCATENATE("N",AA16))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="21" t="s">
         <v>269</v>
       </c>
@@ -3959,81 +4053,84 @@
       <c r="Z18" s="21">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>271</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:V19" si="12">IF(C18=0,"",CONCATENATE("B",C18))</f>
+        <f t="shared" ref="C19:V19" si="23">IF(C18=0,"",CONCATENATE("B",C18))</f>
         <v/>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>B15</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>B30</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="U19" t="str">
@@ -4041,7 +4138,7 @@
         <v/>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W19" t="str">
@@ -4060,81 +4157,85 @@
         <f>IF(Z18=0,"",CONCATENATE("B",Z18))</f>
         <v>B30</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="str">
+        <f t="shared" ref="AA19" si="24">IF(AA18=0,"",CONCATENATE("B",AA18))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>272</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" ref="C20:V20" si="13">CONCATENATE("bat", C18)</f>
+        <f t="shared" ref="C20:V20" si="25">CONCATENATE("bat", C18)</f>
         <v>bat0</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat15</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat30</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="U20" t="str">
@@ -4142,7 +4243,7 @@
         <v>bat0</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="W20" t="str">
@@ -4161,8 +4262,12 @@
         <f>CONCATENATE("bat", Z18)</f>
         <v>bat30</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="str">
+        <f t="shared" ref="AA20" si="26">CONCATENATE("bat", AA18)</f>
+        <v>bat0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="21" t="s">
         <v>420</v>
       </c>
@@ -4241,8 +4346,11 @@
       <c r="Z21" s="21">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
         <v>421</v>
       </c>
@@ -4321,8 +4429,11 @@
       <c r="Z22" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
         <v>422</v>
       </c>
@@ -4331,79 +4442,79 @@
         <v/>
       </c>
       <c r="D23" t="str">
-        <f t="shared" ref="D23:V23" si="14">IF(D21=0,"",CONCATENATE("B",D21,LEFT(D22,1),"c"))</f>
+        <f t="shared" ref="D23:V23" si="27">IF(D21=0,"",CONCATENATE("B",D21,LEFT(D22,1),"c"))</f>
         <v/>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="S23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="W23" t="str">
@@ -4422,8 +4533,12 @@
         <f>IF(Z21=0,"",CONCATENATE("B",Z21,LEFT(Z22,1),"c"))</f>
         <v>B50lc</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="str">
+        <f t="shared" ref="AA23" si="28">IF(AA21=0,"",CONCATENATE("B",AA21,LEFT(AA22,1),"c"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
         <v>423</v>
       </c>
@@ -4432,79 +4547,79 @@
         <v>batteryLC0</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" ref="D24:V24" si="15">CONCATENATE("battery",UPPER(LEFT(D22,1)), "C",D21)</f>
+        <f t="shared" ref="D24:V24" si="29">CONCATENATE("battery",UPPER(LEFT(D22,1)), "C",D21)</f>
         <v>batteryLC0</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>batteryLC0</v>
       </c>
       <c r="W24" t="str">
@@ -4523,8 +4638,12 @@
         <f>CONCATENATE("battery",UPPER(LEFT(Z22,1)), "C",Z21)</f>
         <v>batteryLC50</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="str">
+        <f t="shared" ref="AA24" si="30">CONCATENATE("battery",UPPER(LEFT(AA22,1)), "C",AA21)</f>
+        <v>batteryLC0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="21" t="s">
         <v>273</v>
       </c>
@@ -4603,8 +4722,11 @@
       <c r="Z25" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>275</v>
       </c>
@@ -4683,81 +4805,84 @@
       <c r="Z26" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
         <v>277</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ref="C27:V27" si="16">IF(C25=0,"",CONCATENATE("W",C25,LEFT(C26,1),"c"))</f>
+        <f t="shared" ref="C27:V27" si="31">IF(C25=0,"",CONCATENATE("W",C25,LEFT(C26,1),"c"))</f>
         <v/>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>W10lc</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>W20lc</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>W30lc</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>W30lc</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="S27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="U27" t="str">
@@ -4765,7 +4890,7 @@
         <v/>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="W27" t="str">
@@ -4784,81 +4909,85 @@
         <f>IF(Z25=0,"",CONCATENATE("W",Z25,LEFT(Z26,1),"c"))</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" t="str">
+        <f t="shared" ref="AA27" si="32">IF(AA25=0,"",CONCATENATE("W",AA25,LEFT(AA26,1),"c"))</f>
+        <v>W30lc</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
         <v>278</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" ref="C28:V28" si="17">CONCATENATE("wind",UPPER(LEFT(C26,1)), "C",C25)</f>
+        <f t="shared" ref="C28:V28" si="33">CONCATENATE("wind",UPPER(LEFT(C26,1)), "C",C25)</f>
         <v>windLC0</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC0</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC0</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC0</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC0</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC0</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC0</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC0</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC10</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC20</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC30</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC0</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC0</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC0</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC30</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC0</v>
       </c>
       <c r="S28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC0</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC0</v>
       </c>
       <c r="U28" t="str">
@@ -4866,7 +4995,7 @@
         <v>windLC0</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>windLC0</v>
       </c>
       <c r="W28" t="str">
@@ -4885,8 +5014,12 @@
         <f>CONCATENATE("wind",UPPER(LEFT(Z26,1)), "C",Z25)</f>
         <v>windLC0</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" t="str">
+        <f t="shared" ref="AA28" si="34">CONCATENATE("wind",UPPER(LEFT(AA26,1)), "C",AA25)</f>
+        <v>windLC30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="21" t="s">
         <v>279</v>
       </c>
@@ -4965,8 +5098,11 @@
       <c r="Z29" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
         <v>280</v>
       </c>
@@ -5045,81 +5181,84 @@
       <c r="Z30" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
         <v>281</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ref="C31:M31" si="18">IF(C29=0,"",CONCATENATE("W",C29,LEFT(C30,1),"c"))</f>
+        <f t="shared" ref="C31:M31" si="35">IF(C29=0,"",CONCATENATE("W",C29,LEFT(C30,1),"c"))</f>
         <v/>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="N31" t="str">
-        <f t="shared" ref="N31:V31" si="19">IF(N29=0,"",CONCATENATE("S",N29,LEFT(N30,1),"c"))</f>
+        <f t="shared" ref="N31:V31" si="36">IF(N29=0,"",CONCATENATE("S",N29,LEFT(N30,1),"c"))</f>
         <v>S10lc</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>S20lc</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>S30lc</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>S30lc</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U31" t="str">
@@ -5127,7 +5266,7 @@
         <v/>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="W31" t="str">
@@ -5146,81 +5285,85 @@
         <f>IF(Z29=0,"",CONCATENATE("W",Z29,LEFT(Z30,1),"c"))</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" t="str">
+        <f t="shared" ref="AA31" si="37">IF(AA29=0,"",CONCATENATE("S",AA29,LEFT(AA30,1),"c"))</f>
+        <v>S30lc</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
         <v>282</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" ref="C32:V32" si="20">CONCATENATE("solar",UPPER(LEFT(C30,1)), "C",C29)</f>
+        <f t="shared" ref="C32:V32" si="38">CONCATENATE("solar",UPPER(LEFT(C30,1)), "C",C29)</f>
         <v>solarLC0</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC0</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC0</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC0</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC0</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC0</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC0</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC0</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC0</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC0</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC0</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC10</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC20</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC30</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC30</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC0</v>
       </c>
       <c r="S32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC0</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC0</v>
       </c>
       <c r="U32" t="str">
@@ -5228,7 +5371,7 @@
         <v>solarLC0</v>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>solarLC0</v>
       </c>
       <c r="W32" t="str">
@@ -5247,8 +5390,12 @@
         <f>CONCATENATE("solar",UPPER(LEFT(Z30,1)), "C",Z29)</f>
         <v>solarLC0</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" t="str">
+        <f t="shared" ref="AA32" si="39">CONCATENATE("solar",UPPER(LEFT(AA30,1)), "C",AA29)</f>
+        <v>solarLC30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" s="21" t="s">
         <v>283</v>
       </c>
@@ -5327,81 +5474,84 @@
       <c r="Z33" s="21">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" s="21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
         <v>285</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ref="C34:V34" si="21">IF(C33=80,"", CONCATENATE("W",C33))</f>
+        <f t="shared" ref="C34:V34" si="40">IF(C33=80,"", CONCATENATE("W",C33))</f>
         <v/>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>W120</v>
       </c>
       <c r="S34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U34" t="str">
@@ -5409,7 +5559,7 @@
         <v>W120</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="W34" t="str">
@@ -5428,81 +5578,85 @@
         <f>IF(Z33=80,"", CONCATENATE("W",Z33))</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" t="str">
+        <f t="shared" ref="AA34" si="41">IF(AA33=80,"", CONCATENATE("W",AA33))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
         <v>286</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ref="C35:V35" si="22">CONCATENATE("W",C33)</f>
+        <f t="shared" ref="C35:V35" si="42">CONCATENATE("W",C33)</f>
         <v>W80</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W120</v>
       </c>
       <c r="S35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="T35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="U35" t="str">
@@ -5510,7 +5664,7 @@
         <v>W120</v>
       </c>
       <c r="V35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>W80</v>
       </c>
       <c r="W35" t="str">
@@ -5529,8 +5683,12 @@
         <f>CONCATENATE("W",Z33)</f>
         <v>W80</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" t="str">
+        <f t="shared" ref="AA35" si="43">CONCATENATE("W",AA33)</f>
+        <v>W80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" s="21" t="s">
         <v>287</v>
       </c>
@@ -5609,81 +5767,84 @@
       <c r="Z36" s="21" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" s="21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
         <v>292</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ref="C37:V37" si="23">IF(C36="0d", "", CONCATENATE("S",C36))</f>
+        <f t="shared" ref="C37:V37" si="44">IF(C36="0d", "", CONCATENATE("S",C36))</f>
         <v/>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>S1A</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>S90d</v>
       </c>
       <c r="U37" t="str">
@@ -5691,7 +5852,7 @@
         <v>S1A</v>
       </c>
       <c r="V37" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="W37" t="str">
@@ -5710,81 +5871,85 @@
         <f>IF(Z36="0d", "", CONCATENATE("S",Z36))</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" t="str">
+        <f t="shared" ref="AA37" si="45">IF(AA36="0d", "", CONCATENATE("S",AA36))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
         <v>293</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" ref="C38:V38" si="24">CONCATENATE("S",C36)</f>
+        <f t="shared" ref="C38:V38" si="46">CONCATENATE("S",C36)</f>
         <v>S0d</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S0d</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S0d</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S0d</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S0d</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S0d</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S0d</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S0d</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S0d</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S0d</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S0d</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S0d</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S0d</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S0d</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S0d</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S0d</v>
       </c>
       <c r="S38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S1A</v>
       </c>
       <c r="T38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S90d</v>
       </c>
       <c r="U38" t="str">
@@ -5792,7 +5957,7 @@
         <v>S1A</v>
       </c>
       <c r="V38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>S0d</v>
       </c>
       <c r="W38" t="str">
@@ -5811,8 +5976,12 @@
         <f>CONCATENATE("S",Z36)</f>
         <v>S0d</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38" t="str">
+        <f t="shared" ref="AA38" si="47">CONCATENATE("S",AA36)</f>
+        <v>S0d</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" s="21" t="s">
         <v>294</v>
       </c>
@@ -5889,81 +6058,84 @@
       <c r="Z39" s="21">
         <v>2014</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" s="21">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
         <v>295</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" ref="C40:V40" si="25">IF(C39=2014,"",CONCATENATE("L",C39))</f>
+        <f t="shared" ref="C40:V40" si="48">IF(C39=2014,"",CONCATENATE("L",C39))</f>
         <v/>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="U40" t="str">
@@ -5971,7 +6143,7 @@
         <v/>
       </c>
       <c r="V40" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="W40" t="str">
@@ -5990,8 +6162,12 @@
         <f>IF(Z39=2014,"",CONCATENATE("L",Z39))</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40" t="str">
+        <f t="shared" ref="AA40" si="49">IF(AA39=2014,"",CONCATENATE("L",AA39))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" s="21" t="s">
         <v>296</v>
       </c>
@@ -6070,81 +6246,84 @@
       <c r="Z41" s="21" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
         <v>300</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" ref="C42:V42" si="26">IF(C41="none","",CONCATENATE("L",C41))</f>
+        <f t="shared" ref="C42:V42" si="50">IF(C41="none","",CONCATENATE("L",C41))</f>
         <v/>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U42" t="str">
@@ -6152,7 +6331,7 @@
         <v/>
       </c>
       <c r="V42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>Lmod</v>
       </c>
       <c r="W42" t="str">
@@ -6171,8 +6350,12 @@
         <f>IF(Z41="none","",CONCATENATE("L",Z41))</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" t="str">
+        <f t="shared" ref="AA42" si="51">IF(AA41="none","",CONCATENATE("L",AA41))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" s="21" t="s">
         <v>301</v>
       </c>
@@ -6251,8 +6434,11 @@
       <c r="Z43" s="21" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
         <v>304</v>
       </c>
@@ -6328,81 +6514,84 @@
       <c r="Z44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
         <v>305</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" ref="C45:V45" si="27">IF(C43="RT","",CONCATENATE(C43,C44))</f>
+        <f t="shared" ref="C45:V45" si="52">IF(C43="RT","",CONCATENATE(C43,C44))</f>
         <v/>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="S45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="T45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U45" t="str">
@@ -6410,7 +6599,7 @@
         <v/>
       </c>
       <c r="V45" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W45" t="str">
@@ -6427,6 +6616,10 @@
       </c>
       <c r="Z45" t="str">
         <f>IF(Z43="RT","",CONCATENATE(Z43,Z44))</f>
+        <v/>
+      </c>
+      <c r="AA45" t="str">
+        <f t="shared" ref="AA45" si="53">IF(AA43="RT","",CONCATENATE(AA43,AA44))</f>
         <v/>
       </c>
     </row>
@@ -6683,8 +6876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL73"/>
   <sheetViews>
-    <sheetView topLeftCell="K15" workbookViewId="0">
-      <selection activeCell="R55" sqref="R55"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6705,6 +6898,7 @@
     <col min="27" max="27" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="26.33203125" bestFit="1" customWidth="1"/>
@@ -7089,6 +7283,10 @@
         <f t="shared" si="0"/>
         <v>coallcB50lc</v>
       </c>
+      <c r="AD9" t="str">
+        <f t="shared" ref="AD9" si="1">CONCATENATE(AD10,IF(AD11="base", "", AD11),IF(AD12="base", "", AD12), IF(AD13="base", "", AD13))</f>
+        <v>coalhcW30lcS30lc</v>
+      </c>
     </row>
     <row r="10" spans="1:38">
       <c r="A10" t="s">
@@ -7134,6 +7332,9 @@
       <c r="AC10" t="s">
         <v>167</v>
       </c>
+      <c r="AD10" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" t="s">
@@ -7179,6 +7380,9 @@
       <c r="AC11" t="s">
         <v>222</v>
       </c>
+      <c r="AD11" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" t="s">
@@ -7224,6 +7428,9 @@
       <c r="AC12" t="s">
         <v>222</v>
       </c>
+      <c r="AD12" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="13" spans="1:38">
       <c r="A13" t="s">
@@ -7272,6 +7479,9 @@
       <c r="AC13" t="s">
         <v>429</v>
       </c>
+      <c r="AD13" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="14" spans="1:38">
       <c r="A14" t="s">
@@ -7287,47 +7497,51 @@
         <v>184</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" ref="S14:AC14" si="1">$R$5</f>
+        <f t="shared" ref="S14:AD14" si="2">$R$5</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Z14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD14" s="1">
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -7345,47 +7559,51 @@
         <v>189</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" ref="S15:AC15" si="2">$S$5</f>
+        <f t="shared" ref="S15:AD15" si="3">$S$5</f>
         <v>8.5810517220665614E-2</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5810517220665614E-2</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5810517220665614E-2</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5810517220665614E-2</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5810517220665614E-2</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5810517220665614E-2</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5810517220665614E-2</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5810517220665614E-2</v>
       </c>
       <c r="AA15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5810517220665614E-2</v>
       </c>
       <c r="AB15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5810517220665614E-2</v>
       </c>
       <c r="AC15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>8.5810517220665614E-2</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="3"/>
         <v>8.5810517220665614E-2</v>
       </c>
     </row>
@@ -7400,7 +7618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -7415,51 +7633,55 @@
         <v>60</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" ref="S17:AC17" si="3">$Y$4</f>
+        <f t="shared" ref="S17:AD17" si="4">$Y$4</f>
         <v>678.26769230769241</v>
       </c>
       <c r="T17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>678.26769230769241</v>
       </c>
       <c r="U17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>678.26769230769241</v>
       </c>
       <c r="V17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>678.26769230769241</v>
       </c>
       <c r="W17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>678.26769230769241</v>
       </c>
       <c r="X17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>678.26769230769241</v>
       </c>
       <c r="Y17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>678.26769230769241</v>
       </c>
       <c r="Z17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>678.26769230769241</v>
       </c>
       <c r="AA17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>678.26769230769241</v>
       </c>
       <c r="AB17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>678.26769230769241</v>
       </c>
       <c r="AC17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>678.26769230769241</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17" s="5">
+        <f t="shared" si="4"/>
+        <v>678.26769230769241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>163</v>
       </c>
@@ -7474,51 +7696,55 @@
         <v>58</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:AC18" si="4">$AC$5</f>
+        <f t="shared" ref="S18:AD18" si="5">$AC$5</f>
         <v>10</v>
       </c>
       <c r="T18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="U18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="V18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="W18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="X18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
         <v>165</v>
       </c>
@@ -7530,51 +7756,55 @@
         <v>20</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" ref="S19:AC19" si="5">S$17*S$15+$B$32</f>
+        <f t="shared" ref="S19:AD19" si="6">S$17*S$15+$B$32</f>
         <v>65.002501490990369</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.002501490990369</v>
       </c>
       <c r="U19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.002501490990369</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.002501490990369</v>
       </c>
       <c r="W19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.002501490990369</v>
       </c>
       <c r="X19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.002501490990369</v>
       </c>
       <c r="Y19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.002501490990369</v>
       </c>
       <c r="Z19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.002501490990369</v>
       </c>
       <c r="AA19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.002501490990369</v>
       </c>
       <c r="AB19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.002501490990369</v>
       </c>
       <c r="AC19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.002501490990369</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19" s="5">
+        <f t="shared" si="6"/>
+        <v>65.002501490990369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -7589,51 +7819,55 @@
         <v>32</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" ref="S20:AC20" si="6">($B$34*S$18*10^-3 + $B$33)/(1-$B$46)</f>
+        <f t="shared" ref="S20:AD20" si="7">($B$34*S$18*10^-3 + $B$33)/(1-$B$46)</f>
         <v>126.97417171717171</v>
       </c>
       <c r="T20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126.97417171717171</v>
       </c>
       <c r="U20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126.97417171717171</v>
       </c>
       <c r="V20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126.97417171717171</v>
       </c>
       <c r="W20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126.97417171717171</v>
       </c>
       <c r="X20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126.97417171717171</v>
       </c>
       <c r="Y20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126.97417171717171</v>
       </c>
       <c r="Z20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126.97417171717171</v>
       </c>
       <c r="AA20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126.97417171717171</v>
       </c>
       <c r="AB20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126.97417171717171</v>
       </c>
       <c r="AC20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126.97417171717171</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20" s="5">
+        <f t="shared" si="7"/>
+        <v>126.97417171717171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -7645,7 +7879,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -7660,7 +7894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -7678,51 +7912,55 @@
         <v>61</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" ref="S23:AC23" si="7">$AA$4</f>
+        <f t="shared" ref="S23:AD23" si="8">$AA$4</f>
         <v>775.16307692307703</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>775.16307692307703</v>
       </c>
       <c r="U23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>775.16307692307703</v>
       </c>
       <c r="V23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>775.16307692307703</v>
       </c>
       <c r="W23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>775.16307692307703</v>
       </c>
       <c r="X23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>775.16307692307703</v>
       </c>
       <c r="Y23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>775.16307692307703</v>
       </c>
       <c r="Z23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>775.16307692307703</v>
       </c>
       <c r="AA23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>775.16307692307703</v>
       </c>
       <c r="AB23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>775.16307692307703</v>
       </c>
       <c r="AC23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>775.16307692307703</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23" s="5">
+        <f t="shared" si="8"/>
+        <v>775.16307692307703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -7737,51 +7975,55 @@
         <v>20</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" ref="S24:AC24" si="8">S$23*S$15+$C$32</f>
+        <f t="shared" ref="S24:AD24" si="9">S$23*S$15+$C$32</f>
         <v>77.517144561131843</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77.517144561131843</v>
       </c>
       <c r="U24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77.517144561131843</v>
       </c>
       <c r="V24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77.517144561131843</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77.517144561131843</v>
       </c>
       <c r="X24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77.517144561131843</v>
       </c>
       <c r="Y24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77.517144561131843</v>
       </c>
       <c r="Z24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77.517144561131843</v>
       </c>
       <c r="AA24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77.517144561131843</v>
       </c>
       <c r="AB24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77.517144561131843</v>
       </c>
       <c r="AC24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77.517144561131843</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24" s="5">
+        <f t="shared" si="9"/>
+        <v>77.517144561131843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -7795,51 +8037,55 @@
         <v>32</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" ref="S25:AC25" si="9">($C$34*S$18*10^-3 + $C$33)/(1-$C$46)</f>
+        <f t="shared" ref="S25:AD25" si="10">($C$34*S$18*10^-3 + $C$33)/(1-$C$46)</f>
         <v>84.936820512820518</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>84.936820512820518</v>
       </c>
       <c r="U25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>84.936820512820518</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>84.936820512820518</v>
       </c>
       <c r="W25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>84.936820512820518</v>
       </c>
       <c r="X25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>84.936820512820518</v>
       </c>
       <c r="Y25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>84.936820512820518</v>
       </c>
       <c r="Z25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>84.936820512820518</v>
       </c>
       <c r="AA25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>84.936820512820518</v>
       </c>
       <c r="AB25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>84.936820512820518</v>
       </c>
       <c r="AC25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>84.936820512820518</v>
       </c>
-    </row>
-    <row r="26" spans="1:29">
+      <c r="AD25" s="5">
+        <f t="shared" si="10"/>
+        <v>84.936820512820518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -7850,12 +8096,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:30">
       <c r="R27" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -7870,35 +8116,35 @@
         <v>976.42784318082204</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" ref="T28:AA28" si="10">INDEX($T$4:$U$5, MATCH(T10,$T$4:$T$5),2)</f>
+        <f t="shared" ref="T28:AA28" si="11">INDEX($T$4:$U$5, MATCH(T10,$T$4:$T$5),2)</f>
         <v>1140</v>
       </c>
       <c r="U28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>976.42784318082204</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>976.42784318082204</v>
       </c>
       <c r="W28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>976.42784318082204</v>
       </c>
       <c r="X28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>976.42784318082204</v>
       </c>
       <c r="Y28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>976.42784318082204</v>
       </c>
       <c r="Z28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>976.42784318082204</v>
       </c>
       <c r="AA28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>976.42784318082204</v>
       </c>
       <c r="AB28" s="5">
@@ -7909,8 +8155,12 @@
         <f>INDEX($T$4:$U$5, MATCH(AC10,$T$4:$T$5),2)</f>
         <v>976.42784318082204</v>
       </c>
-    </row>
-    <row r="29" spans="1:29">
+      <c r="AD28" s="5">
+        <f t="shared" ref="AD28" si="12">INDEX($T$4:$U$5, MATCH(AD10,$T$4:$T$5),2)</f>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
@@ -7921,7 +8171,7 @@
         <v>183</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" ref="S29:AC29" si="11">$W$4</f>
+        <f t="shared" ref="S29:AD29" si="13">$W$4</f>
         <v>2.6153846153846154</v>
       </c>
       <c r="T29" s="4">
@@ -7929,43 +8179,47 @@
         <v>3.9</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6153846153846154</v>
       </c>
       <c r="V29" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6153846153846154</v>
       </c>
       <c r="W29" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6153846153846154</v>
       </c>
       <c r="X29" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6153846153846154</v>
       </c>
       <c r="Y29" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6153846153846154</v>
       </c>
       <c r="Z29" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6153846153846154</v>
       </c>
       <c r="AA29" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6153846153846154</v>
       </c>
       <c r="AB29" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6153846153846154</v>
       </c>
       <c r="AC29" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6153846153846154</v>
       </c>
-    </row>
-    <row r="30" spans="1:29">
+      <c r="AD29" s="4">
+        <f>$W$5</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -7991,51 +8245,55 @@
         <v>20</v>
       </c>
       <c r="S30" s="5">
-        <f t="shared" ref="S30:AC30" si="12">S$28*S$15+$D$32</f>
+        <f t="shared" ref="S30:AD30" si="14">S$28*S$15+$D$32</f>
         <v>125.88777825200532</v>
       </c>
       <c r="T30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>139.92398963155881</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>125.88777825200532</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>125.88777825200532</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>125.88777825200532</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>125.88777825200532</v>
       </c>
       <c r="Y30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>125.88777825200532</v>
       </c>
       <c r="Z30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>125.88777825200532</v>
       </c>
       <c r="AA30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>125.88777825200532</v>
       </c>
       <c r="AB30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>125.88777825200532</v>
       </c>
       <c r="AC30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>125.88777825200532</v>
       </c>
-    </row>
-    <row r="31" spans="1:29">
+      <c r="AD30" s="5">
+        <f t="shared" si="14"/>
+        <v>139.92398963155881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -8055,66 +8313,70 @@
         <v>5</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:J33" si="13">B31*$E$1</f>
+        <f t="shared" ref="H31:J33" si="15">B31*$E$1</f>
         <v>44087.400000000009</v>
       </c>
       <c r="I31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50385.600000000006</v>
       </c>
       <c r="J31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>63467.80980675343</v>
       </c>
       <c r="R31" t="s">
         <v>32</v>
       </c>
       <c r="S31" s="5">
-        <f t="shared" ref="S31:AC31" si="14">($D$34*S$29*$E$3*10^-3 + $D$33)/(1-$D$46)</f>
+        <f t="shared" ref="S31:AD31" si="16">($D$34*S$29*$E$3*10^-3 + $D$33)/(1-$D$46)</f>
         <v>32.466607822649564</v>
       </c>
       <c r="T31" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.902984148611111</v>
       </c>
       <c r="U31" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32.466607822649564</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32.466607822649564</v>
       </c>
       <c r="W31" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32.466607822649564</v>
       </c>
       <c r="X31" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32.466607822649564</v>
       </c>
       <c r="Y31" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32.466607822649564</v>
       </c>
       <c r="Z31" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32.466607822649564</v>
       </c>
       <c r="AA31" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32.466607822649564</v>
       </c>
       <c r="AB31" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32.466607822649564</v>
       </c>
       <c r="AC31" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32.466607822649564</v>
       </c>
-    </row>
-    <row r="32" spans="1:29">
+      <c r="AD31" s="5">
+        <f t="shared" si="16"/>
+        <v>45.902984148611111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -8134,19 +8396,19 @@
         <v>14</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>442</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>715</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2736.5</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -8166,15 +8428,15 @@
         <v>15</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>695.5</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>227.5</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>299</v>
       </c>
       <c r="P33" s="5"/>
@@ -8182,7 +8444,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -8211,51 +8473,55 @@
         <v>55</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" ref="S34:AC34" si="15">(S24-S19)*1000/(S20-S25)/8760</f>
+        <f t="shared" ref="S34:AC34" si="17">(S24-S19)*1000/(S20-S25)/8760</f>
         <v>3.3984353954038309E-2</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3984353954038309E-2</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3984353954038309E-2</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3984353954038309E-2</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3984353954038309E-2</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3984353954038309E-2</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3984353954038309E-2</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3984353954038309E-2</v>
       </c>
       <c r="AA34" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3984353954038309E-2</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3984353954038309E-2</v>
       </c>
       <c r="AC34" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3984353954038309E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:29">
+      <c r="AD34" s="2">
+        <f t="shared" ref="AD34" si="18">(AD24-AD19)*1000/(AD20-AD25)/8760</f>
+        <v>3.3984353954038309E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -8281,51 +8547,55 @@
         <v>56</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" ref="S35:AC35" si="16">(S30-S24)*1000/(S25-S31)/8760</f>
+        <f t="shared" ref="S35:AC35" si="19">(S30-S24)*1000/(S25-S31)/8760</f>
         <v>0.10523612453151106</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.18251009215426989</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.10523612453151106</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.10523612453151106</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.10523612453151106</v>
       </c>
       <c r="X35" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.10523612453151106</v>
       </c>
       <c r="Y35" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.10523612453151106</v>
       </c>
       <c r="Z35" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.10523612453151106</v>
       </c>
       <c r="AA35" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.10523612453151106</v>
       </c>
       <c r="AB35" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.10523612453151106</v>
       </c>
       <c r="AC35" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.10523612453151106</v>
       </c>
-    </row>
-    <row r="36" spans="1:29">
+      <c r="AD35" s="2">
+        <f t="shared" ref="AD35" si="20">(AD30-AD24)*1000/(AD25-AD31)/8760</f>
+        <v>0.18251009215426989</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -8377,8 +8647,11 @@
       <c r="AC36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:29">
+      <c r="AD36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -8394,8 +8667,60 @@
       <c r="E37" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:29">
+      <c r="R37" t="str">
+        <f>R18</f>
+        <v>gas_price</v>
+      </c>
+      <c r="S37">
+        <f t="shared" ref="S37:AD37" si="21">S18</f>
+        <v>10</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -8411,11 +8736,60 @@
       <c r="E38" t="s">
         <v>45</v>
       </c>
-      <c r="R38" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
+      <c r="R38" t="str">
+        <f>R17</f>
+        <v>cap_cost_ct</v>
+      </c>
+      <c r="S38" s="5">
+        <f t="shared" ref="S38:AD38" si="22">S17</f>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="T38" s="5">
+        <f t="shared" si="22"/>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="U38" s="5">
+        <f t="shared" si="22"/>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="V38" s="5">
+        <f t="shared" si="22"/>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="W38" s="5">
+        <f t="shared" si="22"/>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="X38" s="5">
+        <f t="shared" si="22"/>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="Y38" s="5">
+        <f t="shared" si="22"/>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="Z38" s="5">
+        <f t="shared" si="22"/>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="AA38" s="5">
+        <f t="shared" si="22"/>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="AB38" s="5">
+        <f t="shared" si="22"/>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="AC38" s="5">
+        <f t="shared" si="22"/>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="AD38" s="5">
+        <f t="shared" si="22"/>
+        <v>678.26769230769241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -8431,14 +8805,60 @@
       <c r="E39" t="s">
         <v>45</v>
       </c>
-      <c r="Q39" t="s">
-        <v>194</v>
-      </c>
-      <c r="R39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29">
+      <c r="R39" t="str">
+        <f>R23</f>
+        <v>cap_cost_ccgt</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" ref="S39:AD39" si="23">S23</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="T39" s="5">
+        <f t="shared" si="23"/>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="U39" s="5">
+        <f t="shared" si="23"/>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" si="23"/>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="W39" s="5">
+        <f t="shared" si="23"/>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="X39" s="5">
+        <f t="shared" si="23"/>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="Y39" s="5">
+        <f t="shared" si="23"/>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="Z39" s="5">
+        <f t="shared" si="23"/>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="AA39" s="5">
+        <f t="shared" si="23"/>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="AB39" s="5">
+        <f t="shared" si="23"/>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="AC39" s="5">
+        <f t="shared" si="23"/>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="AD39" s="5">
+        <f t="shared" si="23"/>
+        <v>775.16307692307703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -8458,58 +8878,60 @@
         <f>52500/65</f>
         <v>807.69230769230774</v>
       </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40" t="s">
-        <v>195</v>
+      <c r="R40" t="str">
+        <f>R28</f>
+        <v>cap_cost_coal</v>
       </c>
       <c r="S40" s="5">
-        <f t="shared" ref="S40:AC40" si="17">S19</f>
-        <v>65.002501490990369</v>
+        <f t="shared" ref="S40:AD40" si="24">S28</f>
+        <v>976.42784318082204</v>
       </c>
       <c r="T40" s="5">
-        <f t="shared" si="17"/>
-        <v>65.002501490990369</v>
+        <f t="shared" si="24"/>
+        <v>1140</v>
       </c>
       <c r="U40" s="5">
-        <f t="shared" si="17"/>
-        <v>65.002501490990369</v>
+        <f t="shared" si="24"/>
+        <v>976.42784318082204</v>
       </c>
       <c r="V40" s="5">
-        <f t="shared" si="17"/>
-        <v>65.002501490990369</v>
+        <f t="shared" si="24"/>
+        <v>976.42784318082204</v>
       </c>
       <c r="W40" s="5">
-        <f t="shared" si="17"/>
-        <v>65.002501490990369</v>
+        <f t="shared" si="24"/>
+        <v>976.42784318082204</v>
       </c>
       <c r="X40" s="5">
-        <f t="shared" si="17"/>
-        <v>65.002501490990369</v>
+        <f t="shared" si="24"/>
+        <v>976.42784318082204</v>
       </c>
       <c r="Y40" s="5">
-        <f t="shared" si="17"/>
-        <v>65.002501490990369</v>
+        <f t="shared" si="24"/>
+        <v>976.42784318082204</v>
       </c>
       <c r="Z40" s="5">
-        <f t="shared" si="17"/>
-        <v>65.002501490990369</v>
+        <f t="shared" si="24"/>
+        <v>976.42784318082204</v>
       </c>
       <c r="AA40" s="5">
-        <f t="shared" si="17"/>
-        <v>65.002501490990369</v>
+        <f t="shared" si="24"/>
+        <v>976.42784318082204</v>
       </c>
       <c r="AB40" s="5">
-        <f t="shared" si="17"/>
-        <v>65.002501490990369</v>
+        <f t="shared" si="24"/>
+        <v>976.42784318082204</v>
       </c>
       <c r="AC40" s="5">
-        <f t="shared" si="17"/>
-        <v>65.002501490990369</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29">
+        <f t="shared" si="24"/>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="AD40" s="5">
+        <f t="shared" si="24"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -8529,58 +8951,8 @@
         <f>35860/65</f>
         <v>551.69230769230774</v>
       </c>
-      <c r="Q41">
-        <v>8760</v>
-      </c>
-      <c r="R41" t="s">
-        <v>195</v>
-      </c>
-      <c r="S41" s="5">
-        <f t="shared" ref="S41:AC41" si="18">S40+S20*$Q$41/1000</f>
-        <v>1177.2962457334145</v>
-      </c>
-      <c r="T41" s="5">
-        <f t="shared" si="18"/>
-        <v>1177.2962457334145</v>
-      </c>
-      <c r="U41" s="5">
-        <f t="shared" si="18"/>
-        <v>1177.2962457334145</v>
-      </c>
-      <c r="V41" s="5">
-        <f t="shared" si="18"/>
-        <v>1177.2962457334145</v>
-      </c>
-      <c r="W41" s="5">
-        <f t="shared" si="18"/>
-        <v>1177.2962457334145</v>
-      </c>
-      <c r="X41" s="5">
-        <f t="shared" si="18"/>
-        <v>1177.2962457334145</v>
-      </c>
-      <c r="Y41" s="5">
-        <f t="shared" si="18"/>
-        <v>1177.2962457334145</v>
-      </c>
-      <c r="Z41" s="5">
-        <f t="shared" si="18"/>
-        <v>1177.2962457334145</v>
-      </c>
-      <c r="AA41" s="5">
-        <f t="shared" si="18"/>
-        <v>1177.2962457334145</v>
-      </c>
-      <c r="AB41" s="5">
-        <f t="shared" si="18"/>
-        <v>1177.2962457334145</v>
-      </c>
-      <c r="AC41" s="5">
-        <f t="shared" si="18"/>
-        <v>1177.2962457334145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -8599,259 +8971,176 @@
       <c r="F42" t="s">
         <v>64</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42" t="s">
-        <v>196</v>
-      </c>
-      <c r="S42" s="5">
-        <f t="shared" ref="S42:AC42" si="19">S24</f>
-        <v>77.517144561131843</v>
-      </c>
-      <c r="T42" s="5">
-        <f t="shared" si="19"/>
-        <v>77.517144561131843</v>
-      </c>
-      <c r="U42" s="5">
-        <f t="shared" si="19"/>
-        <v>77.517144561131843</v>
-      </c>
-      <c r="V42" s="5">
-        <f t="shared" si="19"/>
-        <v>77.517144561131843</v>
-      </c>
-      <c r="W42" s="5">
-        <f t="shared" si="19"/>
-        <v>77.517144561131843</v>
-      </c>
-      <c r="X42" s="5">
-        <f t="shared" si="19"/>
-        <v>77.517144561131843</v>
-      </c>
-      <c r="Y42" s="5">
-        <f t="shared" si="19"/>
-        <v>77.517144561131843</v>
-      </c>
-      <c r="Z42" s="5">
-        <f t="shared" si="19"/>
-        <v>77.517144561131843</v>
-      </c>
-      <c r="AA42" s="5">
-        <f t="shared" si="19"/>
-        <v>77.517144561131843</v>
-      </c>
-      <c r="AB42" s="5">
-        <f t="shared" si="19"/>
-        <v>77.517144561131843</v>
-      </c>
-      <c r="AC42" s="5">
-        <f t="shared" si="19"/>
-        <v>77.517144561131843</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29">
+      <c r="R42" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="6">
-        <f t="shared" ref="B43:D45" si="20">B39*B$34*10^-3/$E$2</f>
+        <f t="shared" ref="B43:D45" si="25">B39*B$34*10^-3/$E$2</f>
         <v>1.0454948181818182E-3</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>7.2103090909090911E-4</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.22306893749999998</v>
       </c>
-      <c r="Q43">
-        <v>8760</v>
+      <c r="Q43" t="s">
+        <v>194</v>
       </c>
       <c r="R43" t="s">
-        <v>196</v>
-      </c>
-      <c r="S43" s="5">
-        <f t="shared" ref="S43:AC43" si="21">S42+S25*$Q$43/1000</f>
-        <v>821.56369225343963</v>
-      </c>
-      <c r="T43" s="5">
-        <f t="shared" si="21"/>
-        <v>821.56369225343963</v>
-      </c>
-      <c r="U43" s="5">
-        <f t="shared" si="21"/>
-        <v>821.56369225343963</v>
-      </c>
-      <c r="V43" s="5">
-        <f t="shared" si="21"/>
-        <v>821.56369225343963</v>
-      </c>
-      <c r="W43" s="5">
-        <f t="shared" si="21"/>
-        <v>821.56369225343963</v>
-      </c>
-      <c r="X43" s="5">
-        <f t="shared" si="21"/>
-        <v>821.56369225343963</v>
-      </c>
-      <c r="Y43" s="5">
-        <f t="shared" si="21"/>
-        <v>821.56369225343963</v>
-      </c>
-      <c r="Z43" s="5">
-        <f t="shared" si="21"/>
-        <v>821.56369225343963</v>
-      </c>
-      <c r="AA43" s="5">
-        <f t="shared" si="21"/>
-        <v>821.56369225343963</v>
-      </c>
-      <c r="AB43" s="5">
-        <f t="shared" si="21"/>
-        <v>821.56369225343963</v>
-      </c>
-      <c r="AC43" s="5">
-        <f t="shared" si="21"/>
-        <v>821.56369225343963</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17250664499999999</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>2.6317628181818178E-2</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.20278994318181817</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="S44" s="5">
-        <f t="shared" ref="S44:AC44" si="22">S30</f>
-        <v>125.88777825200532</v>
+        <f>S19</f>
+        <v>65.002501490990369</v>
       </c>
       <c r="T44" s="5">
-        <f t="shared" si="22"/>
-        <v>139.92398963155881</v>
+        <f>T19</f>
+        <v>65.002501490990369</v>
       </c>
       <c r="U44" s="5">
-        <f t="shared" si="22"/>
-        <v>125.88777825200532</v>
+        <f>U19</f>
+        <v>65.002501490990369</v>
       </c>
       <c r="V44" s="5">
-        <f t="shared" si="22"/>
-        <v>125.88777825200532</v>
+        <f>V19</f>
+        <v>65.002501490990369</v>
       </c>
       <c r="W44" s="5">
-        <f t="shared" si="22"/>
-        <v>125.88777825200532</v>
+        <f>W19</f>
+        <v>65.002501490990369</v>
       </c>
       <c r="X44" s="5">
-        <f t="shared" si="22"/>
-        <v>125.88777825200532</v>
+        <f>X19</f>
+        <v>65.002501490990369</v>
       </c>
       <c r="Y44" s="5">
-        <f t="shared" si="22"/>
-        <v>125.88777825200532</v>
+        <f>Y19</f>
+        <v>65.002501490990369</v>
       </c>
       <c r="Z44" s="5">
-        <f t="shared" si="22"/>
-        <v>125.88777825200532</v>
+        <f>Z19</f>
+        <v>65.002501490990369</v>
       </c>
       <c r="AA44" s="5">
-        <f t="shared" si="22"/>
-        <v>125.88777825200532</v>
+        <f>AA19</f>
+        <v>65.002501490990369</v>
       </c>
       <c r="AB44" s="5">
-        <f t="shared" si="22"/>
-        <v>125.88777825200532</v>
+        <f>AB19</f>
+        <v>65.002501490990369</v>
       </c>
       <c r="AC44" s="5">
-        <f t="shared" si="22"/>
-        <v>125.88777825200532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
+        <f>AC19</f>
+        <v>65.002501490990369</v>
+      </c>
+      <c r="AD44" s="5">
+        <f>AD19</f>
+        <v>65.002501490990369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
         <v>24</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>3.1364844545454539E-2</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>2.0909896363636361E-2</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>4.4613787499999995E-2</v>
       </c>
       <c r="Q45">
         <v>8760</v>
       </c>
       <c r="R45" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="S45" s="5">
-        <f t="shared" ref="S45:AC45" si="23">S44+S31*$Q$45/1000</f>
-        <v>410.29526277841552</v>
+        <f>S44+S20*$Q$45/1000</f>
+        <v>1177.2962457334145</v>
       </c>
       <c r="T45" s="5">
-        <f t="shared" si="23"/>
-        <v>542.03413077339212</v>
+        <f>T44+T20*$Q$45/1000</f>
+        <v>1177.2962457334145</v>
       </c>
       <c r="U45" s="5">
-        <f t="shared" si="23"/>
-        <v>410.29526277841552</v>
+        <f>U44+U20*$Q$45/1000</f>
+        <v>1177.2962457334145</v>
       </c>
       <c r="V45" s="5">
-        <f t="shared" si="23"/>
-        <v>410.29526277841552</v>
+        <f>V44+V20*$Q$45/1000</f>
+        <v>1177.2962457334145</v>
       </c>
       <c r="W45" s="5">
-        <f t="shared" si="23"/>
-        <v>410.29526277841552</v>
+        <f>W44+W20*$Q$45/1000</f>
+        <v>1177.2962457334145</v>
       </c>
       <c r="X45" s="5">
-        <f t="shared" si="23"/>
-        <v>410.29526277841552</v>
+        <f>X44+X20*$Q$45/1000</f>
+        <v>1177.2962457334145</v>
       </c>
       <c r="Y45" s="5">
-        <f t="shared" si="23"/>
-        <v>410.29526277841552</v>
+        <f>Y44+Y20*$Q$45/1000</f>
+        <v>1177.2962457334145</v>
       </c>
       <c r="Z45" s="5">
-        <f t="shared" si="23"/>
-        <v>410.29526277841552</v>
+        <f>Z44+Z20*$Q$45/1000</f>
+        <v>1177.2962457334145</v>
       </c>
       <c r="AA45" s="5">
-        <f t="shared" si="23"/>
-        <v>410.29526277841552</v>
+        <f>AA44+AA20*$Q$45/1000</f>
+        <v>1177.2962457334145</v>
       </c>
       <c r="AB45" s="5">
-        <f t="shared" si="23"/>
-        <v>410.29526277841552</v>
+        <f>AB44+AB20*$Q$45/1000</f>
+        <v>1177.2962457334145</v>
       </c>
       <c r="AC45" s="5">
-        <f t="shared" si="23"/>
-        <v>410.29526277841552</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29">
+        <f>AC44+AC20*$Q$45/1000</f>
+        <v>1177.2962457334145</v>
+      </c>
+      <c r="AD45" s="5">
+        <f>AD44+AD20*$Q$45/1000</f>
+        <v>1177.2962457334145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -8867,16 +9156,118 @@
       <c r="E46" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="47" spans="1:29">
-      <c r="Q47" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="R47" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>196</v>
+      </c>
+      <c r="S46" s="5">
+        <f>S24</f>
+        <v>77.517144561131843</v>
+      </c>
+      <c r="T46" s="5">
+        <f>T24</f>
+        <v>77.517144561131843</v>
+      </c>
+      <c r="U46" s="5">
+        <f>U24</f>
+        <v>77.517144561131843</v>
+      </c>
+      <c r="V46" s="5">
+        <f>V24</f>
+        <v>77.517144561131843</v>
+      </c>
+      <c r="W46" s="5">
+        <f>W24</f>
+        <v>77.517144561131843</v>
+      </c>
+      <c r="X46" s="5">
+        <f>X24</f>
+        <v>77.517144561131843</v>
+      </c>
+      <c r="Y46" s="5">
+        <f>Y24</f>
+        <v>77.517144561131843</v>
+      </c>
+      <c r="Z46" s="5">
+        <f>Z24</f>
+        <v>77.517144561131843</v>
+      </c>
+      <c r="AA46" s="5">
+        <f>AA24</f>
+        <v>77.517144561131843</v>
+      </c>
+      <c r="AB46" s="5">
+        <f>AB24</f>
+        <v>77.517144561131843</v>
+      </c>
+      <c r="AC46" s="5">
+        <f>AC24</f>
+        <v>77.517144561131843</v>
+      </c>
+      <c r="AD46" s="5">
+        <f>AD24</f>
+        <v>77.517144561131843</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="Q47">
+        <v>8760</v>
+      </c>
+      <c r="R47" t="s">
+        <v>196</v>
+      </c>
+      <c r="S47" s="5">
+        <f>S46+S25*$Q$47/1000</f>
+        <v>821.56369225343963</v>
+      </c>
+      <c r="T47" s="5">
+        <f>T46+T25*$Q$47/1000</f>
+        <v>821.56369225343963</v>
+      </c>
+      <c r="U47" s="5">
+        <f>U46+U25*$Q$47/1000</f>
+        <v>821.56369225343963</v>
+      </c>
+      <c r="V47" s="5">
+        <f>V46+V25*$Q$47/1000</f>
+        <v>821.56369225343963</v>
+      </c>
+      <c r="W47" s="5">
+        <f>W46+W25*$Q$47/1000</f>
+        <v>821.56369225343963</v>
+      </c>
+      <c r="X47" s="5">
+        <f>X46+X25*$Q$47/1000</f>
+        <v>821.56369225343963</v>
+      </c>
+      <c r="Y47" s="5">
+        <f>Y46+Y25*$Q$47/1000</f>
+        <v>821.56369225343963</v>
+      </c>
+      <c r="Z47" s="5">
+        <f>Z46+Z25*$Q$47/1000</f>
+        <v>821.56369225343963</v>
+      </c>
+      <c r="AA47" s="5">
+        <f>AA46+AA25*$Q$47/1000</f>
+        <v>821.56369225343963</v>
+      </c>
+      <c r="AB47" s="5">
+        <f>AB46+AB25*$Q$47/1000</f>
+        <v>821.56369225343963</v>
+      </c>
+      <c r="AC47" s="5">
+        <f>AC46+AC25*$Q$47/1000</f>
+        <v>821.56369225343963</v>
+      </c>
+      <c r="AD47" s="5">
+        <f>AD46+AD25*$Q$47/1000</f>
+        <v>821.56369225343963</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -8894,58 +9285,62 @@
       <c r="E48" t="s">
         <v>139</v>
       </c>
-      <c r="Q48" t="s">
-        <v>198</v>
+      <c r="Q48">
+        <v>0</v>
       </c>
       <c r="R48" t="s">
-        <v>193</v>
-      </c>
-      <c r="S48" t="str">
-        <f>S9</f>
-        <v>coallc</v>
-      </c>
-      <c r="T48" t="str">
-        <f t="shared" ref="T48:AC48" si="24">T9</f>
-        <v>coalhc</v>
-      </c>
-      <c r="U48" t="str">
-        <f t="shared" si="24"/>
-        <v>coallcW10lc</v>
-      </c>
-      <c r="V48" t="str">
-        <f t="shared" si="24"/>
-        <v>coallcW20lc</v>
-      </c>
-      <c r="W48" t="str">
-        <f t="shared" si="24"/>
-        <v>coallcW30lc</v>
-      </c>
-      <c r="X48" t="str">
-        <f t="shared" si="24"/>
-        <v>coallcS10lc</v>
-      </c>
-      <c r="Y48" t="str">
-        <f t="shared" si="24"/>
-        <v>coallcS20lc</v>
-      </c>
-      <c r="Z48" t="str">
-        <f t="shared" si="24"/>
-        <v>coallcS30lc</v>
-      </c>
-      <c r="AA48" t="str">
-        <f t="shared" si="24"/>
-        <v>coallcW30lcS30lc</v>
-      </c>
-      <c r="AB48" t="str">
-        <f t="shared" si="24"/>
-        <v>coallcB25lc</v>
-      </c>
-      <c r="AC48" t="str">
-        <f t="shared" si="24"/>
-        <v>coallcB50lc</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29">
+        <v>3</v>
+      </c>
+      <c r="S48" s="5">
+        <f>S30</f>
+        <v>125.88777825200532</v>
+      </c>
+      <c r="T48" s="5">
+        <f>T30</f>
+        <v>139.92398963155881</v>
+      </c>
+      <c r="U48" s="5">
+        <f>U30</f>
+        <v>125.88777825200532</v>
+      </c>
+      <c r="V48" s="5">
+        <f>V30</f>
+        <v>125.88777825200532</v>
+      </c>
+      <c r="W48" s="5">
+        <f>W30</f>
+        <v>125.88777825200532</v>
+      </c>
+      <c r="X48" s="5">
+        <f>X30</f>
+        <v>125.88777825200532</v>
+      </c>
+      <c r="Y48" s="5">
+        <f>Y30</f>
+        <v>125.88777825200532</v>
+      </c>
+      <c r="Z48" s="5">
+        <f>Z30</f>
+        <v>125.88777825200532</v>
+      </c>
+      <c r="AA48" s="5">
+        <f>AA30</f>
+        <v>125.88777825200532</v>
+      </c>
+      <c r="AB48" s="5">
+        <f>AB30</f>
+        <v>125.88777825200532</v>
+      </c>
+      <c r="AC48" s="5">
+        <f>AC30</f>
+        <v>125.88777825200532</v>
+      </c>
+      <c r="AD48" s="5">
+        <f>AD30</f>
+        <v>139.92398963155881</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -8961,58 +9356,62 @@
       <c r="E49" t="s">
         <v>42</v>
       </c>
-      <c r="Q49" t="s">
-        <v>203</v>
+      <c r="Q49">
+        <v>8760</v>
       </c>
       <c r="R49" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" ref="S49:AC49" si="25">S17</f>
-        <v>678.26769230769241</v>
+        <f>S48+S31*$Q$49/1000</f>
+        <v>410.29526277841552</v>
       </c>
       <c r="T49" s="5">
-        <f t="shared" si="25"/>
-        <v>678.26769230769241</v>
+        <f>T48+T31*$Q$49/1000</f>
+        <v>542.03413077339212</v>
       </c>
       <c r="U49" s="5">
-        <f t="shared" si="25"/>
-        <v>678.26769230769241</v>
+        <f>U48+U31*$Q$49/1000</f>
+        <v>410.29526277841552</v>
       </c>
       <c r="V49" s="5">
-        <f t="shared" si="25"/>
-        <v>678.26769230769241</v>
+        <f>V48+V31*$Q$49/1000</f>
+        <v>410.29526277841552</v>
       </c>
       <c r="W49" s="5">
-        <f t="shared" si="25"/>
-        <v>678.26769230769241</v>
+        <f>W48+W31*$Q$49/1000</f>
+        <v>410.29526277841552</v>
       </c>
       <c r="X49" s="5">
-        <f t="shared" si="25"/>
-        <v>678.26769230769241</v>
+        <f>X48+X31*$Q$49/1000</f>
+        <v>410.29526277841552</v>
       </c>
       <c r="Y49" s="5">
-        <f t="shared" si="25"/>
-        <v>678.26769230769241</v>
+        <f>Y48+Y31*$Q$49/1000</f>
+        <v>410.29526277841552</v>
       </c>
       <c r="Z49" s="5">
-        <f t="shared" si="25"/>
-        <v>678.26769230769241</v>
+        <f>Z48+Z31*$Q$49/1000</f>
+        <v>410.29526277841552</v>
       </c>
       <c r="AA49" s="5">
-        <f t="shared" si="25"/>
-        <v>678.26769230769241</v>
+        <f>AA48+AA31*$Q$49/1000</f>
+        <v>410.29526277841552</v>
       </c>
       <c r="AB49" s="5">
-        <f t="shared" si="25"/>
-        <v>678.26769230769241</v>
+        <f>AB48+AB31*$Q$49/1000</f>
+        <v>410.29526277841552</v>
       </c>
       <c r="AC49" s="5">
-        <f t="shared" si="25"/>
-        <v>678.26769230769241</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" ht="15">
+        <f>AC48+AC31*$Q$49/1000</f>
+        <v>410.29526277841552</v>
+      </c>
+      <c r="AD49" s="5">
+        <f>AD48+AD31*$Q$49/1000</f>
+        <v>542.03413077339212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="15">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -9028,58 +9427,8 @@
         <f>(D48*(1+D48)^D49)/(((1+D48)^D49)-1)</f>
         <v>8.5810517220665614E-2</v>
       </c>
-      <c r="Q50" t="s">
-        <v>204</v>
-      </c>
-      <c r="R50" t="s">
-        <v>199</v>
-      </c>
-      <c r="S50" s="4">
-        <f t="shared" ref="S50:AC50" si="26">$B$32</f>
-        <v>6.8</v>
-      </c>
-      <c r="T50" s="4">
-        <f t="shared" si="26"/>
-        <v>6.8</v>
-      </c>
-      <c r="U50" s="4">
-        <f t="shared" si="26"/>
-        <v>6.8</v>
-      </c>
-      <c r="V50" s="4">
-        <f t="shared" si="26"/>
-        <v>6.8</v>
-      </c>
-      <c r="W50" s="4">
-        <f t="shared" si="26"/>
-        <v>6.8</v>
-      </c>
-      <c r="X50" s="4">
-        <f t="shared" si="26"/>
-        <v>6.8</v>
-      </c>
-      <c r="Y50" s="4">
-        <f t="shared" si="26"/>
-        <v>6.8</v>
-      </c>
-      <c r="Z50" s="4">
-        <f t="shared" si="26"/>
-        <v>6.8</v>
-      </c>
-      <c r="AA50" s="4">
-        <f t="shared" si="26"/>
-        <v>6.8</v>
-      </c>
-      <c r="AB50" s="4">
-        <f t="shared" si="26"/>
-        <v>6.8</v>
-      </c>
-      <c r="AC50" s="4">
-        <f t="shared" si="26"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29">
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -9095,58 +9444,14 @@
         <f>D31*D50+D32</f>
         <v>125.88777825200532</v>
       </c>
-      <c r="Q51" t="s">
-        <v>203</v>
-      </c>
-      <c r="R51" t="s">
-        <v>200</v>
-      </c>
-      <c r="S51" s="5">
-        <f t="shared" ref="S51:AC51" si="27">S23</f>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="T51" s="5">
-        <f t="shared" si="27"/>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="U51" s="5">
-        <f t="shared" si="27"/>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="V51" s="5">
-        <f t="shared" si="27"/>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="W51" s="5">
-        <f t="shared" si="27"/>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="X51" s="5">
-        <f t="shared" si="27"/>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="Y51" s="5">
-        <f t="shared" si="27"/>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="Z51" s="5">
-        <f t="shared" si="27"/>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="AA51" s="5">
-        <f t="shared" si="27"/>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="AB51" s="5">
-        <f t="shared" si="27"/>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="AC51" s="5">
-        <f t="shared" si="27"/>
-        <v>775.16307692307703</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29">
+      <c r="Q51" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -9178,57 +9483,61 @@
         <v>7540.4286084665873</v>
       </c>
       <c r="Q52" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="R52" t="s">
-        <v>200</v>
-      </c>
-      <c r="S52" s="4">
-        <f t="shared" ref="S52:AC52" si="28">$C$32</f>
-        <v>11</v>
-      </c>
-      <c r="T52" s="4">
-        <f t="shared" si="28"/>
-        <v>11</v>
-      </c>
-      <c r="U52" s="4">
-        <f t="shared" si="28"/>
-        <v>11</v>
-      </c>
-      <c r="V52" s="4">
-        <f t="shared" si="28"/>
-        <v>11</v>
-      </c>
-      <c r="W52" s="4">
-        <f t="shared" si="28"/>
-        <v>11</v>
-      </c>
-      <c r="X52" s="4">
-        <f t="shared" si="28"/>
-        <v>11</v>
-      </c>
-      <c r="Y52" s="4">
-        <f t="shared" si="28"/>
-        <v>11</v>
-      </c>
-      <c r="Z52" s="4">
-        <f t="shared" si="28"/>
-        <v>11</v>
-      </c>
-      <c r="AA52" s="4">
-        <f t="shared" si="28"/>
-        <v>11</v>
-      </c>
-      <c r="AB52" s="4">
-        <f t="shared" si="28"/>
-        <v>11</v>
-      </c>
-      <c r="AC52" s="4">
-        <f t="shared" si="28"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29">
+        <v>193</v>
+      </c>
+      <c r="S52" t="str">
+        <f>S9</f>
+        <v>coallc</v>
+      </c>
+      <c r="T52" t="str">
+        <f>T9</f>
+        <v>coalhc</v>
+      </c>
+      <c r="U52" t="str">
+        <f>U9</f>
+        <v>coallcW10lc</v>
+      </c>
+      <c r="V52" t="str">
+        <f>V9</f>
+        <v>coallcW20lc</v>
+      </c>
+      <c r="W52" t="str">
+        <f>W9</f>
+        <v>coallcW30lc</v>
+      </c>
+      <c r="X52" t="str">
+        <f>X9</f>
+        <v>coallcS10lc</v>
+      </c>
+      <c r="Y52" t="str">
+        <f>Y9</f>
+        <v>coallcS20lc</v>
+      </c>
+      <c r="Z52" t="str">
+        <f>Z9</f>
+        <v>coallcS30lc</v>
+      </c>
+      <c r="AA52" t="str">
+        <f>AA9</f>
+        <v>coallcW30lcS30lc</v>
+      </c>
+      <c r="AB52" t="str">
+        <f>AB9</f>
+        <v>coallcB25lc</v>
+      </c>
+      <c r="AC52" t="str">
+        <f>AC9</f>
+        <v>coallcB50lc</v>
+      </c>
+      <c r="AD52" t="str">
+        <f>AD9</f>
+        <v>coalhcW30lcS30lc</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -9257,54 +9566,58 @@
         <v>203</v>
       </c>
       <c r="R53" t="s">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c r="S53" s="5">
-        <f t="shared" ref="S53:AC53" si="29">S28</f>
-        <v>976.42784318082204</v>
+        <f>S17</f>
+        <v>678.26769230769241</v>
       </c>
       <c r="T53" s="5">
-        <f t="shared" si="29"/>
-        <v>1140</v>
+        <f>T17</f>
+        <v>678.26769230769241</v>
       </c>
       <c r="U53" s="5">
-        <f t="shared" si="29"/>
-        <v>976.42784318082204</v>
+        <f>U17</f>
+        <v>678.26769230769241</v>
       </c>
       <c r="V53" s="5">
-        <f t="shared" si="29"/>
-        <v>976.42784318082204</v>
+        <f>V17</f>
+        <v>678.26769230769241</v>
       </c>
       <c r="W53" s="5">
-        <f t="shared" si="29"/>
-        <v>976.42784318082204</v>
+        <f>W17</f>
+        <v>678.26769230769241</v>
       </c>
       <c r="X53" s="5">
-        <f t="shared" si="29"/>
-        <v>976.42784318082204</v>
+        <f>X17</f>
+        <v>678.26769230769241</v>
       </c>
       <c r="Y53" s="5">
-        <f t="shared" si="29"/>
-        <v>976.42784318082204</v>
+        <f>Y17</f>
+        <v>678.26769230769241</v>
       </c>
       <c r="Z53" s="5">
-        <f t="shared" si="29"/>
-        <v>976.42784318082204</v>
+        <f>Z17</f>
+        <v>678.26769230769241</v>
       </c>
       <c r="AA53" s="5">
-        <f t="shared" si="29"/>
-        <v>976.42784318082204</v>
+        <f>AA17</f>
+        <v>678.26769230769241</v>
       </c>
       <c r="AB53" s="5">
-        <f t="shared" si="29"/>
-        <v>976.42784318082204</v>
+        <f>AB17</f>
+        <v>678.26769230769241</v>
       </c>
       <c r="AC53" s="5">
-        <f t="shared" si="29"/>
-        <v>976.42784318082204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29">
+        <f>AC17</f>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="AD53" s="5">
+        <f>AD17</f>
+        <v>678.26769230769241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -9339,54 +9652,58 @@
         <v>204</v>
       </c>
       <c r="R54" t="s">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c r="S54" s="4">
-        <f t="shared" ref="S54:AC54" si="30">$D$32</f>
-        <v>42.1</v>
+        <f t="shared" ref="S54:AD54" si="26">$B$32</f>
+        <v>6.8</v>
       </c>
       <c r="T54" s="4">
-        <f t="shared" si="30"/>
-        <v>42.1</v>
+        <f t="shared" si="26"/>
+        <v>6.8</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="30"/>
-        <v>42.1</v>
+        <f t="shared" si="26"/>
+        <v>6.8</v>
       </c>
       <c r="V54" s="4">
-        <f t="shared" si="30"/>
-        <v>42.1</v>
+        <f t="shared" si="26"/>
+        <v>6.8</v>
       </c>
       <c r="W54" s="4">
-        <f t="shared" si="30"/>
-        <v>42.1</v>
+        <f t="shared" si="26"/>
+        <v>6.8</v>
       </c>
       <c r="X54" s="4">
-        <f t="shared" si="30"/>
-        <v>42.1</v>
+        <f t="shared" si="26"/>
+        <v>6.8</v>
       </c>
       <c r="Y54" s="4">
-        <f t="shared" si="30"/>
-        <v>42.1</v>
+        <f t="shared" si="26"/>
+        <v>6.8</v>
       </c>
       <c r="Z54" s="4">
-        <f t="shared" si="30"/>
-        <v>42.1</v>
+        <f t="shared" si="26"/>
+        <v>6.8</v>
       </c>
       <c r="AA54" s="4">
-        <f t="shared" si="30"/>
-        <v>42.1</v>
+        <f t="shared" si="26"/>
+        <v>6.8</v>
       </c>
       <c r="AB54" s="4">
-        <f t="shared" si="30"/>
-        <v>42.1</v>
+        <f t="shared" si="26"/>
+        <v>6.8</v>
       </c>
       <c r="AC54" s="4">
-        <f t="shared" si="30"/>
-        <v>42.1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29">
+        <f t="shared" si="26"/>
+        <v>6.8</v>
+      </c>
+      <c r="AD54" s="4">
+        <f t="shared" si="26"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
         <v>190</v>
       </c>
@@ -9417,54 +9734,58 @@
         <v>203</v>
       </c>
       <c r="R55" t="s">
-        <v>201</v>
-      </c>
-      <c r="S55">
-        <f t="shared" ref="S55:AC55" si="31">INDEX($AD$4:$AF$7, MATCH(S11,$AD$4:$AD$7,0), 2)</f>
-        <v>1100</v>
-      </c>
-      <c r="T55">
-        <f t="shared" si="31"/>
-        <v>1100</v>
-      </c>
-      <c r="U55">
-        <f t="shared" si="31"/>
-        <v>990</v>
-      </c>
-      <c r="V55">
-        <f t="shared" si="31"/>
-        <v>880</v>
-      </c>
-      <c r="W55">
-        <f t="shared" si="31"/>
-        <v>770</v>
-      </c>
-      <c r="X55">
-        <f t="shared" si="31"/>
-        <v>1100</v>
-      </c>
-      <c r="Y55">
-        <f t="shared" si="31"/>
-        <v>1100</v>
-      </c>
-      <c r="Z55">
-        <f t="shared" si="31"/>
-        <v>1100</v>
-      </c>
-      <c r="AA55">
-        <f t="shared" si="31"/>
-        <v>770</v>
-      </c>
-      <c r="AB55">
-        <f t="shared" si="31"/>
-        <v>1100</v>
-      </c>
-      <c r="AC55">
-        <f t="shared" si="31"/>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29">
+        <v>200</v>
+      </c>
+      <c r="S55" s="5">
+        <f>S23</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="T55" s="5">
+        <f>T23</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="U55" s="5">
+        <f>U23</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="V55" s="5">
+        <f>V23</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="W55" s="5">
+        <f>W23</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="X55" s="5">
+        <f>X23</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="Y55" s="5">
+        <f>Y23</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="Z55" s="5">
+        <f>Z23</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="AA55" s="5">
+        <f>AA23</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="AB55" s="5">
+        <f>AB23</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="AC55" s="5">
+        <f>AC23</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="AD55" s="5">
+        <f>AD23</f>
+        <v>775.16307692307703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -9476,160 +9797,172 @@
         <v>204</v>
       </c>
       <c r="R56" t="s">
-        <v>201</v>
-      </c>
-      <c r="S56">
-        <f t="shared" ref="S56:AC56" si="32">INDEX($AD$4:$AF$7, MATCH(S11,$AD$4:$AD$7,0), 3)</f>
-        <v>15</v>
-      </c>
-      <c r="T56">
-        <f t="shared" si="32"/>
-        <v>15</v>
-      </c>
-      <c r="U56">
-        <f t="shared" si="32"/>
-        <v>15</v>
-      </c>
-      <c r="V56">
-        <f t="shared" si="32"/>
-        <v>15</v>
-      </c>
-      <c r="W56">
-        <f t="shared" si="32"/>
-        <v>15</v>
-      </c>
-      <c r="X56">
-        <f t="shared" si="32"/>
-        <v>15</v>
-      </c>
-      <c r="Y56">
-        <f t="shared" si="32"/>
-        <v>15</v>
-      </c>
-      <c r="Z56">
-        <f t="shared" si="32"/>
-        <v>15</v>
-      </c>
-      <c r="AA56">
-        <f t="shared" si="32"/>
-        <v>15</v>
-      </c>
-      <c r="AB56">
-        <f t="shared" si="32"/>
-        <v>15</v>
-      </c>
-      <c r="AC56">
-        <f t="shared" si="32"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29">
+        <v>200</v>
+      </c>
+      <c r="S56" s="4">
+        <f t="shared" ref="S56:AD56" si="27">$C$32</f>
+        <v>11</v>
+      </c>
+      <c r="T56" s="4">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="U56" s="4">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="V56" s="4">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="W56" s="4">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="X56" s="4">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="Y56" s="4">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="Z56" s="4">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="AA56" s="4">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="AB56" s="4">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="AC56" s="4">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="AD56" s="4">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="B57" s="12"/>
       <c r="Q57" t="s">
         <v>203</v>
       </c>
       <c r="R57" t="s">
-        <v>202</v>
-      </c>
-      <c r="S57">
-        <f t="shared" ref="S57:AC57" si="33">INDEX($AG$4:$AI$7, MATCH(S12,$AG$4:$AG$7,0), 2)</f>
-        <v>800</v>
-      </c>
-      <c r="T57">
-        <f t="shared" si="33"/>
-        <v>800</v>
-      </c>
-      <c r="U57">
-        <f t="shared" si="33"/>
-        <v>800</v>
-      </c>
-      <c r="V57">
-        <f t="shared" si="33"/>
-        <v>800</v>
-      </c>
-      <c r="W57">
-        <f t="shared" si="33"/>
-        <v>800</v>
-      </c>
-      <c r="X57">
-        <f t="shared" si="33"/>
-        <v>720</v>
-      </c>
-      <c r="Y57">
-        <f t="shared" si="33"/>
-        <v>640</v>
-      </c>
-      <c r="Z57">
-        <f t="shared" si="33"/>
-        <v>560</v>
-      </c>
-      <c r="AA57">
-        <f t="shared" si="33"/>
-        <v>560</v>
-      </c>
-      <c r="AB57">
-        <f t="shared" si="33"/>
-        <v>800</v>
-      </c>
-      <c r="AC57">
-        <f t="shared" si="33"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29">
+        <v>57</v>
+      </c>
+      <c r="S57" s="5">
+        <f>S28</f>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="T57" s="5">
+        <f>T28</f>
+        <v>1140</v>
+      </c>
+      <c r="U57" s="5">
+        <f>U28</f>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="V57" s="5">
+        <f>V28</f>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="W57" s="5">
+        <f>W28</f>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="X57" s="5">
+        <f>X28</f>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="Y57" s="5">
+        <f>Y28</f>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="Z57" s="5">
+        <f>Z28</f>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="AA57" s="5">
+        <f>AA28</f>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="AB57" s="5">
+        <f>AB28</f>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="AC57" s="5">
+        <f>AC28</f>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="AD57" s="5">
+        <f>AD28</f>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="B58" s="12"/>
       <c r="Q58" t="s">
         <v>204</v>
       </c>
       <c r="R58" t="s">
-        <v>202</v>
-      </c>
-      <c r="S58">
-        <f t="shared" ref="S58:AC58" si="34">INDEX($AG$4:$AI$7, MATCH(S12,$AG$4:$AG$7,0), 3)</f>
-        <v>10</v>
-      </c>
-      <c r="T58">
-        <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="U58">
-        <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="V58">
-        <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="W58">
-        <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="X58">
-        <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="Y58">
-        <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="Z58">
-        <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="AA58">
-        <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="AB58">
-        <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="AC58">
-        <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29">
+        <v>57</v>
+      </c>
+      <c r="S58" s="4">
+        <f t="shared" ref="S58:AD58" si="28">$D$32</f>
+        <v>42.1</v>
+      </c>
+      <c r="T58" s="4">
+        <f t="shared" si="28"/>
+        <v>42.1</v>
+      </c>
+      <c r="U58" s="4">
+        <f t="shared" si="28"/>
+        <v>42.1</v>
+      </c>
+      <c r="V58" s="4">
+        <f t="shared" si="28"/>
+        <v>42.1</v>
+      </c>
+      <c r="W58" s="4">
+        <f t="shared" si="28"/>
+        <v>42.1</v>
+      </c>
+      <c r="X58" s="4">
+        <f t="shared" si="28"/>
+        <v>42.1</v>
+      </c>
+      <c r="Y58" s="4">
+        <f t="shared" si="28"/>
+        <v>42.1</v>
+      </c>
+      <c r="Z58" s="4">
+        <f t="shared" si="28"/>
+        <v>42.1</v>
+      </c>
+      <c r="AA58" s="4">
+        <f t="shared" si="28"/>
+        <v>42.1</v>
+      </c>
+      <c r="AB58" s="4">
+        <f t="shared" si="28"/>
+        <v>42.1</v>
+      </c>
+      <c r="AC58" s="4">
+        <f t="shared" si="28"/>
+        <v>42.1</v>
+      </c>
+      <c r="AD58" s="4">
+        <f t="shared" si="28"/>
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" s="7" t="s">
         <v>149</v>
       </c>
@@ -9637,54 +9970,58 @@
         <v>203</v>
       </c>
       <c r="R59" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="S59">
-        <f t="shared" ref="S59:AC59" si="35">INDEX($AJ$4:$AL$7, MATCH(S13,$AJ$4:$AJ$7,0), 2)</f>
-        <v>2800</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(S11,$AD$4:$AD$7,0), 2)</f>
+        <v>1100</v>
       </c>
       <c r="T59">
-        <f t="shared" si="35"/>
-        <v>2800</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(T11,$AD$4:$AD$7,0), 2)</f>
+        <v>1100</v>
       </c>
       <c r="U59">
-        <f t="shared" si="35"/>
-        <v>2800</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(U11,$AD$4:$AD$7,0), 2)</f>
+        <v>990</v>
       </c>
       <c r="V59">
-        <f t="shared" si="35"/>
-        <v>2800</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(V11,$AD$4:$AD$7,0), 2)</f>
+        <v>880</v>
       </c>
       <c r="W59">
-        <f t="shared" si="35"/>
-        <v>2800</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(W11,$AD$4:$AD$7,0), 2)</f>
+        <v>770</v>
       </c>
       <c r="X59">
-        <f t="shared" si="35"/>
-        <v>2800</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(X11,$AD$4:$AD$7,0), 2)</f>
+        <v>1100</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="35"/>
-        <v>2800</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(Y11,$AD$4:$AD$7,0), 2)</f>
+        <v>1100</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="35"/>
-        <v>2800</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(Z11,$AD$4:$AD$7,0), 2)</f>
+        <v>1100</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="35"/>
-        <v>2800</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(AA11,$AD$4:$AD$7,0), 2)</f>
+        <v>770</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="35"/>
-        <v>2100</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(AB11,$AD$4:$AD$7,0), 2)</f>
+        <v>1100</v>
       </c>
       <c r="AC59">
-        <f t="shared" si="35"/>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29">
+        <f>INDEX($AD$4:$AF$7, MATCH(AC11,$AD$4:$AD$7,0), 2)</f>
+        <v>1100</v>
+      </c>
+      <c r="AD59">
+        <f>INDEX($AD$4:$AF$7, MATCH(AD11,$AD$4:$AD$7,0), 2)</f>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
         <v>147</v>
       </c>
@@ -9692,54 +10029,58 @@
         <v>204</v>
       </c>
       <c r="R60" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="S60">
-        <f t="shared" ref="S60:AC60" si="36">INDEX($AJ$4:$AL$7, MATCH(S13,$AJ$4:$AJ$7,0), 3)</f>
-        <v>24</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(S11,$AD$4:$AD$7,0), 3)</f>
+        <v>15</v>
       </c>
       <c r="T60">
-        <f t="shared" si="36"/>
-        <v>24</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(T11,$AD$4:$AD$7,0), 3)</f>
+        <v>15</v>
       </c>
       <c r="U60">
-        <f t="shared" si="36"/>
-        <v>24</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(U11,$AD$4:$AD$7,0), 3)</f>
+        <v>15</v>
       </c>
       <c r="V60">
-        <f t="shared" si="36"/>
-        <v>24</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(V11,$AD$4:$AD$7,0), 3)</f>
+        <v>15</v>
       </c>
       <c r="W60">
-        <f t="shared" si="36"/>
-        <v>24</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(W11,$AD$4:$AD$7,0), 3)</f>
+        <v>15</v>
       </c>
       <c r="X60">
-        <f t="shared" si="36"/>
-        <v>24</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(X11,$AD$4:$AD$7,0), 3)</f>
+        <v>15</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="36"/>
-        <v>24</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(Y11,$AD$4:$AD$7,0), 3)</f>
+        <v>15</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="36"/>
-        <v>24</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(Z11,$AD$4:$AD$7,0), 3)</f>
+        <v>15</v>
       </c>
       <c r="AA60">
-        <f t="shared" si="36"/>
-        <v>24</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(AA11,$AD$4:$AD$7,0), 3)</f>
+        <v>15</v>
       </c>
       <c r="AB60">
-        <f t="shared" si="36"/>
-        <v>18</v>
+        <f>INDEX($AD$4:$AF$7, MATCH(AB11,$AD$4:$AD$7,0), 3)</f>
+        <v>15</v>
       </c>
       <c r="AC60">
-        <f t="shared" si="36"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29">
+        <f>INDEX($AD$4:$AF$7, MATCH(AC11,$AD$4:$AD$7,0), 3)</f>
+        <v>15</v>
+      </c>
+      <c r="AD60">
+        <f>INDEX($AD$4:$AF$7, MATCH(AD11,$AD$4:$AD$7,0), 3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61">
         <v>0</v>
       </c>
@@ -9755,8 +10096,62 @@
         <f>D51</f>
         <v>125.88777825200532</v>
       </c>
-    </row>
-    <row r="62" spans="1:29">
+      <c r="Q61" t="s">
+        <v>203</v>
+      </c>
+      <c r="R61" t="s">
+        <v>202</v>
+      </c>
+      <c r="S61">
+        <f>INDEX($AG$4:$AI$7, MATCH(S12,$AG$4:$AG$7,0), 2)</f>
+        <v>800</v>
+      </c>
+      <c r="T61">
+        <f>INDEX($AG$4:$AI$7, MATCH(T12,$AG$4:$AG$7,0), 2)</f>
+        <v>800</v>
+      </c>
+      <c r="U61">
+        <f>INDEX($AG$4:$AI$7, MATCH(U12,$AG$4:$AG$7,0), 2)</f>
+        <v>800</v>
+      </c>
+      <c r="V61">
+        <f>INDEX($AG$4:$AI$7, MATCH(V12,$AG$4:$AG$7,0), 2)</f>
+        <v>800</v>
+      </c>
+      <c r="W61">
+        <f>INDEX($AG$4:$AI$7, MATCH(W12,$AG$4:$AG$7,0), 2)</f>
+        <v>800</v>
+      </c>
+      <c r="X61">
+        <f>INDEX($AG$4:$AI$7, MATCH(X12,$AG$4:$AG$7,0), 2)</f>
+        <v>720</v>
+      </c>
+      <c r="Y61">
+        <f>INDEX($AG$4:$AI$7, MATCH(Y12,$AG$4:$AG$7,0), 2)</f>
+        <v>640</v>
+      </c>
+      <c r="Z61">
+        <f>INDEX($AG$4:$AI$7, MATCH(Z12,$AG$4:$AG$7,0), 2)</f>
+        <v>560</v>
+      </c>
+      <c r="AA61">
+        <f>INDEX($AG$4:$AI$7, MATCH(AA12,$AG$4:$AG$7,0), 2)</f>
+        <v>560</v>
+      </c>
+      <c r="AB61">
+        <f>INDEX($AG$4:$AI$7, MATCH(AB12,$AG$4:$AG$7,0), 2)</f>
+        <v>800</v>
+      </c>
+      <c r="AC61">
+        <f>INDEX($AG$4:$AI$7, MATCH(AC12,$AG$4:$AG$7,0), 2)</f>
+        <v>800</v>
+      </c>
+      <c r="AD61">
+        <f>INDEX($AG$4:$AI$7, MATCH(AD12,$AG$4:$AG$7,0), 2)</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62">
         <v>8760</v>
       </c>
@@ -9772,8 +10167,62 @@
         <f>D61+D53*$A$62/1000</f>
         <v>410.29526277841552</v>
       </c>
-    </row>
-    <row r="63" spans="1:29">
+      <c r="Q62" t="s">
+        <v>204</v>
+      </c>
+      <c r="R62" t="s">
+        <v>202</v>
+      </c>
+      <c r="S62">
+        <f>INDEX($AG$4:$AI$7, MATCH(S12,$AG$4:$AG$7,0), 3)</f>
+        <v>10</v>
+      </c>
+      <c r="T62">
+        <f>INDEX($AG$4:$AI$7, MATCH(T12,$AG$4:$AG$7,0), 3)</f>
+        <v>10</v>
+      </c>
+      <c r="U62">
+        <f>INDEX($AG$4:$AI$7, MATCH(U12,$AG$4:$AG$7,0), 3)</f>
+        <v>10</v>
+      </c>
+      <c r="V62">
+        <f>INDEX($AG$4:$AI$7, MATCH(V12,$AG$4:$AG$7,0), 3)</f>
+        <v>10</v>
+      </c>
+      <c r="W62">
+        <f>INDEX($AG$4:$AI$7, MATCH(W12,$AG$4:$AG$7,0), 3)</f>
+        <v>10</v>
+      </c>
+      <c r="X62">
+        <f>INDEX($AG$4:$AI$7, MATCH(X12,$AG$4:$AG$7,0), 3)</f>
+        <v>10</v>
+      </c>
+      <c r="Y62">
+        <f>INDEX($AG$4:$AI$7, MATCH(Y12,$AG$4:$AG$7,0), 3)</f>
+        <v>10</v>
+      </c>
+      <c r="Z62">
+        <f>INDEX($AG$4:$AI$7, MATCH(Z12,$AG$4:$AG$7,0), 3)</f>
+        <v>10</v>
+      </c>
+      <c r="AA62">
+        <f>INDEX($AG$4:$AI$7, MATCH(AA12,$AG$4:$AG$7,0), 3)</f>
+        <v>10</v>
+      </c>
+      <c r="AB62">
+        <f>INDEX($AG$4:$AI$7, MATCH(AB12,$AG$4:$AG$7,0), 3)</f>
+        <v>10</v>
+      </c>
+      <c r="AC62">
+        <f>INDEX($AG$4:$AI$7, MATCH(AC12,$AG$4:$AG$7,0), 3)</f>
+        <v>10</v>
+      </c>
+      <c r="AD62">
+        <f>INDEX($AG$4:$AI$7, MATCH(AD12,$AG$4:$AG$7,0), 3)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -9788,6 +10237,116 @@
       <c r="D63" s="5">
         <f>D55*$A$62</f>
         <v>0</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>203</v>
+      </c>
+      <c r="R63" t="s">
+        <v>225</v>
+      </c>
+      <c r="S63">
+        <f>INDEX($AJ$4:$AL$7, MATCH(S13,$AJ$4:$AJ$7,0), 2)</f>
+        <v>2800</v>
+      </c>
+      <c r="T63">
+        <f>INDEX($AJ$4:$AL$7, MATCH(T13,$AJ$4:$AJ$7,0), 2)</f>
+        <v>2800</v>
+      </c>
+      <c r="U63">
+        <f>INDEX($AJ$4:$AL$7, MATCH(U13,$AJ$4:$AJ$7,0), 2)</f>
+        <v>2800</v>
+      </c>
+      <c r="V63">
+        <f>INDEX($AJ$4:$AL$7, MATCH(V13,$AJ$4:$AJ$7,0), 2)</f>
+        <v>2800</v>
+      </c>
+      <c r="W63">
+        <f>INDEX($AJ$4:$AL$7, MATCH(W13,$AJ$4:$AJ$7,0), 2)</f>
+        <v>2800</v>
+      </c>
+      <c r="X63">
+        <f>INDEX($AJ$4:$AL$7, MATCH(X13,$AJ$4:$AJ$7,0), 2)</f>
+        <v>2800</v>
+      </c>
+      <c r="Y63">
+        <f>INDEX($AJ$4:$AL$7, MATCH(Y13,$AJ$4:$AJ$7,0), 2)</f>
+        <v>2800</v>
+      </c>
+      <c r="Z63">
+        <f>INDEX($AJ$4:$AL$7, MATCH(Z13,$AJ$4:$AJ$7,0), 2)</f>
+        <v>2800</v>
+      </c>
+      <c r="AA63">
+        <f>INDEX($AJ$4:$AL$7, MATCH(AA13,$AJ$4:$AJ$7,0), 2)</f>
+        <v>2800</v>
+      </c>
+      <c r="AB63">
+        <f>INDEX($AJ$4:$AL$7, MATCH(AB13,$AJ$4:$AJ$7,0), 2)</f>
+        <v>2100</v>
+      </c>
+      <c r="AC63">
+        <f>INDEX($AJ$4:$AL$7, MATCH(AC13,$AJ$4:$AJ$7,0), 2)</f>
+        <v>1400</v>
+      </c>
+      <c r="AD63">
+        <f>INDEX($AJ$4:$AL$7, MATCH(AD13,$AJ$4:$AJ$7,0), 2)</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
+      <c r="Q64" t="s">
+        <v>204</v>
+      </c>
+      <c r="R64" t="s">
+        <v>225</v>
+      </c>
+      <c r="S64">
+        <f>INDEX($AJ$4:$AL$7, MATCH(S13,$AJ$4:$AJ$7,0), 3)</f>
+        <v>24</v>
+      </c>
+      <c r="T64">
+        <f>INDEX($AJ$4:$AL$7, MATCH(T13,$AJ$4:$AJ$7,0), 3)</f>
+        <v>24</v>
+      </c>
+      <c r="U64">
+        <f>INDEX($AJ$4:$AL$7, MATCH(U13,$AJ$4:$AJ$7,0), 3)</f>
+        <v>24</v>
+      </c>
+      <c r="V64">
+        <f>INDEX($AJ$4:$AL$7, MATCH(V13,$AJ$4:$AJ$7,0), 3)</f>
+        <v>24</v>
+      </c>
+      <c r="W64">
+        <f>INDEX($AJ$4:$AL$7, MATCH(W13,$AJ$4:$AJ$7,0), 3)</f>
+        <v>24</v>
+      </c>
+      <c r="X64">
+        <f>INDEX($AJ$4:$AL$7, MATCH(X13,$AJ$4:$AJ$7,0), 3)</f>
+        <v>24</v>
+      </c>
+      <c r="Y64">
+        <f>INDEX($AJ$4:$AL$7, MATCH(Y13,$AJ$4:$AJ$7,0), 3)</f>
+        <v>24</v>
+      </c>
+      <c r="Z64">
+        <f>INDEX($AJ$4:$AL$7, MATCH(Z13,$AJ$4:$AJ$7,0), 3)</f>
+        <v>24</v>
+      </c>
+      <c r="AA64">
+        <f>INDEX($AJ$4:$AL$7, MATCH(AA13,$AJ$4:$AJ$7,0), 3)</f>
+        <v>24</v>
+      </c>
+      <c r="AB64">
+        <f>INDEX($AJ$4:$AL$7, MATCH(AB13,$AJ$4:$AJ$7,0), 3)</f>
+        <v>18</v>
+      </c>
+      <c r="AC64">
+        <f>INDEX($AJ$4:$AL$7, MATCH(AC13,$AJ$4:$AJ$7,0), 3)</f>
+        <v>12</v>
+      </c>
+      <c r="AD64">
+        <f>INDEX($AJ$4:$AL$7, MATCH(AD13,$AJ$4:$AJ$7,0), 3)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -9887,18 +10446,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:17">
       <c r="A1" t="str">
         <f>'Screening curves'!Q34</f>
         <v>parameter</v>
@@ -9912,19 +10473,47 @@
         <v>coalhc</v>
       </c>
       <c r="D1" t="str">
+        <f>'Screening curves'!U9</f>
+        <v>coallcW10lc</v>
+      </c>
+      <c r="E1" t="str">
+        <f>'Screening curves'!V9</f>
+        <v>coallcW20lc</v>
+      </c>
+      <c r="F1" t="str">
         <f>'Screening curves'!W9</f>
         <v>coallcW30lc</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
+        <f>'Screening curves'!X9</f>
+        <v>coallcS10lc</v>
+      </c>
+      <c r="H1" t="str">
+        <f>'Screening curves'!Y9</f>
+        <v>coallcS20lc</v>
+      </c>
+      <c r="I1" t="str">
         <f>'Screening curves'!Z9</f>
         <v>coallcS30lc</v>
       </c>
-      <c r="F1" t="str">
+      <c r="J1" t="str">
         <f>'Screening curves'!AA9</f>
         <v>coallcW30lcS30lc</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="K1" t="str">
+        <f>'Screening curves'!AB9</f>
+        <v>coallcB25lc</v>
+      </c>
+      <c r="L1" t="str">
+        <f>'Screening curves'!AC9</f>
+        <v>coallcB50lc</v>
+      </c>
+      <c r="M1" t="str">
+        <f>'Screening curves'!AD9</f>
+        <v>coalhcW30lcS30lc</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="str">
         <f>'Screening curves'!R34</f>
         <v>gas_ct</v>
@@ -9938,19 +10527,51 @@
         <v>3.3984353954038309E-2</v>
       </c>
       <c r="D2" s="2">
+        <f>'Screening curves'!U34</f>
+        <v>3.3984353954038309E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'Screening curves'!V34</f>
+        <v>3.3984353954038309E-2</v>
+      </c>
+      <c r="F2" s="2">
         <f>'Screening curves'!W34</f>
         <v>3.3984353954038309E-2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
+        <f>'Screening curves'!X34</f>
+        <v>3.3984353954038309E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'Screening curves'!Y34</f>
+        <v>3.3984353954038309E-2</v>
+      </c>
+      <c r="I2" s="2">
         <f>'Screening curves'!Z34</f>
         <v>3.3984353954038309E-2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="J2" s="2">
         <f>'Screening curves'!AA34</f>
         <v>3.3984353954038309E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="K2" s="2">
+        <f>'Screening curves'!AB34</f>
+        <v>3.3984353954038309E-2</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'Screening curves'!AC34</f>
+        <v>3.3984353954038309E-2</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'Screening curves'!AD34</f>
+        <v>3.3984353954038309E-2</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="str">
         <f>'Screening curves'!R35</f>
         <v>gas_ccgt</v>
@@ -9964,150 +10585,343 @@
         <v>0.18251009215426989</v>
       </c>
       <c r="D3" s="2">
+        <f>'Screening curves'!U35</f>
+        <v>0.10523612453151106</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'Screening curves'!V35</f>
+        <v>0.10523612453151106</v>
+      </c>
+      <c r="F3" s="2">
         <f>'Screening curves'!W35</f>
         <v>0.10523612453151106</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
+        <f>'Screening curves'!X35</f>
+        <v>0.10523612453151106</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'Screening curves'!Y35</f>
+        <v>0.10523612453151106</v>
+      </c>
+      <c r="I3" s="2">
         <f>'Screening curves'!Z35</f>
         <v>0.10523612453151106</v>
       </c>
-      <c r="F3" s="2">
+      <c r="J3" s="2">
         <f>'Screening curves'!AA35</f>
         <v>0.10523612453151106</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="K3" s="2">
+        <f>'Screening curves'!AB35</f>
+        <v>0.10523612453151106</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'Screening curves'!AC35</f>
+        <v>0.10523612453151106</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'Screening curves'!AD35</f>
+        <v>0.18251009215426989</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="str">
         <f>'Screening curves'!R36</f>
         <v>coal</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <f>'Screening curves'!S36</f>
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <f>'Screening curves'!T36</f>
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
+        <f>'Screening curves'!U36</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <f>'Screening curves'!V36</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
         <f>'Screening curves'!W36</f>
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="G4" s="5">
+        <f>'Screening curves'!X36</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <f>'Screening curves'!Y36</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
         <f>'Screening curves'!Z36</f>
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="J4" s="5">
         <f>'Screening curves'!AA36</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="K4" s="5">
+        <f>'Screening curves'!AB36</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <f>'Screening curves'!AC36</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <f>'Screening curves'!AD36</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="str">
-        <f>'Screening curves'!R18</f>
+        <f>'Screening curves'!R37</f>
         <v>gas_price</v>
       </c>
-      <c r="B5">
-        <f>'Screening curves'!S18</f>
+      <c r="B5" s="5">
+        <f>'Screening curves'!S37</f>
         <v>10</v>
       </c>
       <c r="C5" s="5">
-        <f>'Screening curves'!T18</f>
+        <f>'Screening curves'!T37</f>
         <v>10</v>
       </c>
-      <c r="D5">
-        <f>'Screening curves'!W18</f>
+      <c r="D5" s="5">
+        <f>'Screening curves'!U37</f>
         <v>10</v>
       </c>
       <c r="E5" s="5">
-        <f>'Screening curves'!Z18</f>
+        <f>'Screening curves'!V37</f>
         <v>10</v>
       </c>
-      <c r="F5">
-        <f>'Screening curves'!AA18</f>
+      <c r="F5" s="5">
+        <f>'Screening curves'!W37</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="5">
+        <f>'Screening curves'!X37</f>
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
+        <f>'Screening curves'!Y37</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="5">
+        <f>'Screening curves'!Z37</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="5">
+        <f>'Screening curves'!AA37</f>
+        <v>10</v>
+      </c>
+      <c r="K5" s="5">
+        <f>'Screening curves'!AB37</f>
+        <v>10</v>
+      </c>
+      <c r="L5" s="5">
+        <f>'Screening curves'!AC37</f>
+        <v>10</v>
+      </c>
+      <c r="M5" s="5">
+        <f>'Screening curves'!AD37</f>
+        <v>10</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="str">
-        <f>'Screening curves'!R17</f>
+        <f>'Screening curves'!R38</f>
         <v>cap_cost_ct</v>
       </c>
       <c r="B6" s="5">
-        <f>'Screening curves'!S17</f>
+        <f>'Screening curves'!S38</f>
         <v>678.26769230769241</v>
       </c>
       <c r="C6" s="5">
-        <f>'Screening curves'!T17</f>
+        <f>'Screening curves'!T38</f>
         <v>678.26769230769241</v>
       </c>
       <c r="D6" s="5">
-        <f>'Screening curves'!W17</f>
+        <f>'Screening curves'!U38</f>
         <v>678.26769230769241</v>
       </c>
       <c r="E6" s="5">
-        <f>'Screening curves'!Z17</f>
+        <f>'Screening curves'!V38</f>
         <v>678.26769230769241</v>
       </c>
       <c r="F6" s="5">
-        <f>'Screening curves'!AA17</f>
+        <f>'Screening curves'!W38</f>
         <v>678.26769230769241</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="5">
+        <f>'Screening curves'!X38</f>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="H6" s="5">
+        <f>'Screening curves'!Y38</f>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="I6" s="5">
+        <f>'Screening curves'!Z38</f>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="J6" s="5">
+        <f>'Screening curves'!AA38</f>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="K6" s="5">
+        <f>'Screening curves'!AB38</f>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="L6" s="5">
+        <f>'Screening curves'!AC38</f>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="M6" s="5">
+        <f>'Screening curves'!AD38</f>
+        <v>678.26769230769241</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="str">
-        <f>'Screening curves'!R23</f>
+        <f>'Screening curves'!R39</f>
         <v>cap_cost_ccgt</v>
       </c>
       <c r="B7" s="5">
-        <f>'Screening curves'!S23</f>
+        <f>'Screening curves'!S39</f>
         <v>775.16307692307703</v>
       </c>
       <c r="C7" s="5">
-        <f>'Screening curves'!T23</f>
+        <f>'Screening curves'!T39</f>
         <v>775.16307692307703</v>
       </c>
       <c r="D7" s="5">
-        <f>'Screening curves'!W23</f>
+        <f>'Screening curves'!U39</f>
         <v>775.16307692307703</v>
       </c>
       <c r="E7" s="5">
-        <f>'Screening curves'!Z23</f>
+        <f>'Screening curves'!V39</f>
         <v>775.16307692307703</v>
       </c>
       <c r="F7" s="5">
-        <f>'Screening curves'!AA23</f>
+        <f>'Screening curves'!W39</f>
         <v>775.16307692307703</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="5">
+        <f>'Screening curves'!X39</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="H7" s="5">
+        <f>'Screening curves'!Y39</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="I7" s="5">
+        <f>'Screening curves'!Z39</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="J7" s="5">
+        <f>'Screening curves'!AA39</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="K7" s="5">
+        <f>'Screening curves'!AB39</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="L7" s="5">
+        <f>'Screening curves'!AC39</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="M7" s="5">
+        <f>'Screening curves'!AD39</f>
+        <v>775.16307692307703</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="str">
-        <f>'Screening curves'!R28</f>
+        <f>'Screening curves'!R40</f>
         <v>cap_cost_coal</v>
       </c>
       <c r="B8" s="5">
-        <f>'Screening curves'!S28</f>
+        <f>'Screening curves'!S40</f>
         <v>976.42784318082204</v>
       </c>
       <c r="C8" s="5">
-        <f>'Screening curves'!T28</f>
+        <f>'Screening curves'!T40</f>
         <v>1140</v>
       </c>
       <c r="D8" s="5">
-        <f>'Screening curves'!W28</f>
+        <f>'Screening curves'!U40</f>
         <v>976.42784318082204</v>
       </c>
       <c r="E8" s="5">
-        <f>'Screening curves'!Z28</f>
+        <f>'Screening curves'!V40</f>
         <v>976.42784318082204</v>
       </c>
       <c r="F8" s="5">
-        <f>'Screening curves'!AA28</f>
+        <f>'Screening curves'!W40</f>
         <v>976.42784318082204</v>
       </c>
+      <c r="G8" s="5">
+        <f>'Screening curves'!X40</f>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="H8" s="5">
+        <f>'Screening curves'!Y40</f>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="I8" s="5">
+        <f>'Screening curves'!Z40</f>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="J8" s="5">
+        <f>'Screening curves'!AA40</f>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="K8" s="5">
+        <f>'Screening curves'!AB40</f>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="L8" s="5">
+        <f>'Screening curves'!AC40</f>
+        <v>976.42784318082204</v>
+      </c>
+      <c r="M8" s="5">
+        <f>'Screening curves'!AD40</f>
+        <v>1140</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10132,11 +10946,11 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="str">
-        <f>'Screening curves'!Q39</f>
+        <f>'Screening curves'!Q43</f>
         <v>hour</v>
       </c>
       <c r="B1" t="str">
-        <f>'Screening curves'!R39</f>
+        <f>'Screening curves'!R43</f>
         <v>technology</v>
       </c>
       <c r="C1" t="str">
@@ -10150,109 +10964,109 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <f>'Screening curves'!Q40</f>
+        <f>'Screening curves'!Q44</f>
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>'Screening curves'!R40</f>
+        <f>'Screening curves'!R44</f>
         <v>CT-LNG</v>
       </c>
       <c r="C2" s="5">
-        <f>'Screening curves'!S40</f>
+        <f>'Screening curves'!S44</f>
         <v>65.002501490990369</v>
       </c>
       <c r="D2" s="5">
-        <f>'Screening curves'!T40</f>
+        <f>'Screening curves'!T44</f>
         <v>65.002501490990369</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <f>'Screening curves'!Q41</f>
+        <f>'Screening curves'!Q45</f>
         <v>8760</v>
       </c>
       <c r="B3" t="str">
-        <f>'Screening curves'!R41</f>
+        <f>'Screening curves'!R45</f>
         <v>CT-LNG</v>
       </c>
       <c r="C3" s="5">
-        <f>'Screening curves'!S41</f>
+        <f>'Screening curves'!S45</f>
         <v>1177.2962457334145</v>
       </c>
       <c r="D3" s="5">
-        <f>'Screening curves'!T41</f>
+        <f>'Screening curves'!T45</f>
         <v>1177.2962457334145</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <f>'Screening curves'!Q42</f>
+        <f>'Screening curves'!Q46</f>
         <v>0</v>
       </c>
       <c r="B4" t="str">
-        <f>'Screening curves'!R42</f>
+        <f>'Screening curves'!R46</f>
         <v>CCGT-LNG</v>
       </c>
       <c r="C4" s="5">
-        <f>'Screening curves'!S42</f>
+        <f>'Screening curves'!S46</f>
         <v>77.517144561131843</v>
       </c>
       <c r="D4" s="5">
-        <f>'Screening curves'!T42</f>
+        <f>'Screening curves'!T46</f>
         <v>77.517144561131843</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <f>'Screening curves'!Q43</f>
+        <f>'Screening curves'!Q47</f>
         <v>8760</v>
       </c>
       <c r="B5" t="str">
-        <f>'Screening curves'!R43</f>
+        <f>'Screening curves'!R47</f>
         <v>CCGT-LNG</v>
       </c>
       <c r="C5" s="5">
-        <f>'Screening curves'!S43</f>
+        <f>'Screening curves'!S47</f>
         <v>821.56369225343963</v>
       </c>
       <c r="D5" s="5">
-        <f>'Screening curves'!T43</f>
+        <f>'Screening curves'!T47</f>
         <v>821.56369225343963</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <f>'Screening curves'!Q44</f>
+        <f>'Screening curves'!Q48</f>
         <v>0</v>
       </c>
       <c r="B6" t="str">
-        <f>'Screening curves'!R44</f>
+        <f>'Screening curves'!R48</f>
         <v>Coal</v>
       </c>
       <c r="C6" s="5">
-        <f>'Screening curves'!S44</f>
+        <f>'Screening curves'!S48</f>
         <v>125.88777825200532</v>
       </c>
       <c r="D6" s="5">
-        <f>'Screening curves'!T44</f>
+        <f>'Screening curves'!T48</f>
         <v>139.92398963155881</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <f>'Screening curves'!Q45</f>
+        <f>'Screening curves'!Q49</f>
         <v>8760</v>
       </c>
       <c r="B7" t="str">
-        <f>'Screening curves'!R45</f>
+        <f>'Screening curves'!R49</f>
         <v>Coal</v>
       </c>
       <c r="C7" s="5">
-        <f>'Screening curves'!S45</f>
+        <f>'Screening curves'!S49</f>
         <v>410.29526277841552</v>
       </c>
       <c r="D7" s="5">
-        <f>'Screening curves'!T45</f>
+        <f>'Screening curves'!T49</f>
         <v>542.03413077339212</v>
       </c>
     </row>
@@ -10268,10 +11082,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10287,13 +11101,13 @@
     <col min="13" max="13" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="str">
-        <f>'Screening curves'!Q48</f>
+        <f>'Screening curves'!Q52</f>
         <v>cost_type</v>
       </c>
       <c r="B1" t="str">
-        <f>'Screening curves'!R48</f>
+        <f>'Screening curves'!R52</f>
         <v>technology</v>
       </c>
       <c r="C1" t="str">
@@ -10340,657 +11154,710 @@
         <f>'Screening curves'!AC9</f>
         <v>coallcB50lc</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="str">
+        <f>'Screening curves'!AD9</f>
+        <v>coalhcW30lcS30lc</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="str">
-        <f>'Screening curves'!Q49</f>
-        <v>capital</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'Screening curves'!R49</f>
-        <v>ct</v>
-      </c>
-      <c r="C2" s="5">
-        <f>'Screening curves'!S49</f>
-        <v>678.26769230769241</v>
-      </c>
-      <c r="D2" s="5">
-        <f>'Screening curves'!T49</f>
-        <v>678.26769230769241</v>
-      </c>
-      <c r="E2" s="5">
-        <f>'Screening curves'!U49</f>
-        <v>678.26769230769241</v>
-      </c>
-      <c r="F2" s="5">
-        <f>'Screening curves'!V49</f>
-        <v>678.26769230769241</v>
-      </c>
-      <c r="G2" s="5">
-        <f>'Screening curves'!W49</f>
-        <v>678.26769230769241</v>
-      </c>
-      <c r="H2" s="5">
-        <f>'Screening curves'!X49</f>
-        <v>678.26769230769241</v>
-      </c>
-      <c r="I2" s="5">
-        <f>'Screening curves'!Y49</f>
-        <v>678.26769230769241</v>
-      </c>
-      <c r="J2" s="5">
-        <f>'Screening curves'!Z49</f>
-        <v>678.26769230769241</v>
-      </c>
-      <c r="K2" s="5">
-        <f>'Screening curves'!AA49</f>
-        <v>678.26769230769241</v>
-      </c>
-      <c r="L2" s="5">
-        <f>'Screening curves'!AB49</f>
-        <v>678.26769230769241</v>
-      </c>
-      <c r="M2" s="5">
-        <f>'Screening curves'!AC49</f>
-        <v>678.26769230769241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="str">
-        <f>'Screening curves'!Q50</f>
-        <v>om</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'Screening curves'!R50</f>
-        <v>ct</v>
-      </c>
-      <c r="C3" s="5">
-        <f>'Screening curves'!S50</f>
-        <v>6.8</v>
-      </c>
-      <c r="D3" s="5">
-        <f>'Screening curves'!T50</f>
-        <v>6.8</v>
-      </c>
-      <c r="E3" s="5">
-        <f>'Screening curves'!U50</f>
-        <v>6.8</v>
-      </c>
-      <c r="F3" s="5">
-        <f>'Screening curves'!V50</f>
-        <v>6.8</v>
-      </c>
-      <c r="G3" s="5">
-        <f>'Screening curves'!W50</f>
-        <v>6.8</v>
-      </c>
-      <c r="H3" s="5">
-        <f>'Screening curves'!X50</f>
-        <v>6.8</v>
-      </c>
-      <c r="I3" s="5">
-        <f>'Screening curves'!Y50</f>
-        <v>6.8</v>
-      </c>
-      <c r="J3" s="5">
-        <f>'Screening curves'!Z50</f>
-        <v>6.8</v>
-      </c>
-      <c r="K3" s="5">
-        <f>'Screening curves'!AA50</f>
-        <v>6.8</v>
-      </c>
-      <c r="L3" s="5">
-        <f>'Screening curves'!AB50</f>
-        <v>6.8</v>
-      </c>
-      <c r="M3" s="5">
-        <f>'Screening curves'!AC50</f>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="str">
-        <f>'Screening curves'!Q51</f>
-        <v>capital</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'Screening curves'!R51</f>
-        <v>ccgt</v>
-      </c>
-      <c r="C4" s="5">
-        <f>'Screening curves'!S51</f>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="D4" s="5">
-        <f>'Screening curves'!T51</f>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="E4" s="5">
-        <f>'Screening curves'!U51</f>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="F4" s="5">
-        <f>'Screening curves'!V51</f>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="G4" s="5">
-        <f>'Screening curves'!W51</f>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="H4" s="5">
-        <f>'Screening curves'!X51</f>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="I4" s="5">
-        <f>'Screening curves'!Y51</f>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="J4" s="5">
-        <f>'Screening curves'!Z51</f>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="K4" s="5">
-        <f>'Screening curves'!AA51</f>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="L4" s="5">
-        <f>'Screening curves'!AB51</f>
-        <v>775.16307692307703</v>
-      </c>
-      <c r="M4" s="5">
-        <f>'Screening curves'!AC51</f>
-        <v>775.16307692307703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="str">
-        <f>'Screening curves'!Q52</f>
-        <v>om</v>
-      </c>
-      <c r="B5" t="str">
-        <f>'Screening curves'!R52</f>
-        <v>ccgt</v>
-      </c>
-      <c r="C5" s="5">
-        <f>'Screening curves'!S52</f>
-        <v>11</v>
-      </c>
-      <c r="D5" s="5">
-        <f>'Screening curves'!T52</f>
-        <v>11</v>
-      </c>
-      <c r="E5" s="5">
-        <f>'Screening curves'!U52</f>
-        <v>11</v>
-      </c>
-      <c r="F5" s="5">
-        <f>'Screening curves'!V52</f>
-        <v>11</v>
-      </c>
-      <c r="G5" s="5">
-        <f>'Screening curves'!W52</f>
-        <v>11</v>
-      </c>
-      <c r="H5" s="5">
-        <f>'Screening curves'!X52</f>
-        <v>11</v>
-      </c>
-      <c r="I5" s="5">
-        <f>'Screening curves'!Y52</f>
-        <v>11</v>
-      </c>
-      <c r="J5" s="5">
-        <f>'Screening curves'!Z52</f>
-        <v>11</v>
-      </c>
-      <c r="K5" s="5">
-        <f>'Screening curves'!AA52</f>
-        <v>11</v>
-      </c>
-      <c r="L5" s="5">
-        <f>'Screening curves'!AB52</f>
-        <v>11</v>
-      </c>
-      <c r="M5" s="5">
-        <f>'Screening curves'!AC52</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="str">
         <f>'Screening curves'!Q53</f>
         <v>capital</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B2" t="str">
         <f>'Screening curves'!R53</f>
-        <v>coal</v>
-      </c>
-      <c r="C6" s="5">
+        <v>ct</v>
+      </c>
+      <c r="C2" s="5">
         <f>'Screening curves'!S53</f>
-        <v>976.42784318082204</v>
-      </c>
-      <c r="D6" s="5">
+        <v>678.26769230769241</v>
+      </c>
+      <c r="D2" s="5">
         <f>'Screening curves'!T53</f>
-        <v>1140</v>
-      </c>
-      <c r="E6" s="5">
+        <v>678.26769230769241</v>
+      </c>
+      <c r="E2" s="5">
         <f>'Screening curves'!U53</f>
-        <v>976.42784318082204</v>
-      </c>
-      <c r="F6" s="5">
+        <v>678.26769230769241</v>
+      </c>
+      <c r="F2" s="5">
         <f>'Screening curves'!V53</f>
-        <v>976.42784318082204</v>
-      </c>
-      <c r="G6" s="5">
+        <v>678.26769230769241</v>
+      </c>
+      <c r="G2" s="5">
         <f>'Screening curves'!W53</f>
-        <v>976.42784318082204</v>
-      </c>
-      <c r="H6" s="5">
+        <v>678.26769230769241</v>
+      </c>
+      <c r="H2" s="5">
         <f>'Screening curves'!X53</f>
-        <v>976.42784318082204</v>
-      </c>
-      <c r="I6" s="5">
+        <v>678.26769230769241</v>
+      </c>
+      <c r="I2" s="5">
         <f>'Screening curves'!Y53</f>
-        <v>976.42784318082204</v>
-      </c>
-      <c r="J6" s="5">
+        <v>678.26769230769241</v>
+      </c>
+      <c r="J2" s="5">
         <f>'Screening curves'!Z53</f>
-        <v>976.42784318082204</v>
-      </c>
-      <c r="K6" s="5">
+        <v>678.26769230769241</v>
+      </c>
+      <c r="K2" s="5">
         <f>'Screening curves'!AA53</f>
-        <v>976.42784318082204</v>
-      </c>
-      <c r="L6" s="5">
+        <v>678.26769230769241</v>
+      </c>
+      <c r="L2" s="5">
         <f>'Screening curves'!AB53</f>
-        <v>976.42784318082204</v>
-      </c>
-      <c r="M6" s="5">
+        <v>678.26769230769241</v>
+      </c>
+      <c r="M2" s="5">
         <f>'Screening curves'!AC53</f>
-        <v>976.42784318082204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="str">
+        <v>678.26769230769241</v>
+      </c>
+      <c r="N2" s="5">
+        <f>'Screening curves'!AD53</f>
+        <v>678.26769230769241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="str">
         <f>'Screening curves'!Q54</f>
         <v>om</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B3" t="str">
         <f>'Screening curves'!R54</f>
-        <v>coal</v>
-      </c>
-      <c r="C7" s="5">
+        <v>ct</v>
+      </c>
+      <c r="C3" s="5">
         <f>'Screening curves'!S54</f>
-        <v>42.1</v>
-      </c>
-      <c r="D7" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="D3" s="5">
         <f>'Screening curves'!T54</f>
-        <v>42.1</v>
-      </c>
-      <c r="E7" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="E3" s="5">
         <f>'Screening curves'!U54</f>
-        <v>42.1</v>
-      </c>
-      <c r="F7" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="F3" s="5">
         <f>'Screening curves'!V54</f>
-        <v>42.1</v>
-      </c>
-      <c r="G7" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="G3" s="5">
         <f>'Screening curves'!W54</f>
-        <v>42.1</v>
-      </c>
-      <c r="H7" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="H3" s="5">
         <f>'Screening curves'!X54</f>
-        <v>42.1</v>
-      </c>
-      <c r="I7" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="I3" s="5">
         <f>'Screening curves'!Y54</f>
-        <v>42.1</v>
-      </c>
-      <c r="J7" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="J3" s="5">
         <f>'Screening curves'!Z54</f>
-        <v>42.1</v>
-      </c>
-      <c r="K7" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="K3" s="5">
         <f>'Screening curves'!AA54</f>
-        <v>42.1</v>
-      </c>
-      <c r="L7" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="L3" s="5">
         <f>'Screening curves'!AB54</f>
-        <v>42.1</v>
-      </c>
-      <c r="M7" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="M3" s="5">
         <f>'Screening curves'!AC54</f>
-        <v>42.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="str">
+        <v>6.8</v>
+      </c>
+      <c r="N3" s="5">
+        <f>'Screening curves'!AD54</f>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="str">
         <f>'Screening curves'!Q55</f>
         <v>capital</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B4" t="str">
         <f>'Screening curves'!R55</f>
-        <v>wind</v>
-      </c>
-      <c r="C8" s="5">
+        <v>ccgt</v>
+      </c>
+      <c r="C4" s="5">
         <f>'Screening curves'!S55</f>
-        <v>1100</v>
-      </c>
-      <c r="D8" s="5">
+        <v>775.16307692307703</v>
+      </c>
+      <c r="D4" s="5">
         <f>'Screening curves'!T55</f>
-        <v>1100</v>
-      </c>
-      <c r="E8" s="5">
+        <v>775.16307692307703</v>
+      </c>
+      <c r="E4" s="5">
         <f>'Screening curves'!U55</f>
-        <v>990</v>
-      </c>
-      <c r="F8" s="5">
+        <v>775.16307692307703</v>
+      </c>
+      <c r="F4" s="5">
         <f>'Screening curves'!V55</f>
-        <v>880</v>
-      </c>
-      <c r="G8" s="5">
+        <v>775.16307692307703</v>
+      </c>
+      <c r="G4" s="5">
         <f>'Screening curves'!W55</f>
-        <v>770</v>
-      </c>
-      <c r="H8" s="5">
+        <v>775.16307692307703</v>
+      </c>
+      <c r="H4" s="5">
         <f>'Screening curves'!X55</f>
-        <v>1100</v>
-      </c>
-      <c r="I8" s="5">
+        <v>775.16307692307703</v>
+      </c>
+      <c r="I4" s="5">
         <f>'Screening curves'!Y55</f>
-        <v>1100</v>
-      </c>
-      <c r="J8" s="5">
+        <v>775.16307692307703</v>
+      </c>
+      <c r="J4" s="5">
         <f>'Screening curves'!Z55</f>
-        <v>1100</v>
-      </c>
-      <c r="K8" s="5">
+        <v>775.16307692307703</v>
+      </c>
+      <c r="K4" s="5">
         <f>'Screening curves'!AA55</f>
-        <v>770</v>
-      </c>
-      <c r="L8" s="5">
+        <v>775.16307692307703</v>
+      </c>
+      <c r="L4" s="5">
         <f>'Screening curves'!AB55</f>
-        <v>1100</v>
-      </c>
-      <c r="M8" s="5">
+        <v>775.16307692307703</v>
+      </c>
+      <c r="M4" s="5">
         <f>'Screening curves'!AC55</f>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="str">
+        <v>775.16307692307703</v>
+      </c>
+      <c r="N4" s="5">
+        <f>'Screening curves'!AD55</f>
+        <v>775.16307692307703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="str">
         <f>'Screening curves'!Q56</f>
         <v>om</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B5" t="str">
         <f>'Screening curves'!R56</f>
-        <v>wind</v>
-      </c>
-      <c r="C9" s="5">
+        <v>ccgt</v>
+      </c>
+      <c r="C5" s="5">
         <f>'Screening curves'!S56</f>
-        <v>15</v>
-      </c>
-      <c r="D9" s="5">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5">
         <f>'Screening curves'!T56</f>
-        <v>15</v>
-      </c>
-      <c r="E9" s="5">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
         <f>'Screening curves'!U56</f>
-        <v>15</v>
-      </c>
-      <c r="F9" s="5">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5">
         <f>'Screening curves'!V56</f>
-        <v>15</v>
-      </c>
-      <c r="G9" s="5">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5">
         <f>'Screening curves'!W56</f>
-        <v>15</v>
-      </c>
-      <c r="H9" s="5">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5">
         <f>'Screening curves'!X56</f>
-        <v>15</v>
-      </c>
-      <c r="I9" s="5">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5">
         <f>'Screening curves'!Y56</f>
-        <v>15</v>
-      </c>
-      <c r="J9" s="5">
+        <v>11</v>
+      </c>
+      <c r="J5" s="5">
         <f>'Screening curves'!Z56</f>
-        <v>15</v>
-      </c>
-      <c r="K9" s="5">
+        <v>11</v>
+      </c>
+      <c r="K5" s="5">
         <f>'Screening curves'!AA56</f>
-        <v>15</v>
-      </c>
-      <c r="L9" s="5">
+        <v>11</v>
+      </c>
+      <c r="L5" s="5">
         <f>'Screening curves'!AB56</f>
-        <v>15</v>
-      </c>
-      <c r="M9" s="5">
+        <v>11</v>
+      </c>
+      <c r="M5" s="5">
         <f>'Screening curves'!AC56</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="str">
+        <v>11</v>
+      </c>
+      <c r="N5" s="5">
+        <f>'Screening curves'!AD56</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="str">
         <f>'Screening curves'!Q57</f>
         <v>capital</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B6" t="str">
         <f>'Screening curves'!R57</f>
-        <v>solarPV</v>
-      </c>
-      <c r="C10" s="5">
+        <v>coal</v>
+      </c>
+      <c r="C6" s="5">
         <f>'Screening curves'!S57</f>
-        <v>800</v>
-      </c>
-      <c r="D10" s="5">
+        <v>976.42784318082204</v>
+      </c>
+      <c r="D6" s="5">
         <f>'Screening curves'!T57</f>
-        <v>800</v>
-      </c>
-      <c r="E10" s="5">
+        <v>1140</v>
+      </c>
+      <c r="E6" s="5">
         <f>'Screening curves'!U57</f>
-        <v>800</v>
-      </c>
-      <c r="F10" s="5">
+        <v>976.42784318082204</v>
+      </c>
+      <c r="F6" s="5">
         <f>'Screening curves'!V57</f>
-        <v>800</v>
-      </c>
-      <c r="G10" s="5">
+        <v>976.42784318082204</v>
+      </c>
+      <c r="G6" s="5">
         <f>'Screening curves'!W57</f>
-        <v>800</v>
-      </c>
-      <c r="H10" s="5">
+        <v>976.42784318082204</v>
+      </c>
+      <c r="H6" s="5">
         <f>'Screening curves'!X57</f>
-        <v>720</v>
-      </c>
-      <c r="I10" s="5">
+        <v>976.42784318082204</v>
+      </c>
+      <c r="I6" s="5">
         <f>'Screening curves'!Y57</f>
-        <v>640</v>
-      </c>
-      <c r="J10" s="5">
+        <v>976.42784318082204</v>
+      </c>
+      <c r="J6" s="5">
         <f>'Screening curves'!Z57</f>
-        <v>560</v>
-      </c>
-      <c r="K10" s="5">
+        <v>976.42784318082204</v>
+      </c>
+      <c r="K6" s="5">
         <f>'Screening curves'!AA57</f>
-        <v>560</v>
-      </c>
-      <c r="L10" s="5">
+        <v>976.42784318082204</v>
+      </c>
+      <c r="L6" s="5">
         <f>'Screening curves'!AB57</f>
-        <v>800</v>
-      </c>
-      <c r="M10" s="5">
+        <v>976.42784318082204</v>
+      </c>
+      <c r="M6" s="5">
         <f>'Screening curves'!AC57</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="str">
+        <v>976.42784318082204</v>
+      </c>
+      <c r="N6" s="5">
+        <f>'Screening curves'!AD57</f>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="str">
         <f>'Screening curves'!Q58</f>
         <v>om</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B7" t="str">
         <f>'Screening curves'!R58</f>
-        <v>solarPV</v>
-      </c>
-      <c r="C11" s="5">
+        <v>coal</v>
+      </c>
+      <c r="C7" s="5">
         <f>'Screening curves'!S58</f>
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
+        <v>42.1</v>
+      </c>
+      <c r="D7" s="5">
         <f>'Screening curves'!T58</f>
-        <v>10</v>
-      </c>
-      <c r="E11" s="5">
+        <v>42.1</v>
+      </c>
+      <c r="E7" s="5">
         <f>'Screening curves'!U58</f>
-        <v>10</v>
-      </c>
-      <c r="F11" s="5">
+        <v>42.1</v>
+      </c>
+      <c r="F7" s="5">
         <f>'Screening curves'!V58</f>
-        <v>10</v>
-      </c>
-      <c r="G11" s="5">
+        <v>42.1</v>
+      </c>
+      <c r="G7" s="5">
         <f>'Screening curves'!W58</f>
-        <v>10</v>
-      </c>
-      <c r="H11" s="5">
+        <v>42.1</v>
+      </c>
+      <c r="H7" s="5">
         <f>'Screening curves'!X58</f>
-        <v>10</v>
-      </c>
-      <c r="I11" s="5">
+        <v>42.1</v>
+      </c>
+      <c r="I7" s="5">
         <f>'Screening curves'!Y58</f>
-        <v>10</v>
-      </c>
-      <c r="J11" s="5">
+        <v>42.1</v>
+      </c>
+      <c r="J7" s="5">
         <f>'Screening curves'!Z58</f>
-        <v>10</v>
-      </c>
-      <c r="K11" s="5">
+        <v>42.1</v>
+      </c>
+      <c r="K7" s="5">
         <f>'Screening curves'!AA58</f>
-        <v>10</v>
-      </c>
-      <c r="L11" s="5">
+        <v>42.1</v>
+      </c>
+      <c r="L7" s="5">
         <f>'Screening curves'!AB58</f>
-        <v>10</v>
-      </c>
-      <c r="M11" s="5">
+        <v>42.1</v>
+      </c>
+      <c r="M7" s="5">
         <f>'Screening curves'!AC58</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="str">
+        <v>42.1</v>
+      </c>
+      <c r="N7" s="5">
+        <f>'Screening curves'!AD58</f>
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="str">
         <f>'Screening curves'!Q59</f>
         <v>capital</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B8" t="str">
         <f>'Screening curves'!R59</f>
-        <v>battery</v>
-      </c>
-      <c r="C12" s="5">
+        <v>wind</v>
+      </c>
+      <c r="C8" s="5">
         <f>'Screening curves'!S59</f>
-        <v>2800</v>
-      </c>
-      <c r="D12" s="5">
+        <v>1100</v>
+      </c>
+      <c r="D8" s="5">
         <f>'Screening curves'!T59</f>
-        <v>2800</v>
-      </c>
-      <c r="E12" s="5">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="5">
         <f>'Screening curves'!U59</f>
-        <v>2800</v>
-      </c>
-      <c r="F12" s="5">
+        <v>990</v>
+      </c>
+      <c r="F8" s="5">
         <f>'Screening curves'!V59</f>
-        <v>2800</v>
-      </c>
-      <c r="G12" s="5">
+        <v>880</v>
+      </c>
+      <c r="G8" s="5">
         <f>'Screening curves'!W59</f>
-        <v>2800</v>
-      </c>
-      <c r="H12" s="5">
+        <v>770</v>
+      </c>
+      <c r="H8" s="5">
         <f>'Screening curves'!X59</f>
-        <v>2800</v>
-      </c>
-      <c r="I12" s="5">
+        <v>1100</v>
+      </c>
+      <c r="I8" s="5">
         <f>'Screening curves'!Y59</f>
-        <v>2800</v>
-      </c>
-      <c r="J12" s="5">
+        <v>1100</v>
+      </c>
+      <c r="J8" s="5">
         <f>'Screening curves'!Z59</f>
-        <v>2800</v>
-      </c>
-      <c r="K12" s="5">
+        <v>1100</v>
+      </c>
+      <c r="K8" s="5">
         <f>'Screening curves'!AA59</f>
-        <v>2800</v>
-      </c>
-      <c r="L12" s="5">
+        <v>770</v>
+      </c>
+      <c r="L8" s="5">
         <f>'Screening curves'!AB59</f>
-        <v>2100</v>
-      </c>
-      <c r="M12" s="5">
+        <v>1100</v>
+      </c>
+      <c r="M8" s="5">
         <f>'Screening curves'!AC59</f>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="str">
+        <v>1100</v>
+      </c>
+      <c r="N8" s="5">
+        <f>'Screening curves'!AD59</f>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="str">
         <f>'Screening curves'!Q60</f>
         <v>om</v>
       </c>
+      <c r="B9" t="str">
+        <f>'Screening curves'!R60</f>
+        <v>wind</v>
+      </c>
+      <c r="C9" s="5">
+        <f>'Screening curves'!S60</f>
+        <v>15</v>
+      </c>
+      <c r="D9" s="5">
+        <f>'Screening curves'!T60</f>
+        <v>15</v>
+      </c>
+      <c r="E9" s="5">
+        <f>'Screening curves'!U60</f>
+        <v>15</v>
+      </c>
+      <c r="F9" s="5">
+        <f>'Screening curves'!V60</f>
+        <v>15</v>
+      </c>
+      <c r="G9" s="5">
+        <f>'Screening curves'!W60</f>
+        <v>15</v>
+      </c>
+      <c r="H9" s="5">
+        <f>'Screening curves'!X60</f>
+        <v>15</v>
+      </c>
+      <c r="I9" s="5">
+        <f>'Screening curves'!Y60</f>
+        <v>15</v>
+      </c>
+      <c r="J9" s="5">
+        <f>'Screening curves'!Z60</f>
+        <v>15</v>
+      </c>
+      <c r="K9" s="5">
+        <f>'Screening curves'!AA60</f>
+        <v>15</v>
+      </c>
+      <c r="L9" s="5">
+        <f>'Screening curves'!AB60</f>
+        <v>15</v>
+      </c>
+      <c r="M9" s="5">
+        <f>'Screening curves'!AC60</f>
+        <v>15</v>
+      </c>
+      <c r="N9" s="5">
+        <f>'Screening curves'!AD60</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="str">
+        <f>'Screening curves'!Q61</f>
+        <v>capital</v>
+      </c>
+      <c r="B10" t="str">
+        <f>'Screening curves'!R61</f>
+        <v>solarPV</v>
+      </c>
+      <c r="C10" s="5">
+        <f>'Screening curves'!S61</f>
+        <v>800</v>
+      </c>
+      <c r="D10" s="5">
+        <f>'Screening curves'!T61</f>
+        <v>800</v>
+      </c>
+      <c r="E10" s="5">
+        <f>'Screening curves'!U61</f>
+        <v>800</v>
+      </c>
+      <c r="F10" s="5">
+        <f>'Screening curves'!V61</f>
+        <v>800</v>
+      </c>
+      <c r="G10" s="5">
+        <f>'Screening curves'!W61</f>
+        <v>800</v>
+      </c>
+      <c r="H10" s="5">
+        <f>'Screening curves'!X61</f>
+        <v>720</v>
+      </c>
+      <c r="I10" s="5">
+        <f>'Screening curves'!Y61</f>
+        <v>640</v>
+      </c>
+      <c r="J10" s="5">
+        <f>'Screening curves'!Z61</f>
+        <v>560</v>
+      </c>
+      <c r="K10" s="5">
+        <f>'Screening curves'!AA61</f>
+        <v>560</v>
+      </c>
+      <c r="L10" s="5">
+        <f>'Screening curves'!AB61</f>
+        <v>800</v>
+      </c>
+      <c r="M10" s="5">
+        <f>'Screening curves'!AC61</f>
+        <v>800</v>
+      </c>
+      <c r="N10" s="5">
+        <f>'Screening curves'!AD61</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="str">
+        <f>'Screening curves'!Q62</f>
+        <v>om</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'Screening curves'!R62</f>
+        <v>solarPV</v>
+      </c>
+      <c r="C11" s="5">
+        <f>'Screening curves'!S62</f>
+        <v>10</v>
+      </c>
+      <c r="D11" s="5">
+        <f>'Screening curves'!T62</f>
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
+        <f>'Screening curves'!U62</f>
+        <v>10</v>
+      </c>
+      <c r="F11" s="5">
+        <f>'Screening curves'!V62</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="5">
+        <f>'Screening curves'!W62</f>
+        <v>10</v>
+      </c>
+      <c r="H11" s="5">
+        <f>'Screening curves'!X62</f>
+        <v>10</v>
+      </c>
+      <c r="I11" s="5">
+        <f>'Screening curves'!Y62</f>
+        <v>10</v>
+      </c>
+      <c r="J11" s="5">
+        <f>'Screening curves'!Z62</f>
+        <v>10</v>
+      </c>
+      <c r="K11" s="5">
+        <f>'Screening curves'!AA62</f>
+        <v>10</v>
+      </c>
+      <c r="L11" s="5">
+        <f>'Screening curves'!AB62</f>
+        <v>10</v>
+      </c>
+      <c r="M11" s="5">
+        <f>'Screening curves'!AC62</f>
+        <v>10</v>
+      </c>
+      <c r="N11" s="5">
+        <f>'Screening curves'!AD62</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="str">
+        <f>'Screening curves'!Q63</f>
+        <v>capital</v>
+      </c>
+      <c r="B12" t="str">
+        <f>'Screening curves'!R63</f>
+        <v>battery</v>
+      </c>
+      <c r="C12" s="5">
+        <f>'Screening curves'!S63</f>
+        <v>2800</v>
+      </c>
+      <c r="D12" s="5">
+        <f>'Screening curves'!T63</f>
+        <v>2800</v>
+      </c>
+      <c r="E12" s="5">
+        <f>'Screening curves'!U63</f>
+        <v>2800</v>
+      </c>
+      <c r="F12" s="5">
+        <f>'Screening curves'!V63</f>
+        <v>2800</v>
+      </c>
+      <c r="G12" s="5">
+        <f>'Screening curves'!W63</f>
+        <v>2800</v>
+      </c>
+      <c r="H12" s="5">
+        <f>'Screening curves'!X63</f>
+        <v>2800</v>
+      </c>
+      <c r="I12" s="5">
+        <f>'Screening curves'!Y63</f>
+        <v>2800</v>
+      </c>
+      <c r="J12" s="5">
+        <f>'Screening curves'!Z63</f>
+        <v>2800</v>
+      </c>
+      <c r="K12" s="5">
+        <f>'Screening curves'!AA63</f>
+        <v>2800</v>
+      </c>
+      <c r="L12" s="5">
+        <f>'Screening curves'!AB63</f>
+        <v>2100</v>
+      </c>
+      <c r="M12" s="5">
+        <f>'Screening curves'!AC63</f>
+        <v>1400</v>
+      </c>
+      <c r="N12" s="5">
+        <f>'Screening curves'!AD63</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="str">
+        <f>'Screening curves'!Q64</f>
+        <v>om</v>
+      </c>
       <c r="B13" t="str">
-        <f>'Screening curves'!R60</f>
+        <f>'Screening curves'!R64</f>
         <v>battery</v>
       </c>
       <c r="C13" s="5">
-        <f>'Screening curves'!S60</f>
+        <f>'Screening curves'!S64</f>
         <v>24</v>
       </c>
       <c r="D13" s="5">
-        <f>'Screening curves'!T60</f>
+        <f>'Screening curves'!T64</f>
         <v>24</v>
       </c>
       <c r="E13" s="5">
-        <f>'Screening curves'!U60</f>
+        <f>'Screening curves'!U64</f>
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <f>'Screening curves'!V60</f>
+        <f>'Screening curves'!V64</f>
         <v>24</v>
       </c>
       <c r="G13" s="5">
-        <f>'Screening curves'!W60</f>
+        <f>'Screening curves'!W64</f>
         <v>24</v>
       </c>
       <c r="H13" s="5">
-        <f>'Screening curves'!X60</f>
+        <f>'Screening curves'!X64</f>
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <f>'Screening curves'!Y60</f>
+        <f>'Screening curves'!Y64</f>
         <v>24</v>
       </c>
       <c r="J13" s="5">
-        <f>'Screening curves'!Z60</f>
+        <f>'Screening curves'!Z64</f>
         <v>24</v>
       </c>
       <c r="K13" s="5">
-        <f>'Screening curves'!AA60</f>
+        <f>'Screening curves'!AA64</f>
         <v>24</v>
       </c>
       <c r="L13" s="5">
-        <f>'Screening curves'!AB60</f>
+        <f>'Screening curves'!AB64</f>
         <v>18</v>
       </c>
       <c r="M13" s="5">
-        <f>'Screening curves'!AC60</f>
+        <f>'Screening curves'!AC64</f>
         <v>12</v>
+      </c>
+      <c r="N13" s="5">
+        <f>'Screening curves'!AD64</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11003,8 +11870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12686,7 +13553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>

--- a/india_REV_input/Scenarios_Cost_Master_v4.xlsx
+++ b/india_REV_input/Scenarios_Cost_Master_v4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14960" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-30500" yWindow="-3600" windowWidth="25040" windowHeight="14960"/>
   </bookViews>
   <sheets>
     <sheet name="REvalue_input_csv" sheetId="11" r:id="rId1"/>
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="476">
   <si>
     <t>Screening curves</t>
   </si>
@@ -1195,9 +1195,6 @@
     <t>solar90deg</t>
   </si>
   <si>
-    <t>load_modified</t>
-  </si>
-  <si>
     <t>scenario_suffix</t>
   </si>
   <si>
@@ -1354,9 +1351,6 @@
     <t>none</t>
   </si>
   <si>
-    <t>mod</t>
-  </si>
-  <si>
     <t>load_modified_suffix</t>
   </si>
   <si>
@@ -1787,6 +1781,108 @@
   </si>
   <si>
     <t>wind30LC_solar30LC_coalHC</t>
+  </si>
+  <si>
+    <t>ClcC70m</t>
+  </si>
+  <si>
+    <t>ChcC70m</t>
+  </si>
+  <si>
+    <t>ClcC55m</t>
+  </si>
+  <si>
+    <t>ClcC70mH-25</t>
+  </si>
+  <si>
+    <t>ClcC70mH25</t>
+  </si>
+  <si>
+    <t>ClcC70mN64</t>
+  </si>
+  <si>
+    <t>ClcC70mB15</t>
+  </si>
+  <si>
+    <t>ClcC70mB30</t>
+  </si>
+  <si>
+    <t>ClcC70mW10lc</t>
+  </si>
+  <si>
+    <t>ClcC70mW20lc</t>
+  </si>
+  <si>
+    <t>ClcC70mW30lc</t>
+  </si>
+  <si>
+    <t>ClcC70mS10lc</t>
+  </si>
+  <si>
+    <t>ClcC70mS20lc</t>
+  </si>
+  <si>
+    <t>ClcC70mS30lc</t>
+  </si>
+  <si>
+    <t>ClcC70mW30lcS30lc</t>
+  </si>
+  <si>
+    <t>ClcC70mW120</t>
+  </si>
+  <si>
+    <t>ClcC70mS1A</t>
+  </si>
+  <si>
+    <t>ClcC70mS90d</t>
+  </si>
+  <si>
+    <t>ClcC70mW120S1A</t>
+  </si>
+  <si>
+    <t>ClcC70mB15B25lc</t>
+  </si>
+  <si>
+    <t>ClcC70mB15B50lc</t>
+  </si>
+  <si>
+    <t>ClcC70mB30B25lc</t>
+  </si>
+  <si>
+    <t>ClcC70mB30B50lc</t>
+  </si>
+  <si>
+    <t>ChcC70mW30lcS30lc</t>
+  </si>
+  <si>
+    <t>redo</t>
+  </si>
+  <si>
+    <t>load_modD0M0_energyOnly</t>
+  </si>
+  <si>
+    <t>mod_D0_M0_energyOnly</t>
+  </si>
+  <si>
+    <t>load_modD50M0_energyOnly</t>
+  </si>
+  <si>
+    <t>load_modD25M25_energyOnly</t>
+  </si>
+  <si>
+    <t>mod_D50_M0_energyOnly</t>
+  </si>
+  <si>
+    <t>mod_D25_M25_energyOnly</t>
+  </si>
+  <si>
+    <t>ClcC70mLmod_D0_M0_energyOnly</t>
+  </si>
+  <si>
+    <t>ClcC70mLmod_D50_M0_energyOnly</t>
+  </si>
+  <si>
+    <t>ClcC70mLmod_D25_M25_energyOnly</t>
   </si>
 </sst>
 </file>
@@ -1896,10 +1992,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1962,7 +2074,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="41">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1975,6 +2087,14 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1986,6 +2106,14 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2257,7 +2385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2265,13 +2393,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="Q9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2290,13 +2418,13 @@
     <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>228</v>
       </c>
@@ -2310,7 +2438,7 @@
         <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F1" t="s">
         <v>231</v>
@@ -2358,33 +2486,39 @@
         <v>245</v>
       </c>
       <c r="U1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V1" t="s">
+        <v>422</v>
+      </c>
+      <c r="W1" t="s">
+        <v>423</v>
+      </c>
+      <c r="X1" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="W1" t="s">
-        <v>424</v>
-      </c>
-      <c r="X1" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>426</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>427</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="21" t="s">
+      <c r="B2" s="21" t="s">
         <v>247</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>248</v>
       </c>
       <c r="C2" s="21" t="str">
         <f>C3</f>
@@ -2395,7 +2529,7 @@
         <v>ChcC70m</v>
       </c>
       <c r="E2" s="21" t="str">
-        <f t="shared" ref="E2:AA2" si="0">E3</f>
+        <f t="shared" ref="E2:Z2" si="0">E3</f>
         <v>ClcC55m</v>
       </c>
       <c r="F2" s="21" t="str">
@@ -2464,39 +2598,47 @@
       </c>
       <c r="V2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mLmod</v>
+        <v>ClcC70mB15B25lc</v>
       </c>
       <c r="W2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mB15B25lc</v>
+        <v>ClcC70mB15B50lc</v>
       </c>
       <c r="X2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mB15B50lc</v>
+        <v>ClcC70mB30B25lc</v>
       </c>
       <c r="Y2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mB30B25lc</v>
+        <v>ClcC70mB30B50lc</v>
       </c>
       <c r="Z2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mB30B50lc</v>
+        <v>ChcC70mW30lcS30lc</v>
       </c>
       <c r="AA2" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>ChcC70mW30lcS30lc</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <f>AA3</f>
+        <v>ClcC70mLmod_D0_M0_energyOnly</v>
+      </c>
+      <c r="AB2" s="21" t="str">
+        <f>AB3</f>
+        <v>ClcC70mLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AC2" s="21" t="str">
+        <f>AC3</f>
+        <v>ClcC70mLmod_D25_M25_energyOnly</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C3" t="str">
         <f>CONCATENATE(C10,C13,C15,C17,C19,C23,C27,C31,C34,C37,C40,C42,C45)</f>
         <v>ClcC70m</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:Z3" si="1">CONCATENATE(D10,D13,D15,D17,D19,D23,D27,D31,D34,D37,D40,D42,D45)</f>
+        <f t="shared" ref="D3:Y3" si="1">CONCATENATE(D10,D13,D15,D17,D19,D23,D27,D31,D34,D37,D40,D42,D45)</f>
         <v>ChcC70m</v>
       </c>
       <c r="E3" t="str">
@@ -2569,39 +2711,47 @@
       </c>
       <c r="V3" t="str">
         <f t="shared" si="1"/>
-        <v>ClcC70mLmod</v>
+        <v>ClcC70mB15B25lc</v>
       </c>
       <c r="W3" t="str">
         <f t="shared" si="1"/>
-        <v>ClcC70mB15B25lc</v>
+        <v>ClcC70mB15B50lc</v>
       </c>
       <c r="X3" t="str">
         <f t="shared" si="1"/>
-        <v>ClcC70mB15B50lc</v>
+        <v>ClcC70mB30B25lc</v>
       </c>
       <c r="Y3" t="str">
         <f t="shared" si="1"/>
-        <v>ClcC70mB30B25lc</v>
+        <v>ClcC70mB30B50lc</v>
       </c>
       <c r="Z3" t="str">
-        <f t="shared" si="1"/>
-        <v>ClcC70mB30B50lc</v>
+        <f t="shared" ref="Z3" si="2">CONCATENATE(Z10,Z13,Z15,Z17,Z19,Z23,Z27,Z31,Z34,Z37,Z40,Z42,Z45)</f>
+        <v>ChcC70mW30lcS30lc</v>
       </c>
       <c r="AA3" t="str">
-        <f t="shared" ref="AA3" si="2">CONCATENATE(AA10,AA13,AA15,AA17,AA19,AA23,AA27,AA31,AA34,AA37,AA40,AA42,AA45)</f>
-        <v>ChcC70mW30lcS30lc</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <f>CONCATENATE(AA10,AA13,AA15,AA17,AA19,AA23,AA27,AA31,AA34,AA37,AA40,AA42,AA45)</f>
+        <v>ClcC70mLmod_D0_M0_energyOnly</v>
+      </c>
+      <c r="AB3" t="str">
+        <f>CONCATENATE(AB10,AB13,AB15,AB17,AB19,AB23,AB27,AB31,AB34,AB37,AB40,AB42,AB45)</f>
+        <v>ClcC70mLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AC3" t="str">
+        <f>CONCATENATE(AC10,AC13,AC15,AC17,AC19,AC23,AC27,AC31,AC34,AC37,AC40,AC42,AC45)</f>
+        <v>ClcC70mLmod_D25_M25_energyOnly</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE(C10,C13,C15,C17,C19,C34,C37,C40,C42,C45)</f>
         <v>ClcC70m</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:V4" si="3">CONCATENATE(D10,D13,D15,D17,D19,D34,D37,D40,D42,D45)</f>
+        <f t="shared" ref="D4:T4" si="3">CONCATENATE(D10,D13,D15,D17,D19,D34,D37,D40,D42,D45)</f>
         <v>ChcC70m</v>
       </c>
       <c r="E4" t="str">
@@ -2673,8 +2823,8 @@
         <v>ClcC70mW120S1A</v>
       </c>
       <c r="V4" t="str">
-        <f t="shared" si="3"/>
-        <v>ClcC70mLmod</v>
+        <f>CONCATENATE(V10,V13,V15,V17,V19,V34,V37,V40,V42,V45)</f>
+        <v>ClcC70mB15</v>
       </c>
       <c r="W4" t="str">
         <f>CONCATENATE(W10,W13,W15,W17,W19,W34,W37,W40,W42,W45)</f>
@@ -2682,27 +2832,35 @@
       </c>
       <c r="X4" t="str">
         <f>CONCATENATE(X10,X13,X15,X17,X19,X34,X37,X40,X42,X45)</f>
-        <v>ClcC70mB15</v>
+        <v>ClcC70mB30</v>
       </c>
       <c r="Y4" t="str">
         <f>CONCATENATE(Y10,Y13,Y15,Y17,Y19,Y34,Y37,Y40,Y42,Y45)</f>
         <v>ClcC70mB30</v>
       </c>
       <c r="Z4" t="str">
-        <f>CONCATENATE(Z10,Z13,Z15,Z17,Z19,Z34,Z37,Z40,Z42,Z45)</f>
-        <v>ClcC70mB30</v>
+        <f t="shared" ref="Z4" si="4">CONCATENATE(Z10,Z13,Z15,Z17,Z19,Z34,Z37,Z40,Z42,Z45)</f>
+        <v>ChcC70m</v>
       </c>
       <c r="AA4" t="str">
-        <f t="shared" ref="AA4" si="4">CONCATENATE(AA10,AA13,AA15,AA17,AA19,AA34,AA37,AA40,AA42,AA45)</f>
-        <v>ChcC70m</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <f>CONCATENATE(AA10,AA13,AA15,AA17,AA19,AA34,AA37,AA40,AA42,AA45)</f>
+        <v>ClcC70mLmod_D0_M0_energyOnly</v>
+      </c>
+      <c r="AB4" t="str">
+        <f>CONCATENATE(AB10,AB13,AB15,AB17,AB19,AB34,AB37,AB40,AB42,AB45)</f>
+        <v>ClcC70mLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AC4" t="str">
+        <f>CONCATENATE(AC10,AC13,AC15,AC17,AC19,AC34,AC37,AC40,AC42,AC45)</f>
+        <v>ClcC70mLmod_D25_M25_energyOnly</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:V5" si="5">CONCATENATE(C11,C15,C17,C19,C34,C37,C40,C42,C45)</f>
+        <f t="shared" ref="C5:T5" si="5">CONCATENATE(C11,C15,C17,C19,C34,C37,C40,C42,C45)</f>
         <v>coallc</v>
       </c>
       <c r="D5" t="str">
@@ -2778,8 +2936,8 @@
         <v>coallcW120S1A</v>
       </c>
       <c r="V5" t="str">
-        <f t="shared" si="5"/>
-        <v>coallcLmod</v>
+        <f>CONCATENATE(V11,V15,V17,V19,V34,V37,V40,V42,V45)</f>
+        <v>coallcB15</v>
       </c>
       <c r="W5" t="str">
         <f>CONCATENATE(W11,W15,W17,W19,W34,W37,W40,W42,W45)</f>
@@ -2787,27 +2945,35 @@
       </c>
       <c r="X5" t="str">
         <f>CONCATENATE(X11,X15,X17,X19,X34,X37,X40,X42,X45)</f>
-        <v>coallcB15</v>
+        <v>coallcB30</v>
       </c>
       <c r="Y5" t="str">
         <f>CONCATENATE(Y11,Y15,Y17,Y19,Y34,Y37,Y40,Y42,Y45)</f>
         <v>coallcB30</v>
       </c>
       <c r="Z5" t="str">
-        <f>CONCATENATE(Z11,Z15,Z17,Z19,Z34,Z37,Z40,Z42,Z45)</f>
-        <v>coallcB30</v>
+        <f t="shared" ref="Z5" si="6">CONCATENATE(Z11,Z15,Z17,Z19,Z34,Z37,Z40,Z42,Z45)</f>
+        <v>coalhc</v>
       </c>
       <c r="AA5" t="str">
-        <f t="shared" ref="AA5" si="6">CONCATENATE(AA11,AA15,AA17,AA19,AA34,AA37,AA40,AA42,AA45)</f>
-        <v>coalhc</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <f>CONCATENATE(AA11,AA15,AA17,AA19,AA34,AA37,AA40,AA42,AA45)</f>
+        <v>coallcLmod_D0_M0_energyOnly</v>
+      </c>
+      <c r="AB5" t="str">
+        <f>CONCATENATE(AB11,AB15,AB17,AB19,AB34,AB37,AB40,AB42,AB45)</f>
+        <v>coallcLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AC5" t="str">
+        <f>CONCATENATE(AC11,AC15,AC17,AC19,AC34,AC37,AC40,AC42,AC45)</f>
+        <v>coallcLmod_D25_M25_energyOnly</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6:V6" si="7">CONCATENATE(C11,C15,C17,C19,C34,C37,C40,C42,C45)</f>
+        <f t="shared" ref="C6:T6" si="7">CONCATENATE(C11,C15,C17,C19,C34,C37,C40,C42,C45)</f>
         <v>coallc</v>
       </c>
       <c r="D6" t="str">
@@ -2883,8 +3049,8 @@
         <v>coallcW120S1A</v>
       </c>
       <c r="V6" t="str">
-        <f t="shared" si="7"/>
-        <v>coallcLmod</v>
+        <f>CONCATENATE(V11,V15,V17,V19,V34,V37,V40,V42,V45)</f>
+        <v>coallcB15</v>
       </c>
       <c r="W6" t="str">
         <f>CONCATENATE(W11,W15,W17,W19,W34,W37,W40,W42,W45)</f>
@@ -2892,27 +3058,35 @@
       </c>
       <c r="X6" t="str">
         <f>CONCATENATE(X11,X15,X17,X19,X34,X37,X40,X42,X45)</f>
-        <v>coallcB15</v>
+        <v>coallcB30</v>
       </c>
       <c r="Y6" t="str">
         <f>CONCATENATE(Y11,Y15,Y17,Y19,Y34,Y37,Y40,Y42,Y45)</f>
         <v>coallcB30</v>
       </c>
       <c r="Z6" t="str">
-        <f>CONCATENATE(Z11,Z15,Z17,Z19,Z34,Z37,Z40,Z42,Z45)</f>
-        <v>coallcB30</v>
+        <f t="shared" ref="Z6" si="8">CONCATENATE(Z11,Z15,Z17,Z19,Z34,Z37,Z40,Z42,Z45)</f>
+        <v>coalhc</v>
       </c>
       <c r="AA6" t="str">
-        <f t="shared" ref="AA6" si="8">CONCATENATE(AA11,AA15,AA17,AA19,AA34,AA37,AA40,AA42,AA45)</f>
-        <v>coalhc</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <f>CONCATENATE(AA11,AA15,AA17,AA19,AA34,AA37,AA40,AA42,AA45)</f>
+        <v>coallcLmod_D0_M0_energyOnly</v>
+      </c>
+      <c r="AB6" t="str">
+        <f>CONCATENATE(AB11,AB15,AB17,AB19,AB34,AB37,AB40,AB42,AB45)</f>
+        <v>coallcLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AC6" t="str">
+        <f>CONCATENATE(AC11,AC15,AC17,AC19,AC34,AC37,AC40,AC42,AC45)</f>
+        <v>coallcLmod_D25_M25_energyOnly</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:V7" si="9">CONCATENATE(C35,"_",C38)</f>
+        <f t="shared" ref="C7:T7" si="9">CONCATENATE(C35,"_",C38)</f>
         <v>W80_S0d</v>
       </c>
       <c r="D7" t="str">
@@ -2988,7 +3162,7 @@
         <v>W120_S1A</v>
       </c>
       <c r="V7" t="str">
-        <f t="shared" si="9"/>
+        <f>CONCATENATE(V35,"_",V38)</f>
         <v>W80_S0d</v>
       </c>
       <c r="W7" t="str">
@@ -3004,24 +3178,32 @@
         <v>W80_S0d</v>
       </c>
       <c r="Z7" t="str">
-        <f>CONCATENATE(Z35,"_",Z38)</f>
+        <f t="shared" ref="Z7" si="10">CONCATENATE(Z35,"_",Z38)</f>
         <v>W80_S0d</v>
       </c>
       <c r="AA7" t="str">
-        <f t="shared" ref="AA7" si="10">CONCATENATE(AA35,"_",AA38)</f>
+        <f>CONCATENATE(AA35,"_",AA38)</f>
         <v>W80_S0d</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="str">
+        <f>CONCATENATE(AB35,"_",AB38)</f>
+        <v>W80_S0d</v>
+      </c>
+      <c r="AC7" t="str">
+        <f>CONCATENATE(AC35,"_",AC38)</f>
+        <v>W80_S0d</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" t="str">
         <f>CONCATENATE(C11,C27,C31,C23)</f>
         <v>coallc</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" ref="D8:Z8" si="11">CONCATENATE(D11,D27,D31,D23)</f>
+        <f t="shared" ref="D8:Y8" si="11">CONCATENATE(D11,D27,D31,D23)</f>
         <v>coalhc</v>
       </c>
       <c r="E8" t="str">
@@ -3094,122 +3276,136 @@
       </c>
       <c r="V8" t="str">
         <f t="shared" si="11"/>
-        <v>coallc</v>
+        <v>coallcB25lc</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="11"/>
-        <v>coallcB25lc</v>
+        <v>coallcB50lc</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="11"/>
-        <v>coallcB50lc</v>
+        <v>coallcB25lc</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="11"/>
-        <v>coallcB25lc</v>
+        <v>coallcB50lc</v>
       </c>
       <c r="Z8" t="str">
-        <f t="shared" si="11"/>
-        <v>coallcB50lc</v>
+        <f t="shared" ref="Z8" si="12">CONCATENATE(Z11,Z27,Z31,Z23)</f>
+        <v>coalhcW30lcS30lc</v>
       </c>
       <c r="AA8" t="str">
-        <f t="shared" ref="AA8" si="12">CONCATENATE(AA11,AA27,AA31,AA23)</f>
-        <v>coalhcW30lcS30lc</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <f>CONCATENATE(AA11,AA27,AA31,AA23)</f>
+        <v>coallc</v>
+      </c>
+      <c r="AB8" t="str">
+        <f>CONCATENATE(AB11,AB27,AB31,AB23)</f>
+        <v>coallc</v>
+      </c>
+      <c r="AC8" t="str">
+        <f>CONCATENATE(AC11,AC27,AC31,AC23)</f>
+        <v>coallc</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="C9" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>257</v>
-      </c>
       <c r="E9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y9" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z9" s="21" t="s">
         <v>256</v>
       </c>
       <c r="AA9" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB9" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC9" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" t="s">
-        <v>258</v>
       </c>
       <c r="C10" t="str">
         <f>CONCATENATE("C", LEFT(C9,1), "c")</f>
         <v>Clc</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:V10" si="13">CONCATENATE("C", LEFT(D9,1), "c")</f>
+        <f t="shared" ref="D10:T10" si="13">CONCATENATE("C", LEFT(D9,1), "c")</f>
         <v>Chc</v>
       </c>
       <c r="E10" t="str">
@@ -3281,7 +3477,7 @@
         <v>Clc</v>
       </c>
       <c r="V10" t="str">
-        <f t="shared" si="13"/>
+        <f>CONCATENATE("C", LEFT(V9,1), "c")</f>
         <v>Clc</v>
       </c>
       <c r="W10" t="str">
@@ -3297,20 +3493,28 @@
         <v>Clc</v>
       </c>
       <c r="Z10" t="str">
-        <f>CONCATENATE("C", LEFT(Z9,1), "c")</f>
+        <f t="shared" ref="Z10" si="14">CONCATENATE("C", LEFT(Z9,1), "c")</f>
+        <v>Chc</v>
+      </c>
+      <c r="AA10" t="str">
+        <f>CONCATENATE("C", LEFT(AA9,1), "c")</f>
         <v>Clc</v>
       </c>
-      <c r="AA10" t="str">
-        <f t="shared" ref="AA10" si="14">CONCATENATE("C", LEFT(AA9,1), "c")</f>
-        <v>Chc</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="str">
+        <f>CONCATENATE("C", LEFT(AB9,1), "c")</f>
+        <v>Clc</v>
+      </c>
+      <c r="AC10" t="str">
+        <f>CONCATENATE("C", LEFT(AC9,1), "c")</f>
+        <v>Clc</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:V11" si="15">CONCATENATE("coal",LEFT(C9,1), "c")</f>
+        <f t="shared" ref="C11:T11" si="15">CONCATENATE("coal",LEFT(C9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="D11" t="str">
@@ -3386,7 +3590,7 @@
         <v>coallc</v>
       </c>
       <c r="V11" t="str">
-        <f t="shared" si="15"/>
+        <f>CONCATENATE("coal",LEFT(V9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="W11" t="str">
@@ -3402,20 +3606,28 @@
         <v>coallc</v>
       </c>
       <c r="Z11" t="str">
-        <f>CONCATENATE("coal",LEFT(Z9,1), "c")</f>
+        <f t="shared" ref="Z11" si="16">CONCATENATE("coal",LEFT(Z9,1), "c")</f>
+        <v>coalhc</v>
+      </c>
+      <c r="AA11" t="str">
+        <f>CONCATENATE("coal",LEFT(AA9,1), "c")</f>
         <v>coallc</v>
       </c>
-      <c r="AA11" t="str">
-        <f t="shared" ref="AA11" si="16">CONCATENATE("coal",LEFT(AA9,1), "c")</f>
-        <v>coalhc</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="str">
+        <f>CONCATENATE("coal",LEFT(AB9,1), "c")</f>
+        <v>coallc</v>
+      </c>
+      <c r="AC11" t="str">
+        <f>CONCATENATE("coal",LEFT(AC9,1), "c")</f>
+        <v>coallc</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>260</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>261</v>
       </c>
       <c r="C12" s="21">
         <v>70</v>
@@ -3492,17 +3704,23 @@
       <c r="AA12" s="21">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" s="21">
+        <v>70</v>
+      </c>
+      <c r="AC12" s="21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" t="str">
         <f>CONCATENATE("C",C12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ref="D13:V13" si="17">CONCATENATE("C",D12,"m")</f>
+        <f t="shared" ref="D13:T13" si="17">CONCATENATE("C",D12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="E13" t="str">
@@ -3574,7 +3792,7 @@
         <v>C70m</v>
       </c>
       <c r="V13" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("C",V12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="W13" t="str">
@@ -3590,20 +3808,28 @@
         <v>C70m</v>
       </c>
       <c r="Z13" t="str">
-        <f>CONCATENATE("C",Z12,"m")</f>
+        <f t="shared" ref="Z13" si="18">CONCATENATE("C",Z12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="AA13" t="str">
-        <f t="shared" ref="AA13" si="18">CONCATENATE("C",AA12,"m")</f>
+        <f>CONCATENATE("C",AA12,"m")</f>
         <v>C70m</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="str">
+        <f>CONCATENATE("C",AB12,"m")</f>
+        <v>C70m</v>
+      </c>
+      <c r="AC13" t="str">
+        <f>CONCATENATE("C",AC12,"m")</f>
+        <v>C70m</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>263</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>264</v>
       </c>
       <c r="C14" s="21">
         <v>0</v>
@@ -3680,13 +3906,19 @@
       <c r="AA14" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ref="C15:V15" si="19">IF(C14=0,"",CONCATENATE("H",C14))</f>
+        <f t="shared" ref="C15:T15" si="19">IF(C14=0,"",CONCATENATE("H",C14))</f>
         <v/>
       </c>
       <c r="D15" t="str">
@@ -3762,7 +3994,7 @@
         <v/>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(V14=0,"",CONCATENATE("H",V14))</f>
         <v/>
       </c>
       <c r="W15" t="str">
@@ -3778,20 +4010,28 @@
         <v/>
       </c>
       <c r="Z15" t="str">
-        <f>IF(Z14=0,"",CONCATENATE("H",Z14))</f>
+        <f t="shared" ref="Z15" si="20">IF(Z14=0,"",CONCATENATE("H",Z14))</f>
         <v/>
       </c>
       <c r="AA15" t="str">
-        <f t="shared" ref="AA15" si="20">IF(AA14=0,"",CONCATENATE("H",AA14))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+        <f>IF(AA14=0,"",CONCATENATE("H",AA14))</f>
+        <v/>
+      </c>
+      <c r="AB15" t="str">
+        <f>IF(AB14=0,"",CONCATENATE("H",AB14))</f>
+        <v/>
+      </c>
+      <c r="AC15" t="str">
+        <f>IF(AC14=0,"",CONCATENATE("H",AC14))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>267</v>
       </c>
       <c r="C16" s="21">
         <v>0</v>
@@ -3868,13 +4108,19 @@
       <c r="AA16" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ref="C17:V17" si="21">IF(C16=0,"",CONCATENATE("N",C16))</f>
+        <f t="shared" ref="C17:T17" si="21">IF(C16=0,"",CONCATENATE("N",C16))</f>
         <v/>
       </c>
       <c r="D17" t="str">
@@ -3950,7 +4196,7 @@
         <v/>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(V16=0,"",CONCATENATE("N",V16))</f>
         <v/>
       </c>
       <c r="W17" t="str">
@@ -3966,20 +4212,28 @@
         <v/>
       </c>
       <c r="Z17" t="str">
-        <f>IF(Z16=0,"",CONCATENATE("N",Z16))</f>
+        <f t="shared" ref="Z17" si="22">IF(Z16=0,"",CONCATENATE("N",Z16))</f>
         <v/>
       </c>
       <c r="AA17" t="str">
-        <f t="shared" ref="AA17" si="22">IF(AA16=0,"",CONCATENATE("N",AA16))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+        <f>IF(AA16=0,"",CONCATENATE("N",AA16))</f>
+        <v/>
+      </c>
+      <c r="AB17" t="str">
+        <f>IF(AB16=0,"",CONCATENATE("N",AB16))</f>
+        <v/>
+      </c>
+      <c r="AC17" t="str">
+        <f>IF(AC16=0,"",CONCATENATE("N",AC16))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>270</v>
       </c>
       <c r="C18" s="21">
         <v>0</v>
@@ -4039,30 +4293,36 @@
         <v>0</v>
       </c>
       <c r="V18" s="21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W18" s="21">
         <v>15</v>
       </c>
       <c r="X18" s="21">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Y18" s="21">
         <v>30</v>
       </c>
       <c r="Z18" s="21">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:V19" si="23">IF(C18=0,"",CONCATENATE("B",C18))</f>
+        <f t="shared" ref="C19:T19" si="23">IF(C18=0,"",CONCATENATE("B",C18))</f>
         <v/>
       </c>
       <c r="D19" t="str">
@@ -4138,8 +4398,8 @@
         <v/>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f>IF(V18=0,"",CONCATENATE("B",V18))</f>
+        <v>B15</v>
       </c>
       <c r="W19" t="str">
         <f>IF(W18=0,"",CONCATENATE("B",W18))</f>
@@ -4147,27 +4407,35 @@
       </c>
       <c r="X19" t="str">
         <f>IF(X18=0,"",CONCATENATE("B",X18))</f>
-        <v>B15</v>
+        <v>B30</v>
       </c>
       <c r="Y19" t="str">
         <f>IF(Y18=0,"",CONCATENATE("B",Y18))</f>
         <v>B30</v>
       </c>
       <c r="Z19" t="str">
-        <f>IF(Z18=0,"",CONCATENATE("B",Z18))</f>
-        <v>B30</v>
+        <f t="shared" ref="Z19" si="24">IF(Z18=0,"",CONCATENATE("B",Z18))</f>
+        <v/>
       </c>
       <c r="AA19" t="str">
-        <f t="shared" ref="AA19" si="24">IF(AA18=0,"",CONCATENATE("B",AA18))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+        <f>IF(AA18=0,"",CONCATENATE("B",AA18))</f>
+        <v/>
+      </c>
+      <c r="AB19" t="str">
+        <f>IF(AB18=0,"",CONCATENATE("B",AB18))</f>
+        <v/>
+      </c>
+      <c r="AC19" t="str">
+        <f>IF(AC18=0,"",CONCATENATE("B",AC18))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" ref="C20:V20" si="25">CONCATENATE("bat", C18)</f>
+        <f t="shared" ref="C20:T20" si="25">CONCATENATE("bat", C18)</f>
         <v>bat0</v>
       </c>
       <c r="D20" t="str">
@@ -4243,8 +4511,8 @@
         <v>bat0</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="25"/>
-        <v>bat0</v>
+        <f>CONCATENATE("bat", V18)</f>
+        <v>bat15</v>
       </c>
       <c r="W20" t="str">
         <f>CONCATENATE("bat", W18)</f>
@@ -4252,197 +4520,217 @@
       </c>
       <c r="X20" t="str">
         <f>CONCATENATE("bat", X18)</f>
-        <v>bat15</v>
+        <v>bat30</v>
       </c>
       <c r="Y20" t="str">
         <f>CONCATENATE("bat", Y18)</f>
         <v>bat30</v>
       </c>
       <c r="Z20" t="str">
-        <f>CONCATENATE("bat", Z18)</f>
-        <v>bat30</v>
+        <f t="shared" ref="Z20" si="26">CONCATENATE("bat", Z18)</f>
+        <v>bat0</v>
       </c>
       <c r="AA20" t="str">
-        <f t="shared" ref="AA20" si="26">CONCATENATE("bat", AA18)</f>
+        <f>CONCATENATE("bat", AA18)</f>
         <v>bat0</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="str">
+        <f>CONCATENATE("bat", AB18)</f>
+        <v>bat0</v>
+      </c>
+      <c r="AC20" t="str">
+        <f>CONCATENATE("bat", AC18)</f>
+        <v>bat0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>0</v>
+      </c>
+      <c r="R21" s="21">
+        <v>0</v>
+      </c>
+      <c r="S21" s="21">
+        <v>0</v>
+      </c>
+      <c r="T21" s="21">
+        <v>0</v>
+      </c>
+      <c r="U21" s="21">
+        <v>0</v>
+      </c>
+      <c r="V21" s="21">
+        <v>25</v>
+      </c>
+      <c r="W21" s="21">
+        <v>50</v>
+      </c>
+      <c r="X21" s="21">
+        <v>25</v>
+      </c>
+      <c r="Y21" s="21">
+        <v>50</v>
+      </c>
+      <c r="Z21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G22" t="s">
+        <v>255</v>
+      </c>
+      <c r="H22" t="s">
+        <v>255</v>
+      </c>
+      <c r="I22" t="s">
+        <v>255</v>
+      </c>
+      <c r="J22" t="s">
+        <v>255</v>
+      </c>
+      <c r="K22" t="s">
+        <v>255</v>
+      </c>
+      <c r="L22" t="s">
+        <v>255</v>
+      </c>
+      <c r="M22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N22" t="s">
+        <v>255</v>
+      </c>
+      <c r="O22" t="s">
+        <v>255</v>
+      </c>
+      <c r="P22" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>255</v>
+      </c>
+      <c r="R22" t="s">
+        <v>255</v>
+      </c>
+      <c r="S22" t="s">
+        <v>255</v>
+      </c>
+      <c r="T22" t="s">
+        <v>255</v>
+      </c>
+      <c r="U22" t="s">
+        <v>255</v>
+      </c>
+      <c r="V22" t="s">
+        <v>255</v>
+      </c>
+      <c r="W22" t="s">
+        <v>255</v>
+      </c>
+      <c r="X22" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" t="s">
         <v>420</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="C21" s="21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="21">
-        <v>0</v>
-      </c>
-      <c r="K21" s="21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="21">
-        <v>0</v>
-      </c>
-      <c r="M21" s="21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="21">
-        <v>0</v>
-      </c>
-      <c r="O21" s="21">
-        <v>0</v>
-      </c>
-      <c r="P21" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="21">
-        <v>0</v>
-      </c>
-      <c r="R21" s="21">
-        <v>0</v>
-      </c>
-      <c r="S21" s="21">
-        <v>0</v>
-      </c>
-      <c r="T21" s="21">
-        <v>0</v>
-      </c>
-      <c r="U21" s="21">
-        <v>0</v>
-      </c>
-      <c r="V21" s="21">
-        <v>0</v>
-      </c>
-      <c r="W21" s="21">
-        <v>25</v>
-      </c>
-      <c r="X21" s="21">
-        <v>50</v>
-      </c>
-      <c r="Y21" s="21">
-        <v>25</v>
-      </c>
-      <c r="Z21" s="21">
-        <v>50</v>
-      </c>
-      <c r="AA21" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="A22" t="s">
-        <v>421</v>
-      </c>
-      <c r="B22" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" t="s">
-        <v>256</v>
-      </c>
-      <c r="D22" t="s">
-        <v>256</v>
-      </c>
-      <c r="E22" t="s">
-        <v>256</v>
-      </c>
-      <c r="F22" t="s">
-        <v>256</v>
-      </c>
-      <c r="G22" t="s">
-        <v>256</v>
-      </c>
-      <c r="H22" t="s">
-        <v>256</v>
-      </c>
-      <c r="I22" t="s">
-        <v>256</v>
-      </c>
-      <c r="J22" t="s">
-        <v>256</v>
-      </c>
-      <c r="K22" t="s">
-        <v>256</v>
-      </c>
-      <c r="L22" t="s">
-        <v>256</v>
-      </c>
-      <c r="M22" t="s">
-        <v>256</v>
-      </c>
-      <c r="N22" t="s">
-        <v>256</v>
-      </c>
-      <c r="O22" t="s">
-        <v>256</v>
-      </c>
-      <c r="P22" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>256</v>
-      </c>
-      <c r="R22" t="s">
-        <v>256</v>
-      </c>
-      <c r="S22" t="s">
-        <v>256</v>
-      </c>
-      <c r="T22" t="s">
-        <v>256</v>
-      </c>
-      <c r="U22" t="s">
-        <v>256</v>
-      </c>
-      <c r="V22" t="s">
-        <v>256</v>
-      </c>
-      <c r="W22" t="s">
-        <v>256</v>
-      </c>
-      <c r="X22" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
-      <c r="A23" t="s">
-        <v>422</v>
       </c>
       <c r="C23" t="str">
         <f>IF(C21=0,"",CONCATENATE("B",C21,LEFT(C22,1),"c"))</f>
         <v/>
       </c>
       <c r="D23" t="str">
-        <f t="shared" ref="D23:V23" si="27">IF(D21=0,"",CONCATENATE("B",D21,LEFT(D22,1),"c"))</f>
+        <f t="shared" ref="D23:U23" si="27">IF(D21=0,"",CONCATENATE("B",D21,LEFT(D22,1),"c"))</f>
         <v/>
       </c>
       <c r="E23" t="str">
@@ -4514,40 +4802,48 @@
         <v/>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f>IF(V21=0,"",CONCATENATE("B",V21,LEFT(V22,1),"c"))</f>
+        <v>B25lc</v>
       </c>
       <c r="W23" t="str">
         <f>IF(W21=0,"",CONCATENATE("B",W21,LEFT(W22,1),"c"))</f>
-        <v>B25lc</v>
+        <v>B50lc</v>
       </c>
       <c r="X23" t="str">
         <f>IF(X21=0,"",CONCATENATE("B",X21,LEFT(X22,1),"c"))</f>
-        <v>B50lc</v>
+        <v>B25lc</v>
       </c>
       <c r="Y23" t="str">
         <f>IF(Y21=0,"",CONCATENATE("B",Y21,LEFT(Y22,1),"c"))</f>
-        <v>B25lc</v>
+        <v>B50lc</v>
       </c>
       <c r="Z23" t="str">
-        <f>IF(Z21=0,"",CONCATENATE("B",Z21,LEFT(Z22,1),"c"))</f>
-        <v>B50lc</v>
+        <f t="shared" ref="Z23" si="28">IF(Z21=0,"",CONCATENATE("B",Z21,LEFT(Z22,1),"c"))</f>
+        <v/>
       </c>
       <c r="AA23" t="str">
-        <f t="shared" ref="AA23" si="28">IF(AA21=0,"",CONCATENATE("B",AA21,LEFT(AA22,1),"c"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+        <f>IF(AA21=0,"",CONCATENATE("B",AA21,LEFT(AA22,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <f>IF(AB21=0,"",CONCATENATE("B",AB21,LEFT(AB22,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AC23" t="str">
+        <f>IF(AC21=0,"",CONCATENATE("B",AC21,LEFT(AC22,1),"c"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C24" t="str">
         <f>CONCATENATE("battery",UPPER(LEFT(C22,1)), "C",C21)</f>
         <v>batteryLC0</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" ref="D24:V24" si="29">CONCATENATE("battery",UPPER(LEFT(D22,1)), "C",D21)</f>
+        <f t="shared" ref="D24:U24" si="29">CONCATENATE("battery",UPPER(LEFT(D22,1)), "C",D21)</f>
         <v>batteryLC0</v>
       </c>
       <c r="E24" t="str">
@@ -4619,36 +4915,44 @@
         <v>batteryLC0</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="29"/>
-        <v>batteryLC0</v>
+        <f>CONCATENATE("battery",UPPER(LEFT(V22,1)), "C",V21)</f>
+        <v>batteryLC25</v>
       </c>
       <c r="W24" t="str">
         <f>CONCATENATE("battery",UPPER(LEFT(W22,1)), "C",W21)</f>
-        <v>batteryLC25</v>
+        <v>batteryLC50</v>
       </c>
       <c r="X24" t="str">
         <f>CONCATENATE("battery",UPPER(LEFT(X22,1)), "C",X21)</f>
-        <v>batteryLC50</v>
+        <v>batteryLC25</v>
       </c>
       <c r="Y24" t="str">
         <f>CONCATENATE("battery",UPPER(LEFT(Y22,1)), "C",Y21)</f>
-        <v>batteryLC25</v>
+        <v>batteryLC50</v>
       </c>
       <c r="Z24" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(Z22,1)), "C",Z21)</f>
-        <v>batteryLC50</v>
+        <f t="shared" ref="Z24" si="30">CONCATENATE("battery",UPPER(LEFT(Z22,1)), "C",Z21)</f>
+        <v>batteryLC0</v>
       </c>
       <c r="AA24" t="str">
-        <f t="shared" ref="AA24" si="30">CONCATENATE("battery",UPPER(LEFT(AA22,1)), "C",AA21)</f>
+        <f>CONCATENATE("battery",UPPER(LEFT(AA22,1)), "C",AA21)</f>
         <v>batteryLC0</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="str">
+        <f>CONCATENATE("battery",UPPER(LEFT(AB22,1)), "C",AB21)</f>
+        <v>batteryLC0</v>
+      </c>
+      <c r="AC24" t="str">
+        <f>CONCATENATE("battery",UPPER(LEFT(AC22,1)), "C",AC21)</f>
+        <v>batteryLC0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>273</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>274</v>
       </c>
       <c r="C25" s="21">
         <v>0</v>
@@ -4720,101 +5024,113 @@
         <v>0</v>
       </c>
       <c r="Z25" s="21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA25" s="21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" t="s">
         <v>275</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" t="s">
+        <v>255</v>
+      </c>
+      <c r="F26" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H26" t="s">
+        <v>255</v>
+      </c>
+      <c r="I26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" t="s">
+        <v>255</v>
+      </c>
+      <c r="L26" t="s">
+        <v>255</v>
+      </c>
+      <c r="M26" t="s">
+        <v>255</v>
+      </c>
+      <c r="N26" t="s">
+        <v>255</v>
+      </c>
+      <c r="O26" t="s">
+        <v>255</v>
+      </c>
+      <c r="P26" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>255</v>
+      </c>
+      <c r="R26" t="s">
+        <v>255</v>
+      </c>
+      <c r="S26" t="s">
+        <v>255</v>
+      </c>
+      <c r="T26" t="s">
+        <v>255</v>
+      </c>
+      <c r="U26" t="s">
+        <v>255</v>
+      </c>
+      <c r="V26" t="s">
+        <v>255</v>
+      </c>
+      <c r="W26" t="s">
+        <v>255</v>
+      </c>
+      <c r="X26" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" t="s">
         <v>276</v>
       </c>
-      <c r="C26" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" t="s">
-        <v>256</v>
-      </c>
-      <c r="E26" t="s">
-        <v>256</v>
-      </c>
-      <c r="F26" t="s">
-        <v>256</v>
-      </c>
-      <c r="G26" t="s">
-        <v>256</v>
-      </c>
-      <c r="H26" t="s">
-        <v>256</v>
-      </c>
-      <c r="I26" t="s">
-        <v>256</v>
-      </c>
-      <c r="J26" t="s">
-        <v>256</v>
-      </c>
-      <c r="K26" t="s">
-        <v>256</v>
-      </c>
-      <c r="L26" t="s">
-        <v>256</v>
-      </c>
-      <c r="M26" t="s">
-        <v>256</v>
-      </c>
-      <c r="N26" t="s">
-        <v>256</v>
-      </c>
-      <c r="O26" t="s">
-        <v>256</v>
-      </c>
-      <c r="P26" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>256</v>
-      </c>
-      <c r="R26" t="s">
-        <v>256</v>
-      </c>
-      <c r="S26" t="s">
-        <v>256</v>
-      </c>
-      <c r="T26" t="s">
-        <v>256</v>
-      </c>
-      <c r="U26" t="s">
-        <v>256</v>
-      </c>
-      <c r="V26" t="s">
-        <v>256</v>
-      </c>
-      <c r="W26" t="s">
-        <v>256</v>
-      </c>
-      <c r="X26" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
-      <c r="A27" t="s">
-        <v>277</v>
-      </c>
       <c r="C27" t="str">
-        <f t="shared" ref="C27:V27" si="31">IF(C25=0,"",CONCATENATE("W",C25,LEFT(C26,1),"c"))</f>
+        <f t="shared" ref="C27:T27" si="31">IF(C25=0,"",CONCATENATE("W",C25,LEFT(C26,1),"c"))</f>
         <v/>
       </c>
       <c r="D27" t="str">
@@ -4890,7 +5206,7 @@
         <v/>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(V25=0,"",CONCATENATE("W",V25,LEFT(V26,1),"c"))</f>
         <v/>
       </c>
       <c r="W27" t="str">
@@ -4906,20 +5222,28 @@
         <v/>
       </c>
       <c r="Z27" t="str">
-        <f>IF(Z25=0,"",CONCATENATE("W",Z25,LEFT(Z26,1),"c"))</f>
-        <v/>
+        <f t="shared" ref="Z27" si="32">IF(Z25=0,"",CONCATENATE("W",Z25,LEFT(Z26,1),"c"))</f>
+        <v>W30lc</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" ref="AA27" si="32">IF(AA25=0,"",CONCATENATE("W",AA25,LEFT(AA26,1),"c"))</f>
-        <v>W30lc</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+        <f>IF(AA25=0,"",CONCATENATE("W",AA25,LEFT(AA26,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AB27" t="str">
+        <f>IF(AB25=0,"",CONCATENATE("W",AB25,LEFT(AB26,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AC27" t="str">
+        <f>IF(AC25=0,"",CONCATENATE("W",AC25,LEFT(AC26,1),"c"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" ref="C28:V28" si="33">CONCATENATE("wind",UPPER(LEFT(C26,1)), "C",C25)</f>
+        <f t="shared" ref="C28:T28" si="33">CONCATENATE("wind",UPPER(LEFT(C26,1)), "C",C25)</f>
         <v>windLC0</v>
       </c>
       <c r="D28" t="str">
@@ -4995,7 +5319,7 @@
         <v>windLC0</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="33"/>
+        <f>CONCATENATE("wind",UPPER(LEFT(V26,1)), "C",V25)</f>
         <v>windLC0</v>
       </c>
       <c r="W28" t="str">
@@ -5011,20 +5335,28 @@
         <v>windLC0</v>
       </c>
       <c r="Z28" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(Z26,1)), "C",Z25)</f>
+        <f t="shared" ref="Z28" si="34">CONCATENATE("wind",UPPER(LEFT(Z26,1)), "C",Z25)</f>
+        <v>windLC30</v>
+      </c>
+      <c r="AA28" t="str">
+        <f>CONCATENATE("wind",UPPER(LEFT(AA26,1)), "C",AA25)</f>
         <v>windLC0</v>
       </c>
-      <c r="AA28" t="str">
-        <f t="shared" ref="AA28" si="34">CONCATENATE("wind",UPPER(LEFT(AA26,1)), "C",AA25)</f>
-        <v>windLC30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28" t="str">
+        <f>CONCATENATE("wind",UPPER(LEFT(AB26,1)), "C",AB25)</f>
+        <v>windLC0</v>
+      </c>
+      <c r="AC28" t="str">
+        <f>CONCATENATE("wind",UPPER(LEFT(AC26,1)), "C",AC25)</f>
+        <v>windLC0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C29" s="21">
         <v>0</v>
@@ -5096,98 +5428,110 @@
         <v>0</v>
       </c>
       <c r="Z29" s="21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA29" s="21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" t="s">
+        <v>255</v>
+      </c>
+      <c r="H30" t="s">
+        <v>255</v>
+      </c>
+      <c r="I30" t="s">
+        <v>255</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>255</v>
+      </c>
+      <c r="L30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M30" t="s">
+        <v>255</v>
+      </c>
+      <c r="N30" t="s">
+        <v>255</v>
+      </c>
+      <c r="O30" t="s">
+        <v>255</v>
+      </c>
+      <c r="P30" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>255</v>
+      </c>
+      <c r="R30" t="s">
+        <v>255</v>
+      </c>
+      <c r="S30" t="s">
+        <v>255</v>
+      </c>
+      <c r="T30" t="s">
+        <v>255</v>
+      </c>
+      <c r="U30" t="s">
+        <v>255</v>
+      </c>
+      <c r="V30" t="s">
+        <v>255</v>
+      </c>
+      <c r="W30" t="s">
+        <v>255</v>
+      </c>
+      <c r="X30" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" t="s">
         <v>280</v>
-      </c>
-      <c r="B30" t="s">
-        <v>276</v>
-      </c>
-      <c r="C30" t="s">
-        <v>256</v>
-      </c>
-      <c r="D30" t="s">
-        <v>256</v>
-      </c>
-      <c r="E30" t="s">
-        <v>256</v>
-      </c>
-      <c r="F30" t="s">
-        <v>256</v>
-      </c>
-      <c r="G30" t="s">
-        <v>256</v>
-      </c>
-      <c r="H30" t="s">
-        <v>256</v>
-      </c>
-      <c r="I30" t="s">
-        <v>256</v>
-      </c>
-      <c r="J30" t="s">
-        <v>256</v>
-      </c>
-      <c r="K30" t="s">
-        <v>256</v>
-      </c>
-      <c r="L30" t="s">
-        <v>256</v>
-      </c>
-      <c r="M30" t="s">
-        <v>256</v>
-      </c>
-      <c r="N30" t="s">
-        <v>256</v>
-      </c>
-      <c r="O30" t="s">
-        <v>256</v>
-      </c>
-      <c r="P30" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>256</v>
-      </c>
-      <c r="R30" t="s">
-        <v>256</v>
-      </c>
-      <c r="S30" t="s">
-        <v>256</v>
-      </c>
-      <c r="T30" t="s">
-        <v>256</v>
-      </c>
-      <c r="U30" t="s">
-        <v>256</v>
-      </c>
-      <c r="V30" t="s">
-        <v>256</v>
-      </c>
-      <c r="W30" t="s">
-        <v>256</v>
-      </c>
-      <c r="X30" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
-      <c r="A31" t="s">
-        <v>281</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ref="C31:M31" si="35">IF(C29=0,"",CONCATENATE("W",C29,LEFT(C30,1),"c"))</f>
@@ -5234,7 +5578,7 @@
         <v/>
       </c>
       <c r="N31" t="str">
-        <f t="shared" ref="N31:V31" si="36">IF(N29=0,"",CONCATENATE("S",N29,LEFT(N30,1),"c"))</f>
+        <f t="shared" ref="N31:T31" si="36">IF(N29=0,"",CONCATENATE("S",N29,LEFT(N30,1),"c"))</f>
         <v>S10lc</v>
       </c>
       <c r="O31" t="str">
@@ -5266,7 +5610,7 @@
         <v/>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(V29=0,"",CONCATENATE("W",V29,LEFT(V30,1),"c"))</f>
         <v/>
       </c>
       <c r="W31" t="str">
@@ -5282,20 +5626,28 @@
         <v/>
       </c>
       <c r="Z31" t="str">
-        <f>IF(Z29=0,"",CONCATENATE("W",Z29,LEFT(Z30,1),"c"))</f>
-        <v/>
+        <f t="shared" ref="Z31" si="37">IF(Z29=0,"",CONCATENATE("S",Z29,LEFT(Z30,1),"c"))</f>
+        <v>S30lc</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" ref="AA31" si="37">IF(AA29=0,"",CONCATENATE("S",AA29,LEFT(AA30,1),"c"))</f>
-        <v>S30lc</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+        <f>IF(AA29=0,"",CONCATENATE("S",AA29,LEFT(AA30,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AB31" t="str">
+        <f>IF(AB29=0,"",CONCATENATE("S",AB29,LEFT(AB30,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AC31" t="str">
+        <f>IF(AC29=0,"",CONCATENATE("S",AC29,LEFT(AC30,1),"c"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" ref="C32:V32" si="38">CONCATENATE("solar",UPPER(LEFT(C30,1)), "C",C29)</f>
+        <f t="shared" ref="C32:T32" si="38">CONCATENATE("solar",UPPER(LEFT(C30,1)), "C",C29)</f>
         <v>solarLC0</v>
       </c>
       <c r="D32" t="str">
@@ -5371,7 +5723,7 @@
         <v>solarLC0</v>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="38"/>
+        <f>CONCATENATE("solar",UPPER(LEFT(V30,1)), "C",V29)</f>
         <v>solarLC0</v>
       </c>
       <c r="W32" t="str">
@@ -5387,20 +5739,28 @@
         <v>solarLC0</v>
       </c>
       <c r="Z32" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(Z30,1)), "C",Z29)</f>
+        <f t="shared" ref="Z32" si="39">CONCATENATE("solar",UPPER(LEFT(Z30,1)), "C",Z29)</f>
+        <v>solarLC30</v>
+      </c>
+      <c r="AA32" t="str">
+        <f>CONCATENATE("solar",UPPER(LEFT(AA30,1)), "C",AA29)</f>
         <v>solarLC0</v>
       </c>
-      <c r="AA32" t="str">
-        <f t="shared" ref="AA32" si="39">CONCATENATE("solar",UPPER(LEFT(AA30,1)), "C",AA29)</f>
-        <v>solarLC30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32" t="str">
+        <f>CONCATENATE("solar",UPPER(LEFT(AB30,1)), "C",AB29)</f>
+        <v>solarLC0</v>
+      </c>
+      <c r="AC32" t="str">
+        <f>CONCATENATE("solar",UPPER(LEFT(AC30,1)), "C",AC29)</f>
+        <v>solarLC0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>283</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>284</v>
       </c>
       <c r="C33" s="21">
         <v>80</v>
@@ -5477,13 +5837,19 @@
       <c r="AA33" s="21">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33" s="21">
+        <v>80</v>
+      </c>
+      <c r="AC33" s="21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ref="C34:V34" si="40">IF(C33=80,"", CONCATENATE("W",C33))</f>
+        <f t="shared" ref="C34:T34" si="40">IF(C33=80,"", CONCATENATE("W",C33))</f>
         <v/>
       </c>
       <c r="D34" t="str">
@@ -5559,7 +5925,7 @@
         <v>W120</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="40"/>
+        <f>IF(V33=80,"", CONCATENATE("W",V33))</f>
         <v/>
       </c>
       <c r="W34" t="str">
@@ -5575,20 +5941,28 @@
         <v/>
       </c>
       <c r="Z34" t="str">
-        <f>IF(Z33=80,"", CONCATENATE("W",Z33))</f>
+        <f t="shared" ref="Z34" si="41">IF(Z33=80,"", CONCATENATE("W",Z33))</f>
         <v/>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" ref="AA34" si="41">IF(AA33=80,"", CONCATENATE("W",AA33))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+        <f>IF(AA33=80,"", CONCATENATE("W",AA33))</f>
+        <v/>
+      </c>
+      <c r="AB34" t="str">
+        <f>IF(AB33=80,"", CONCATENATE("W",AB33))</f>
+        <v/>
+      </c>
+      <c r="AC34" t="str">
+        <f>IF(AC33=80,"", CONCATENATE("W",AC33))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ref="C35:V35" si="42">CONCATENATE("W",C33)</f>
+        <f t="shared" ref="C35:T35" si="42">CONCATENATE("W",C33)</f>
         <v>W80</v>
       </c>
       <c r="D35" t="str">
@@ -5664,7 +6038,7 @@
         <v>W120</v>
       </c>
       <c r="V35" t="str">
-        <f t="shared" si="42"/>
+        <f>CONCATENATE("W",V33)</f>
         <v>W80</v>
       </c>
       <c r="W35" t="str">
@@ -5680,103 +6054,117 @@
         <v>W80</v>
       </c>
       <c r="Z35" t="str">
-        <f>CONCATENATE("W",Z33)</f>
+        <f t="shared" ref="Z35" si="43">CONCATENATE("W",Z33)</f>
         <v>W80</v>
       </c>
       <c r="AA35" t="str">
-        <f t="shared" ref="AA35" si="43">CONCATENATE("W",AA33)</f>
+        <f>CONCATENATE("W",AA33)</f>
         <v>W80</v>
       </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35" t="str">
+        <f>CONCATENATE("W",AB33)</f>
+        <v>W80</v>
+      </c>
+      <c r="AC35" t="str">
+        <f>CONCATENATE("W",AC33)</f>
+        <v>W80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B36" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="C36" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="D36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="O36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="P36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="R36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="S36" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="T36" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="U36" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="L36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="M36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="N36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="O36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="P36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="R36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="S36" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="T36" s="21" t="s">
+      <c r="V36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="W36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="X36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC36" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" t="s">
         <v>291</v>
       </c>
-      <c r="U36" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="V36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="W36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="X36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z36" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA36" s="21" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
-      <c r="A37" t="s">
-        <v>292</v>
-      </c>
       <c r="C37" t="str">
-        <f t="shared" ref="C37:V37" si="44">IF(C36="0d", "", CONCATENATE("S",C36))</f>
+        <f t="shared" ref="C37:T37" si="44">IF(C36="0d", "", CONCATENATE("S",C36))</f>
         <v/>
       </c>
       <c r="D37" t="str">
@@ -5852,7 +6240,7 @@
         <v>S1A</v>
       </c>
       <c r="V37" t="str">
-        <f t="shared" si="44"/>
+        <f>IF(V36="0d", "", CONCATENATE("S",V36))</f>
         <v/>
       </c>
       <c r="W37" t="str">
@@ -5868,20 +6256,28 @@
         <v/>
       </c>
       <c r="Z37" t="str">
-        <f>IF(Z36="0d", "", CONCATENATE("S",Z36))</f>
+        <f t="shared" ref="Z37" si="45">IF(Z36="0d", "", CONCATENATE("S",Z36))</f>
         <v/>
       </c>
       <c r="AA37" t="str">
-        <f t="shared" ref="AA37" si="45">IF(AA36="0d", "", CONCATENATE("S",AA36))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+        <f>IF(AA36="0d", "", CONCATENATE("S",AA36))</f>
+        <v/>
+      </c>
+      <c r="AB37" t="str">
+        <f>IF(AB36="0d", "", CONCATENATE("S",AB36))</f>
+        <v/>
+      </c>
+      <c r="AC37" t="str">
+        <f>IF(AC36="0d", "", CONCATENATE("S",AC36))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" ref="C38:V38" si="46">CONCATENATE("S",C36)</f>
+        <f t="shared" ref="C38:T38" si="46">CONCATENATE("S",C36)</f>
         <v>S0d</v>
       </c>
       <c r="D38" t="str">
@@ -5957,7 +6353,7 @@
         <v>S1A</v>
       </c>
       <c r="V38" t="str">
-        <f t="shared" si="46"/>
+        <f>CONCATENATE("S",V36)</f>
         <v>S0d</v>
       </c>
       <c r="W38" t="str">
@@ -5973,17 +6369,25 @@
         <v>S0d</v>
       </c>
       <c r="Z38" t="str">
-        <f>CONCATENATE("S",Z36)</f>
+        <f t="shared" ref="Z38" si="47">CONCATENATE("S",Z36)</f>
         <v>S0d</v>
       </c>
       <c r="AA38" t="str">
-        <f t="shared" ref="AA38" si="47">CONCATENATE("S",AA36)</f>
+        <f>CONCATENATE("S",AA36)</f>
         <v>S0d</v>
       </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AB38" t="str">
+        <f>CONCATENATE("S",AB36)</f>
+        <v>S0d</v>
+      </c>
+      <c r="AC38" t="str">
+        <f>CONCATENATE("S",AC36)</f>
+        <v>S0d</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="21">
@@ -6061,13 +6465,19 @@
       <c r="AA39" s="21">
         <v>2014</v>
       </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39" s="21">
+        <v>2014</v>
+      </c>
+      <c r="AC39" s="21">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" ref="C40:V40" si="48">IF(C39=2014,"",CONCATENATE("L",C39))</f>
+        <f t="shared" ref="C40:T40" si="48">IF(C39=2014,"",CONCATENATE("L",C39))</f>
         <v/>
       </c>
       <c r="D40" t="str">
@@ -6143,7 +6553,7 @@
         <v/>
       </c>
       <c r="V40" t="str">
-        <f t="shared" si="48"/>
+        <f>IF(V39=2014,"",CONCATENATE("L",V39))</f>
         <v/>
       </c>
       <c r="W40" t="str">
@@ -6159,103 +6569,117 @@
         <v/>
       </c>
       <c r="Z40" t="str">
-        <f>IF(Z39=2014,"",CONCATENATE("L",Z39))</f>
+        <f t="shared" ref="Z40" si="49">IF(Z39=2014,"",CONCATENATE("L",Z39))</f>
         <v/>
       </c>
       <c r="AA40" t="str">
-        <f t="shared" ref="AA40" si="49">IF(AA39=2014,"",CONCATENATE("L",AA39))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+        <f>IF(AA39=2014,"",CONCATENATE("L",AA39))</f>
+        <v/>
+      </c>
+      <c r="AB40" t="str">
+        <f>IF(AB39=2014,"",CONCATENATE("L",AB39))</f>
+        <v/>
+      </c>
+      <c r="AC40" t="str">
+        <f>IF(AC39=2014,"",CONCATENATE("L",AC39))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="C41" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="D41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="M41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="N41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="P41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="R41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="S41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="T41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="U41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="V41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="W41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="X41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z41" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA41" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB41" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC41" s="21" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42" t="s">
         <v>298</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="J41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="K41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="L41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="M41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="N41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="O41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="P41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="R41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="S41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="T41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="U41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="V41" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="W41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="X41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="Z41" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA41" s="21" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
-      <c r="A42" t="s">
-        <v>300</v>
-      </c>
       <c r="C42" t="str">
-        <f t="shared" ref="C42:V42" si="50">IF(C41="none","",CONCATENATE("L",C41))</f>
+        <f t="shared" ref="C42:T42" si="50">IF(C41="none","",CONCATENATE("L",C41))</f>
         <v/>
       </c>
       <c r="D42" t="str">
@@ -6331,8 +6755,8 @@
         <v/>
       </c>
       <c r="V42" t="str">
-        <f t="shared" si="50"/>
-        <v>Lmod</v>
+        <f>IF(V41="none","",CONCATENATE("L",V41))</f>
+        <v/>
       </c>
       <c r="W42" t="str">
         <f>IF(W41="none","",CONCATENATE("L",W41))</f>
@@ -6347,183 +6771,203 @@
         <v/>
       </c>
       <c r="Z42" t="str">
-        <f>IF(Z41="none","",CONCATENATE("L",Z41))</f>
+        <f t="shared" ref="Z42" si="51">IF(Z41="none","",CONCATENATE("L",Z41))</f>
         <v/>
       </c>
       <c r="AA42" t="str">
-        <f t="shared" ref="AA42" si="51">IF(AA41="none","",CONCATENATE("L",AA41))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+        <f>IF(AA41="none","",CONCATENATE("L",AA41))</f>
+        <v>Lmod_D0_M0_energyOnly</v>
+      </c>
+      <c r="AB42" t="str">
+        <f>IF(AB41="none","",CONCATENATE("L",AB41))</f>
+        <v>Lmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AC42" t="str">
+        <f>IF(AC41="none","",CONCATENATE("L",AC41))</f>
+        <v>Lmod_D25_M25_energyOnly</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="D43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="L43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="M43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="P43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="R43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="S43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="T43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="U43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="V43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="W43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="X43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB43" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC43" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
+      <c r="A44" t="s">
         <v>302</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="A45" t="s">
         <v>303</v>
       </c>
-      <c r="D43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="K43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="L43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="M43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="N43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="O43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="P43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="R43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="S43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="T43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="U43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="V43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="W43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="X43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z43" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA43" s="21" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
-      <c r="A44" t="s">
-        <v>304</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
-      <c r="A45" t="s">
-        <v>305</v>
-      </c>
       <c r="C45" t="str">
-        <f t="shared" ref="C45:V45" si="52">IF(C43="RT","",CONCATENATE(C43,C44))</f>
+        <f t="shared" ref="C45:T45" si="52">IF(C43="RT","",CONCATENATE(C43,C44))</f>
         <v/>
       </c>
       <c r="D45" t="str">
@@ -6599,7 +7043,7 @@
         <v/>
       </c>
       <c r="V45" t="str">
-        <f t="shared" si="52"/>
+        <f>IF(V43="RT","",CONCATENATE(V43,V44))</f>
         <v/>
       </c>
       <c r="W45" t="str">
@@ -6615,11 +7059,19 @@
         <v/>
       </c>
       <c r="Z45" t="str">
-        <f>IF(Z43="RT","",CONCATENATE(Z43,Z44))</f>
+        <f t="shared" ref="Z45" si="53">IF(Z43="RT","",CONCATENATE(Z43,Z44))</f>
         <v/>
       </c>
       <c r="AA45" t="str">
-        <f t="shared" ref="AA45" si="53">IF(AA43="RT","",CONCATENATE(AA43,AA44))</f>
+        <f>IF(AA43="RT","",CONCATENATE(AA43,AA44))</f>
+        <v/>
+      </c>
+      <c r="AB45" t="str">
+        <f>IF(AB43="RT","",CONCATENATE(AB43,AB44))</f>
+        <v/>
+      </c>
+      <c r="AC45" t="str">
+        <f>IF(AC43="RT","",CONCATENATE(AC43,AC44))</f>
         <v/>
       </c>
     </row>
@@ -6651,41 +7103,41 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
         <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D3">
         <v>216</v>
@@ -6704,13 +7156,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
         <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D4">
         <v>88</v>
@@ -6729,10 +7181,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E5">
         <f>D5/60</f>
@@ -6748,13 +7200,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D6">
         <v>89</v>
@@ -6784,86 +7236,554 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" t="str">
-        <f>REvalue_input_csv!C1</f>
-        <v>base</v>
-      </c>
-      <c r="C1" t="str">
-        <f>REvalue_input_csv!D1</f>
-        <v>high_cost_coal</v>
-      </c>
-      <c r="D1" t="str">
-        <f>REvalue_input_csv!E1</f>
-        <v>coal_55mingen</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="str">
-        <f>REvalue_input_csv!C2</f>
-        <v>ClcC70m</v>
-      </c>
-      <c r="C2" t="str">
-        <f>REvalue_input_csv!D2</f>
-        <v>ChcC70m</v>
-      </c>
-      <c r="D2" t="str">
-        <f>REvalue_input_csv!E2</f>
-        <v>ClcC55m</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    <row r="1" spans="1:28">
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M1" t="s">
+        <v>239</v>
+      </c>
+      <c r="N1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>243</v>
+      </c>
+      <c r="R1" t="s">
+        <v>244</v>
+      </c>
+      <c r="S1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T1" t="s">
+        <v>417</v>
+      </c>
+      <c r="U1" t="s">
+        <v>422</v>
+      </c>
+      <c r="V1" t="s">
+        <v>423</v>
+      </c>
+      <c r="W1" t="s">
+        <v>424</v>
+      </c>
+      <c r="X1" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="B2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L2" t="s">
+        <v>452</v>
+      </c>
+      <c r="M2" t="s">
+        <v>453</v>
+      </c>
+      <c r="N2" t="s">
+        <v>454</v>
+      </c>
+      <c r="O2" t="s">
+        <v>455</v>
+      </c>
+      <c r="P2" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>457</v>
+      </c>
+      <c r="R2" t="s">
+        <v>458</v>
+      </c>
+      <c r="S2" t="s">
+        <v>459</v>
+      </c>
+      <c r="T2" t="s">
+        <v>460</v>
+      </c>
+      <c r="U2" t="s">
+        <v>461</v>
+      </c>
+      <c r="V2" t="s">
+        <v>462</v>
+      </c>
+      <c r="W2" t="s">
+        <v>463</v>
+      </c>
+      <c r="X2" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>465</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" t="s">
         <v>414</v>
       </c>
-      <c r="B3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I3" t="s">
+        <v>414</v>
+      </c>
+      <c r="J3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K3" t="s">
+        <v>414</v>
+      </c>
+      <c r="L3" t="s">
+        <v>414</v>
+      </c>
+      <c r="M3" t="s">
+        <v>414</v>
+      </c>
+      <c r="N3" t="s">
+        <v>414</v>
+      </c>
+      <c r="O3" t="s">
+        <v>414</v>
+      </c>
+      <c r="P3" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>414</v>
+      </c>
+      <c r="R3" t="s">
+        <v>414</v>
+      </c>
+      <c r="S3" t="s">
+        <v>414</v>
+      </c>
+      <c r="T3" t="s">
+        <v>414</v>
+      </c>
+      <c r="U3" t="s">
+        <v>414</v>
+      </c>
+      <c r="V3" t="s">
+        <v>414</v>
+      </c>
+      <c r="W3" t="s">
+        <v>414</v>
+      </c>
+      <c r="X3" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>414</v>
+      </c>
+      <c r="C4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G4" t="s">
+        <v>414</v>
+      </c>
+      <c r="H4" t="s">
+        <v>414</v>
+      </c>
+      <c r="I4" t="s">
+        <v>414</v>
+      </c>
+      <c r="J4" t="s">
+        <v>414</v>
+      </c>
+      <c r="K4" t="s">
+        <v>414</v>
+      </c>
+      <c r="L4" t="s">
+        <v>414</v>
+      </c>
+      <c r="M4" t="s">
+        <v>414</v>
+      </c>
+      <c r="N4" t="s">
+        <v>414</v>
+      </c>
+      <c r="O4" t="s">
+        <v>414</v>
+      </c>
+      <c r="P4" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>414</v>
+      </c>
+      <c r="R4" t="s">
+        <v>414</v>
+      </c>
+      <c r="S4" t="s">
+        <v>414</v>
+      </c>
+      <c r="T4" t="s">
+        <v>414</v>
+      </c>
+      <c r="U4" t="s">
+        <v>414</v>
+      </c>
+      <c r="V4" t="s">
+        <v>414</v>
+      </c>
+      <c r="W4" t="s">
+        <v>414</v>
+      </c>
+      <c r="X4" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D5" t="s">
+        <v>414</v>
+      </c>
+      <c r="H5" t="s">
+        <v>414</v>
+      </c>
+      <c r="I5" t="s">
+        <v>414</v>
+      </c>
+      <c r="J5" t="s">
+        <v>414</v>
+      </c>
+      <c r="K5" t="s">
+        <v>414</v>
+      </c>
+      <c r="L5" t="s">
+        <v>414</v>
+      </c>
+      <c r="M5" t="s">
+        <v>414</v>
+      </c>
+      <c r="N5" t="s">
+        <v>414</v>
+      </c>
+      <c r="O5" t="s">
+        <v>414</v>
+      </c>
+      <c r="P5" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>414</v>
+      </c>
+      <c r="R5" t="s">
+        <v>414</v>
+      </c>
+      <c r="T5" t="s">
+        <v>414</v>
+      </c>
+      <c r="V5" t="s">
+        <v>414</v>
+      </c>
+      <c r="X5" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I6" t="s">
+        <v>414</v>
+      </c>
+      <c r="J6" t="s">
+        <v>414</v>
+      </c>
+      <c r="K6" t="s">
+        <v>414</v>
+      </c>
+      <c r="L6" t="s">
+        <v>414</v>
+      </c>
+      <c r="M6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N6" t="s">
+        <v>414</v>
+      </c>
+      <c r="O6" t="s">
+        <v>414</v>
+      </c>
+      <c r="P6" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>414</v>
+      </c>
+      <c r="R6" t="s">
+        <v>414</v>
+      </c>
+      <c r="T6" t="s">
+        <v>414</v>
+      </c>
+      <c r="V6" t="s">
+        <v>414</v>
+      </c>
+      <c r="X6" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" t="s">
         <v>411</v>
       </c>
-      <c r="B5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>412</v>
-      </c>
-      <c r="B6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>413</v>
+      <c r="B7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H7" t="s">
+        <v>414</v>
+      </c>
+      <c r="I7" t="s">
+        <v>414</v>
+      </c>
+      <c r="J7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L7" t="s">
+        <v>414</v>
+      </c>
+      <c r="M7" t="s">
+        <v>414</v>
+      </c>
+      <c r="N7" t="s">
+        <v>414</v>
+      </c>
+      <c r="O7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>414</v>
+      </c>
+      <c r="R7" t="s">
+        <v>414</v>
+      </c>
+      <c r="T7" t="s">
+        <v>414</v>
+      </c>
+      <c r="V7" t="s">
+        <v>414</v>
+      </c>
+      <c r="X7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7126,7 +8046,7 @@
         <v>10</v>
       </c>
       <c r="AJ5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AK5">
         <f>$AK$4*0.75</f>
@@ -7176,7 +8096,7 @@
         <v>10</v>
       </c>
       <c r="AJ6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AK6">
         <f>$AK$4*0.5</f>
@@ -7225,7 +8145,7 @@
         <v>3900</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -7474,10 +8394,10 @@
         <v>222</v>
       </c>
       <c r="AB13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AC13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AD13" t="s">
         <v>222</v>
@@ -7547,13 +8467,13 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B15">
         <v>3.9</v>
       </c>
       <c r="C15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="R15" t="s">
         <v>189</v>
@@ -8171,7 +9091,7 @@
         <v>183</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" ref="S29:AD29" si="13">$W$4</f>
+        <f t="shared" ref="S29:AC29" si="13">$W$4</f>
         <v>2.6153846153846154</v>
       </c>
       <c r="T29" s="4">
@@ -9021,51 +9941,51 @@
         <v>195</v>
       </c>
       <c r="S44" s="5">
-        <f>S19</f>
+        <f t="shared" ref="S44:AD44" si="26">S19</f>
         <v>65.002501490990369</v>
       </c>
       <c r="T44" s="5">
-        <f>T19</f>
+        <f t="shared" si="26"/>
         <v>65.002501490990369</v>
       </c>
       <c r="U44" s="5">
-        <f>U19</f>
+        <f t="shared" si="26"/>
         <v>65.002501490990369</v>
       </c>
       <c r="V44" s="5">
-        <f>V19</f>
+        <f t="shared" si="26"/>
         <v>65.002501490990369</v>
       </c>
       <c r="W44" s="5">
-        <f>W19</f>
+        <f t="shared" si="26"/>
         <v>65.002501490990369</v>
       </c>
       <c r="X44" s="5">
-        <f>X19</f>
+        <f t="shared" si="26"/>
         <v>65.002501490990369</v>
       </c>
       <c r="Y44" s="5">
-        <f>Y19</f>
+        <f t="shared" si="26"/>
         <v>65.002501490990369</v>
       </c>
       <c r="Z44" s="5">
-        <f>Z19</f>
+        <f t="shared" si="26"/>
         <v>65.002501490990369</v>
       </c>
       <c r="AA44" s="5">
-        <f>AA19</f>
+        <f t="shared" si="26"/>
         <v>65.002501490990369</v>
       </c>
       <c r="AB44" s="5">
-        <f>AB19</f>
+        <f t="shared" si="26"/>
         <v>65.002501490990369</v>
       </c>
       <c r="AC44" s="5">
-        <f>AC19</f>
+        <f t="shared" si="26"/>
         <v>65.002501490990369</v>
       </c>
       <c r="AD44" s="5">
-        <f>AD19</f>
+        <f t="shared" si="26"/>
         <v>65.002501490990369</v>
       </c>
     </row>
@@ -9092,51 +10012,51 @@
         <v>195</v>
       </c>
       <c r="S45" s="5">
-        <f>S44+S20*$Q$45/1000</f>
+        <f t="shared" ref="S45:AD45" si="27">S44+S20*$Q$45/1000</f>
         <v>1177.2962457334145</v>
       </c>
       <c r="T45" s="5">
-        <f>T44+T20*$Q$45/1000</f>
+        <f t="shared" si="27"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="U45" s="5">
-        <f>U44+U20*$Q$45/1000</f>
+        <f t="shared" si="27"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="V45" s="5">
-        <f>V44+V20*$Q$45/1000</f>
+        <f t="shared" si="27"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="W45" s="5">
-        <f>W44+W20*$Q$45/1000</f>
+        <f t="shared" si="27"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="X45" s="5">
-        <f>X44+X20*$Q$45/1000</f>
+        <f t="shared" si="27"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="Y45" s="5">
-        <f>Y44+Y20*$Q$45/1000</f>
+        <f t="shared" si="27"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="Z45" s="5">
-        <f>Z44+Z20*$Q$45/1000</f>
+        <f t="shared" si="27"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="AA45" s="5">
-        <f>AA44+AA20*$Q$45/1000</f>
+        <f t="shared" si="27"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="AB45" s="5">
-        <f>AB44+AB20*$Q$45/1000</f>
+        <f t="shared" si="27"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="AC45" s="5">
-        <f>AC44+AC20*$Q$45/1000</f>
+        <f t="shared" si="27"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="AD45" s="5">
-        <f>AD44+AD20*$Q$45/1000</f>
+        <f t="shared" si="27"/>
         <v>1177.2962457334145</v>
       </c>
     </row>
@@ -9163,51 +10083,51 @@
         <v>196</v>
       </c>
       <c r="S46" s="5">
-        <f>S24</f>
+        <f t="shared" ref="S46:AD46" si="28">S24</f>
         <v>77.517144561131843</v>
       </c>
       <c r="T46" s="5">
-        <f>T24</f>
+        <f t="shared" si="28"/>
         <v>77.517144561131843</v>
       </c>
       <c r="U46" s="5">
-        <f>U24</f>
+        <f t="shared" si="28"/>
         <v>77.517144561131843</v>
       </c>
       <c r="V46" s="5">
-        <f>V24</f>
+        <f t="shared" si="28"/>
         <v>77.517144561131843</v>
       </c>
       <c r="W46" s="5">
-        <f>W24</f>
+        <f t="shared" si="28"/>
         <v>77.517144561131843</v>
       </c>
       <c r="X46" s="5">
-        <f>X24</f>
+        <f t="shared" si="28"/>
         <v>77.517144561131843</v>
       </c>
       <c r="Y46" s="5">
-        <f>Y24</f>
+        <f t="shared" si="28"/>
         <v>77.517144561131843</v>
       </c>
       <c r="Z46" s="5">
-        <f>Z24</f>
+        <f t="shared" si="28"/>
         <v>77.517144561131843</v>
       </c>
       <c r="AA46" s="5">
-        <f>AA24</f>
+        <f t="shared" si="28"/>
         <v>77.517144561131843</v>
       </c>
       <c r="AB46" s="5">
-        <f>AB24</f>
+        <f t="shared" si="28"/>
         <v>77.517144561131843</v>
       </c>
       <c r="AC46" s="5">
-        <f>AC24</f>
+        <f t="shared" si="28"/>
         <v>77.517144561131843</v>
       </c>
       <c r="AD46" s="5">
-        <f>AD24</f>
+        <f t="shared" si="28"/>
         <v>77.517144561131843</v>
       </c>
     </row>
@@ -9219,51 +10139,51 @@
         <v>196</v>
       </c>
       <c r="S47" s="5">
-        <f>S46+S25*$Q$47/1000</f>
+        <f t="shared" ref="S47:AD47" si="29">S46+S25*$Q$47/1000</f>
         <v>821.56369225343963</v>
       </c>
       <c r="T47" s="5">
-        <f>T46+T25*$Q$47/1000</f>
+        <f t="shared" si="29"/>
         <v>821.56369225343963</v>
       </c>
       <c r="U47" s="5">
-        <f>U46+U25*$Q$47/1000</f>
+        <f t="shared" si="29"/>
         <v>821.56369225343963</v>
       </c>
       <c r="V47" s="5">
-        <f>V46+V25*$Q$47/1000</f>
+        <f t="shared" si="29"/>
         <v>821.56369225343963</v>
       </c>
       <c r="W47" s="5">
-        <f>W46+W25*$Q$47/1000</f>
+        <f t="shared" si="29"/>
         <v>821.56369225343963</v>
       </c>
       <c r="X47" s="5">
-        <f>X46+X25*$Q$47/1000</f>
+        <f t="shared" si="29"/>
         <v>821.56369225343963</v>
       </c>
       <c r="Y47" s="5">
-        <f>Y46+Y25*$Q$47/1000</f>
+        <f t="shared" si="29"/>
         <v>821.56369225343963</v>
       </c>
       <c r="Z47" s="5">
-        <f>Z46+Z25*$Q$47/1000</f>
+        <f t="shared" si="29"/>
         <v>821.56369225343963</v>
       </c>
       <c r="AA47" s="5">
-        <f>AA46+AA25*$Q$47/1000</f>
+        <f t="shared" si="29"/>
         <v>821.56369225343963</v>
       </c>
       <c r="AB47" s="5">
-        <f>AB46+AB25*$Q$47/1000</f>
+        <f t="shared" si="29"/>
         <v>821.56369225343963</v>
       </c>
       <c r="AC47" s="5">
-        <f>AC46+AC25*$Q$47/1000</f>
+        <f t="shared" si="29"/>
         <v>821.56369225343963</v>
       </c>
       <c r="AD47" s="5">
-        <f>AD46+AD25*$Q$47/1000</f>
+        <f t="shared" si="29"/>
         <v>821.56369225343963</v>
       </c>
     </row>
@@ -9292,51 +10212,51 @@
         <v>3</v>
       </c>
       <c r="S48" s="5">
-        <f>S30</f>
+        <f t="shared" ref="S48:AD48" si="30">S30</f>
         <v>125.88777825200532</v>
       </c>
       <c r="T48" s="5">
-        <f>T30</f>
+        <f t="shared" si="30"/>
         <v>139.92398963155881</v>
       </c>
       <c r="U48" s="5">
-        <f>U30</f>
+        <f t="shared" si="30"/>
         <v>125.88777825200532</v>
       </c>
       <c r="V48" s="5">
-        <f>V30</f>
+        <f t="shared" si="30"/>
         <v>125.88777825200532</v>
       </c>
       <c r="W48" s="5">
-        <f>W30</f>
+        <f t="shared" si="30"/>
         <v>125.88777825200532</v>
       </c>
       <c r="X48" s="5">
-        <f>X30</f>
+        <f t="shared" si="30"/>
         <v>125.88777825200532</v>
       </c>
       <c r="Y48" s="5">
-        <f>Y30</f>
+        <f t="shared" si="30"/>
         <v>125.88777825200532</v>
       </c>
       <c r="Z48" s="5">
-        <f>Z30</f>
+        <f t="shared" si="30"/>
         <v>125.88777825200532</v>
       </c>
       <c r="AA48" s="5">
-        <f>AA30</f>
+        <f t="shared" si="30"/>
         <v>125.88777825200532</v>
       </c>
       <c r="AB48" s="5">
-        <f>AB30</f>
+        <f t="shared" si="30"/>
         <v>125.88777825200532</v>
       </c>
       <c r="AC48" s="5">
-        <f>AC30</f>
+        <f t="shared" si="30"/>
         <v>125.88777825200532</v>
       </c>
       <c r="AD48" s="5">
-        <f>AD30</f>
+        <f t="shared" si="30"/>
         <v>139.92398963155881</v>
       </c>
     </row>
@@ -9363,51 +10283,51 @@
         <v>3</v>
       </c>
       <c r="S49" s="5">
-        <f>S48+S31*$Q$49/1000</f>
+        <f t="shared" ref="S49:AD49" si="31">S48+S31*$Q$49/1000</f>
         <v>410.29526277841552</v>
       </c>
       <c r="T49" s="5">
-        <f>T48+T31*$Q$49/1000</f>
+        <f t="shared" si="31"/>
         <v>542.03413077339212</v>
       </c>
       <c r="U49" s="5">
-        <f>U48+U31*$Q$49/1000</f>
+        <f t="shared" si="31"/>
         <v>410.29526277841552</v>
       </c>
       <c r="V49" s="5">
-        <f>V48+V31*$Q$49/1000</f>
+        <f t="shared" si="31"/>
         <v>410.29526277841552</v>
       </c>
       <c r="W49" s="5">
-        <f>W48+W31*$Q$49/1000</f>
+        <f t="shared" si="31"/>
         <v>410.29526277841552</v>
       </c>
       <c r="X49" s="5">
-        <f>X48+X31*$Q$49/1000</f>
+        <f t="shared" si="31"/>
         <v>410.29526277841552</v>
       </c>
       <c r="Y49" s="5">
-        <f>Y48+Y31*$Q$49/1000</f>
+        <f t="shared" si="31"/>
         <v>410.29526277841552</v>
       </c>
       <c r="Z49" s="5">
-        <f>Z48+Z31*$Q$49/1000</f>
+        <f t="shared" si="31"/>
         <v>410.29526277841552</v>
       </c>
       <c r="AA49" s="5">
-        <f>AA48+AA31*$Q$49/1000</f>
+        <f t="shared" si="31"/>
         <v>410.29526277841552</v>
       </c>
       <c r="AB49" s="5">
-        <f>AB48+AB31*$Q$49/1000</f>
+        <f t="shared" si="31"/>
         <v>410.29526277841552</v>
       </c>
       <c r="AC49" s="5">
-        <f>AC48+AC31*$Q$49/1000</f>
+        <f t="shared" si="31"/>
         <v>410.29526277841552</v>
       </c>
       <c r="AD49" s="5">
-        <f>AD48+AD31*$Q$49/1000</f>
+        <f t="shared" si="31"/>
         <v>542.03413077339212</v>
       </c>
     </row>
@@ -9445,7 +10365,7 @@
         <v>125.88777825200532</v>
       </c>
       <c r="Q51" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="R51" s="7" t="s">
         <v>197</v>
@@ -9489,51 +10409,51 @@
         <v>193</v>
       </c>
       <c r="S52" t="str">
-        <f>S9</f>
+        <f t="shared" ref="S52:AD52" si="32">S9</f>
         <v>coallc</v>
       </c>
       <c r="T52" t="str">
-        <f>T9</f>
+        <f t="shared" si="32"/>
         <v>coalhc</v>
       </c>
       <c r="U52" t="str">
-        <f>U9</f>
+        <f t="shared" si="32"/>
         <v>coallcW10lc</v>
       </c>
       <c r="V52" t="str">
-        <f>V9</f>
+        <f t="shared" si="32"/>
         <v>coallcW20lc</v>
       </c>
       <c r="W52" t="str">
-        <f>W9</f>
+        <f t="shared" si="32"/>
         <v>coallcW30lc</v>
       </c>
       <c r="X52" t="str">
-        <f>X9</f>
+        <f t="shared" si="32"/>
         <v>coallcS10lc</v>
       </c>
       <c r="Y52" t="str">
-        <f>Y9</f>
+        <f t="shared" si="32"/>
         <v>coallcS20lc</v>
       </c>
       <c r="Z52" t="str">
-        <f>Z9</f>
+        <f t="shared" si="32"/>
         <v>coallcS30lc</v>
       </c>
       <c r="AA52" t="str">
-        <f>AA9</f>
+        <f t="shared" si="32"/>
         <v>coallcW30lcS30lc</v>
       </c>
       <c r="AB52" t="str">
-        <f>AB9</f>
+        <f t="shared" si="32"/>
         <v>coallcB25lc</v>
       </c>
       <c r="AC52" t="str">
-        <f>AC9</f>
+        <f t="shared" si="32"/>
         <v>coallcB50lc</v>
       </c>
       <c r="AD52" t="str">
-        <f>AD9</f>
+        <f t="shared" si="32"/>
         <v>coalhcW30lcS30lc</v>
       </c>
     </row>
@@ -9569,51 +10489,51 @@
         <v>199</v>
       </c>
       <c r="S53" s="5">
-        <f>S17</f>
+        <f t="shared" ref="S53:AD53" si="33">S17</f>
         <v>678.26769230769241</v>
       </c>
       <c r="T53" s="5">
-        <f>T17</f>
+        <f t="shared" si="33"/>
         <v>678.26769230769241</v>
       </c>
       <c r="U53" s="5">
-        <f>U17</f>
+        <f t="shared" si="33"/>
         <v>678.26769230769241</v>
       </c>
       <c r="V53" s="5">
-        <f>V17</f>
+        <f t="shared" si="33"/>
         <v>678.26769230769241</v>
       </c>
       <c r="W53" s="5">
-        <f>W17</f>
+        <f t="shared" si="33"/>
         <v>678.26769230769241</v>
       </c>
       <c r="X53" s="5">
-        <f>X17</f>
+        <f t="shared" si="33"/>
         <v>678.26769230769241</v>
       </c>
       <c r="Y53" s="5">
-        <f>Y17</f>
+        <f t="shared" si="33"/>
         <v>678.26769230769241</v>
       </c>
       <c r="Z53" s="5">
-        <f>Z17</f>
+        <f t="shared" si="33"/>
         <v>678.26769230769241</v>
       </c>
       <c r="AA53" s="5">
-        <f>AA17</f>
+        <f t="shared" si="33"/>
         <v>678.26769230769241</v>
       </c>
       <c r="AB53" s="5">
-        <f>AB17</f>
+        <f t="shared" si="33"/>
         <v>678.26769230769241</v>
       </c>
       <c r="AC53" s="5">
-        <f>AC17</f>
+        <f t="shared" si="33"/>
         <v>678.26769230769241</v>
       </c>
       <c r="AD53" s="5">
-        <f>AD17</f>
+        <f t="shared" si="33"/>
         <v>678.26769230769241</v>
       </c>
     </row>
@@ -9655,51 +10575,51 @@
         <v>199</v>
       </c>
       <c r="S54" s="4">
-        <f t="shared" ref="S54:AD54" si="26">$B$32</f>
+        <f t="shared" ref="S54:AD54" si="34">$B$32</f>
         <v>6.8</v>
       </c>
       <c r="T54" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>6.8</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>6.8</v>
       </c>
       <c r="V54" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>6.8</v>
       </c>
       <c r="W54" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>6.8</v>
       </c>
       <c r="X54" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>6.8</v>
       </c>
       <c r="Y54" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>6.8</v>
       </c>
       <c r="Z54" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>6.8</v>
       </c>
       <c r="AA54" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>6.8</v>
       </c>
       <c r="AB54" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>6.8</v>
       </c>
       <c r="AC54" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>6.8</v>
       </c>
       <c r="AD54" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>6.8</v>
       </c>
     </row>
@@ -9737,51 +10657,51 @@
         <v>200</v>
       </c>
       <c r="S55" s="5">
-        <f>S23</f>
+        <f t="shared" ref="S55:AD55" si="35">S23</f>
         <v>775.16307692307703</v>
       </c>
       <c r="T55" s="5">
-        <f>T23</f>
+        <f t="shared" si="35"/>
         <v>775.16307692307703</v>
       </c>
       <c r="U55" s="5">
-        <f>U23</f>
+        <f t="shared" si="35"/>
         <v>775.16307692307703</v>
       </c>
       <c r="V55" s="5">
-        <f>V23</f>
+        <f t="shared" si="35"/>
         <v>775.16307692307703</v>
       </c>
       <c r="W55" s="5">
-        <f>W23</f>
+        <f t="shared" si="35"/>
         <v>775.16307692307703</v>
       </c>
       <c r="X55" s="5">
-        <f>X23</f>
+        <f t="shared" si="35"/>
         <v>775.16307692307703</v>
       </c>
       <c r="Y55" s="5">
-        <f>Y23</f>
+        <f t="shared" si="35"/>
         <v>775.16307692307703</v>
       </c>
       <c r="Z55" s="5">
-        <f>Z23</f>
+        <f t="shared" si="35"/>
         <v>775.16307692307703</v>
       </c>
       <c r="AA55" s="5">
-        <f>AA23</f>
+        <f t="shared" si="35"/>
         <v>775.16307692307703</v>
       </c>
       <c r="AB55" s="5">
-        <f>AB23</f>
+        <f t="shared" si="35"/>
         <v>775.16307692307703</v>
       </c>
       <c r="AC55" s="5">
-        <f>AC23</f>
+        <f t="shared" si="35"/>
         <v>775.16307692307703</v>
       </c>
       <c r="AD55" s="5">
-        <f>AD23</f>
+        <f t="shared" si="35"/>
         <v>775.16307692307703</v>
       </c>
     </row>
@@ -9800,51 +10720,51 @@
         <v>200</v>
       </c>
       <c r="S56" s="4">
-        <f t="shared" ref="S56:AD56" si="27">$C$32</f>
+        <f t="shared" ref="S56:AD56" si="36">$C$32</f>
         <v>11</v>
       </c>
       <c r="T56" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="V56" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="W56" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="X56" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="Y56" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="Z56" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="AA56" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="AB56" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="AC56" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="AD56" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
     </row>
@@ -9857,51 +10777,51 @@
         <v>57</v>
       </c>
       <c r="S57" s="5">
-        <f>S28</f>
+        <f t="shared" ref="S57:AD57" si="37">S28</f>
         <v>976.42784318082204</v>
       </c>
       <c r="T57" s="5">
-        <f>T28</f>
+        <f t="shared" si="37"/>
         <v>1140</v>
       </c>
       <c r="U57" s="5">
-        <f>U28</f>
+        <f t="shared" si="37"/>
         <v>976.42784318082204</v>
       </c>
       <c r="V57" s="5">
-        <f>V28</f>
+        <f t="shared" si="37"/>
         <v>976.42784318082204</v>
       </c>
       <c r="W57" s="5">
-        <f>W28</f>
+        <f t="shared" si="37"/>
         <v>976.42784318082204</v>
       </c>
       <c r="X57" s="5">
-        <f>X28</f>
+        <f t="shared" si="37"/>
         <v>976.42784318082204</v>
       </c>
       <c r="Y57" s="5">
-        <f>Y28</f>
+        <f t="shared" si="37"/>
         <v>976.42784318082204</v>
       </c>
       <c r="Z57" s="5">
-        <f>Z28</f>
+        <f t="shared" si="37"/>
         <v>976.42784318082204</v>
       </c>
       <c r="AA57" s="5">
-        <f>AA28</f>
+        <f t="shared" si="37"/>
         <v>976.42784318082204</v>
       </c>
       <c r="AB57" s="5">
-        <f>AB28</f>
+        <f t="shared" si="37"/>
         <v>976.42784318082204</v>
       </c>
       <c r="AC57" s="5">
-        <f>AC28</f>
+        <f t="shared" si="37"/>
         <v>976.42784318082204</v>
       </c>
       <c r="AD57" s="5">
-        <f>AD28</f>
+        <f t="shared" si="37"/>
         <v>1140</v>
       </c>
     </row>
@@ -9914,51 +10834,51 @@
         <v>57</v>
       </c>
       <c r="S58" s="4">
-        <f t="shared" ref="S58:AD58" si="28">$D$32</f>
+        <f t="shared" ref="S58:AD58" si="38">$D$32</f>
         <v>42.1</v>
       </c>
       <c r="T58" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>42.1</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>42.1</v>
       </c>
       <c r="V58" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>42.1</v>
       </c>
       <c r="W58" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>42.1</v>
       </c>
       <c r="X58" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>42.1</v>
       </c>
       <c r="Y58" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>42.1</v>
       </c>
       <c r="Z58" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>42.1</v>
       </c>
       <c r="AA58" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>42.1</v>
       </c>
       <c r="AB58" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>42.1</v>
       </c>
       <c r="AC58" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>42.1</v>
       </c>
       <c r="AD58" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>42.1</v>
       </c>
     </row>
@@ -9973,51 +10893,51 @@
         <v>201</v>
       </c>
       <c r="S59">
-        <f>INDEX($AD$4:$AF$7, MATCH(S11,$AD$4:$AD$7,0), 2)</f>
+        <f t="shared" ref="S59:AD59" si="39">INDEX($AD$4:$AF$7, MATCH(S11,$AD$4:$AD$7,0), 2)</f>
         <v>1100</v>
       </c>
       <c r="T59">
-        <f>INDEX($AD$4:$AF$7, MATCH(T11,$AD$4:$AD$7,0), 2)</f>
+        <f t="shared" si="39"/>
         <v>1100</v>
       </c>
       <c r="U59">
-        <f>INDEX($AD$4:$AF$7, MATCH(U11,$AD$4:$AD$7,0), 2)</f>
+        <f t="shared" si="39"/>
         <v>990</v>
       </c>
       <c r="V59">
-        <f>INDEX($AD$4:$AF$7, MATCH(V11,$AD$4:$AD$7,0), 2)</f>
+        <f t="shared" si="39"/>
         <v>880</v>
       </c>
       <c r="W59">
-        <f>INDEX($AD$4:$AF$7, MATCH(W11,$AD$4:$AD$7,0), 2)</f>
+        <f t="shared" si="39"/>
         <v>770</v>
       </c>
       <c r="X59">
-        <f>INDEX($AD$4:$AF$7, MATCH(X11,$AD$4:$AD$7,0), 2)</f>
+        <f t="shared" si="39"/>
         <v>1100</v>
       </c>
       <c r="Y59">
-        <f>INDEX($AD$4:$AF$7, MATCH(Y11,$AD$4:$AD$7,0), 2)</f>
+        <f t="shared" si="39"/>
         <v>1100</v>
       </c>
       <c r="Z59">
-        <f>INDEX($AD$4:$AF$7, MATCH(Z11,$AD$4:$AD$7,0), 2)</f>
+        <f t="shared" si="39"/>
         <v>1100</v>
       </c>
       <c r="AA59">
-        <f>INDEX($AD$4:$AF$7, MATCH(AA11,$AD$4:$AD$7,0), 2)</f>
+        <f t="shared" si="39"/>
         <v>770</v>
       </c>
       <c r="AB59">
-        <f>INDEX($AD$4:$AF$7, MATCH(AB11,$AD$4:$AD$7,0), 2)</f>
+        <f t="shared" si="39"/>
         <v>1100</v>
       </c>
       <c r="AC59">
-        <f>INDEX($AD$4:$AF$7, MATCH(AC11,$AD$4:$AD$7,0), 2)</f>
+        <f t="shared" si="39"/>
         <v>1100</v>
       </c>
       <c r="AD59">
-        <f>INDEX($AD$4:$AF$7, MATCH(AD11,$AD$4:$AD$7,0), 2)</f>
+        <f t="shared" si="39"/>
         <v>770</v>
       </c>
     </row>
@@ -10032,51 +10952,51 @@
         <v>201</v>
       </c>
       <c r="S60">
-        <f>INDEX($AD$4:$AF$7, MATCH(S11,$AD$4:$AD$7,0), 3)</f>
+        <f t="shared" ref="S60:AD60" si="40">INDEX($AD$4:$AF$7, MATCH(S11,$AD$4:$AD$7,0), 3)</f>
         <v>15</v>
       </c>
       <c r="T60">
-        <f>INDEX($AD$4:$AF$7, MATCH(T11,$AD$4:$AD$7,0), 3)</f>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="U60">
-        <f>INDEX($AD$4:$AF$7, MATCH(U11,$AD$4:$AD$7,0), 3)</f>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="V60">
-        <f>INDEX($AD$4:$AF$7, MATCH(V11,$AD$4:$AD$7,0), 3)</f>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="W60">
-        <f>INDEX($AD$4:$AF$7, MATCH(W11,$AD$4:$AD$7,0), 3)</f>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="X60">
-        <f>INDEX($AD$4:$AF$7, MATCH(X11,$AD$4:$AD$7,0), 3)</f>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="Y60">
-        <f>INDEX($AD$4:$AF$7, MATCH(Y11,$AD$4:$AD$7,0), 3)</f>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="Z60">
-        <f>INDEX($AD$4:$AF$7, MATCH(Z11,$AD$4:$AD$7,0), 3)</f>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="AA60">
-        <f>INDEX($AD$4:$AF$7, MATCH(AA11,$AD$4:$AD$7,0), 3)</f>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="AB60">
-        <f>INDEX($AD$4:$AF$7, MATCH(AB11,$AD$4:$AD$7,0), 3)</f>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="AC60">
-        <f>INDEX($AD$4:$AF$7, MATCH(AC11,$AD$4:$AD$7,0), 3)</f>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="AD60">
-        <f>INDEX($AD$4:$AF$7, MATCH(AD11,$AD$4:$AD$7,0), 3)</f>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
     </row>
@@ -10103,51 +11023,51 @@
         <v>202</v>
       </c>
       <c r="S61">
-        <f>INDEX($AG$4:$AI$7, MATCH(S12,$AG$4:$AG$7,0), 2)</f>
+        <f t="shared" ref="S61:AD61" si="41">INDEX($AG$4:$AI$7, MATCH(S12,$AG$4:$AG$7,0), 2)</f>
         <v>800</v>
       </c>
       <c r="T61">
-        <f>INDEX($AG$4:$AI$7, MATCH(T12,$AG$4:$AG$7,0), 2)</f>
+        <f t="shared" si="41"/>
         <v>800</v>
       </c>
       <c r="U61">
-        <f>INDEX($AG$4:$AI$7, MATCH(U12,$AG$4:$AG$7,0), 2)</f>
+        <f t="shared" si="41"/>
         <v>800</v>
       </c>
       <c r="V61">
-        <f>INDEX($AG$4:$AI$7, MATCH(V12,$AG$4:$AG$7,0), 2)</f>
+        <f t="shared" si="41"/>
         <v>800</v>
       </c>
       <c r="W61">
-        <f>INDEX($AG$4:$AI$7, MATCH(W12,$AG$4:$AG$7,0), 2)</f>
+        <f t="shared" si="41"/>
         <v>800</v>
       </c>
       <c r="X61">
-        <f>INDEX($AG$4:$AI$7, MATCH(X12,$AG$4:$AG$7,0), 2)</f>
+        <f t="shared" si="41"/>
         <v>720</v>
       </c>
       <c r="Y61">
-        <f>INDEX($AG$4:$AI$7, MATCH(Y12,$AG$4:$AG$7,0), 2)</f>
+        <f t="shared" si="41"/>
         <v>640</v>
       </c>
       <c r="Z61">
-        <f>INDEX($AG$4:$AI$7, MATCH(Z12,$AG$4:$AG$7,0), 2)</f>
+        <f t="shared" si="41"/>
         <v>560</v>
       </c>
       <c r="AA61">
-        <f>INDEX($AG$4:$AI$7, MATCH(AA12,$AG$4:$AG$7,0), 2)</f>
+        <f t="shared" si="41"/>
         <v>560</v>
       </c>
       <c r="AB61">
-        <f>INDEX($AG$4:$AI$7, MATCH(AB12,$AG$4:$AG$7,0), 2)</f>
+        <f t="shared" si="41"/>
         <v>800</v>
       </c>
       <c r="AC61">
-        <f>INDEX($AG$4:$AI$7, MATCH(AC12,$AG$4:$AG$7,0), 2)</f>
+        <f t="shared" si="41"/>
         <v>800</v>
       </c>
       <c r="AD61">
-        <f>INDEX($AG$4:$AI$7, MATCH(AD12,$AG$4:$AG$7,0), 2)</f>
+        <f t="shared" si="41"/>
         <v>560</v>
       </c>
     </row>
@@ -10174,51 +11094,51 @@
         <v>202</v>
       </c>
       <c r="S62">
-        <f>INDEX($AG$4:$AI$7, MATCH(S12,$AG$4:$AG$7,0), 3)</f>
+        <f t="shared" ref="S62:AD62" si="42">INDEX($AG$4:$AI$7, MATCH(S12,$AG$4:$AG$7,0), 3)</f>
         <v>10</v>
       </c>
       <c r="T62">
-        <f>INDEX($AG$4:$AI$7, MATCH(T12,$AG$4:$AG$7,0), 3)</f>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="U62">
-        <f>INDEX($AG$4:$AI$7, MATCH(U12,$AG$4:$AG$7,0), 3)</f>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="V62">
-        <f>INDEX($AG$4:$AI$7, MATCH(V12,$AG$4:$AG$7,0), 3)</f>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="W62">
-        <f>INDEX($AG$4:$AI$7, MATCH(W12,$AG$4:$AG$7,0), 3)</f>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="X62">
-        <f>INDEX($AG$4:$AI$7, MATCH(X12,$AG$4:$AG$7,0), 3)</f>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="Y62">
-        <f>INDEX($AG$4:$AI$7, MATCH(Y12,$AG$4:$AG$7,0), 3)</f>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="Z62">
-        <f>INDEX($AG$4:$AI$7, MATCH(Z12,$AG$4:$AG$7,0), 3)</f>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="AA62">
-        <f>INDEX($AG$4:$AI$7, MATCH(AA12,$AG$4:$AG$7,0), 3)</f>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="AB62">
-        <f>INDEX($AG$4:$AI$7, MATCH(AB12,$AG$4:$AG$7,0), 3)</f>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="AC62">
-        <f>INDEX($AG$4:$AI$7, MATCH(AC12,$AG$4:$AG$7,0), 3)</f>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="AD62">
-        <f>INDEX($AG$4:$AI$7, MATCH(AD12,$AG$4:$AG$7,0), 3)</f>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
     </row>
@@ -10245,51 +11165,51 @@
         <v>225</v>
       </c>
       <c r="S63">
-        <f>INDEX($AJ$4:$AL$7, MATCH(S13,$AJ$4:$AJ$7,0), 2)</f>
+        <f t="shared" ref="S63:AD63" si="43">INDEX($AJ$4:$AL$7, MATCH(S13,$AJ$4:$AJ$7,0), 2)</f>
         <v>2800</v>
       </c>
       <c r="T63">
-        <f>INDEX($AJ$4:$AL$7, MATCH(T13,$AJ$4:$AJ$7,0), 2)</f>
+        <f t="shared" si="43"/>
         <v>2800</v>
       </c>
       <c r="U63">
-        <f>INDEX($AJ$4:$AL$7, MATCH(U13,$AJ$4:$AJ$7,0), 2)</f>
+        <f t="shared" si="43"/>
         <v>2800</v>
       </c>
       <c r="V63">
-        <f>INDEX($AJ$4:$AL$7, MATCH(V13,$AJ$4:$AJ$7,0), 2)</f>
+        <f t="shared" si="43"/>
         <v>2800</v>
       </c>
       <c r="W63">
-        <f>INDEX($AJ$4:$AL$7, MATCH(W13,$AJ$4:$AJ$7,0), 2)</f>
+        <f t="shared" si="43"/>
         <v>2800</v>
       </c>
       <c r="X63">
-        <f>INDEX($AJ$4:$AL$7, MATCH(X13,$AJ$4:$AJ$7,0), 2)</f>
+        <f t="shared" si="43"/>
         <v>2800</v>
       </c>
       <c r="Y63">
-        <f>INDEX($AJ$4:$AL$7, MATCH(Y13,$AJ$4:$AJ$7,0), 2)</f>
+        <f t="shared" si="43"/>
         <v>2800</v>
       </c>
       <c r="Z63">
-        <f>INDEX($AJ$4:$AL$7, MATCH(Z13,$AJ$4:$AJ$7,0), 2)</f>
+        <f t="shared" si="43"/>
         <v>2800</v>
       </c>
       <c r="AA63">
-        <f>INDEX($AJ$4:$AL$7, MATCH(AA13,$AJ$4:$AJ$7,0), 2)</f>
+        <f t="shared" si="43"/>
         <v>2800</v>
       </c>
       <c r="AB63">
-        <f>INDEX($AJ$4:$AL$7, MATCH(AB13,$AJ$4:$AJ$7,0), 2)</f>
+        <f t="shared" si="43"/>
         <v>2100</v>
       </c>
       <c r="AC63">
-        <f>INDEX($AJ$4:$AL$7, MATCH(AC13,$AJ$4:$AJ$7,0), 2)</f>
+        <f t="shared" si="43"/>
         <v>1400</v>
       </c>
       <c r="AD63">
-        <f>INDEX($AJ$4:$AL$7, MATCH(AD13,$AJ$4:$AJ$7,0), 2)</f>
+        <f t="shared" si="43"/>
         <v>2800</v>
       </c>
     </row>
@@ -10301,57 +11221,57 @@
         <v>225</v>
       </c>
       <c r="S64">
-        <f>INDEX($AJ$4:$AL$7, MATCH(S13,$AJ$4:$AJ$7,0), 3)</f>
+        <f t="shared" ref="S64:AD64" si="44">INDEX($AJ$4:$AL$7, MATCH(S13,$AJ$4:$AJ$7,0), 3)</f>
         <v>24</v>
       </c>
       <c r="T64">
-        <f>INDEX($AJ$4:$AL$7, MATCH(T13,$AJ$4:$AJ$7,0), 3)</f>
+        <f t="shared" si="44"/>
         <v>24</v>
       </c>
       <c r="U64">
-        <f>INDEX($AJ$4:$AL$7, MATCH(U13,$AJ$4:$AJ$7,0), 3)</f>
+        <f t="shared" si="44"/>
         <v>24</v>
       </c>
       <c r="V64">
-        <f>INDEX($AJ$4:$AL$7, MATCH(V13,$AJ$4:$AJ$7,0), 3)</f>
+        <f t="shared" si="44"/>
         <v>24</v>
       </c>
       <c r="W64">
-        <f>INDEX($AJ$4:$AL$7, MATCH(W13,$AJ$4:$AJ$7,0), 3)</f>
+        <f t="shared" si="44"/>
         <v>24</v>
       </c>
       <c r="X64">
-        <f>INDEX($AJ$4:$AL$7, MATCH(X13,$AJ$4:$AJ$7,0), 3)</f>
+        <f t="shared" si="44"/>
         <v>24</v>
       </c>
       <c r="Y64">
-        <f>INDEX($AJ$4:$AL$7, MATCH(Y13,$AJ$4:$AJ$7,0), 3)</f>
+        <f t="shared" si="44"/>
         <v>24</v>
       </c>
       <c r="Z64">
-        <f>INDEX($AJ$4:$AL$7, MATCH(Z13,$AJ$4:$AJ$7,0), 3)</f>
+        <f t="shared" si="44"/>
         <v>24</v>
       </c>
       <c r="AA64">
-        <f>INDEX($AJ$4:$AL$7, MATCH(AA13,$AJ$4:$AJ$7,0), 3)</f>
+        <f t="shared" si="44"/>
         <v>24</v>
       </c>
       <c r="AB64">
-        <f>INDEX($AJ$4:$AL$7, MATCH(AB13,$AJ$4:$AJ$7,0), 3)</f>
+        <f t="shared" si="44"/>
         <v>18</v>
       </c>
       <c r="AC64">
-        <f>INDEX($AJ$4:$AL$7, MATCH(AC13,$AJ$4:$AJ$7,0), 3)</f>
+        <f t="shared" si="44"/>
         <v>12</v>
       </c>
       <c r="AD64">
-        <f>INDEX($AJ$4:$AL$7, MATCH(AD13,$AJ$4:$AJ$7,0), 3)</f>
+        <f t="shared" si="44"/>
         <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -10364,7 +11284,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B68">
         <v>1100</v>
@@ -10375,7 +11295,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B69">
         <v>15</v>
@@ -10386,7 +11306,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B70" s="1">
         <v>0.28000000000000003</v>
@@ -10423,7 +11343,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B73">
         <v>2.4300000000000002</v>
@@ -10448,7 +11368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -12199,7 +13119,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -12208,12 +13128,12 @@
       </c>
       <c r="E18" s="5"/>
       <c r="H18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -12223,7 +13143,7 @@
       </c>
       <c r="E19" s="5"/>
       <c r="H19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -13572,33 +14492,33 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>229</v>
@@ -13606,13 +14526,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -13620,7 +14540,7 @@
         <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -13628,7 +14548,7 @@
         <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -13636,7 +14556,7 @@
         <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13644,7 +14564,7 @@
         <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -13652,7 +14572,7 @@
         <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13660,7 +14580,7 @@
         <v>300</v>
       </c>
       <c r="C11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -13668,7 +14588,7 @@
         <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -13676,7 +14596,7 @@
         <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13684,7 +14604,7 @@
         <v>300</v>
       </c>
       <c r="C14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -13692,7 +14612,7 @@
         <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -13700,7 +14620,7 @@
         <v>400</v>
       </c>
       <c r="C16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -13708,7 +14628,7 @@
         <v>400</v>
       </c>
       <c r="C17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -13716,7 +14636,7 @@
         <v>400</v>
       </c>
       <c r="C18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -13724,7 +14644,7 @@
         <v>400</v>
       </c>
       <c r="C19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -13732,275 +14652,275 @@
         <v>400</v>
       </c>
       <c r="C20" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="D24" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="D25" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="E26" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G26" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="F27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="F28" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G28" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="F29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="F30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H30" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="D31" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G31" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I31" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="D32" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H32" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="4:9">
       <c r="D33" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G33" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="4:9">
       <c r="D34" s="22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H34" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I34" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="4:9">
       <c r="D35" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G35" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I35" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="4:9">
       <c r="D36" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G36" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="4:9">
       <c r="D37" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G37" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H37" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I37" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="4:9">
       <c r="D38" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="4:9">
       <c r="D39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I39" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="4:9">
       <c r="D40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F40" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I40" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="4:9">
       <c r="D41" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F41" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="4:9">
       <c r="D42" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G42" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="4:9">
       <c r="D43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I43" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="4:9">
       <c r="D44" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I44" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="4:9">
       <c r="D45" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G45" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="4:9">
       <c r="D46" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G46" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="4:9">
       <c r="D47" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G47" t="s">
         <v>244</v>
@@ -14008,15 +14928,15 @@
     </row>
     <row r="48" spans="4:9">
       <c r="D48" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G48" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="4:7">
       <c r="D49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G49" t="s">
         <v>245</v>
@@ -14024,150 +14944,150 @@
     </row>
     <row r="54" spans="4:7">
       <c r="D54" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E54" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F54" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G54" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="4:7">
       <c r="D55" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E55" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F55" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G55" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="4:7">
       <c r="D56" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E56" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G56" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="4:7">
       <c r="D57" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="4:7">
       <c r="D58" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="4:7">
       <c r="D59" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="4:7">
       <c r="D60" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="4:7">
       <c r="D63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E63" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F63" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="4:7">
       <c r="D64" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E64" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F64" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="4:6">
       <c r="D65" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E65" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F65" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="4:6">
       <c r="D66" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E66" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F66" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="4:6">
       <c r="E67" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F67" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="4:6">
       <c r="E68" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F68" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="4:6">
       <c r="E69" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F69" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="4:6">
       <c r="E70" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F70" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="4:6">
       <c r="E71" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F71" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="4:6">
       <c r="F72" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/india_REV_input/Scenarios_Cost_Master_v4.xlsx
+++ b/india_REV_input/Scenarios_Cost_Master_v4.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akjohnson\Desktop\Ranjit\renewable_energy_value\india_REV_input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-30500" yWindow="-3600" windowWidth="25040" windowHeight="14960"/>
+    <workbookView xWindow="-30495" yWindow="-3600" windowWidth="25035" windowHeight="14955"/>
   </bookViews>
   <sheets>
     <sheet name="REvalue_input_csv" sheetId="11" r:id="rId1"/>
@@ -18,13 +23,13 @@
     <sheet name="scenarios" sheetId="13" r:id="rId9"/>
     <sheet name="run_times" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -37,7 +42,7 @@
     <author>Ranjit Deshmukh</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="1">
+    <comment ref="D6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +102,7 @@
     <author>Ranjit</author>
   </authors>
   <commentList>
-    <comment ref="AC5" authorId="0">
+    <comment ref="AC5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1">
+    <comment ref="B6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1">
+    <comment ref="A8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="1">
+    <comment ref="B16" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="1">
+    <comment ref="B18" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="1">
+    <comment ref="D34" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="1">
+    <comment ref="B37" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="1">
+    <comment ref="D37" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -303,7 +308,7 @@
     <author>Ranjit</author>
   </authors>
   <commentList>
-    <comment ref="B22" authorId="0">
+    <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0">
+    <comment ref="C22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -352,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0">
+    <comment ref="D22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -377,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="E22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -402,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="0">
+    <comment ref="E34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B61" authorId="0">
+    <comment ref="B61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1890,12 +1895,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1995,7 +2000,7 @@
   <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2038,28 +2043,28 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2385,7 +2390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2396,35 +2401,35 @@
   <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="U9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>228</v>
       </c>
@@ -2513,7 +2518,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>246</v>
       </c>
@@ -2629,7 +2634,7 @@
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>248</v>
       </c>
@@ -2742,7 +2747,7 @@
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>416</v>
       </c>
@@ -2855,7 +2860,7 @@
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>249</v>
       </c>
@@ -2968,7 +2973,7 @@
         <v>coallcLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>250</v>
       </c>
@@ -3065,8 +3070,8 @@
         <v>coallcB30</v>
       </c>
       <c r="Z6" t="str">
-        <f t="shared" ref="Z6" si="8">CONCATENATE(Z11,Z15,Z17,Z19,Z34,Z37,Z40,Z42,Z45)</f>
-        <v>coalhc</v>
+        <f>C6</f>
+        <v>coallc</v>
       </c>
       <c r="AA6" t="str">
         <f>CONCATENATE(AA11,AA15,AA17,AA19,AA34,AA37,AA40,AA42,AA45)</f>
@@ -3081,80 +3086,80 @@
         <v>coallcLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>251</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:T7" si="9">CONCATENATE(C35,"_",C38)</f>
+        <f t="shared" ref="C7:T7" si="8">CONCATENATE(C35,"_",C38)</f>
         <v>W80_S0d</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W80_S0d</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W80_S0d</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W80_S0d</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W80_S0d</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W80_S0d</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W80_S0d</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W80_S0d</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W80_S0d</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W80_S0d</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W80_S0d</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W80_S0d</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W80_S0d</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W80_S0d</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W80_S0d</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W120_S0d</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W80_S1A</v>
       </c>
       <c r="T7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W80_S90d</v>
       </c>
       <c r="U7" t="str">
@@ -3178,7 +3183,7 @@
         <v>W80_S0d</v>
       </c>
       <c r="Z7" t="str">
-        <f t="shared" ref="Z7" si="10">CONCATENATE(Z35,"_",Z38)</f>
+        <f t="shared" ref="Z7" si="9">CONCATENATE(Z35,"_",Z38)</f>
         <v>W80_S0d</v>
       </c>
       <c r="AA7" t="str">
@@ -3194,7 +3199,7 @@
         <v>W80_S0d</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>252</v>
       </c>
@@ -3203,95 +3208,95 @@
         <v>coallc</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" ref="D8:Y8" si="11">CONCATENATE(D11,D27,D31,D23)</f>
+        <f t="shared" ref="D8:Y8" si="10">CONCATENATE(D11,D27,D31,D23)</f>
         <v>coalhc</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallcW10lc</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallcW20lc</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallcW30lc</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallcS10lc</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallcS20lc</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallcS30lc</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallcW30lcS30lc</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
       <c r="V8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallcB25lc</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallcB50lc</v>
       </c>
       <c r="X8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallcB25lc</v>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>coallcB50lc</v>
       </c>
       <c r="Z8" t="str">
-        <f t="shared" ref="Z8" si="12">CONCATENATE(Z11,Z27,Z31,Z23)</f>
+        <f t="shared" ref="Z8" si="11">CONCATENATE(Z11,Z27,Z31,Z23)</f>
         <v>coalhcW30lcS30lc</v>
       </c>
       <c r="AA8" t="str">
@@ -3307,7 +3312,7 @@
         <v>coallc</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>253</v>
       </c>
@@ -3396,7 +3401,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>257</v>
       </c>
@@ -3405,71 +3410,71 @@
         <v>Clc</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:T10" si="13">CONCATENATE("C", LEFT(D9,1), "c")</f>
+        <f t="shared" ref="D10:T10" si="12">CONCATENATE("C", LEFT(D9,1), "c")</f>
         <v>Chc</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Clc</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Clc</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Clc</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Clc</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Clc</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Clc</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Clc</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Clc</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Clc</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Clc</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Clc</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Clc</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Clc</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Clc</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Clc</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Clc</v>
       </c>
       <c r="U10" t="str">
@@ -3493,7 +3498,7 @@
         <v>Clc</v>
       </c>
       <c r="Z10" t="str">
-        <f t="shared" ref="Z10" si="14">CONCATENATE("C", LEFT(Z9,1), "c")</f>
+        <f t="shared" ref="Z10" si="13">CONCATENATE("C", LEFT(Z9,1), "c")</f>
         <v>Chc</v>
       </c>
       <c r="AA10" t="str">
@@ -3509,80 +3514,80 @@
         <v>Clc</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>258</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:T11" si="15">CONCATENATE("coal",LEFT(C9,1), "c")</f>
+        <f t="shared" ref="C11:T11" si="14">CONCATENATE("coal",LEFT(C9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coalhc</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="U11" t="str">
@@ -3606,7 +3611,7 @@
         <v>coallc</v>
       </c>
       <c r="Z11" t="str">
-        <f t="shared" ref="Z11" si="16">CONCATENATE("coal",LEFT(Z9,1), "c")</f>
+        <f t="shared" ref="Z11" si="15">CONCATENATE("coal",LEFT(Z9,1), "c")</f>
         <v>coalhc</v>
       </c>
       <c r="AA11" t="str">
@@ -3622,7 +3627,7 @@
         <v>coallc</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>259</v>
       </c>
@@ -3711,7 +3716,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>261</v>
       </c>
@@ -3720,71 +3725,71 @@
         <v>C70m</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ref="D13:T13" si="17">CONCATENATE("C",D12,"m")</f>
+        <f t="shared" ref="D13:T13" si="16">CONCATENATE("C",D12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>C55m</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>C70m</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>C70m</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>C70m</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>C70m</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>C70m</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>C70m</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>C70m</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>C70m</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>C70m</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>C70m</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>C70m</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>C70m</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>C70m</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>C70m</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>C70m</v>
       </c>
       <c r="U13" t="str">
@@ -3808,7 +3813,7 @@
         <v>C70m</v>
       </c>
       <c r="Z13" t="str">
-        <f t="shared" ref="Z13" si="18">CONCATENATE("C",Z12,"m")</f>
+        <f t="shared" ref="Z13" si="17">CONCATENATE("C",Z12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="AA13" t="str">
@@ -3824,7 +3829,7 @@
         <v>C70m</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>262</v>
       </c>
@@ -3913,80 +3918,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>264</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ref="C15:T15" si="19">IF(C14=0,"",CONCATENATE("H",C14))</f>
+        <f t="shared" ref="C15:T15" si="18">IF(C14=0,"",CONCATENATE("H",C14))</f>
         <v/>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>H-25</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>H25</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U15" t="str">
@@ -4010,7 +4015,7 @@
         <v/>
       </c>
       <c r="Z15" t="str">
-        <f t="shared" ref="Z15" si="20">IF(Z14=0,"",CONCATENATE("H",Z14))</f>
+        <f t="shared" ref="Z15" si="19">IF(Z14=0,"",CONCATENATE("H",Z14))</f>
         <v/>
       </c>
       <c r="AA15" t="str">
@@ -4026,7 +4031,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>265</v>
       </c>
@@ -4115,80 +4120,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>267</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ref="C17:T17" si="21">IF(C16=0,"",CONCATENATE("N",C16))</f>
+        <f t="shared" ref="C17:T17" si="20">IF(C16=0,"",CONCATENATE("N",C16))</f>
         <v/>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>N64</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="U17" t="str">
@@ -4212,7 +4217,7 @@
         <v/>
       </c>
       <c r="Z17" t="str">
-        <f t="shared" ref="Z17" si="22">IF(Z16=0,"",CONCATENATE("N",Z16))</f>
+        <f t="shared" ref="Z17" si="21">IF(Z16=0,"",CONCATENATE("N",Z16))</f>
         <v/>
       </c>
       <c r="AA17" t="str">
@@ -4228,7 +4233,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>268</v>
       </c>
@@ -4317,80 +4322,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>270</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:T19" si="23">IF(C18=0,"",CONCATENATE("B",C18))</f>
+        <f t="shared" ref="C19:T19" si="22">IF(C18=0,"",CONCATENATE("B",C18))</f>
         <v/>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>B15</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>B30</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U19" t="str">
@@ -4414,7 +4419,7 @@
         <v>B30</v>
       </c>
       <c r="Z19" t="str">
-        <f t="shared" ref="Z19" si="24">IF(Z18=0,"",CONCATENATE("B",Z18))</f>
+        <f t="shared" ref="Z19" si="23">IF(Z18=0,"",CONCATENATE("B",Z18))</f>
         <v/>
       </c>
       <c r="AA19" t="str">
@@ -4430,80 +4435,80 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>271</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" ref="C20:T20" si="25">CONCATENATE("bat", C18)</f>
+        <f t="shared" ref="C20:T20" si="24">CONCATENATE("bat", C18)</f>
         <v>bat0</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat0</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat0</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat0</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat0</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat0</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat15</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat30</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat0</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat0</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat0</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat0</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat0</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat0</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat0</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat0</v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat0</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>bat0</v>
       </c>
       <c r="U20" t="str">
@@ -4527,7 +4532,7 @@
         <v>bat30</v>
       </c>
       <c r="Z20" t="str">
-        <f t="shared" ref="Z20" si="26">CONCATENATE("bat", Z18)</f>
+        <f t="shared" ref="Z20" si="25">CONCATENATE("bat", Z18)</f>
         <v>bat0</v>
       </c>
       <c r="AA20" t="str">
@@ -4543,7 +4548,7 @@
         <v>bat0</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>418</v>
       </c>
@@ -4632,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>419</v>
       </c>
@@ -4721,7 +4726,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>420</v>
       </c>
@@ -4730,75 +4735,75 @@
         <v/>
       </c>
       <c r="D23" t="str">
-        <f t="shared" ref="D23:U23" si="27">IF(D21=0,"",CONCATENATE("B",D21,LEFT(D22,1),"c"))</f>
+        <f t="shared" ref="D23:U23" si="26">IF(D21=0,"",CONCATENATE("B",D21,LEFT(D22,1),"c"))</f>
         <v/>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="V23" t="str">
@@ -4818,7 +4823,7 @@
         <v>B50lc</v>
       </c>
       <c r="Z23" t="str">
-        <f t="shared" ref="Z23" si="28">IF(Z21=0,"",CONCATENATE("B",Z21,LEFT(Z22,1),"c"))</f>
+        <f t="shared" ref="Z23" si="27">IF(Z21=0,"",CONCATENATE("B",Z21,LEFT(Z22,1),"c"))</f>
         <v/>
       </c>
       <c r="AA23" t="str">
@@ -4834,7 +4839,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>421</v>
       </c>
@@ -4843,75 +4848,75 @@
         <v>batteryLC0</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" ref="D24:U24" si="29">CONCATENATE("battery",UPPER(LEFT(D22,1)), "C",D21)</f>
+        <f t="shared" ref="D24:U24" si="28">CONCATENATE("battery",UPPER(LEFT(D22,1)), "C",D21)</f>
         <v>batteryLC0</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>batteryLC0</v>
       </c>
       <c r="V24" t="str">
@@ -4931,7 +4936,7 @@
         <v>batteryLC50</v>
       </c>
       <c r="Z24" t="str">
-        <f t="shared" ref="Z24" si="30">CONCATENATE("battery",UPPER(LEFT(Z22,1)), "C",Z21)</f>
+        <f t="shared" ref="Z24" si="29">CONCATENATE("battery",UPPER(LEFT(Z22,1)), "C",Z21)</f>
         <v>batteryLC0</v>
       </c>
       <c r="AA24" t="str">
@@ -4947,7 +4952,7 @@
         <v>batteryLC0</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>272</v>
       </c>
@@ -5036,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>274</v>
       </c>
@@ -5125,80 +5130,80 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>276</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ref="C27:T27" si="31">IF(C25=0,"",CONCATENATE("W",C25,LEFT(C26,1),"c"))</f>
+        <f t="shared" ref="C27:T27" si="30">IF(C25=0,"",CONCATENATE("W",C25,LEFT(C26,1),"c"))</f>
         <v/>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>W10lc</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>W20lc</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>W30lc</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>W30lc</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="S27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="U27" t="str">
@@ -5222,7 +5227,7 @@
         <v/>
       </c>
       <c r="Z27" t="str">
-        <f t="shared" ref="Z27" si="32">IF(Z25=0,"",CONCATENATE("W",Z25,LEFT(Z26,1),"c"))</f>
+        <f t="shared" ref="Z27" si="31">IF(Z25=0,"",CONCATENATE("W",Z25,LEFT(Z26,1),"c"))</f>
         <v>W30lc</v>
       </c>
       <c r="AA27" t="str">
@@ -5238,80 +5243,80 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>277</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" ref="C28:T28" si="33">CONCATENATE("wind",UPPER(LEFT(C26,1)), "C",C25)</f>
+        <f t="shared" ref="C28:T28" si="32">CONCATENATE("wind",UPPER(LEFT(C26,1)), "C",C25)</f>
         <v>windLC0</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC0</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC0</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC0</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC0</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC0</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC0</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC0</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC10</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC20</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC30</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC0</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC0</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC0</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC30</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC0</v>
       </c>
       <c r="S28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC0</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>windLC0</v>
       </c>
       <c r="U28" t="str">
@@ -5335,7 +5340,7 @@
         <v>windLC0</v>
       </c>
       <c r="Z28" t="str">
-        <f t="shared" ref="Z28" si="34">CONCATENATE("wind",UPPER(LEFT(Z26,1)), "C",Z25)</f>
+        <f t="shared" ref="Z28" si="33">CONCATENATE("wind",UPPER(LEFT(Z26,1)), "C",Z25)</f>
         <v>windLC30</v>
       </c>
       <c r="AA28" t="str">
@@ -5351,7 +5356,7 @@
         <v>windLC0</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>278</v>
       </c>
@@ -5440,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>279</v>
       </c>
@@ -5529,80 +5534,80 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>280</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ref="C31:M31" si="35">IF(C29=0,"",CONCATENATE("W",C29,LEFT(C30,1),"c"))</f>
+        <f t="shared" ref="C31:M31" si="34">IF(C29=0,"",CONCATENATE("W",C29,LEFT(C30,1),"c"))</f>
         <v/>
       </c>
       <c r="D31" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" ref="N31:T31" si="35">IF(N29=0,"",CONCATENATE("S",N29,LEFT(N30,1),"c"))</f>
+        <v>S10lc</v>
+      </c>
+      <c r="O31" t="str">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="E31" t="str">
+        <v>S20lc</v>
+      </c>
+      <c r="P31" t="str">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="F31" t="str">
+        <v>S30lc</v>
+      </c>
+      <c r="Q31" t="str">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="G31" t="str">
+        <v>S30lc</v>
+      </c>
+      <c r="R31" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H31" t="str">
+      <c r="S31" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I31" t="str">
+      <c r="T31" t="str">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="M31" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" ref="N31:T31" si="36">IF(N29=0,"",CONCATENATE("S",N29,LEFT(N30,1),"c"))</f>
-        <v>S10lc</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="36"/>
-        <v>S20lc</v>
-      </c>
-      <c r="P31" t="str">
-        <f t="shared" si="36"/>
-        <v>S30lc</v>
-      </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="36"/>
-        <v>S30lc</v>
-      </c>
-      <c r="R31" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="S31" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="T31" t="str">
-        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U31" t="str">
@@ -5626,7 +5631,7 @@
         <v/>
       </c>
       <c r="Z31" t="str">
-        <f t="shared" ref="Z31" si="37">IF(Z29=0,"",CONCATENATE("S",Z29,LEFT(Z30,1),"c"))</f>
+        <f t="shared" ref="Z31" si="36">IF(Z29=0,"",CONCATENATE("S",Z29,LEFT(Z30,1),"c"))</f>
         <v>S30lc</v>
       </c>
       <c r="AA31" t="str">
@@ -5642,80 +5647,80 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>281</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" ref="C32:T32" si="38">CONCATENATE("solar",UPPER(LEFT(C30,1)), "C",C29)</f>
+        <f t="shared" ref="C32:T32" si="37">CONCATENATE("solar",UPPER(LEFT(C30,1)), "C",C29)</f>
         <v>solarLC0</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC0</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC0</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC0</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC0</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC0</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC0</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC0</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC0</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC0</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC0</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC10</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC20</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC30</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC30</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC0</v>
       </c>
       <c r="S32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC0</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>solarLC0</v>
       </c>
       <c r="U32" t="str">
@@ -5739,7 +5744,7 @@
         <v>solarLC0</v>
       </c>
       <c r="Z32" t="str">
-        <f t="shared" ref="Z32" si="39">CONCATENATE("solar",UPPER(LEFT(Z30,1)), "C",Z29)</f>
+        <f t="shared" ref="Z32" si="38">CONCATENATE("solar",UPPER(LEFT(Z30,1)), "C",Z29)</f>
         <v>solarLC30</v>
       </c>
       <c r="AA32" t="str">
@@ -5755,7 +5760,7 @@
         <v>solarLC0</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>282</v>
       </c>
@@ -5844,80 +5849,80 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>284</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ref="C34:T34" si="40">IF(C33=80,"", CONCATENATE("W",C33))</f>
+        <f t="shared" ref="C34:T34" si="39">IF(C33=80,"", CONCATENATE("W",C33))</f>
         <v/>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>W120</v>
       </c>
       <c r="S34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U34" t="str">
@@ -5941,7 +5946,7 @@
         <v/>
       </c>
       <c r="Z34" t="str">
-        <f t="shared" ref="Z34" si="41">IF(Z33=80,"", CONCATENATE("W",Z33))</f>
+        <f t="shared" ref="Z34" si="40">IF(Z33=80,"", CONCATENATE("W",Z33))</f>
         <v/>
       </c>
       <c r="AA34" t="str">
@@ -5957,80 +5962,80 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>285</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ref="C35:T35" si="42">CONCATENATE("W",C33)</f>
+        <f t="shared" ref="C35:T35" si="41">CONCATENATE("W",C33)</f>
         <v>W80</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W80</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W80</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W80</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W80</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W80</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W80</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W80</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W80</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W80</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W80</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W80</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W80</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W80</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W80</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W120</v>
       </c>
       <c r="S35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W80</v>
       </c>
       <c r="T35" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>W80</v>
       </c>
       <c r="U35" t="str">
@@ -6054,7 +6059,7 @@
         <v>W80</v>
       </c>
       <c r="Z35" t="str">
-        <f t="shared" ref="Z35" si="43">CONCATENATE("W",Z33)</f>
+        <f t="shared" ref="Z35" si="42">CONCATENATE("W",Z33)</f>
         <v>W80</v>
       </c>
       <c r="AA35" t="str">
@@ -6070,7 +6075,7 @@
         <v>W80</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>286</v>
       </c>
@@ -6159,80 +6164,80 @@
         <v>288</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>291</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ref="C37:T37" si="44">IF(C36="0d", "", CONCATENATE("S",C36))</f>
+        <f t="shared" ref="C37:T37" si="43">IF(C36="0d", "", CONCATENATE("S",C36))</f>
         <v/>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>S1A</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>S90d</v>
       </c>
       <c r="U37" t="str">
@@ -6256,7 +6261,7 @@
         <v/>
       </c>
       <c r="Z37" t="str">
-        <f t="shared" ref="Z37" si="45">IF(Z36="0d", "", CONCATENATE("S",Z36))</f>
+        <f t="shared" ref="Z37" si="44">IF(Z36="0d", "", CONCATENATE("S",Z36))</f>
         <v/>
       </c>
       <c r="AA37" t="str">
@@ -6272,80 +6277,80 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>292</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" ref="C38:T38" si="46">CONCATENATE("S",C36)</f>
+        <f t="shared" ref="C38:T38" si="45">CONCATENATE("S",C36)</f>
         <v>S0d</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S0d</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S0d</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S0d</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S0d</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S0d</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S0d</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S0d</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S0d</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S0d</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S0d</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S0d</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S0d</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S0d</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S0d</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S0d</v>
       </c>
       <c r="S38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S1A</v>
       </c>
       <c r="T38" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>S90d</v>
       </c>
       <c r="U38" t="str">
@@ -6369,7 +6374,7 @@
         <v>S0d</v>
       </c>
       <c r="Z38" t="str">
-        <f t="shared" ref="Z38" si="47">CONCATENATE("S",Z36)</f>
+        <f t="shared" ref="Z38" si="46">CONCATENATE("S",Z36)</f>
         <v>S0d</v>
       </c>
       <c r="AA38" t="str">
@@ -6385,7 +6390,7 @@
         <v>S0d</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>293</v>
       </c>
@@ -6472,80 +6477,80 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>294</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" ref="C40:T40" si="48">IF(C39=2014,"",CONCATENATE("L",C39))</f>
+        <f t="shared" ref="C40:T40" si="47">IF(C39=2014,"",CONCATENATE("L",C39))</f>
         <v/>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U40" t="str">
@@ -6569,7 +6574,7 @@
         <v/>
       </c>
       <c r="Z40" t="str">
-        <f t="shared" ref="Z40" si="49">IF(Z39=2014,"",CONCATENATE("L",Z39))</f>
+        <f t="shared" ref="Z40" si="48">IF(Z39=2014,"",CONCATENATE("L",Z39))</f>
         <v/>
       </c>
       <c r="AA40" t="str">
@@ -6585,7 +6590,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>295</v>
       </c>
@@ -6674,80 +6679,80 @@
         <v>472</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>298</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" ref="C42:T42" si="50">IF(C41="none","",CONCATENATE("L",C41))</f>
+        <f t="shared" ref="C42:T42" si="49">IF(C41="none","",CONCATENATE("L",C41))</f>
         <v/>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="U42" t="str">
@@ -6771,7 +6776,7 @@
         <v/>
       </c>
       <c r="Z42" t="str">
-        <f t="shared" ref="Z42" si="51">IF(Z41="none","",CONCATENATE("L",Z41))</f>
+        <f t="shared" ref="Z42" si="50">IF(Z41="none","",CONCATENATE("L",Z41))</f>
         <v/>
       </c>
       <c r="AA42" t="str">
@@ -6787,7 +6792,7 @@
         <v>Lmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>299</v>
       </c>
@@ -6876,7 +6881,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>302</v>
       </c>
@@ -6962,80 +6967,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>303</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" ref="C45:T45" si="52">IF(C43="RT","",CONCATENATE(C43,C44))</f>
+        <f t="shared" ref="C45:T45" si="51">IF(C43="RT","",CONCATENATE(C43,C44))</f>
         <v/>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="S45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="T45" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U45" t="str">
@@ -7059,7 +7064,7 @@
         <v/>
       </c>
       <c r="Z45" t="str">
-        <f t="shared" ref="Z45" si="53">IF(Z43="RT","",CONCATENATE(Z43,Z44))</f>
+        <f t="shared" ref="Z45" si="52">IF(Z43="RT","",CONCATENATE(Z43,Z44))</f>
         <v/>
       </c>
       <c r="AA45" t="str">
@@ -7095,13 +7100,13 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.83203125" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>315</v>
       </c>
@@ -7112,7 +7117,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>312</v>
       </c>
@@ -7129,7 +7134,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>306</v>
       </c>
@@ -7154,7 +7159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>306</v>
       </c>
@@ -7179,7 +7184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>306</v>
       </c>
@@ -7198,7 +7203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -7242,31 +7247,31 @@
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>222</v>
       </c>
@@ -7349,7 +7354,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>442</v>
       </c>
@@ -7432,7 +7437,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>412</v>
       </c>
@@ -7518,7 +7523,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>413</v>
       </c>
@@ -7604,7 +7609,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>409</v>
       </c>
@@ -7663,7 +7668,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>410</v>
       </c>
@@ -7722,7 +7727,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>411</v>
       </c>
@@ -7800,36 +7805,36 @@
       <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="11.5" customWidth="1"/>
-    <col min="21" max="21" width="24.5" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.33203125" customWidth="1"/>
-    <col min="25" max="25" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5" customWidth="1"/>
-    <col min="27" max="27" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" customWidth="1"/>
+    <col min="27" max="27" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7843,7 +7848,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>35</v>
       </c>
@@ -7851,7 +7856,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>34</v>
       </c>
@@ -7898,7 +7903,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>54</v>
       </c>
@@ -7982,7 +7987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -8056,7 +8061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -8106,7 +8111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -8137,7 +8142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -8148,7 +8153,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -8208,7 +8213,7 @@
         <v>coalhcW30lcS30lc</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -8256,7 +8261,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -8304,7 +8309,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -8352,7 +8357,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -8403,7 +8408,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -8465,7 +8470,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>437</v>
       </c>
@@ -8527,7 +8532,7 @@
         <v>8.5810517220665614E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -8538,7 +8543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -8601,7 +8606,7 @@
         <v>678.26769230769241</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>163</v>
       </c>
@@ -8664,7 +8669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>165</v>
       </c>
@@ -8724,7 +8729,7 @@
         <v>65.002501490990369</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -8787,7 +8792,7 @@
         <v>126.97417171717171</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -8799,7 +8804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -8814,7 +8819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -8880,7 +8885,7 @@
         <v>775.16307692307703</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -8943,7 +8948,7 @@
         <v>77.517144561131843</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -9005,7 +9010,7 @@
         <v>84.936820512820518</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -9016,12 +9021,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R27" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -9080,7 +9085,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
@@ -9139,7 +9144,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -9213,7 +9218,7 @@
         <v>139.92398963155881</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -9296,7 +9301,7 @@
         <v>45.902984148611111</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -9328,7 +9333,7 @@
         <v>2736.5</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -9364,7 +9369,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -9441,7 +9446,7 @@
         <v>3.3984353954038309E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -9515,7 +9520,7 @@
         <v>0.18251009215426989</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -9571,7 +9576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -9640,7 +9645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -9709,7 +9714,7 @@
         <v>678.26769230769241</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -9778,7 +9783,7 @@
         <v>775.16307692307703</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -9851,7 +9856,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -9872,7 +9877,7 @@
         <v>551.69230769230774</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -9895,7 +9900,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -9918,7 +9923,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -9989,7 +9994,7 @@
         <v>65.002501490990369</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -10060,7 +10065,7 @@
         <v>1177.2962457334145</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -10131,7 +10136,7 @@
         <v>77.517144561131843</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Q47">
         <v>8760</v>
       </c>
@@ -10187,7 +10192,7 @@
         <v>821.56369225343963</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -10260,7 +10265,7 @@
         <v>139.92398963155881</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -10331,7 +10336,7 @@
         <v>542.03413077339212</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15">
+    <row r="50" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -10348,7 +10353,7 @@
         <v>8.5810517220665614E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -10371,7 +10376,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -10457,7 +10462,7 @@
         <v>coalhcW30lcS30lc</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -10537,7 +10542,7 @@
         <v>678.26769230769241</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -10623,7 +10628,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>190</v>
       </c>
@@ -10705,7 +10710,7 @@
         <v>775.16307692307703</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -10768,7 +10773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
       <c r="Q57" t="s">
         <v>203</v>
@@ -10825,7 +10830,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
       <c r="Q58" t="s">
         <v>204</v>
@@ -10882,7 +10887,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>149</v>
       </c>
@@ -10941,7 +10946,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>147</v>
       </c>
@@ -11000,7 +11005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -11071,7 +11076,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8760</v>
       </c>
@@ -11142,7 +11147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -11213,7 +11218,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Q64" t="s">
         <v>204</v>
       </c>
@@ -11269,12 +11274,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>159</v>
       </c>
@@ -11282,7 +11287,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>430</v>
       </c>
@@ -11293,7 +11298,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>431</v>
       </c>
@@ -11304,7 +11309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>433</v>
       </c>
@@ -11315,7 +11320,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -11328,7 +11333,7 @@
         <v>44.890647132724027</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>155</v>
       </c>
@@ -11341,7 +11346,7 @@
         <v>2.917892063627062</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>432</v>
       </c>
@@ -11372,14 +11377,14 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'Screening curves'!Q34</f>
         <v>parameter</v>
@@ -11433,7 +11438,7 @@
         <v>coalhcW30lcS30lc</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Screening curves'!R34</f>
         <v>gas_ct</v>
@@ -11491,7 +11496,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Screening curves'!R35</f>
         <v>gas_ccgt</v>
@@ -11549,7 +11554,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'Screening curves'!R36</f>
         <v>coal</v>
@@ -11607,7 +11612,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Screening curves'!R37</f>
         <v>gas_price</v>
@@ -11665,7 +11670,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'Screening curves'!R38</f>
         <v>cap_cost_ct</v>
@@ -11723,7 +11728,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'Screening curves'!R39</f>
         <v>cap_cost_ccgt</v>
@@ -11781,7 +11786,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Screening curves'!R40</f>
         <v>cap_cost_coal</v>
@@ -11858,13 +11863,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'Screening curves'!Q43</f>
         <v>hour</v>
@@ -11882,7 +11887,7 @@
         <v>coalhc</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>'Screening curves'!Q44</f>
         <v>0</v>
@@ -11900,7 +11905,7 @@
         <v>65.002501490990369</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>'Screening curves'!Q45</f>
         <v>8760</v>
@@ -11918,7 +11923,7 @@
         <v>1177.2962457334145</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>'Screening curves'!Q46</f>
         <v>0</v>
@@ -11936,7 +11941,7 @@
         <v>77.517144561131843</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>'Screening curves'!Q47</f>
         <v>8760</v>
@@ -11954,7 +11959,7 @@
         <v>821.56369225343963</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>'Screening curves'!Q48</f>
         <v>0</v>
@@ -11972,7 +11977,7 @@
         <v>139.92398963155881</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>'Screening curves'!Q49</f>
         <v>8760</v>
@@ -12008,20 +12013,20 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'Screening curves'!Q52</f>
         <v>cost_type</v>
@@ -12079,7 +12084,7 @@
         <v>coalhcW30lcS30lc</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Screening curves'!Q53</f>
         <v>capital</v>
@@ -12137,7 +12142,7 @@
         <v>678.26769230769241</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Screening curves'!Q54</f>
         <v>om</v>
@@ -12195,7 +12200,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'Screening curves'!Q55</f>
         <v>capital</v>
@@ -12253,7 +12258,7 @@
         <v>775.16307692307703</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Screening curves'!Q56</f>
         <v>om</v>
@@ -12311,7 +12316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'Screening curves'!Q57</f>
         <v>capital</v>
@@ -12369,7 +12374,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'Screening curves'!Q58</f>
         <v>om</v>
@@ -12427,7 +12432,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Screening curves'!Q59</f>
         <v>capital</v>
@@ -12485,7 +12490,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'Screening curves'!Q60</f>
         <v>om</v>
@@ -12543,7 +12548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'Screening curves'!Q61</f>
         <v>capital</v>
@@ -12601,7 +12606,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Screening curves'!Q62</f>
         <v>om</v>
@@ -12659,7 +12664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'Screening curves'!Q63</f>
         <v>capital</v>
@@ -12717,7 +12722,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'Screening curves'!Q64</f>
         <v>om</v>
@@ -12794,17 +12799,17 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -12827,12 +12832,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -12852,7 +12857,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -12877,7 +12882,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -12900,7 +12905,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -12929,7 +12934,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -12949,7 +12954,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -12973,7 +12978,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -12997,7 +13002,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -13017,7 +13022,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -13041,7 +13046,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -13065,7 +13070,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -13081,7 +13086,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -13099,7 +13104,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -13117,7 +13122,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>435</v>
       </c>
@@ -13131,7 +13136,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>435</v>
       </c>
@@ -13146,12 +13151,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -13171,7 +13176,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -13197,7 +13202,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -13219,7 +13224,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -13241,7 +13246,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -13261,7 +13266,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -13278,7 +13283,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -13301,7 +13306,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -13324,7 +13329,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -13353,7 +13358,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -13382,12 +13387,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -13398,7 +13403,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -13412,7 +13417,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -13432,7 +13437,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -13449,7 +13454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -13470,7 +13475,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -13490,7 +13495,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -13511,17 +13516,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -13532,7 +13537,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="8">
         <v>0.108</v>
       </c>
@@ -13540,12 +13545,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -13556,7 +13561,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>8.5</v>
       </c>
@@ -13564,7 +13569,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <v>10</v>
       </c>
@@ -13572,7 +13577,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>5.5</v>
       </c>
@@ -13580,17 +13585,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>150</v>
       </c>
@@ -13601,7 +13606,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>151</v>
       </c>
@@ -13614,7 +13619,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -13626,7 +13631,7 @@
       </c>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>162</v>
       </c>
@@ -13640,7 +13645,7 @@
       </c>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:4" ht="15">
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -13652,7 +13657,7 @@
       </c>
       <c r="D63" s="18"/>
     </row>
-    <row r="64" spans="1:4" ht="15">
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>156</v>
       </c>
@@ -13664,7 +13669,7 @@
       </c>
       <c r="D64" s="19"/>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -13678,7 +13683,7 @@
       </c>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>157</v>
       </c>
@@ -13690,7 +13695,7 @@
       </c>
       <c r="D66" s="16"/>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -13702,7 +13707,7 @@
       </c>
       <c r="D67" s="16"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -13716,7 +13721,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -13730,7 +13735,7 @@
       </c>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>155</v>
       </c>
@@ -13764,40 +13769,40 @@
       <selection activeCell="B14" sqref="B14:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1">
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>107</v>
       </c>
@@ -13832,7 +13837,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -13844,7 +13849,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -13859,7 +13864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -13878,7 +13883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -13901,7 +13906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -13928,7 +13933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -13959,7 +13964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -13994,7 +13999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -14033,7 +14038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -14076,7 +14081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -14123,17 +14128,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="28">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>107</v>
       </c>
@@ -14168,7 +14173,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2008</v>
       </c>
@@ -14180,7 +14185,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2009</v>
       </c>
@@ -14195,7 +14200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -14214,7 +14219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -14237,7 +14242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2012</v>
       </c>
@@ -14264,7 +14269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -14295,7 +14300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2014</v>
       </c>
@@ -14330,7 +14335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2015</v>
       </c>
@@ -14369,7 +14374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2016</v>
       </c>
@@ -14412,7 +14417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2017</v>
       </c>
@@ -14477,25 +14482,25 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" customWidth="1"/>
-    <col min="9" max="9" width="32.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>406</v>
       </c>
@@ -14524,7 +14529,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>398</v>
       </c>
@@ -14535,7 +14540,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>200</v>
       </c>
@@ -14543,7 +14548,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>200</v>
       </c>
@@ -14551,7 +14556,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>200</v>
       </c>
@@ -14559,7 +14564,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>200</v>
       </c>
@@ -14567,7 +14572,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>200</v>
       </c>
@@ -14575,7 +14580,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>300</v>
       </c>
@@ -14583,7 +14588,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>300</v>
       </c>
@@ -14591,7 +14596,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>300</v>
       </c>
@@ -14599,7 +14604,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>300</v>
       </c>
@@ -14607,7 +14612,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>300</v>
       </c>
@@ -14615,7 +14620,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>400</v>
       </c>
@@ -14623,7 +14628,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>400</v>
       </c>
@@ -14631,7 +14636,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>400</v>
       </c>
@@ -14639,7 +14644,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>400</v>
       </c>
@@ -14647,7 +14652,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>400</v>
       </c>
@@ -14655,12 +14660,12 @@
         <v>392</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>390</v>
       </c>
@@ -14668,7 +14673,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D24" s="7" t="s">
         <v>388</v>
       </c>
@@ -14676,7 +14681,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="7" t="s">
         <v>386</v>
       </c>
@@ -14690,7 +14695,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E26" s="7" t="s">
         <v>384</v>
       </c>
@@ -14701,7 +14706,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>382</v>
       </c>
@@ -14712,7 +14717,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>380</v>
       </c>
@@ -14723,7 +14728,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>378</v>
       </c>
@@ -14734,7 +14739,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>376</v>
       </c>
@@ -14745,7 +14750,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D31" s="7" t="s">
         <v>373</v>
       </c>
@@ -14759,7 +14764,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D32" s="7" t="s">
         <v>370</v>
       </c>
@@ -14773,7 +14778,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="4:9">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" s="7" t="s">
         <v>367</v>
       </c>
@@ -14784,7 +14789,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="34" spans="4:9">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="22" t="s">
         <v>364</v>
       </c>
@@ -14798,7 +14803,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="35" spans="4:9">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="7" t="s">
         <v>362</v>
       </c>
@@ -14812,7 +14817,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="4:9">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" s="22" t="s">
         <v>359</v>
       </c>
@@ -14826,7 +14831,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="4:9">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37" s="7" t="s">
         <v>357</v>
       </c>
@@ -14840,7 +14845,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="38" spans="4:9">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>353</v>
       </c>
@@ -14848,7 +14853,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="39" spans="4:9">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>352</v>
       </c>
@@ -14856,7 +14861,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="40" spans="4:9">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>350</v>
       </c>
@@ -14867,7 +14872,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="4:9">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>348</v>
       </c>
@@ -14878,7 +14883,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="42" spans="4:9">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D42" s="7" t="s">
         <v>345</v>
       </c>
@@ -14886,7 +14891,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="43" spans="4:9">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>343</v>
       </c>
@@ -14894,7 +14899,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="44" spans="4:9">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>342</v>
       </c>
@@ -14902,7 +14907,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="45" spans="4:9">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>340</v>
       </c>
@@ -14910,7 +14915,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="46" spans="4:9">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D46" s="7" t="s">
         <v>338</v>
       </c>
@@ -14918,7 +14923,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="47" spans="4:9">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D47" s="7" t="s">
         <v>336</v>
       </c>
@@ -14926,7 +14931,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="4:9">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>335</v>
       </c>
@@ -14934,7 +14939,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="4:7">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>333</v>
       </c>
@@ -14942,7 +14947,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="4:7">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>332</v>
       </c>
@@ -14956,7 +14961,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="4:7">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>325</v>
       </c>
@@ -14970,7 +14975,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="4:7">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>323</v>
       </c>
@@ -14981,27 +14986,27 @@
         <v>324</v>
       </c>
     </row>
-    <row r="57" spans="4:7">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="58" spans="4:7">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="59" spans="4:7">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="4:7">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="63" spans="4:7">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>329</v>
       </c>
@@ -15012,7 +15017,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="64" spans="4:7">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>326</v>
       </c>
@@ -15023,7 +15028,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="4:6">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>324</v>
       </c>
@@ -15034,7 +15039,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="4:6">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>319</v>
       </c>
@@ -15045,7 +15050,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="67" spans="4:6">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>321</v>
       </c>
@@ -15053,7 +15058,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="68" spans="4:6">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>320</v>
       </c>
@@ -15061,7 +15066,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="69" spans="4:6">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>319</v>
       </c>
@@ -15069,7 +15074,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="70" spans="4:6">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>318</v>
       </c>
@@ -15077,7 +15082,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="71" spans="4:6">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>317</v>
       </c>
@@ -15085,7 +15090,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="72" spans="4:6">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
         <v>316</v>
       </c>

--- a/india_REV_input/Scenarios_Cost_Master_v4.xlsx
+++ b/india_REV_input/Scenarios_Cost_Master_v4.xlsx
@@ -2401,10 +2401,10 @@
   <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="U9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="U21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="Z7" sqref="Z7"/>
+      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/india_REV_input/Scenarios_Cost_Master_v4.xlsx
+++ b/india_REV_input/Scenarios_Cost_Master_v4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akjohnson\Desktop\Ranjit\renewable_energy_value\india_REV_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Electricity_Models\renewable_energy_value\india_REV_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -460,7 +460,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="480">
   <si>
     <t>Screening curves</t>
   </si>
@@ -1888,6 +1888,18 @@
   </si>
   <si>
     <t>ClcC70mLmod_D25_M25_energyOnly</t>
+  </si>
+  <si>
+    <t>coal_ccgt_0mingen</t>
+  </si>
+  <si>
+    <t>ccgt_min_gen</t>
+  </si>
+  <si>
+    <t>ccgt_min_gen_suffix</t>
+  </si>
+  <si>
+    <t>percentage, 50p is base</t>
   </si>
 </sst>
 </file>
@@ -2398,13 +2410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC45"/>
+  <dimension ref="A1:AD47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="U21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,22 +2426,24 @@
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>228</v>
       </c>
@@ -2446,79 +2460,82 @@
         <v>415</v>
       </c>
       <c r="F1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G1" t="s">
         <v>231</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>232</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>233</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>234</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>235</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>236</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>237</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>238</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>239</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>241</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>242</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>243</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>244</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>245</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>417</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>422</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>423</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>424</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>425</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>441</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>467</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>469</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>246</v>
       </c>
@@ -2534,116 +2551,120 @@
         <v>ChcC70m</v>
       </c>
       <c r="E2" s="21" t="str">
-        <f t="shared" ref="E2:Z2" si="0">E3</f>
+        <f t="shared" ref="E2:AA2" si="0">E3</f>
         <v>ClcC55m</v>
       </c>
       <c r="F2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mH-25</v>
+        <v>ClcC0m</v>
       </c>
       <c r="G2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mH25</v>
+        <v>ClcC70mH-25</v>
       </c>
       <c r="H2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mN64</v>
+        <v>ClcC70mH25</v>
       </c>
       <c r="I2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mB15</v>
+        <v>ClcC70mN64</v>
       </c>
       <c r="J2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mB30</v>
+        <v>ClcC70mB15</v>
       </c>
       <c r="K2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mW10lc</v>
+        <v>ClcC70mB30</v>
       </c>
       <c r="L2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mW20lc</v>
+        <v>ClcC70mW10lc</v>
       </c>
       <c r="M2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mW30lc</v>
+        <v>ClcC70mW20lc</v>
       </c>
       <c r="N2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mS10lc</v>
+        <v>ClcC70mW30lc</v>
       </c>
       <c r="O2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mS20lc</v>
+        <v>ClcC70mS10lc</v>
       </c>
       <c r="P2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mS30lc</v>
+        <v>ClcC70mS20lc</v>
       </c>
       <c r="Q2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mW30lcS30lc</v>
+        <v>ClcC70mS30lc</v>
       </c>
       <c r="R2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mW120</v>
+        <v>ClcC70mW30lcS30lc</v>
       </c>
       <c r="S2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mS1A</v>
+        <v>ClcC70mW120</v>
       </c>
       <c r="T2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mS90d</v>
+        <v>ClcC70mS1A</v>
       </c>
       <c r="U2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mW120S1A</v>
+        <v>ClcC70mS90d</v>
       </c>
       <c r="V2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mB15B25lc</v>
+        <v>ClcC70mW120S1A</v>
       </c>
       <c r="W2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mB15B50lc</v>
+        <v>ClcC70mB15B25lc</v>
       </c>
       <c r="X2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mB30B25lc</v>
+        <v>ClcC70mB15B50lc</v>
       </c>
       <c r="Y2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mB30B50lc</v>
+        <v>ClcC70mB30B25lc</v>
       </c>
       <c r="Z2" s="21" t="str">
         <f t="shared" si="0"/>
+        <v>ClcC70mB30B50lc</v>
+      </c>
+      <c r="AA2" s="21" t="str">
+        <f t="shared" si="0"/>
         <v>ChcC70mW30lcS30lc</v>
-      </c>
-      <c r="AA2" s="21" t="str">
-        <f>AA3</f>
-        <v>ClcC70mLmod_D0_M0_energyOnly</v>
       </c>
       <c r="AB2" s="21" t="str">
         <f>AB3</f>
-        <v>ClcC70mLmod_D50_M0_energyOnly</v>
+        <v>ClcC70mLmod_D0_M0_energyOnly</v>
       </c>
       <c r="AC2" s="21" t="str">
         <f>AC3</f>
+        <v>ClcC70mLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AD2" s="21" t="str">
+        <f>AD3</f>
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>248</v>
       </c>
       <c r="C3" t="str">
-        <f>CONCATENATE(C10,C13,C15,C17,C19,C23,C27,C31,C34,C37,C40,C42,C45)</f>
+        <f>CONCATENATE(C10,C13,C17,C19,C21,C25,C29,C33,C36,C39,C42,C44,C47)</f>
         <v>ClcC70m</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:Y3" si="1">CONCATENATE(D10,D13,D15,D17,D19,D23,D27,D31,D34,D37,D40,D42,D45)</f>
+        <f t="shared" ref="D3:Z3" si="1">CONCATENATE(D10,D13,D17,D19,D21,D25,D29,D33,D36,D39,D42,D44,D47)</f>
         <v>ChcC70m</v>
       </c>
       <c r="E3" t="str">
@@ -2651,334 +2672,346 @@
         <v>ClcC55m</v>
       </c>
       <c r="F3" t="str">
+        <f t="shared" ref="F3" si="2">CONCATENATE(F10,F13,F17,F19,F21,F25,F29,F33,F36,F39,F42,F44,F47)</f>
+        <v>ClcC0m</v>
+      </c>
+      <c r="G3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mH-25</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mH25</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mN64</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mB15</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mB30</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mW10lc</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mW20lc</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mW30lc</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mS10lc</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mS20lc</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mS30lc</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="R3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mW30lcS30lc</v>
       </c>
-      <c r="R3" t="str">
+      <c r="S3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mW120</v>
       </c>
-      <c r="S3" t="str">
+      <c r="T3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mS1A</v>
       </c>
-      <c r="T3" t="str">
+      <c r="U3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mS90d</v>
       </c>
-      <c r="U3" t="str">
+      <c r="V3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mW120S1A</v>
       </c>
-      <c r="V3" t="str">
+      <c r="W3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mB15B25lc</v>
       </c>
-      <c r="W3" t="str">
+      <c r="X3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mB15B50lc</v>
       </c>
-      <c r="X3" t="str">
+      <c r="Y3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mB30B25lc</v>
       </c>
-      <c r="Y3" t="str">
+      <c r="Z3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mB30B50lc</v>
       </c>
-      <c r="Z3" t="str">
-        <f t="shared" ref="Z3" si="2">CONCATENATE(Z10,Z13,Z15,Z17,Z19,Z23,Z27,Z31,Z34,Z37,Z40,Z42,Z45)</f>
+      <c r="AA3" t="str">
+        <f t="shared" ref="AA3" si="3">CONCATENATE(AA10,AA13,AA17,AA19,AA21,AA25,AA29,AA33,AA36,AA39,AA42,AA44,AA47)</f>
         <v>ChcC70mW30lcS30lc</v>
       </c>
-      <c r="AA3" t="str">
-        <f>CONCATENATE(AA10,AA13,AA15,AA17,AA19,AA23,AA27,AA31,AA34,AA37,AA40,AA42,AA45)</f>
+      <c r="AB3" t="str">
+        <f>CONCATENATE(AB10,AB13,AB17,AB19,AB21,AB25,AB29,AB33,AB36,AB39,AB42,AB44,AB47)</f>
         <v>ClcC70mLmod_D0_M0_energyOnly</v>
       </c>
-      <c r="AB3" t="str">
-        <f>CONCATENATE(AB10,AB13,AB15,AB17,AB19,AB23,AB27,AB31,AB34,AB37,AB40,AB42,AB45)</f>
+      <c r="AC3" t="str">
+        <f>CONCATENATE(AC10,AC13,AC17,AC19,AC21,AC25,AC29,AC33,AC36,AC39,AC42,AC44,AC47)</f>
         <v>ClcC70mLmod_D50_M0_energyOnly</v>
       </c>
-      <c r="AC3" t="str">
-        <f>CONCATENATE(AC10,AC13,AC15,AC17,AC19,AC23,AC27,AC31,AC34,AC37,AC40,AC42,AC45)</f>
+      <c r="AD3" t="str">
+        <f>CONCATENATE(AD10,AD13,AD17,AD19,AD21,AD25,AD29,AD33,AD36,AD39,AD42,AD44,AD47)</f>
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>416</v>
       </c>
       <c r="C4" t="str">
-        <f>CONCATENATE(C10,C13,C15,C17,C19,C34,C37,C40,C42,C45)</f>
+        <f t="shared" ref="C4:E4" si="4">CONCATENATE(C10,C13,C15,C17,C19,C21,C36,C39,C42,C44,C47)</f>
         <v>ClcC70m</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:T4" si="3">CONCATENATE(D10,D13,D15,D17,D19,D34,D37,D40,D42,D45)</f>
+        <f t="shared" si="4"/>
         <v>ChcC70m</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ClcC55m</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(F10,F13,F15,F17,F19,F21,F36,F39,F42,F44,F47)</f>
+        <v>ClcC0mG0m</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:AD4" si="5">CONCATENATE(G10,G13,G15,G17,G19,G21,G36,G39,G42,G44,G47)</f>
         <v>ClcC70mH-25</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" si="3"/>
+      <c r="H4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70mH25</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="3"/>
+      <c r="I4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70mN64</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" si="3"/>
+      <c r="J4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70mB15</v>
       </c>
-      <c r="J4" t="str">
-        <f t="shared" si="3"/>
+      <c r="K4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70mB30</v>
       </c>
-      <c r="K4" t="str">
-        <f t="shared" si="3"/>
+      <c r="L4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70m</v>
       </c>
-      <c r="L4" t="str">
-        <f t="shared" si="3"/>
+      <c r="M4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70m</v>
       </c>
-      <c r="M4" t="str">
-        <f t="shared" si="3"/>
+      <c r="N4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70m</v>
       </c>
-      <c r="N4" t="str">
-        <f t="shared" si="3"/>
+      <c r="O4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70m</v>
       </c>
-      <c r="O4" t="str">
-        <f t="shared" si="3"/>
+      <c r="P4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70m</v>
       </c>
-      <c r="P4" t="str">
-        <f t="shared" si="3"/>
+      <c r="Q4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70m</v>
       </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="3"/>
+      <c r="R4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70m</v>
       </c>
-      <c r="R4" t="str">
-        <f t="shared" si="3"/>
+      <c r="S4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70mW120</v>
       </c>
-      <c r="S4" t="str">
-        <f t="shared" si="3"/>
+      <c r="T4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70mS1A</v>
       </c>
-      <c r="T4" t="str">
-        <f t="shared" si="3"/>
+      <c r="U4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70mS90d</v>
       </c>
-      <c r="U4" t="str">
-        <f>CONCATENATE(U10,U13,U15,U17,U19,U34,U37,U40,U42,U45)</f>
+      <c r="V4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70mW120S1A</v>
       </c>
-      <c r="V4" t="str">
-        <f>CONCATENATE(V10,V13,V15,V17,V19,V34,V37,V40,V42,V45)</f>
+      <c r="W4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70mB15</v>
       </c>
-      <c r="W4" t="str">
-        <f>CONCATENATE(W10,W13,W15,W17,W19,W34,W37,W40,W42,W45)</f>
+      <c r="X4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70mB15</v>
       </c>
-      <c r="X4" t="str">
-        <f>CONCATENATE(X10,X13,X15,X17,X19,X34,X37,X40,X42,X45)</f>
+      <c r="Y4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70mB30</v>
       </c>
-      <c r="Y4" t="str">
-        <f>CONCATENATE(Y10,Y13,Y15,Y17,Y19,Y34,Y37,Y40,Y42,Y45)</f>
+      <c r="Z4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70mB30</v>
       </c>
-      <c r="Z4" t="str">
-        <f t="shared" ref="Z4" si="4">CONCATENATE(Z10,Z13,Z15,Z17,Z19,Z34,Z37,Z40,Z42,Z45)</f>
+      <c r="AA4" t="str">
+        <f t="shared" si="5"/>
         <v>ChcC70m</v>
       </c>
-      <c r="AA4" t="str">
-        <f>CONCATENATE(AA10,AA13,AA15,AA17,AA19,AA34,AA37,AA40,AA42,AA45)</f>
+      <c r="AB4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70mLmod_D0_M0_energyOnly</v>
       </c>
-      <c r="AB4" t="str">
-        <f>CONCATENATE(AB10,AB13,AB15,AB17,AB19,AB34,AB37,AB40,AB42,AB45)</f>
+      <c r="AC4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70mLmod_D50_M0_energyOnly</v>
       </c>
-      <c r="AC4" t="str">
-        <f>CONCATENATE(AC10,AC13,AC15,AC17,AC19,AC34,AC37,AC40,AC42,AC45)</f>
+      <c r="AD4" t="str">
+        <f t="shared" si="5"/>
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>249</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:T5" si="5">CONCATENATE(C11,C15,C17,C19,C34,C37,C40,C42,C45)</f>
+        <f t="shared" ref="C5:U5" si="6">CONCATENATE(C11,C17,C19,C21,C36,C39,C42,C44,C47)</f>
         <v>coallc</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>coalhc</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>coallc</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F5" si="7">CONCATENATE(F11,F17,F19,F21,F36,F39,F42,F44,F47)</f>
+        <v>coallc</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="6"/>
         <v>coallcH-25</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" si="5"/>
+      <c r="H5" t="str">
+        <f t="shared" si="6"/>
         <v>coallcH25</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="5"/>
+      <c r="I5" t="str">
+        <f t="shared" si="6"/>
         <v>coallcN64</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="5"/>
+      <c r="J5" t="str">
+        <f t="shared" si="6"/>
         <v>coallcB15</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" si="5"/>
+      <c r="K5" t="str">
+        <f t="shared" si="6"/>
         <v>coallcB30</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" si="5"/>
+      <c r="L5" t="str">
+        <f t="shared" si="6"/>
         <v>coallc</v>
       </c>
-      <c r="L5" t="str">
-        <f t="shared" si="5"/>
+      <c r="M5" t="str">
+        <f t="shared" si="6"/>
         <v>coallc</v>
       </c>
-      <c r="M5" t="str">
-        <f t="shared" si="5"/>
+      <c r="N5" t="str">
+        <f t="shared" si="6"/>
         <v>coallc</v>
       </c>
-      <c r="N5" t="str">
-        <f t="shared" si="5"/>
+      <c r="O5" t="str">
+        <f t="shared" si="6"/>
         <v>coallc</v>
       </c>
-      <c r="O5" t="str">
-        <f t="shared" si="5"/>
+      <c r="P5" t="str">
+        <f t="shared" si="6"/>
         <v>coallc</v>
       </c>
-      <c r="P5" t="str">
-        <f t="shared" si="5"/>
+      <c r="Q5" t="str">
+        <f t="shared" si="6"/>
         <v>coallc</v>
       </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="5"/>
+      <c r="R5" t="str">
+        <f t="shared" si="6"/>
         <v>coallc</v>
       </c>
-      <c r="R5" t="str">
-        <f t="shared" si="5"/>
+      <c r="S5" t="str">
+        <f t="shared" si="6"/>
         <v>coallcW120</v>
       </c>
-      <c r="S5" t="str">
-        <f t="shared" si="5"/>
+      <c r="T5" t="str">
+        <f t="shared" si="6"/>
         <v>coallcS1A</v>
       </c>
-      <c r="T5" t="str">
-        <f t="shared" si="5"/>
+      <c r="U5" t="str">
+        <f t="shared" si="6"/>
         <v>coallcS90d</v>
       </c>
-      <c r="U5" t="str">
-        <f>CONCATENATE(U11,U15,U17,U19,U34,U37,U40,U42,U45)</f>
+      <c r="V5" t="str">
+        <f>CONCATENATE(V11,V17,V19,V21,V36,V39,V42,V44,V47)</f>
         <v>coallcW120S1A</v>
       </c>
-      <c r="V5" t="str">
-        <f>CONCATENATE(V11,V15,V17,V19,V34,V37,V40,V42,V45)</f>
+      <c r="W5" t="str">
+        <f>CONCATENATE(W11,W17,W19,W21,W36,W39,W42,W44,W47)</f>
         <v>coallcB15</v>
       </c>
-      <c r="W5" t="str">
-        <f>CONCATENATE(W11,W15,W17,W19,W34,W37,W40,W42,W45)</f>
+      <c r="X5" t="str">
+        <f>CONCATENATE(X11,X17,X19,X21,X36,X39,X42,X44,X47)</f>
         <v>coallcB15</v>
       </c>
-      <c r="X5" t="str">
-        <f>CONCATENATE(X11,X15,X17,X19,X34,X37,X40,X42,X45)</f>
+      <c r="Y5" t="str">
+        <f>CONCATENATE(Y11,Y17,Y19,Y21,Y36,Y39,Y42,Y44,Y47)</f>
         <v>coallcB30</v>
       </c>
-      <c r="Y5" t="str">
-        <f>CONCATENATE(Y11,Y15,Y17,Y19,Y34,Y37,Y40,Y42,Y45)</f>
+      <c r="Z5" t="str">
+        <f>CONCATENATE(Z11,Z17,Z19,Z21,Z36,Z39,Z42,Z44,Z47)</f>
         <v>coallcB30</v>
       </c>
-      <c r="Z5" t="str">
-        <f t="shared" ref="Z5" si="6">CONCATENATE(Z11,Z15,Z17,Z19,Z34,Z37,Z40,Z42,Z45)</f>
+      <c r="AA5" t="str">
+        <f t="shared" ref="AA5" si="8">CONCATENATE(AA11,AA17,AA19,AA21,AA36,AA39,AA42,AA44,AA47)</f>
         <v>coalhc</v>
       </c>
-      <c r="AA5" t="str">
-        <f>CONCATENATE(AA11,AA15,AA17,AA19,AA34,AA37,AA40,AA42,AA45)</f>
+      <c r="AB5" t="str">
+        <f>CONCATENATE(AB11,AB17,AB19,AB21,AB36,AB39,AB42,AB44,AB47)</f>
         <v>coallcLmod_D0_M0_energyOnly</v>
       </c>
-      <c r="AB5" t="str">
-        <f>CONCATENATE(AB11,AB15,AB17,AB19,AB34,AB37,AB40,AB42,AB45)</f>
+      <c r="AC5" t="str">
+        <f>CONCATENATE(AC11,AC17,AC19,AC21,AC36,AC39,AC42,AC44,AC47)</f>
         <v>coallcLmod_D50_M0_energyOnly</v>
       </c>
-      <c r="AC5" t="str">
-        <f>CONCATENATE(AC11,AC15,AC17,AC19,AC34,AC37,AC40,AC42,AC45)</f>
+      <c r="AD5" t="str">
+        <f>CONCATENATE(AD11,AD17,AD19,AD21,AD36,AD39,AD42,AD44,AD47)</f>
         <v>coallcLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>250</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6:T6" si="7">CONCATENATE(C11,C15,C17,C19,C34,C37,C40,C42,C45)</f>
+        <f t="shared" ref="C6:U6" si="9">CONCATENATE(C11,C17,C19,C21,C36,C39,C42,C44,C47)</f>
         <v>coallc</v>
       </c>
       <c r="D6" t="str">
@@ -2986,333 +3019,345 @@
         <v>coallc</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>coallc</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F6" si="10">CONCATENATE(F11,F17,F19,F21,F36,F39,F42,F44,F47)</f>
+        <v>coallc</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="9"/>
         <v>coallcH-25</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" si="7"/>
+      <c r="H6" t="str">
+        <f t="shared" si="9"/>
         <v>coallcH25</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" si="7"/>
+      <c r="I6" t="str">
+        <f t="shared" si="9"/>
         <v>coallcN64</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="7"/>
+      <c r="J6" t="str">
+        <f t="shared" si="9"/>
         <v>coallcB15</v>
       </c>
-      <c r="J6" t="str">
-        <f t="shared" si="7"/>
+      <c r="K6" t="str">
+        <f t="shared" si="9"/>
         <v>coallcB30</v>
       </c>
-      <c r="K6" t="str">
-        <f t="shared" si="7"/>
+      <c r="L6" t="str">
+        <f t="shared" si="9"/>
         <v>coallc</v>
       </c>
-      <c r="L6" t="str">
-        <f t="shared" si="7"/>
+      <c r="M6" t="str">
+        <f t="shared" si="9"/>
         <v>coallc</v>
       </c>
-      <c r="M6" t="str">
-        <f t="shared" si="7"/>
+      <c r="N6" t="str">
+        <f t="shared" si="9"/>
         <v>coallc</v>
       </c>
-      <c r="N6" t="str">
-        <f t="shared" si="7"/>
+      <c r="O6" t="str">
+        <f t="shared" si="9"/>
         <v>coallc</v>
       </c>
-      <c r="O6" t="str">
-        <f t="shared" si="7"/>
+      <c r="P6" t="str">
+        <f t="shared" si="9"/>
         <v>coallc</v>
       </c>
-      <c r="P6" t="str">
-        <f t="shared" si="7"/>
+      <c r="Q6" t="str">
+        <f t="shared" si="9"/>
         <v>coallc</v>
       </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="7"/>
+      <c r="R6" t="str">
+        <f t="shared" si="9"/>
         <v>coallc</v>
       </c>
-      <c r="R6" t="str">
-        <f t="shared" si="7"/>
+      <c r="S6" t="str">
+        <f t="shared" si="9"/>
         <v>coallcW120</v>
       </c>
-      <c r="S6" t="str">
-        <f t="shared" si="7"/>
+      <c r="T6" t="str">
+        <f t="shared" si="9"/>
         <v>coallcS1A</v>
       </c>
-      <c r="T6" t="str">
-        <f t="shared" si="7"/>
+      <c r="U6" t="str">
+        <f t="shared" si="9"/>
         <v>coallcS90d</v>
       </c>
-      <c r="U6" t="str">
-        <f>CONCATENATE(U11,U15,U17,U19,U34,U37,U40,U42,U45)</f>
+      <c r="V6" t="str">
+        <f>CONCATENATE(V11,V17,V19,V21,V36,V39,V42,V44,V47)</f>
         <v>coallcW120S1A</v>
       </c>
-      <c r="V6" t="str">
-        <f>CONCATENATE(V11,V15,V17,V19,V34,V37,V40,V42,V45)</f>
+      <c r="W6" t="str">
+        <f>CONCATENATE(W11,W17,W19,W21,W36,W39,W42,W44,W47)</f>
         <v>coallcB15</v>
       </c>
-      <c r="W6" t="str">
-        <f>CONCATENATE(W11,W15,W17,W19,W34,W37,W40,W42,W45)</f>
+      <c r="X6" t="str">
+        <f>CONCATENATE(X11,X17,X19,X21,X36,X39,X42,X44,X47)</f>
         <v>coallcB15</v>
       </c>
-      <c r="X6" t="str">
-        <f>CONCATENATE(X11,X15,X17,X19,X34,X37,X40,X42,X45)</f>
+      <c r="Y6" t="str">
+        <f>CONCATENATE(Y11,Y17,Y19,Y21,Y36,Y39,Y42,Y44,Y47)</f>
         <v>coallcB30</v>
       </c>
-      <c r="Y6" t="str">
-        <f>CONCATENATE(Y11,Y15,Y17,Y19,Y34,Y37,Y40,Y42,Y45)</f>
+      <c r="Z6" t="str">
+        <f>CONCATENATE(Z11,Z17,Z19,Z21,Z36,Z39,Z42,Z44,Z47)</f>
         <v>coallcB30</v>
       </c>
-      <c r="Z6" t="str">
+      <c r="AA6" t="str">
         <f>C6</f>
         <v>coallc</v>
       </c>
-      <c r="AA6" t="str">
-        <f>CONCATENATE(AA11,AA15,AA17,AA19,AA34,AA37,AA40,AA42,AA45)</f>
+      <c r="AB6" t="str">
+        <f>CONCATENATE(AB11,AB17,AB19,AB21,AB36,AB39,AB42,AB44,AB47)</f>
         <v>coallcLmod_D0_M0_energyOnly</v>
       </c>
-      <c r="AB6" t="str">
-        <f>CONCATENATE(AB11,AB15,AB17,AB19,AB34,AB37,AB40,AB42,AB45)</f>
+      <c r="AC6" t="str">
+        <f>CONCATENATE(AC11,AC17,AC19,AC21,AC36,AC39,AC42,AC44,AC47)</f>
         <v>coallcLmod_D50_M0_energyOnly</v>
       </c>
-      <c r="AC6" t="str">
-        <f>CONCATENATE(AC11,AC15,AC17,AC19,AC34,AC37,AC40,AC42,AC45)</f>
+      <c r="AD6" t="str">
+        <f>CONCATENATE(AD11,AD17,AD19,AD21,AD36,AD39,AD42,AD44,AD47)</f>
         <v>coallcLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>251</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:T7" si="8">CONCATENATE(C35,"_",C38)</f>
+        <f t="shared" ref="C7:U7" si="11">CONCATENATE(C37,"_",C40)</f>
         <v>W80_S0d</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>W80_S0d</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>W80_S0d</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F7" si="12">CONCATENATE(F37,"_",F40)</f>
         <v>W80_S0d</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>W80_S0d</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>W80_S0d</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>W80_S0d</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>W80_S0d</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>W80_S0d</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>W80_S0d</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>W80_S0d</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>W80_S0d</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>W80_S0d</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>W80_S0d</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>W80_S0d</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="11"/>
         <v>W120_S0d</v>
       </c>
-      <c r="S7" t="str">
-        <f t="shared" si="8"/>
+      <c r="T7" t="str">
+        <f t="shared" si="11"/>
         <v>W80_S1A</v>
       </c>
-      <c r="T7" t="str">
-        <f t="shared" si="8"/>
+      <c r="U7" t="str">
+        <f t="shared" si="11"/>
         <v>W80_S90d</v>
       </c>
-      <c r="U7" t="str">
-        <f>CONCATENATE(U35,"_",U38)</f>
+      <c r="V7" t="str">
+        <f>CONCATENATE(V37,"_",V40)</f>
         <v>W120_S1A</v>
       </c>
-      <c r="V7" t="str">
-        <f>CONCATENATE(V35,"_",V38)</f>
+      <c r="W7" t="str">
+        <f>CONCATENATE(W37,"_",W40)</f>
         <v>W80_S0d</v>
       </c>
-      <c r="W7" t="str">
-        <f>CONCATENATE(W35,"_",W38)</f>
+      <c r="X7" t="str">
+        <f>CONCATENATE(X37,"_",X40)</f>
         <v>W80_S0d</v>
       </c>
-      <c r="X7" t="str">
-        <f>CONCATENATE(X35,"_",X38)</f>
+      <c r="Y7" t="str">
+        <f>CONCATENATE(Y37,"_",Y40)</f>
         <v>W80_S0d</v>
       </c>
-      <c r="Y7" t="str">
-        <f>CONCATENATE(Y35,"_",Y38)</f>
+      <c r="Z7" t="str">
+        <f>CONCATENATE(Z37,"_",Z40)</f>
         <v>W80_S0d</v>
       </c>
-      <c r="Z7" t="str">
-        <f t="shared" ref="Z7" si="9">CONCATENATE(Z35,"_",Z38)</f>
+      <c r="AA7" t="str">
+        <f t="shared" ref="AA7" si="13">CONCATENATE(AA37,"_",AA40)</f>
         <v>W80_S0d</v>
       </c>
-      <c r="AA7" t="str">
-        <f>CONCATENATE(AA35,"_",AA38)</f>
+      <c r="AB7" t="str">
+        <f>CONCATENATE(AB37,"_",AB40)</f>
         <v>W80_S0d</v>
       </c>
-      <c r="AB7" t="str">
-        <f>CONCATENATE(AB35,"_",AB38)</f>
+      <c r="AC7" t="str">
+        <f>CONCATENATE(AC37,"_",AC40)</f>
         <v>W80_S0d</v>
       </c>
-      <c r="AC7" t="str">
-        <f>CONCATENATE(AC35,"_",AC38)</f>
+      <c r="AD7" t="str">
+        <f>CONCATENATE(AD37,"_",AD40)</f>
         <v>W80_S0d</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>252</v>
       </c>
       <c r="C8" t="str">
-        <f>CONCATENATE(C11,C27,C31,C23)</f>
+        <f>CONCATENATE(C11,C29,C33,C25)</f>
         <v>coallc</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" ref="D8:Y8" si="10">CONCATENATE(D11,D27,D31,D23)</f>
+        <f t="shared" ref="D8:Z8" si="14">CONCATENATE(D11,D29,D33,D25)</f>
         <v>coalhc</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F8" si="15">CONCATENATE(F11,F29,F33,F25)</f>
         <v>coallc</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>coallc</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="14"/>
         <v>coallcW10lc</v>
       </c>
-      <c r="L8" t="str">
-        <f t="shared" si="10"/>
+      <c r="M8" t="str">
+        <f t="shared" si="14"/>
         <v>coallcW20lc</v>
       </c>
-      <c r="M8" t="str">
-        <f t="shared" si="10"/>
+      <c r="N8" t="str">
+        <f t="shared" si="14"/>
         <v>coallcW30lc</v>
       </c>
-      <c r="N8" t="str">
-        <f t="shared" si="10"/>
+      <c r="O8" t="str">
+        <f t="shared" si="14"/>
         <v>coallcS10lc</v>
       </c>
-      <c r="O8" t="str">
-        <f t="shared" si="10"/>
+      <c r="P8" t="str">
+        <f t="shared" si="14"/>
         <v>coallcS20lc</v>
       </c>
-      <c r="P8" t="str">
-        <f t="shared" si="10"/>
+      <c r="Q8" t="str">
+        <f t="shared" si="14"/>
         <v>coallcS30lc</v>
       </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="10"/>
+      <c r="R8" t="str">
+        <f t="shared" si="14"/>
         <v>coallcW30lcS30lc</v>
       </c>
-      <c r="R8" t="str">
-        <f t="shared" si="10"/>
+      <c r="S8" t="str">
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
-      <c r="S8" t="str">
-        <f t="shared" si="10"/>
+      <c r="T8" t="str">
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
-      <c r="T8" t="str">
-        <f t="shared" si="10"/>
+      <c r="U8" t="str">
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
-      <c r="U8" t="str">
-        <f t="shared" si="10"/>
+      <c r="V8" t="str">
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
-      <c r="V8" t="str">
-        <f t="shared" si="10"/>
+      <c r="W8" t="str">
+        <f t="shared" si="14"/>
         <v>coallcB25lc</v>
       </c>
-      <c r="W8" t="str">
-        <f t="shared" si="10"/>
+      <c r="X8" t="str">
+        <f t="shared" si="14"/>
         <v>coallcB50lc</v>
       </c>
-      <c r="X8" t="str">
-        <f t="shared" si="10"/>
+      <c r="Y8" t="str">
+        <f t="shared" si="14"/>
         <v>coallcB25lc</v>
       </c>
-      <c r="Y8" t="str">
-        <f t="shared" si="10"/>
+      <c r="Z8" t="str">
+        <f t="shared" si="14"/>
         <v>coallcB50lc</v>
       </c>
-      <c r="Z8" t="str">
-        <f t="shared" ref="Z8" si="11">CONCATENATE(Z11,Z27,Z31,Z23)</f>
+      <c r="AA8" t="str">
+        <f t="shared" ref="AA8" si="16">CONCATENATE(AA11,AA29,AA33,AA25)</f>
         <v>coalhcW30lcS30lc</v>
       </c>
-      <c r="AA8" t="str">
-        <f>CONCATENATE(AA11,AA27,AA31,AA23)</f>
+      <c r="AB8" t="str">
+        <f>CONCATENATE(AB11,AB29,AB33,AB25)</f>
         <v>coallc</v>
       </c>
-      <c r="AB8" t="str">
-        <f>CONCATENATE(AB11,AB27,AB31,AB23)</f>
+      <c r="AC8" t="str">
+        <f>CONCATENATE(AC11,AC29,AC33,AC25)</f>
         <v>coallc</v>
       </c>
-      <c r="AC8" t="str">
-        <f>CONCATENATE(AC11,AC27,AC31,AC23)</f>
+      <c r="AD8" t="str">
+        <f>CONCATENATE(AD11,AD29,AD33,AD25)</f>
         <v>coallc</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>253</v>
       </c>
@@ -3389,10 +3434,10 @@
         <v>255</v>
       </c>
       <c r="Z9" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA9" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="AA9" s="21" t="s">
-        <v>255</v>
       </c>
       <c r="AB9" s="21" t="s">
         <v>255</v>
@@ -3400,8 +3445,11 @@
       <c r="AC9" s="21" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD9" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>257</v>
       </c>
@@ -3410,75 +3458,75 @@
         <v>Clc</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:T10" si="12">CONCATENATE("C", LEFT(D9,1), "c")</f>
+        <f t="shared" ref="D10:U10" si="17">CONCATENATE("C", LEFT(D9,1), "c")</f>
         <v>Chc</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Clc</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F10" si="18">CONCATENATE("C", LEFT(F9,1), "c")</f>
         <v>Clc</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Clc</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Clc</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Clc</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Clc</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Clc</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Clc</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Clc</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Clc</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Clc</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Clc</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Clc</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Clc</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Clc</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Clc</v>
       </c>
       <c r="U10" t="str">
-        <f>CONCATENATE("C", LEFT(U9,1), "c")</f>
+        <f t="shared" si="17"/>
         <v>Clc</v>
       </c>
       <c r="V10" t="str">
@@ -3498,12 +3546,12 @@
         <v>Clc</v>
       </c>
       <c r="Z10" t="str">
-        <f t="shared" ref="Z10" si="13">CONCATENATE("C", LEFT(Z9,1), "c")</f>
+        <f>CONCATENATE("C", LEFT(Z9,1), "c")</f>
+        <v>Clc</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" ref="AA10" si="19">CONCATENATE("C", LEFT(AA9,1), "c")</f>
         <v>Chc</v>
-      </c>
-      <c r="AA10" t="str">
-        <f>CONCATENATE("C", LEFT(AA9,1), "c")</f>
-        <v>Clc</v>
       </c>
       <c r="AB10" t="str">
         <f>CONCATENATE("C", LEFT(AB9,1), "c")</f>
@@ -3513,85 +3561,89 @@
         <f>CONCATENATE("C", LEFT(AC9,1), "c")</f>
         <v>Clc</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD10" t="str">
+        <f>CONCATENATE("C", LEFT(AD9,1), "c")</f>
+        <v>Clc</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>258</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:T11" si="14">CONCATENATE("coal",LEFT(C9,1), "c")</f>
+        <f t="shared" ref="C11:U11" si="20">CONCATENATE("coal",LEFT(C9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>coalhc</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>coallc</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F11" si="21">CONCATENATE("coal",LEFT(F9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>coallc</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>coallc</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>coallc</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>coallc</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>coallc</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>coallc</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>coallc</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>coallc</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>coallc</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>coallc</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>coallc</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>coallc</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>coallc</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>coallc</v>
       </c>
       <c r="U11" t="str">
-        <f>CONCATENATE("coal",LEFT(U9,1), "c")</f>
+        <f t="shared" si="20"/>
         <v>coallc</v>
       </c>
       <c r="V11" t="str">
@@ -3611,12 +3663,12 @@
         <v>coallc</v>
       </c>
       <c r="Z11" t="str">
-        <f t="shared" ref="Z11" si="15">CONCATENATE("coal",LEFT(Z9,1), "c")</f>
+        <f>CONCATENATE("coal",LEFT(Z9,1), "c")</f>
+        <v>coallc</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" ref="AA11" si="22">CONCATENATE("coal",LEFT(AA9,1), "c")</f>
         <v>coalhc</v>
-      </c>
-      <c r="AA11" t="str">
-        <f>CONCATENATE("coal",LEFT(AA9,1), "c")</f>
-        <v>coallc</v>
       </c>
       <c r="AB11" t="str">
         <f>CONCATENATE("coal",LEFT(AB9,1), "c")</f>
@@ -3626,8 +3678,12 @@
         <f>CONCATENATE("coal",LEFT(AC9,1), "c")</f>
         <v>coallc</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD11" t="str">
+        <f>CONCATENATE("coal",LEFT(AD9,1), "c")</f>
+        <v>coallc</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>259</v>
       </c>
@@ -3644,7 +3700,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="21">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G12" s="21">
         <v>70</v>
@@ -3715,8 +3771,11 @@
       <c r="AC12" s="21">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD12" s="21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>261</v>
       </c>
@@ -3725,75 +3784,75 @@
         <v>C70m</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ref="D13:T13" si="16">CONCATENATE("C",D12,"m")</f>
+        <f t="shared" ref="D13:U13" si="23">CONCATENATE("C",D12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>C55m</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="F13:U15" si="24">CONCATENATE("C",F12,"m")</f>
+        <v>C0m</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="23"/>
         <v>C70m</v>
       </c>
-      <c r="G13" t="str">
-        <f t="shared" si="16"/>
+      <c r="H13" t="str">
+        <f t="shared" si="23"/>
         <v>C70m</v>
       </c>
-      <c r="H13" t="str">
-        <f t="shared" si="16"/>
+      <c r="I13" t="str">
+        <f t="shared" si="23"/>
         <v>C70m</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" si="16"/>
+      <c r="J13" t="str">
+        <f t="shared" si="23"/>
         <v>C70m</v>
       </c>
-      <c r="J13" t="str">
-        <f t="shared" si="16"/>
+      <c r="K13" t="str">
+        <f t="shared" si="23"/>
         <v>C70m</v>
       </c>
-      <c r="K13" t="str">
-        <f t="shared" si="16"/>
+      <c r="L13" t="str">
+        <f t="shared" si="23"/>
         <v>C70m</v>
       </c>
-      <c r="L13" t="str">
-        <f t="shared" si="16"/>
+      <c r="M13" t="str">
+        <f t="shared" si="23"/>
         <v>C70m</v>
       </c>
-      <c r="M13" t="str">
-        <f t="shared" si="16"/>
+      <c r="N13" t="str">
+        <f t="shared" si="23"/>
         <v>C70m</v>
       </c>
-      <c r="N13" t="str">
-        <f t="shared" si="16"/>
+      <c r="O13" t="str">
+        <f t="shared" si="23"/>
         <v>C70m</v>
       </c>
-      <c r="O13" t="str">
-        <f t="shared" si="16"/>
+      <c r="P13" t="str">
+        <f t="shared" si="23"/>
         <v>C70m</v>
       </c>
-      <c r="P13" t="str">
-        <f t="shared" si="16"/>
+      <c r="Q13" t="str">
+        <f t="shared" si="23"/>
         <v>C70m</v>
       </c>
-      <c r="Q13" t="str">
-        <f t="shared" si="16"/>
+      <c r="R13" t="str">
+        <f t="shared" si="23"/>
         <v>C70m</v>
       </c>
-      <c r="R13" t="str">
-        <f t="shared" si="16"/>
+      <c r="S13" t="str">
+        <f t="shared" si="23"/>
         <v>C70m</v>
       </c>
-      <c r="S13" t="str">
-        <f t="shared" si="16"/>
+      <c r="T13" t="str">
+        <f t="shared" si="23"/>
         <v>C70m</v>
       </c>
-      <c r="T13" t="str">
-        <f t="shared" si="16"/>
-        <v>C70m</v>
-      </c>
       <c r="U13" t="str">
-        <f>CONCATENATE("C",U12,"m")</f>
+        <f t="shared" si="23"/>
         <v>C70m</v>
       </c>
       <c r="V13" t="str">
@@ -3813,11 +3872,11 @@
         <v>C70m</v>
       </c>
       <c r="Z13" t="str">
-        <f t="shared" ref="Z13" si="17">CONCATENATE("C",Z12,"m")</f>
+        <f>CONCATENATE("C",Z12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="AA13" t="str">
-        <f>CONCATENATE("C",AA12,"m")</f>
+        <f t="shared" ref="AA13:AA15" si="25">CONCATENATE("C",AA12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="AB13" t="str">
@@ -3828,3255 +3887,3581 @@
         <f>CONCATENATE("C",AC12,"m")</f>
         <v>C70m</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD13" t="str">
+        <f>CONCATENATE("C",AD12,"m")</f>
+        <v>C70m</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="C14" s="21">
+        <v>50</v>
+      </c>
+      <c r="D14" s="21">
+        <v>50</v>
+      </c>
+      <c r="E14" s="21">
+        <v>50</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0</v>
+      </c>
+      <c r="G14" s="21">
+        <v>50</v>
+      </c>
+      <c r="H14" s="21">
+        <v>50</v>
+      </c>
+      <c r="I14" s="21">
+        <v>50</v>
+      </c>
+      <c r="J14" s="21">
+        <v>50</v>
+      </c>
+      <c r="K14" s="21">
+        <v>50</v>
+      </c>
+      <c r="L14" s="21">
+        <v>50</v>
+      </c>
+      <c r="M14" s="21">
+        <v>50</v>
+      </c>
+      <c r="N14" s="21">
+        <v>50</v>
+      </c>
+      <c r="O14" s="21">
+        <v>50</v>
+      </c>
+      <c r="P14" s="21">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>50</v>
+      </c>
+      <c r="R14" s="21">
+        <v>50</v>
+      </c>
+      <c r="S14" s="21">
+        <v>50</v>
+      </c>
+      <c r="T14" s="21">
+        <v>50</v>
+      </c>
+      <c r="U14" s="21">
+        <v>50</v>
+      </c>
+      <c r="V14" s="21">
+        <v>50</v>
+      </c>
+      <c r="W14" s="21">
+        <v>50</v>
+      </c>
+      <c r="X14" s="21">
+        <v>50</v>
+      </c>
+      <c r="Y14" s="21">
+        <v>50</v>
+      </c>
+      <c r="Z14" s="21">
+        <v>50</v>
+      </c>
+      <c r="AA14" s="21">
+        <v>50</v>
+      </c>
+      <c r="AB14" s="21">
+        <v>50</v>
+      </c>
+      <c r="AC14" s="21">
+        <v>50</v>
+      </c>
+      <c r="AD14" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C15" t="str">
+        <f>IF(C14=50,"",CONCATENATE("G",C14, "m"))</f>
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15:AD15" si="26">IF(D14=50,"",CONCATENATE("G",D14, "m"))</f>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="26"/>
+        <v>G0m</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B16" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="C14" s="21">
-        <v>0</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0</v>
-      </c>
-      <c r="F14" s="21">
+      <c r="C16" s="21">
+        <v>0</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21">
         <v>-25</v>
       </c>
-      <c r="G14" s="21">
+      <c r="H16" s="21">
         <v>25</v>
       </c>
-      <c r="H14" s="21">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21">
-        <v>0</v>
-      </c>
-      <c r="J14" s="21">
-        <v>0</v>
-      </c>
-      <c r="K14" s="21">
-        <v>0</v>
-      </c>
-      <c r="L14" s="21">
-        <v>0</v>
-      </c>
-      <c r="M14" s="21">
-        <v>0</v>
-      </c>
-      <c r="N14" s="21">
-        <v>0</v>
-      </c>
-      <c r="O14" s="21">
-        <v>0</v>
-      </c>
-      <c r="P14" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>0</v>
-      </c>
-      <c r="R14" s="21">
-        <v>0</v>
-      </c>
-      <c r="S14" s="21">
-        <v>0</v>
-      </c>
-      <c r="T14" s="21">
-        <v>0</v>
-      </c>
-      <c r="U14" s="21">
-        <v>0</v>
-      </c>
-      <c r="V14" s="21">
-        <v>0</v>
-      </c>
-      <c r="W14" s="21">
-        <v>0</v>
-      </c>
-      <c r="X14" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="I16" s="21">
+        <v>0</v>
+      </c>
+      <c r="J16" s="21">
+        <v>0</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0</v>
+      </c>
+      <c r="M16" s="21">
+        <v>0</v>
+      </c>
+      <c r="N16" s="21">
+        <v>0</v>
+      </c>
+      <c r="O16" s="21">
+        <v>0</v>
+      </c>
+      <c r="P16" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>0</v>
+      </c>
+      <c r="R16" s="21">
+        <v>0</v>
+      </c>
+      <c r="S16" s="21">
+        <v>0</v>
+      </c>
+      <c r="T16" s="21">
+        <v>0</v>
+      </c>
+      <c r="U16" s="21">
+        <v>0</v>
+      </c>
+      <c r="V16" s="21">
+        <v>0</v>
+      </c>
+      <c r="W16" s="21">
+        <v>0</v>
+      </c>
+      <c r="X16" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>264</v>
       </c>
-      <c r="C15" t="str">
-        <f t="shared" ref="C15:T15" si="18">IF(C14=0,"",CONCATENATE("H",C14))</f>
-        <v/>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="18"/>
+      <c r="C17" t="str">
+        <f t="shared" ref="C15:U17" si="27">IF(C16=0,"",CONCATENATE("H",C16))</f>
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" ref="F17" si="28">IF(F16=0,"",CONCATENATE("H",F16))</f>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="27"/>
         <v>H-25</v>
       </c>
-      <c r="G15" t="str">
-        <f t="shared" si="18"/>
+      <c r="H17" t="str">
+        <f t="shared" si="27"/>
         <v>H25</v>
       </c>
-      <c r="H15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="P15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Q15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="R15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="S15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="U15" t="str">
-        <f>IF(U14=0,"",CONCATENATE("H",U14))</f>
-        <v/>
-      </c>
-      <c r="V15" t="str">
-        <f>IF(V14=0,"",CONCATENATE("H",V14))</f>
-        <v/>
-      </c>
-      <c r="W15" t="str">
-        <f>IF(W14=0,"",CONCATENATE("H",W14))</f>
-        <v/>
-      </c>
-      <c r="X15" t="str">
-        <f>IF(X14=0,"",CONCATENATE("H",X14))</f>
-        <v/>
-      </c>
-      <c r="Y15" t="str">
-        <f>IF(Y14=0,"",CONCATENATE("H",Y14))</f>
-        <v/>
-      </c>
-      <c r="Z15" t="str">
-        <f t="shared" ref="Z15" si="19">IF(Z14=0,"",CONCATENATE("H",Z14))</f>
-        <v/>
-      </c>
-      <c r="AA15" t="str">
-        <f>IF(AA14=0,"",CONCATENATE("H",AA14))</f>
-        <v/>
-      </c>
-      <c r="AB15" t="str">
-        <f>IF(AB14=0,"",CONCATENATE("H",AB14))</f>
-        <v/>
-      </c>
-      <c r="AC15" t="str">
-        <f>IF(AC14=0,"",CONCATENATE("H",AC14))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="I17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <f>IF(V16=0,"",CONCATENATE("H",V16))</f>
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <f>IF(W16=0,"",CONCATENATE("H",W16))</f>
+        <v/>
+      </c>
+      <c r="X17" t="str">
+        <f>IF(X16=0,"",CONCATENATE("H",X16))</f>
+        <v/>
+      </c>
+      <c r="Y17" t="str">
+        <f>IF(Y16=0,"",CONCATENATE("H",Y16))</f>
+        <v/>
+      </c>
+      <c r="Z17" t="str">
+        <f>IF(Z16=0,"",CONCATENATE("H",Z16))</f>
+        <v/>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" ref="AA17" si="29">IF(AA16=0,"",CONCATENATE("H",AA16))</f>
+        <v/>
+      </c>
+      <c r="AB17" t="str">
+        <f>IF(AB16=0,"",CONCATENATE("H",AB16))</f>
+        <v/>
+      </c>
+      <c r="AC17" t="str">
+        <f>IF(AC16=0,"",CONCATENATE("H",AC16))</f>
+        <v/>
+      </c>
+      <c r="AD17" t="str">
+        <f>IF(AD16=0,"",CONCATENATE("H",AD16))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B18" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C16" s="21">
-        <v>0</v>
-      </c>
-      <c r="D16" s="21">
-        <v>0</v>
-      </c>
-      <c r="E16" s="21">
-        <v>0</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0</v>
-      </c>
-      <c r="G16" s="21">
-        <v>0</v>
-      </c>
-      <c r="H16" s="21">
+      <c r="C18" s="21">
+        <v>0</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
+        <v>0</v>
+      </c>
+      <c r="I18" s="21">
         <v>64</v>
       </c>
-      <c r="I16" s="21">
-        <v>0</v>
-      </c>
-      <c r="J16" s="21">
-        <v>0</v>
-      </c>
-      <c r="K16" s="21">
-        <v>0</v>
-      </c>
-      <c r="L16" s="21">
-        <v>0</v>
-      </c>
-      <c r="M16" s="21">
-        <v>0</v>
-      </c>
-      <c r="N16" s="21">
-        <v>0</v>
-      </c>
-      <c r="O16" s="21">
-        <v>0</v>
-      </c>
-      <c r="P16" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="21">
-        <v>0</v>
-      </c>
-      <c r="R16" s="21">
-        <v>0</v>
-      </c>
-      <c r="S16" s="21">
-        <v>0</v>
-      </c>
-      <c r="T16" s="21">
-        <v>0</v>
-      </c>
-      <c r="U16" s="21">
-        <v>0</v>
-      </c>
-      <c r="V16" s="21">
-        <v>0</v>
-      </c>
-      <c r="W16" s="21">
-        <v>0</v>
-      </c>
-      <c r="X16" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="J18" s="21">
+        <v>0</v>
+      </c>
+      <c r="K18" s="21">
+        <v>0</v>
+      </c>
+      <c r="L18" s="21">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
+        <v>0</v>
+      </c>
+      <c r="N18" s="21">
+        <v>0</v>
+      </c>
+      <c r="O18" s="21">
+        <v>0</v>
+      </c>
+      <c r="P18" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>0</v>
+      </c>
+      <c r="R18" s="21">
+        <v>0</v>
+      </c>
+      <c r="S18" s="21">
+        <v>0</v>
+      </c>
+      <c r="T18" s="21">
+        <v>0</v>
+      </c>
+      <c r="U18" s="21">
+        <v>0</v>
+      </c>
+      <c r="V18" s="21">
+        <v>0</v>
+      </c>
+      <c r="W18" s="21">
+        <v>0</v>
+      </c>
+      <c r="X18" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>267</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" ref="C17:T17" si="20">IF(C16=0,"",CONCATENATE("N",C16))</f>
-        <v/>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="20"/>
+      <c r="C19" t="str">
+        <f t="shared" ref="C19:U19" si="30">IF(C18=0,"",CONCATENATE("N",C18))</f>
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" ref="F19" si="31">IF(F18=0,"",CONCATENATE("N",F18))</f>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="30"/>
         <v>N64</v>
       </c>
-      <c r="I17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="S17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="U17" t="str">
-        <f>IF(U16=0,"",CONCATENATE("N",U16))</f>
-        <v/>
-      </c>
-      <c r="V17" t="str">
-        <f>IF(V16=0,"",CONCATENATE("N",V16))</f>
-        <v/>
-      </c>
-      <c r="W17" t="str">
-        <f>IF(W16=0,"",CONCATENATE("N",W16))</f>
-        <v/>
-      </c>
-      <c r="X17" t="str">
-        <f>IF(X16=0,"",CONCATENATE("N",X16))</f>
-        <v/>
-      </c>
-      <c r="Y17" t="str">
-        <f>IF(Y16=0,"",CONCATENATE("N",Y16))</f>
-        <v/>
-      </c>
-      <c r="Z17" t="str">
-        <f t="shared" ref="Z17" si="21">IF(Z16=0,"",CONCATENATE("N",Z16))</f>
-        <v/>
-      </c>
-      <c r="AA17" t="str">
-        <f>IF(AA16=0,"",CONCATENATE("N",AA16))</f>
-        <v/>
-      </c>
-      <c r="AB17" t="str">
-        <f>IF(AB16=0,"",CONCATENATE("N",AB16))</f>
-        <v/>
-      </c>
-      <c r="AC17" t="str">
-        <f>IF(AC16=0,"",CONCATENATE("N",AC16))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="J19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <f>IF(V18=0,"",CONCATENATE("N",V18))</f>
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <f>IF(W18=0,"",CONCATENATE("N",W18))</f>
+        <v/>
+      </c>
+      <c r="X19" t="str">
+        <f>IF(X18=0,"",CONCATENATE("N",X18))</f>
+        <v/>
+      </c>
+      <c r="Y19" t="str">
+        <f>IF(Y18=0,"",CONCATENATE("N",Y18))</f>
+        <v/>
+      </c>
+      <c r="Z19" t="str">
+        <f>IF(Z18=0,"",CONCATENATE("N",Z18))</f>
+        <v/>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" ref="AA19" si="32">IF(AA18=0,"",CONCATENATE("N",AA18))</f>
+        <v/>
+      </c>
+      <c r="AB19" t="str">
+        <f>IF(AB18=0,"",CONCATENATE("N",AB18))</f>
+        <v/>
+      </c>
+      <c r="AC19" t="str">
+        <f>IF(AC18=0,"",CONCATENATE("N",AC18))</f>
+        <v/>
+      </c>
+      <c r="AD19" t="str">
+        <f>IF(AD18=0,"",CONCATENATE("N",AD18))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B20" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="C18" s="21">
-        <v>0</v>
-      </c>
-      <c r="D18" s="21">
-        <v>0</v>
-      </c>
-      <c r="E18" s="21">
-        <v>0</v>
-      </c>
-      <c r="F18" s="21">
-        <v>0</v>
-      </c>
-      <c r="G18" s="21">
-        <v>0</v>
-      </c>
-      <c r="H18" s="21">
-        <v>0</v>
-      </c>
-      <c r="I18" s="21">
+      <c r="C20" s="21">
+        <v>0</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
+        <v>0</v>
+      </c>
+      <c r="I20" s="21">
+        <v>0</v>
+      </c>
+      <c r="J20" s="21">
         <v>15</v>
       </c>
-      <c r="J18" s="21">
+      <c r="K20" s="21">
         <v>30</v>
       </c>
-      <c r="K18" s="21">
-        <v>0</v>
-      </c>
-      <c r="L18" s="21">
-        <v>0</v>
-      </c>
-      <c r="M18" s="21">
-        <v>0</v>
-      </c>
-      <c r="N18" s="21">
-        <v>0</v>
-      </c>
-      <c r="O18" s="21">
-        <v>0</v>
-      </c>
-      <c r="P18" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="21">
-        <v>0</v>
-      </c>
-      <c r="R18" s="21">
-        <v>0</v>
-      </c>
-      <c r="S18" s="21">
-        <v>0</v>
-      </c>
-      <c r="T18" s="21">
-        <v>0</v>
-      </c>
-      <c r="U18" s="21">
-        <v>0</v>
-      </c>
-      <c r="V18" s="21">
+      <c r="L20" s="21">
+        <v>0</v>
+      </c>
+      <c r="M20" s="21">
+        <v>0</v>
+      </c>
+      <c r="N20" s="21">
+        <v>0</v>
+      </c>
+      <c r="O20" s="21">
+        <v>0</v>
+      </c>
+      <c r="P20" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>0</v>
+      </c>
+      <c r="R20" s="21">
+        <v>0</v>
+      </c>
+      <c r="S20" s="21">
+        <v>0</v>
+      </c>
+      <c r="T20" s="21">
+        <v>0</v>
+      </c>
+      <c r="U20" s="21">
+        <v>0</v>
+      </c>
+      <c r="V20" s="21">
+        <v>0</v>
+      </c>
+      <c r="W20" s="21">
         <v>15</v>
       </c>
-      <c r="W18" s="21">
+      <c r="X20" s="21">
         <v>15</v>
       </c>
-      <c r="X18" s="21">
+      <c r="Y20" s="21">
         <v>30</v>
       </c>
-      <c r="Y18" s="21">
+      <c r="Z20" s="21">
         <v>30</v>
       </c>
-      <c r="Z18" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="AA20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>270</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" ref="C19:T19" si="22">IF(C18=0,"",CONCATENATE("B",C18))</f>
-        <v/>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="22"/>
+      <c r="C21" t="str">
+        <f t="shared" ref="C21:U21" si="33">IF(C20=0,"",CONCATENATE("B",C20))</f>
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" ref="F21" si="34">IF(F20=0,"",CONCATENATE("B",F20))</f>
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="33"/>
         <v>B15</v>
       </c>
-      <c r="J19" t="str">
-        <f t="shared" si="22"/>
+      <c r="K21" t="str">
+        <f t="shared" si="33"/>
         <v>B30</v>
       </c>
-      <c r="K19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="P19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="Q19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="R19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="S19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="T19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="U19" t="str">
-        <f>IF(U18=0,"",CONCATENATE("B",U18))</f>
-        <v/>
-      </c>
-      <c r="V19" t="str">
-        <f>IF(V18=0,"",CONCATENATE("B",V18))</f>
+      <c r="L21" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="V21" t="str">
+        <f>IF(V20=0,"",CONCATENATE("B",V20))</f>
+        <v/>
+      </c>
+      <c r="W21" t="str">
+        <f>IF(W20=0,"",CONCATENATE("B",W20))</f>
         <v>B15</v>
       </c>
-      <c r="W19" t="str">
-        <f>IF(W18=0,"",CONCATENATE("B",W18))</f>
+      <c r="X21" t="str">
+        <f>IF(X20=0,"",CONCATENATE("B",X20))</f>
         <v>B15</v>
       </c>
-      <c r="X19" t="str">
-        <f>IF(X18=0,"",CONCATENATE("B",X18))</f>
+      <c r="Y21" t="str">
+        <f>IF(Y20=0,"",CONCATENATE("B",Y20))</f>
         <v>B30</v>
       </c>
-      <c r="Y19" t="str">
-        <f>IF(Y18=0,"",CONCATENATE("B",Y18))</f>
+      <c r="Z21" t="str">
+        <f>IF(Z20=0,"",CONCATENATE("B",Z20))</f>
         <v>B30</v>
       </c>
-      <c r="Z19" t="str">
-        <f t="shared" ref="Z19" si="23">IF(Z18=0,"",CONCATENATE("B",Z18))</f>
-        <v/>
-      </c>
-      <c r="AA19" t="str">
-        <f>IF(AA18=0,"",CONCATENATE("B",AA18))</f>
-        <v/>
-      </c>
-      <c r="AB19" t="str">
-        <f>IF(AB18=0,"",CONCATENATE("B",AB18))</f>
-        <v/>
-      </c>
-      <c r="AC19" t="str">
-        <f>IF(AC18=0,"",CONCATENATE("B",AC18))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="AA21" t="str">
+        <f t="shared" ref="AA21" si="35">IF(AA20=0,"",CONCATENATE("B",AA20))</f>
+        <v/>
+      </c>
+      <c r="AB21" t="str">
+        <f>IF(AB20=0,"",CONCATENATE("B",AB20))</f>
+        <v/>
+      </c>
+      <c r="AC21" t="str">
+        <f>IF(AC20=0,"",CONCATENATE("B",AC20))</f>
+        <v/>
+      </c>
+      <c r="AD21" t="str">
+        <f>IF(AD20=0,"",CONCATENATE("B",AD20))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>271</v>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" ref="C20:T20" si="24">CONCATENATE("bat", C18)</f>
+      <c r="C22" t="str">
+        <f t="shared" ref="C22:U22" si="36">CONCATENATE("bat", C20)</f>
         <v>bat0</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="24"/>
+      <c r="D22" t="str">
+        <f t="shared" si="36"/>
         <v>bat0</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="24"/>
+      <c r="E22" t="str">
+        <f t="shared" si="36"/>
         <v>bat0</v>
       </c>
-      <c r="F20" t="str">
-        <f t="shared" si="24"/>
+      <c r="F22" t="str">
+        <f t="shared" ref="F22" si="37">CONCATENATE("bat", F20)</f>
         <v>bat0</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" si="24"/>
+      <c r="G22" t="str">
+        <f t="shared" si="36"/>
         <v>bat0</v>
       </c>
-      <c r="H20" t="str">
-        <f t="shared" si="24"/>
+      <c r="H22" t="str">
+        <f t="shared" si="36"/>
         <v>bat0</v>
       </c>
-      <c r="I20" t="str">
-        <f t="shared" si="24"/>
+      <c r="I22" t="str">
+        <f t="shared" si="36"/>
+        <v>bat0</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="36"/>
         <v>bat15</v>
       </c>
-      <c r="J20" t="str">
-        <f t="shared" si="24"/>
+      <c r="K22" t="str">
+        <f t="shared" si="36"/>
         <v>bat30</v>
       </c>
-      <c r="K20" t="str">
-        <f t="shared" si="24"/>
+      <c r="L22" t="str">
+        <f t="shared" si="36"/>
         <v>bat0</v>
       </c>
-      <c r="L20" t="str">
-        <f t="shared" si="24"/>
+      <c r="M22" t="str">
+        <f t="shared" si="36"/>
         <v>bat0</v>
       </c>
-      <c r="M20" t="str">
-        <f t="shared" si="24"/>
+      <c r="N22" t="str">
+        <f t="shared" si="36"/>
         <v>bat0</v>
       </c>
-      <c r="N20" t="str">
-        <f t="shared" si="24"/>
+      <c r="O22" t="str">
+        <f t="shared" si="36"/>
         <v>bat0</v>
       </c>
-      <c r="O20" t="str">
-        <f t="shared" si="24"/>
+      <c r="P22" t="str">
+        <f t="shared" si="36"/>
         <v>bat0</v>
       </c>
-      <c r="P20" t="str">
-        <f t="shared" si="24"/>
+      <c r="Q22" t="str">
+        <f t="shared" si="36"/>
         <v>bat0</v>
       </c>
-      <c r="Q20" t="str">
-        <f t="shared" si="24"/>
+      <c r="R22" t="str">
+        <f t="shared" si="36"/>
         <v>bat0</v>
       </c>
-      <c r="R20" t="str">
-        <f t="shared" si="24"/>
+      <c r="S22" t="str">
+        <f t="shared" si="36"/>
         <v>bat0</v>
       </c>
-      <c r="S20" t="str">
-        <f t="shared" si="24"/>
+      <c r="T22" t="str">
+        <f t="shared" si="36"/>
         <v>bat0</v>
       </c>
-      <c r="T20" t="str">
-        <f t="shared" si="24"/>
+      <c r="U22" t="str">
+        <f t="shared" si="36"/>
         <v>bat0</v>
       </c>
-      <c r="U20" t="str">
-        <f>CONCATENATE("bat", U18)</f>
+      <c r="V22" t="str">
+        <f>CONCATENATE("bat", V20)</f>
         <v>bat0</v>
       </c>
-      <c r="V20" t="str">
-        <f>CONCATENATE("bat", V18)</f>
+      <c r="W22" t="str">
+        <f>CONCATENATE("bat", W20)</f>
         <v>bat15</v>
       </c>
-      <c r="W20" t="str">
-        <f>CONCATENATE("bat", W18)</f>
+      <c r="X22" t="str">
+        <f>CONCATENATE("bat", X20)</f>
         <v>bat15</v>
       </c>
-      <c r="X20" t="str">
-        <f>CONCATENATE("bat", X18)</f>
+      <c r="Y22" t="str">
+        <f>CONCATENATE("bat", Y20)</f>
         <v>bat30</v>
       </c>
-      <c r="Y20" t="str">
-        <f>CONCATENATE("bat", Y18)</f>
+      <c r="Z22" t="str">
+        <f>CONCATENATE("bat", Z20)</f>
         <v>bat30</v>
       </c>
-      <c r="Z20" t="str">
-        <f t="shared" ref="Z20" si="25">CONCATENATE("bat", Z18)</f>
+      <c r="AA22" t="str">
+        <f t="shared" ref="AA22" si="38">CONCATENATE("bat", AA20)</f>
         <v>bat0</v>
       </c>
-      <c r="AA20" t="str">
-        <f>CONCATENATE("bat", AA18)</f>
+      <c r="AB22" t="str">
+        <f>CONCATENATE("bat", AB20)</f>
         <v>bat0</v>
       </c>
-      <c r="AB20" t="str">
-        <f>CONCATENATE("bat", AB18)</f>
+      <c r="AC22" t="str">
+        <f>CONCATENATE("bat", AC20)</f>
         <v>bat0</v>
       </c>
-      <c r="AC20" t="str">
-        <f>CONCATENATE("bat", AC18)</f>
+      <c r="AD22" t="str">
+        <f>CONCATENATE("bat", AD20)</f>
         <v>bat0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B23" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="C21" s="21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="21">
-        <v>0</v>
-      </c>
-      <c r="K21" s="21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="21">
-        <v>0</v>
-      </c>
-      <c r="M21" s="21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="21">
-        <v>0</v>
-      </c>
-      <c r="O21" s="21">
-        <v>0</v>
-      </c>
-      <c r="P21" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="21">
-        <v>0</v>
-      </c>
-      <c r="R21" s="21">
-        <v>0</v>
-      </c>
-      <c r="S21" s="21">
-        <v>0</v>
-      </c>
-      <c r="T21" s="21">
-        <v>0</v>
-      </c>
-      <c r="U21" s="21">
-        <v>0</v>
-      </c>
-      <c r="V21" s="21">
+      <c r="C23" s="21">
+        <v>0</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0</v>
+      </c>
+      <c r="G23" s="21">
+        <v>0</v>
+      </c>
+      <c r="H23" s="21">
+        <v>0</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0</v>
+      </c>
+      <c r="J23" s="21">
+        <v>0</v>
+      </c>
+      <c r="K23" s="21">
+        <v>0</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0</v>
+      </c>
+      <c r="N23" s="21">
+        <v>0</v>
+      </c>
+      <c r="O23" s="21">
+        <v>0</v>
+      </c>
+      <c r="P23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>0</v>
+      </c>
+      <c r="R23" s="21">
+        <v>0</v>
+      </c>
+      <c r="S23" s="21">
+        <v>0</v>
+      </c>
+      <c r="T23" s="21">
+        <v>0</v>
+      </c>
+      <c r="U23" s="21">
+        <v>0</v>
+      </c>
+      <c r="V23" s="21">
+        <v>0</v>
+      </c>
+      <c r="W23" s="21">
         <v>25</v>
       </c>
-      <c r="W21" s="21">
+      <c r="X23" s="21">
         <v>50</v>
       </c>
-      <c r="X21" s="21">
+      <c r="Y23" s="21">
         <v>25</v>
       </c>
-      <c r="Y21" s="21">
+      <c r="Z23" s="21">
         <v>50</v>
       </c>
-      <c r="Z21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="AA23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>419</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>275</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>255</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>255</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>255</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F24" t="s">
         <v>255</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G24" t="s">
         <v>255</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H24" t="s">
         <v>255</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I24" t="s">
         <v>255</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J24" t="s">
         <v>255</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K24" t="s">
         <v>255</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L24" t="s">
         <v>255</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M24" t="s">
         <v>255</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N24" t="s">
         <v>255</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O24" t="s">
         <v>255</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P24" t="s">
         <v>255</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q24" t="s">
         <v>255</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R24" t="s">
         <v>255</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S24" t="s">
         <v>255</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T24" t="s">
         <v>255</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U24" t="s">
         <v>255</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V24" t="s">
         <v>255</v>
       </c>
-      <c r="W22" t="s">
+      <c r="W24" t="s">
         <v>255</v>
       </c>
-      <c r="X22" t="s">
+      <c r="X24" t="s">
         <v>255</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y24" t="s">
         <v>255</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Z24" t="s">
         <v>255</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AA24" t="s">
         <v>255</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AB24" t="s">
         <v>255</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AC24" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="AD24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>420</v>
       </c>
-      <c r="C23" t="str">
-        <f>IF(C21=0,"",CONCATENATE("B",C21,LEFT(C22,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" ref="D23:U23" si="26">IF(D21=0,"",CONCATENATE("B",D21,LEFT(D22,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="P23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Q23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="S23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="V23" t="str">
-        <f>IF(V21=0,"",CONCATENATE("B",V21,LEFT(V22,1),"c"))</f>
+      <c r="C25" t="str">
+        <f>IF(C23=0,"",CONCATENATE("B",C23,LEFT(C24,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" ref="D25:V25" si="39">IF(D23=0,"",CONCATENATE("B",D23,LEFT(D24,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" ref="F25" si="40">IF(F23=0,"",CONCATENATE("B",F23,LEFT(F24,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="W25" t="str">
+        <f>IF(W23=0,"",CONCATENATE("B",W23,LEFT(W24,1),"c"))</f>
         <v>B25lc</v>
       </c>
-      <c r="W23" t="str">
-        <f>IF(W21=0,"",CONCATENATE("B",W21,LEFT(W22,1),"c"))</f>
+      <c r="X25" t="str">
+        <f>IF(X23=0,"",CONCATENATE("B",X23,LEFT(X24,1),"c"))</f>
         <v>B50lc</v>
       </c>
-      <c r="X23" t="str">
-        <f>IF(X21=0,"",CONCATENATE("B",X21,LEFT(X22,1),"c"))</f>
+      <c r="Y25" t="str">
+        <f>IF(Y23=0,"",CONCATENATE("B",Y23,LEFT(Y24,1),"c"))</f>
         <v>B25lc</v>
       </c>
-      <c r="Y23" t="str">
-        <f>IF(Y21=0,"",CONCATENATE("B",Y21,LEFT(Y22,1),"c"))</f>
+      <c r="Z25" t="str">
+        <f>IF(Z23=0,"",CONCATENATE("B",Z23,LEFT(Z24,1),"c"))</f>
         <v>B50lc</v>
       </c>
-      <c r="Z23" t="str">
-        <f t="shared" ref="Z23" si="27">IF(Z21=0,"",CONCATENATE("B",Z21,LEFT(Z22,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="AA23" t="str">
-        <f>IF(AA21=0,"",CONCATENATE("B",AA21,LEFT(AA22,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="AB23" t="str">
-        <f>IF(AB21=0,"",CONCATENATE("B",AB21,LEFT(AB22,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="AC23" t="str">
-        <f>IF(AC21=0,"",CONCATENATE("B",AC21,LEFT(AC22,1),"c"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="AA25" t="str">
+        <f t="shared" ref="AA25" si="41">IF(AA23=0,"",CONCATENATE("B",AA23,LEFT(AA24,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AB25" t="str">
+        <f>IF(AB23=0,"",CONCATENATE("B",AB23,LEFT(AB24,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AC25" t="str">
+        <f>IF(AC23=0,"",CONCATENATE("B",AC23,LEFT(AC24,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AD25" t="str">
+        <f>IF(AD23=0,"",CONCATENATE("B",AD23,LEFT(AD24,1),"c"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>421</v>
       </c>
-      <c r="C24" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(C22,1)), "C",C21)</f>
+      <c r="C26" t="str">
+        <f>CONCATENATE("battery",UPPER(LEFT(C24,1)), "C",C23)</f>
         <v>batteryLC0</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" ref="D24:U24" si="28">CONCATENATE("battery",UPPER(LEFT(D22,1)), "C",D21)</f>
+      <c r="D26" t="str">
+        <f t="shared" ref="D26:V26" si="42">CONCATENATE("battery",UPPER(LEFT(D24,1)), "C",D23)</f>
         <v>batteryLC0</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="28"/>
+      <c r="E26" t="str">
+        <f t="shared" si="42"/>
         <v>batteryLC0</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="28"/>
+      <c r="F26" t="str">
+        <f t="shared" ref="F26" si="43">CONCATENATE("battery",UPPER(LEFT(F24,1)), "C",F23)</f>
         <v>batteryLC0</v>
       </c>
-      <c r="G24" t="str">
-        <f t="shared" si="28"/>
+      <c r="G26" t="str">
+        <f t="shared" si="42"/>
         <v>batteryLC0</v>
       </c>
-      <c r="H24" t="str">
-        <f t="shared" si="28"/>
+      <c r="H26" t="str">
+        <f t="shared" si="42"/>
         <v>batteryLC0</v>
       </c>
-      <c r="I24" t="str">
-        <f t="shared" si="28"/>
+      <c r="I26" t="str">
+        <f t="shared" si="42"/>
         <v>batteryLC0</v>
       </c>
-      <c r="J24" t="str">
-        <f t="shared" si="28"/>
+      <c r="J26" t="str">
+        <f t="shared" si="42"/>
         <v>batteryLC0</v>
       </c>
-      <c r="K24" t="str">
-        <f t="shared" si="28"/>
+      <c r="K26" t="str">
+        <f t="shared" si="42"/>
         <v>batteryLC0</v>
       </c>
-      <c r="L24" t="str">
-        <f t="shared" si="28"/>
+      <c r="L26" t="str">
+        <f t="shared" si="42"/>
         <v>batteryLC0</v>
       </c>
-      <c r="M24" t="str">
-        <f t="shared" si="28"/>
+      <c r="M26" t="str">
+        <f t="shared" si="42"/>
         <v>batteryLC0</v>
       </c>
-      <c r="N24" t="str">
-        <f t="shared" si="28"/>
+      <c r="N26" t="str">
+        <f t="shared" si="42"/>
         <v>batteryLC0</v>
       </c>
-      <c r="O24" t="str">
-        <f t="shared" si="28"/>
+      <c r="O26" t="str">
+        <f t="shared" si="42"/>
         <v>batteryLC0</v>
       </c>
-      <c r="P24" t="str">
-        <f t="shared" si="28"/>
+      <c r="P26" t="str">
+        <f t="shared" si="42"/>
         <v>batteryLC0</v>
       </c>
-      <c r="Q24" t="str">
-        <f t="shared" si="28"/>
+      <c r="Q26" t="str">
+        <f t="shared" si="42"/>
         <v>batteryLC0</v>
       </c>
-      <c r="R24" t="str">
-        <f t="shared" si="28"/>
+      <c r="R26" t="str">
+        <f t="shared" si="42"/>
         <v>batteryLC0</v>
       </c>
-      <c r="S24" t="str">
-        <f t="shared" si="28"/>
+      <c r="S26" t="str">
+        <f t="shared" si="42"/>
         <v>batteryLC0</v>
       </c>
-      <c r="T24" t="str">
-        <f t="shared" si="28"/>
+      <c r="T26" t="str">
+        <f t="shared" si="42"/>
         <v>batteryLC0</v>
       </c>
-      <c r="U24" t="str">
-        <f t="shared" si="28"/>
+      <c r="U26" t="str">
+        <f t="shared" si="42"/>
         <v>batteryLC0</v>
       </c>
-      <c r="V24" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(V22,1)), "C",V21)</f>
+      <c r="V26" t="str">
+        <f t="shared" si="42"/>
+        <v>batteryLC0</v>
+      </c>
+      <c r="W26" t="str">
+        <f>CONCATENATE("battery",UPPER(LEFT(W24,1)), "C",W23)</f>
         <v>batteryLC25</v>
       </c>
-      <c r="W24" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(W22,1)), "C",W21)</f>
+      <c r="X26" t="str">
+        <f>CONCATENATE("battery",UPPER(LEFT(X24,1)), "C",X23)</f>
         <v>batteryLC50</v>
       </c>
-      <c r="X24" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(X22,1)), "C",X21)</f>
+      <c r="Y26" t="str">
+        <f>CONCATENATE("battery",UPPER(LEFT(Y24,1)), "C",Y23)</f>
         <v>batteryLC25</v>
       </c>
-      <c r="Y24" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(Y22,1)), "C",Y21)</f>
+      <c r="Z26" t="str">
+        <f>CONCATENATE("battery",UPPER(LEFT(Z24,1)), "C",Z23)</f>
         <v>batteryLC50</v>
       </c>
-      <c r="Z24" t="str">
-        <f t="shared" ref="Z24" si="29">CONCATENATE("battery",UPPER(LEFT(Z22,1)), "C",Z21)</f>
+      <c r="AA26" t="str">
+        <f t="shared" ref="AA26" si="44">CONCATENATE("battery",UPPER(LEFT(AA24,1)), "C",AA23)</f>
         <v>batteryLC0</v>
       </c>
-      <c r="AA24" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(AA22,1)), "C",AA21)</f>
+      <c r="AB26" t="str">
+        <f>CONCATENATE("battery",UPPER(LEFT(AB24,1)), "C",AB23)</f>
         <v>batteryLC0</v>
       </c>
-      <c r="AB24" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(AB22,1)), "C",AB21)</f>
+      <c r="AC26" t="str">
+        <f>CONCATENATE("battery",UPPER(LEFT(AC24,1)), "C",AC23)</f>
         <v>batteryLC0</v>
       </c>
-      <c r="AC24" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(AC22,1)), "C",AC21)</f>
+      <c r="AD26" t="str">
+        <f>CONCATENATE("battery",UPPER(LEFT(AD24,1)), "C",AD23)</f>
         <v>batteryLC0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B27" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="C25" s="21">
-        <v>0</v>
-      </c>
-      <c r="D25" s="21">
-        <v>0</v>
-      </c>
-      <c r="E25" s="21">
-        <v>0</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0</v>
-      </c>
-      <c r="G25" s="21">
-        <v>0</v>
-      </c>
-      <c r="H25" s="21">
-        <v>0</v>
-      </c>
-      <c r="I25" s="21">
-        <v>0</v>
-      </c>
-      <c r="J25" s="21">
-        <v>0</v>
-      </c>
-      <c r="K25" s="21">
+      <c r="C27" s="21">
+        <v>0</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
+        <v>0</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0</v>
+      </c>
+      <c r="J27" s="21">
+        <v>0</v>
+      </c>
+      <c r="K27" s="21">
+        <v>0</v>
+      </c>
+      <c r="L27" s="21">
         <v>10</v>
       </c>
-      <c r="L25" s="21">
+      <c r="M27" s="21">
         <v>20</v>
       </c>
-      <c r="M25" s="21">
+      <c r="N27" s="21">
         <v>30</v>
       </c>
-      <c r="N25" s="21">
-        <v>0</v>
-      </c>
-      <c r="O25" s="21">
-        <v>0</v>
-      </c>
-      <c r="P25" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="21">
+      <c r="O27" s="21">
+        <v>0</v>
+      </c>
+      <c r="P27" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>0</v>
+      </c>
+      <c r="R27" s="21">
         <v>30</v>
       </c>
-      <c r="R25" s="21">
-        <v>0</v>
-      </c>
-      <c r="S25" s="21">
-        <v>0</v>
-      </c>
-      <c r="T25" s="21">
-        <v>0</v>
-      </c>
-      <c r="U25" s="21">
-        <v>0</v>
-      </c>
-      <c r="V25" s="21">
-        <v>0</v>
-      </c>
-      <c r="W25" s="21">
-        <v>0</v>
-      </c>
-      <c r="X25" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="21">
+      <c r="S27" s="21">
+        <v>0</v>
+      </c>
+      <c r="T27" s="21">
+        <v>0</v>
+      </c>
+      <c r="U27" s="21">
+        <v>0</v>
+      </c>
+      <c r="V27" s="21">
+        <v>0</v>
+      </c>
+      <c r="W27" s="21">
+        <v>0</v>
+      </c>
+      <c r="X27" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="21">
         <v>30</v>
       </c>
-      <c r="AA25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="AB27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>274</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>275</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>255</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>255</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>255</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F28" t="s">
         <v>255</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G28" t="s">
         <v>255</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H28" t="s">
         <v>255</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I28" t="s">
         <v>255</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J28" t="s">
         <v>255</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K28" t="s">
         <v>255</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L28" t="s">
         <v>255</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M28" t="s">
         <v>255</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N28" t="s">
         <v>255</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O28" t="s">
         <v>255</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P28" t="s">
         <v>255</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q28" t="s">
         <v>255</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R28" t="s">
         <v>255</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S28" t="s">
         <v>255</v>
       </c>
-      <c r="T26" t="s">
+      <c r="T28" t="s">
         <v>255</v>
       </c>
-      <c r="U26" t="s">
+      <c r="U28" t="s">
         <v>255</v>
       </c>
-      <c r="V26" t="s">
+      <c r="V28" t="s">
         <v>255</v>
       </c>
-      <c r="W26" t="s">
+      <c r="W28" t="s">
         <v>255</v>
       </c>
-      <c r="X26" t="s">
+      <c r="X28" t="s">
         <v>255</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Y28" t="s">
         <v>255</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Z28" t="s">
         <v>255</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AA28" t="s">
         <v>255</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AB28" t="s">
         <v>255</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AC28" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="AD28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>276</v>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" ref="C27:T27" si="30">IF(C25=0,"",CONCATENATE("W",C25,LEFT(C26,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="30"/>
+      <c r="C29" t="str">
+        <f t="shared" ref="C29:U29" si="45">IF(C27=0,"",CONCATENATE("W",C27,LEFT(C28,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" ref="F29" si="46">IF(F27=0,"",CONCATENATE("W",F27,LEFT(F28,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="45"/>
         <v>W10lc</v>
       </c>
-      <c r="L27" t="str">
-        <f t="shared" si="30"/>
+      <c r="M29" t="str">
+        <f t="shared" si="45"/>
         <v>W20lc</v>
       </c>
-      <c r="M27" t="str">
-        <f t="shared" si="30"/>
+      <c r="N29" t="str">
+        <f t="shared" si="45"/>
         <v>W30lc</v>
       </c>
-      <c r="N27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="P27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="Q27" t="str">
-        <f t="shared" si="30"/>
+      <c r="O29" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="45"/>
         <v>W30lc</v>
       </c>
-      <c r="R27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="S27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="U27" t="str">
-        <f>IF(U25=0,"",CONCATENATE("W",U25,LEFT(U26,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="V27" t="str">
-        <f>IF(V25=0,"",CONCATENATE("W",V25,LEFT(V26,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="W27" t="str">
-        <f>IF(W25=0,"",CONCATENATE("W",W25,LEFT(W26,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="X27" t="str">
-        <f>IF(X25=0,"",CONCATENATE("W",X25,LEFT(X26,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="Y27" t="str">
-        <f>IF(Y25=0,"",CONCATENATE("W",Y25,LEFT(Y26,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="Z27" t="str">
-        <f t="shared" ref="Z27" si="31">IF(Z25=0,"",CONCATENATE("W",Z25,LEFT(Z26,1),"c"))</f>
+      <c r="S29" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="V29" t="str">
+        <f>IF(V27=0,"",CONCATENATE("W",V27,LEFT(V28,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="W29" t="str">
+        <f>IF(W27=0,"",CONCATENATE("W",W27,LEFT(W28,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="X29" t="str">
+        <f>IF(X27=0,"",CONCATENATE("W",X27,LEFT(X28,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="Y29" t="str">
+        <f>IF(Y27=0,"",CONCATENATE("W",Y27,LEFT(Y28,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="Z29" t="str">
+        <f>IF(Z27=0,"",CONCATENATE("W",Z27,LEFT(Z28,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AA29" t="str">
+        <f t="shared" ref="AA29" si="47">IF(AA27=0,"",CONCATENATE("W",AA27,LEFT(AA28,1),"c"))</f>
         <v>W30lc</v>
       </c>
-      <c r="AA27" t="str">
-        <f>IF(AA25=0,"",CONCATENATE("W",AA25,LEFT(AA26,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="AB27" t="str">
-        <f>IF(AB25=0,"",CONCATENATE("W",AB25,LEFT(AB26,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="AC27" t="str">
-        <f>IF(AC25=0,"",CONCATENATE("W",AC25,LEFT(AC26,1),"c"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="AB29" t="str">
+        <f>IF(AB27=0,"",CONCATENATE("W",AB27,LEFT(AB28,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AC29" t="str">
+        <f>IF(AC27=0,"",CONCATENATE("W",AC27,LEFT(AC28,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AD29" t="str">
+        <f>IF(AD27=0,"",CONCATENATE("W",AD27,LEFT(AD28,1),"c"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>277</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" ref="C28:T28" si="32">CONCATENATE("wind",UPPER(LEFT(C26,1)), "C",C25)</f>
+      <c r="C30" t="str">
+        <f t="shared" ref="C30:U30" si="48">CONCATENATE("wind",UPPER(LEFT(C28,1)), "C",C27)</f>
         <v>windLC0</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="32"/>
+      <c r="D30" t="str">
+        <f t="shared" si="48"/>
         <v>windLC0</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="32"/>
+      <c r="E30" t="str">
+        <f t="shared" si="48"/>
         <v>windLC0</v>
       </c>
-      <c r="F28" t="str">
-        <f t="shared" si="32"/>
+      <c r="F30" t="str">
+        <f t="shared" ref="F30" si="49">CONCATENATE("wind",UPPER(LEFT(F28,1)), "C",F27)</f>
         <v>windLC0</v>
       </c>
-      <c r="G28" t="str">
-        <f t="shared" si="32"/>
+      <c r="G30" t="str">
+        <f t="shared" si="48"/>
         <v>windLC0</v>
       </c>
-      <c r="H28" t="str">
-        <f t="shared" si="32"/>
+      <c r="H30" t="str">
+        <f t="shared" si="48"/>
         <v>windLC0</v>
       </c>
-      <c r="I28" t="str">
-        <f t="shared" si="32"/>
+      <c r="I30" t="str">
+        <f t="shared" si="48"/>
         <v>windLC0</v>
       </c>
-      <c r="J28" t="str">
-        <f t="shared" si="32"/>
+      <c r="J30" t="str">
+        <f t="shared" si="48"/>
         <v>windLC0</v>
       </c>
-      <c r="K28" t="str">
-        <f t="shared" si="32"/>
+      <c r="K30" t="str">
+        <f t="shared" si="48"/>
+        <v>windLC0</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="48"/>
         <v>windLC10</v>
       </c>
-      <c r="L28" t="str">
-        <f t="shared" si="32"/>
+      <c r="M30" t="str">
+        <f t="shared" si="48"/>
         <v>windLC20</v>
       </c>
-      <c r="M28" t="str">
-        <f t="shared" si="32"/>
+      <c r="N30" t="str">
+        <f t="shared" si="48"/>
         <v>windLC30</v>
       </c>
-      <c r="N28" t="str">
-        <f t="shared" si="32"/>
+      <c r="O30" t="str">
+        <f t="shared" si="48"/>
         <v>windLC0</v>
       </c>
-      <c r="O28" t="str">
-        <f t="shared" si="32"/>
+      <c r="P30" t="str">
+        <f t="shared" si="48"/>
         <v>windLC0</v>
       </c>
-      <c r="P28" t="str">
-        <f t="shared" si="32"/>
+      <c r="Q30" t="str">
+        <f t="shared" si="48"/>
         <v>windLC0</v>
       </c>
-      <c r="Q28" t="str">
-        <f t="shared" si="32"/>
+      <c r="R30" t="str">
+        <f t="shared" si="48"/>
         <v>windLC30</v>
       </c>
-      <c r="R28" t="str">
-        <f t="shared" si="32"/>
+      <c r="S30" t="str">
+        <f t="shared" si="48"/>
         <v>windLC0</v>
       </c>
-      <c r="S28" t="str">
-        <f t="shared" si="32"/>
+      <c r="T30" t="str">
+        <f t="shared" si="48"/>
         <v>windLC0</v>
       </c>
-      <c r="T28" t="str">
-        <f t="shared" si="32"/>
+      <c r="U30" t="str">
+        <f t="shared" si="48"/>
         <v>windLC0</v>
       </c>
-      <c r="U28" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(U26,1)), "C",U25)</f>
+      <c r="V30" t="str">
+        <f>CONCATENATE("wind",UPPER(LEFT(V28,1)), "C",V27)</f>
         <v>windLC0</v>
       </c>
-      <c r="V28" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(V26,1)), "C",V25)</f>
+      <c r="W30" t="str">
+        <f>CONCATENATE("wind",UPPER(LEFT(W28,1)), "C",W27)</f>
         <v>windLC0</v>
       </c>
-      <c r="W28" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(W26,1)), "C",W25)</f>
+      <c r="X30" t="str">
+        <f>CONCATENATE("wind",UPPER(LEFT(X28,1)), "C",X27)</f>
         <v>windLC0</v>
       </c>
-      <c r="X28" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(X26,1)), "C",X25)</f>
+      <c r="Y30" t="str">
+        <f>CONCATENATE("wind",UPPER(LEFT(Y28,1)), "C",Y27)</f>
         <v>windLC0</v>
       </c>
-      <c r="Y28" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(Y26,1)), "C",Y25)</f>
+      <c r="Z30" t="str">
+        <f>CONCATENATE("wind",UPPER(LEFT(Z28,1)), "C",Z27)</f>
         <v>windLC0</v>
       </c>
-      <c r="Z28" t="str">
-        <f t="shared" ref="Z28" si="33">CONCATENATE("wind",UPPER(LEFT(Z26,1)), "C",Z25)</f>
+      <c r="AA30" t="str">
+        <f t="shared" ref="AA30" si="50">CONCATENATE("wind",UPPER(LEFT(AA28,1)), "C",AA27)</f>
         <v>windLC30</v>
       </c>
-      <c r="AA28" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(AA26,1)), "C",AA25)</f>
+      <c r="AB30" t="str">
+        <f>CONCATENATE("wind",UPPER(LEFT(AB28,1)), "C",AB27)</f>
         <v>windLC0</v>
       </c>
-      <c r="AB28" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(AB26,1)), "C",AB25)</f>
+      <c r="AC30" t="str">
+        <f>CONCATENATE("wind",UPPER(LEFT(AC28,1)), "C",AC27)</f>
         <v>windLC0</v>
       </c>
-      <c r="AC28" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(AC26,1)), "C",AC25)</f>
+      <c r="AD30" t="str">
+        <f>CONCATENATE("wind",UPPER(LEFT(AD28,1)), "C",AD27)</f>
         <v>windLC0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B31" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="C29" s="21">
-        <v>0</v>
-      </c>
-      <c r="D29" s="21">
-        <v>0</v>
-      </c>
-      <c r="E29" s="21">
-        <v>0</v>
-      </c>
-      <c r="F29" s="21">
-        <v>0</v>
-      </c>
-      <c r="G29" s="21">
-        <v>0</v>
-      </c>
-      <c r="H29" s="21">
-        <v>0</v>
-      </c>
-      <c r="I29" s="21">
-        <v>0</v>
-      </c>
-      <c r="J29" s="21">
-        <v>0</v>
-      </c>
-      <c r="K29" s="21">
-        <v>0</v>
-      </c>
-      <c r="L29" s="21">
-        <v>0</v>
-      </c>
-      <c r="M29" s="21">
-        <v>0</v>
-      </c>
-      <c r="N29" s="21">
+      <c r="C31" s="21">
+        <v>0</v>
+      </c>
+      <c r="D31" s="21">
+        <v>0</v>
+      </c>
+      <c r="E31" s="21">
+        <v>0</v>
+      </c>
+      <c r="F31" s="21">
+        <v>0</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0</v>
+      </c>
+      <c r="H31" s="21">
+        <v>0</v>
+      </c>
+      <c r="I31" s="21">
+        <v>0</v>
+      </c>
+      <c r="J31" s="21">
+        <v>0</v>
+      </c>
+      <c r="K31" s="21">
+        <v>0</v>
+      </c>
+      <c r="L31" s="21">
+        <v>0</v>
+      </c>
+      <c r="M31" s="21">
+        <v>0</v>
+      </c>
+      <c r="N31" s="21">
+        <v>0</v>
+      </c>
+      <c r="O31" s="21">
         <v>10</v>
       </c>
-      <c r="O29" s="21">
+      <c r="P31" s="21">
         <v>20</v>
       </c>
-      <c r="P29" s="21">
+      <c r="Q31" s="21">
         <v>30</v>
       </c>
-      <c r="Q29" s="21">
+      <c r="R31" s="21">
         <v>30</v>
       </c>
-      <c r="R29" s="21">
-        <v>0</v>
-      </c>
-      <c r="S29" s="21">
-        <v>0</v>
-      </c>
-      <c r="T29" s="21">
-        <v>0</v>
-      </c>
-      <c r="U29" s="21">
-        <v>0</v>
-      </c>
-      <c r="V29" s="21">
-        <v>0</v>
-      </c>
-      <c r="W29" s="21">
-        <v>0</v>
-      </c>
-      <c r="X29" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="21">
+      <c r="S31" s="21">
+        <v>0</v>
+      </c>
+      <c r="T31" s="21">
+        <v>0</v>
+      </c>
+      <c r="U31" s="21">
+        <v>0</v>
+      </c>
+      <c r="V31" s="21">
+        <v>0</v>
+      </c>
+      <c r="W31" s="21">
+        <v>0</v>
+      </c>
+      <c r="X31" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="21">
         <v>30</v>
       </c>
-      <c r="AA29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="AB31" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>279</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>275</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>255</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>255</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>255</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F32" t="s">
         <v>255</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G32" t="s">
         <v>255</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H32" t="s">
         <v>255</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I32" t="s">
         <v>255</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J32" t="s">
         <v>255</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K32" t="s">
         <v>255</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L32" t="s">
         <v>255</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M32" t="s">
         <v>255</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N32" t="s">
         <v>255</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O32" t="s">
         <v>255</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P32" t="s">
         <v>255</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q32" t="s">
         <v>255</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R32" t="s">
         <v>255</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S32" t="s">
         <v>255</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T32" t="s">
         <v>255</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U32" t="s">
         <v>255</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V32" t="s">
         <v>255</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W32" t="s">
         <v>255</v>
       </c>
-      <c r="X30" t="s">
+      <c r="X32" t="s">
         <v>255</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Y32" t="s">
         <v>255</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Z32" t="s">
         <v>255</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AA32" t="s">
         <v>255</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AB32" t="s">
         <v>255</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AC32" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="AD32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>280</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" ref="C31:M31" si="34">IF(C29=0,"",CONCATENATE("W",C29,LEFT(C30,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M31" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" ref="N31:T31" si="35">IF(N29=0,"",CONCATENATE("S",N29,LEFT(N30,1),"c"))</f>
+      <c r="C33" t="str">
+        <f t="shared" ref="C33:N33" si="51">IF(C31=0,"",CONCATENATE("W",C31,LEFT(C32,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" ref="F33" si="52">IF(F31=0,"",CONCATENATE("W",F31,LEFT(F32,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" ref="O33:U33" si="53">IF(O31=0,"",CONCATENATE("S",O31,LEFT(O32,1),"c"))</f>
         <v>S10lc</v>
       </c>
-      <c r="O31" t="str">
-        <f t="shared" si="35"/>
+      <c r="P33" t="str">
+        <f t="shared" si="53"/>
         <v>S20lc</v>
       </c>
-      <c r="P31" t="str">
-        <f t="shared" si="35"/>
+      <c r="Q33" t="str">
+        <f t="shared" si="53"/>
         <v>S30lc</v>
       </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="35"/>
+      <c r="R33" t="str">
+        <f t="shared" si="53"/>
         <v>S30lc</v>
       </c>
-      <c r="R31" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="S31" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="T31" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="U31" t="str">
-        <f>IF(U29=0,"",CONCATENATE("S",U29,LEFT(U30,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="V31" t="str">
-        <f>IF(V29=0,"",CONCATENATE("W",V29,LEFT(V30,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="W31" t="str">
-        <f>IF(W29=0,"",CONCATENATE("W",W29,LEFT(W30,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="X31" t="str">
-        <f>IF(X29=0,"",CONCATENATE("W",X29,LEFT(X30,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="Y31" t="str">
-        <f>IF(Y29=0,"",CONCATENATE("W",Y29,LEFT(Y30,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="Z31" t="str">
-        <f t="shared" ref="Z31" si="36">IF(Z29=0,"",CONCATENATE("S",Z29,LEFT(Z30,1),"c"))</f>
+      <c r="S33" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="V33" t="str">
+        <f>IF(V31=0,"",CONCATENATE("S",V31,LEFT(V32,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="W33" t="str">
+        <f>IF(W31=0,"",CONCATENATE("W",W31,LEFT(W32,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="X33" t="str">
+        <f>IF(X31=0,"",CONCATENATE("W",X31,LEFT(X32,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="Y33" t="str">
+        <f>IF(Y31=0,"",CONCATENATE("W",Y31,LEFT(Y32,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="Z33" t="str">
+        <f>IF(Z31=0,"",CONCATENATE("W",Z31,LEFT(Z32,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AA33" t="str">
+        <f t="shared" ref="AA33" si="54">IF(AA31=0,"",CONCATENATE("S",AA31,LEFT(AA32,1),"c"))</f>
         <v>S30lc</v>
       </c>
-      <c r="AA31" t="str">
-        <f>IF(AA29=0,"",CONCATENATE("S",AA29,LEFT(AA30,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="AB31" t="str">
-        <f>IF(AB29=0,"",CONCATENATE("S",AB29,LEFT(AB30,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="AC31" t="str">
-        <f>IF(AC29=0,"",CONCATENATE("S",AC29,LEFT(AC30,1),"c"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="AB33" t="str">
+        <f>IF(AB31=0,"",CONCATENATE("S",AB31,LEFT(AB32,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AC33" t="str">
+        <f>IF(AC31=0,"",CONCATENATE("S",AC31,LEFT(AC32,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AD33" t="str">
+        <f>IF(AD31=0,"",CONCATENATE("S",AD31,LEFT(AD32,1),"c"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>281</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" ref="C32:T32" si="37">CONCATENATE("solar",UPPER(LEFT(C30,1)), "C",C29)</f>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:U34" si="55">CONCATENATE("solar",UPPER(LEFT(C32,1)), "C",C31)</f>
         <v>solarLC0</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="37"/>
+      <c r="D34" t="str">
+        <f t="shared" si="55"/>
         <v>solarLC0</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="37"/>
+      <c r="E34" t="str">
+        <f t="shared" si="55"/>
         <v>solarLC0</v>
       </c>
-      <c r="F32" t="str">
-        <f t="shared" si="37"/>
+      <c r="F34" t="str">
+        <f t="shared" ref="F34" si="56">CONCATENATE("solar",UPPER(LEFT(F32,1)), "C",F31)</f>
         <v>solarLC0</v>
       </c>
-      <c r="G32" t="str">
-        <f t="shared" si="37"/>
+      <c r="G34" t="str">
+        <f t="shared" si="55"/>
         <v>solarLC0</v>
       </c>
-      <c r="H32" t="str">
-        <f t="shared" si="37"/>
+      <c r="H34" t="str">
+        <f t="shared" si="55"/>
         <v>solarLC0</v>
       </c>
-      <c r="I32" t="str">
-        <f t="shared" si="37"/>
+      <c r="I34" t="str">
+        <f t="shared" si="55"/>
         <v>solarLC0</v>
       </c>
-      <c r="J32" t="str">
-        <f t="shared" si="37"/>
+      <c r="J34" t="str">
+        <f t="shared" si="55"/>
         <v>solarLC0</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="37"/>
+      <c r="K34" t="str">
+        <f t="shared" si="55"/>
         <v>solarLC0</v>
       </c>
-      <c r="L32" t="str">
-        <f t="shared" si="37"/>
+      <c r="L34" t="str">
+        <f t="shared" si="55"/>
         <v>solarLC0</v>
       </c>
-      <c r="M32" t="str">
-        <f t="shared" si="37"/>
+      <c r="M34" t="str">
+        <f t="shared" si="55"/>
         <v>solarLC0</v>
       </c>
-      <c r="N32" t="str">
-        <f t="shared" si="37"/>
+      <c r="N34" t="str">
+        <f t="shared" si="55"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="55"/>
         <v>solarLC10</v>
       </c>
-      <c r="O32" t="str">
-        <f t="shared" si="37"/>
+      <c r="P34" t="str">
+        <f t="shared" si="55"/>
         <v>solarLC20</v>
       </c>
-      <c r="P32" t="str">
-        <f t="shared" si="37"/>
+      <c r="Q34" t="str">
+        <f t="shared" si="55"/>
         <v>solarLC30</v>
       </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="37"/>
+      <c r="R34" t="str">
+        <f t="shared" si="55"/>
         <v>solarLC30</v>
       </c>
-      <c r="R32" t="str">
-        <f t="shared" si="37"/>
+      <c r="S34" t="str">
+        <f t="shared" si="55"/>
         <v>solarLC0</v>
       </c>
-      <c r="S32" t="str">
-        <f t="shared" si="37"/>
+      <c r="T34" t="str">
+        <f t="shared" si="55"/>
         <v>solarLC0</v>
       </c>
-      <c r="T32" t="str">
-        <f t="shared" si="37"/>
+      <c r="U34" t="str">
+        <f t="shared" si="55"/>
         <v>solarLC0</v>
       </c>
-      <c r="U32" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(U30,1)), "C",U29)</f>
+      <c r="V34" t="str">
+        <f>CONCATENATE("solar",UPPER(LEFT(V32,1)), "C",V31)</f>
         <v>solarLC0</v>
       </c>
-      <c r="V32" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(V30,1)), "C",V29)</f>
+      <c r="W34" t="str">
+        <f>CONCATENATE("solar",UPPER(LEFT(W32,1)), "C",W31)</f>
         <v>solarLC0</v>
       </c>
-      <c r="W32" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(W30,1)), "C",W29)</f>
+      <c r="X34" t="str">
+        <f>CONCATENATE("solar",UPPER(LEFT(X32,1)), "C",X31)</f>
         <v>solarLC0</v>
       </c>
-      <c r="X32" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(X30,1)), "C",X29)</f>
+      <c r="Y34" t="str">
+        <f>CONCATENATE("solar",UPPER(LEFT(Y32,1)), "C",Y31)</f>
         <v>solarLC0</v>
       </c>
-      <c r="Y32" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(Y30,1)), "C",Y29)</f>
+      <c r="Z34" t="str">
+        <f>CONCATENATE("solar",UPPER(LEFT(Z32,1)), "C",Z31)</f>
         <v>solarLC0</v>
       </c>
-      <c r="Z32" t="str">
-        <f t="shared" ref="Z32" si="38">CONCATENATE("solar",UPPER(LEFT(Z30,1)), "C",Z29)</f>
+      <c r="AA34" t="str">
+        <f t="shared" ref="AA34" si="57">CONCATENATE("solar",UPPER(LEFT(AA32,1)), "C",AA31)</f>
         <v>solarLC30</v>
       </c>
-      <c r="AA32" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(AA30,1)), "C",AA29)</f>
+      <c r="AB34" t="str">
+        <f>CONCATENATE("solar",UPPER(LEFT(AB32,1)), "C",AB31)</f>
         <v>solarLC0</v>
       </c>
-      <c r="AB32" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(AB30,1)), "C",AB29)</f>
+      <c r="AC34" t="str">
+        <f>CONCATENATE("solar",UPPER(LEFT(AC32,1)), "C",AC31)</f>
         <v>solarLC0</v>
       </c>
-      <c r="AC32" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(AC30,1)), "C",AC29)</f>
+      <c r="AD34" t="str">
+        <f>CONCATENATE("solar",UPPER(LEFT(AD32,1)), "C",AD31)</f>
         <v>solarLC0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B35" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C35" s="21">
         <v>80</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D35" s="21">
         <v>80</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E35" s="21">
         <v>80</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F35" s="21">
         <v>80</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G35" s="21">
         <v>80</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H35" s="21">
         <v>80</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I35" s="21">
         <v>80</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J35" s="21">
         <v>80</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K35" s="21">
         <v>80</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L35" s="21">
         <v>80</v>
       </c>
-      <c r="M33" s="21">
+      <c r="M35" s="21">
         <v>80</v>
       </c>
-      <c r="N33" s="21">
+      <c r="N35" s="21">
         <v>80</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O35" s="21">
         <v>80</v>
       </c>
-      <c r="P33" s="21">
+      <c r="P35" s="21">
         <v>80</v>
       </c>
-      <c r="Q33" s="21">
+      <c r="Q35" s="21">
         <v>80</v>
       </c>
-      <c r="R33" s="21">
+      <c r="R35" s="21">
+        <v>80</v>
+      </c>
+      <c r="S35" s="21">
         <v>120</v>
       </c>
-      <c r="S33" s="21">
+      <c r="T35" s="21">
         <v>80</v>
       </c>
-      <c r="T33" s="21">
+      <c r="U35" s="21">
         <v>80</v>
       </c>
-      <c r="U33" s="21">
+      <c r="V35" s="21">
         <v>120</v>
       </c>
-      <c r="V33" s="21">
+      <c r="W35" s="21">
         <v>80</v>
       </c>
-      <c r="W33" s="21">
+      <c r="X35" s="21">
         <v>80</v>
       </c>
-      <c r="X33" s="21">
+      <c r="Y35" s="21">
         <v>80</v>
       </c>
-      <c r="Y33" s="21">
+      <c r="Z35" s="21">
         <v>80</v>
       </c>
-      <c r="Z33" s="21">
+      <c r="AA35" s="21">
         <v>80</v>
       </c>
-      <c r="AA33" s="21">
+      <c r="AB35" s="21">
         <v>80</v>
       </c>
-      <c r="AB33" s="21">
+      <c r="AC35" s="21">
         <v>80</v>
       </c>
-      <c r="AC33" s="21">
+      <c r="AD35" s="21">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>284</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" ref="C34:T34" si="39">IF(C33=80,"", CONCATENATE("W",C33))</f>
-        <v/>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L34" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M34" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="R34" t="str">
-        <f t="shared" si="39"/>
+      <c r="C36" t="str">
+        <f t="shared" ref="C36:U36" si="58">IF(C35=80,"", CONCATENATE("W",C35))</f>
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" ref="F36" si="59">IF(F35=80,"", CONCATENATE("W",F35))</f>
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" si="58"/>
         <v>W120</v>
       </c>
-      <c r="S34" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="T34" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="U34" t="str">
-        <f>IF(U33=80,"", CONCATENATE("W",U33))</f>
+      <c r="T36" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="V36" t="str">
+        <f>IF(V35=80,"", CONCATENATE("W",V35))</f>
         <v>W120</v>
       </c>
-      <c r="V34" t="str">
-        <f>IF(V33=80,"", CONCATENATE("W",V33))</f>
-        <v/>
-      </c>
-      <c r="W34" t="str">
-        <f>IF(W33=80,"", CONCATENATE("W",W33))</f>
-        <v/>
-      </c>
-      <c r="X34" t="str">
-        <f>IF(X33=80,"", CONCATENATE("W",X33))</f>
-        <v/>
-      </c>
-      <c r="Y34" t="str">
-        <f>IF(Y33=80,"", CONCATENATE("W",Y33))</f>
-        <v/>
-      </c>
-      <c r="Z34" t="str">
-        <f t="shared" ref="Z34" si="40">IF(Z33=80,"", CONCATENATE("W",Z33))</f>
-        <v/>
-      </c>
-      <c r="AA34" t="str">
-        <f>IF(AA33=80,"", CONCATENATE("W",AA33))</f>
-        <v/>
-      </c>
-      <c r="AB34" t="str">
-        <f>IF(AB33=80,"", CONCATENATE("W",AB33))</f>
-        <v/>
-      </c>
-      <c r="AC34" t="str">
-        <f>IF(AC33=80,"", CONCATENATE("W",AC33))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="W36" t="str">
+        <f>IF(W35=80,"", CONCATENATE("W",W35))</f>
+        <v/>
+      </c>
+      <c r="X36" t="str">
+        <f>IF(X35=80,"", CONCATENATE("W",X35))</f>
+        <v/>
+      </c>
+      <c r="Y36" t="str">
+        <f>IF(Y35=80,"", CONCATENATE("W",Y35))</f>
+        <v/>
+      </c>
+      <c r="Z36" t="str">
+        <f>IF(Z35=80,"", CONCATENATE("W",Z35))</f>
+        <v/>
+      </c>
+      <c r="AA36" t="str">
+        <f t="shared" ref="AA36" si="60">IF(AA35=80,"", CONCATENATE("W",AA35))</f>
+        <v/>
+      </c>
+      <c r="AB36" t="str">
+        <f>IF(AB35=80,"", CONCATENATE("W",AB35))</f>
+        <v/>
+      </c>
+      <c r="AC36" t="str">
+        <f>IF(AC35=80,"", CONCATENATE("W",AC35))</f>
+        <v/>
+      </c>
+      <c r="AD36" t="str">
+        <f>IF(AD35=80,"", CONCATENATE("W",AD35))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>285</v>
       </c>
-      <c r="C35" t="str">
-        <f t="shared" ref="C35:T35" si="41">CONCATENATE("W",C33)</f>
+      <c r="C37" t="str">
+        <f t="shared" ref="C37:U37" si="61">CONCATENATE("W",C35)</f>
         <v>W80</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="41"/>
+      <c r="D37" t="str">
+        <f t="shared" si="61"/>
         <v>W80</v>
       </c>
-      <c r="E35" t="str">
-        <f t="shared" si="41"/>
+      <c r="E37" t="str">
+        <f t="shared" si="61"/>
         <v>W80</v>
       </c>
-      <c r="F35" t="str">
-        <f t="shared" si="41"/>
+      <c r="F37" t="str">
+        <f t="shared" ref="F37" si="62">CONCATENATE("W",F35)</f>
         <v>W80</v>
       </c>
-      <c r="G35" t="str">
-        <f t="shared" si="41"/>
+      <c r="G37" t="str">
+        <f t="shared" si="61"/>
         <v>W80</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="41"/>
+      <c r="H37" t="str">
+        <f t="shared" si="61"/>
         <v>W80</v>
       </c>
-      <c r="I35" t="str">
-        <f t="shared" si="41"/>
+      <c r="I37" t="str">
+        <f t="shared" si="61"/>
         <v>W80</v>
       </c>
-      <c r="J35" t="str">
-        <f t="shared" si="41"/>
+      <c r="J37" t="str">
+        <f t="shared" si="61"/>
         <v>W80</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" si="41"/>
+      <c r="K37" t="str">
+        <f t="shared" si="61"/>
         <v>W80</v>
       </c>
-      <c r="L35" t="str">
-        <f t="shared" si="41"/>
+      <c r="L37" t="str">
+        <f t="shared" si="61"/>
         <v>W80</v>
       </c>
-      <c r="M35" t="str">
-        <f t="shared" si="41"/>
+      <c r="M37" t="str">
+        <f t="shared" si="61"/>
         <v>W80</v>
       </c>
-      <c r="N35" t="str">
-        <f t="shared" si="41"/>
+      <c r="N37" t="str">
+        <f t="shared" si="61"/>
         <v>W80</v>
       </c>
-      <c r="O35" t="str">
-        <f t="shared" si="41"/>
+      <c r="O37" t="str">
+        <f t="shared" si="61"/>
         <v>W80</v>
       </c>
-      <c r="P35" t="str">
-        <f t="shared" si="41"/>
+      <c r="P37" t="str">
+        <f t="shared" si="61"/>
         <v>W80</v>
       </c>
-      <c r="Q35" t="str">
-        <f t="shared" si="41"/>
+      <c r="Q37" t="str">
+        <f t="shared" si="61"/>
         <v>W80</v>
       </c>
-      <c r="R35" t="str">
-        <f t="shared" si="41"/>
+      <c r="R37" t="str">
+        <f t="shared" si="61"/>
+        <v>W80</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="61"/>
         <v>W120</v>
       </c>
-      <c r="S35" t="str">
-        <f t="shared" si="41"/>
+      <c r="T37" t="str">
+        <f t="shared" si="61"/>
         <v>W80</v>
       </c>
-      <c r="T35" t="str">
-        <f t="shared" si="41"/>
+      <c r="U37" t="str">
+        <f t="shared" si="61"/>
         <v>W80</v>
       </c>
-      <c r="U35" t="str">
-        <f>CONCATENATE("W",U33)</f>
+      <c r="V37" t="str">
+        <f>CONCATENATE("W",V35)</f>
         <v>W120</v>
       </c>
-      <c r="V35" t="str">
-        <f>CONCATENATE("W",V33)</f>
+      <c r="W37" t="str">
+        <f>CONCATENATE("W",W35)</f>
         <v>W80</v>
       </c>
-      <c r="W35" t="str">
-        <f>CONCATENATE("W",W33)</f>
+      <c r="X37" t="str">
+        <f>CONCATENATE("W",X35)</f>
         <v>W80</v>
       </c>
-      <c r="X35" t="str">
-        <f>CONCATENATE("W",X33)</f>
+      <c r="Y37" t="str">
+        <f>CONCATENATE("W",Y35)</f>
         <v>W80</v>
       </c>
-      <c r="Y35" t="str">
-        <f>CONCATENATE("W",Y33)</f>
+      <c r="Z37" t="str">
+        <f>CONCATENATE("W",Z35)</f>
         <v>W80</v>
       </c>
-      <c r="Z35" t="str">
-        <f t="shared" ref="Z35" si="42">CONCATENATE("W",Z33)</f>
+      <c r="AA37" t="str">
+        <f t="shared" ref="AA37" si="63">CONCATENATE("W",AA35)</f>
         <v>W80</v>
       </c>
-      <c r="AA35" t="str">
-        <f>CONCATENATE("W",AA33)</f>
+      <c r="AB37" t="str">
+        <f>CONCATENATE("W",AB35)</f>
         <v>W80</v>
       </c>
-      <c r="AB35" t="str">
-        <f>CONCATENATE("W",AB33)</f>
+      <c r="AC37" t="str">
+        <f>CONCATENATE("W",AC35)</f>
         <v>W80</v>
       </c>
-      <c r="AC35" t="str">
-        <f>CONCATENATE("W",AC33)</f>
+      <c r="AD37" t="str">
+        <f>CONCATENATE("W",AD35)</f>
         <v>W80</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B38" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="G38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="H38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="J36" s="21" t="s">
+      <c r="J38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="K36" s="21" t="s">
+      <c r="K38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="L36" s="21" t="s">
+      <c r="L38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="M36" s="21" t="s">
+      <c r="M38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="N36" s="21" t="s">
+      <c r="N38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="O36" s="21" t="s">
+      <c r="O38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="P36" s="21" t="s">
+      <c r="P38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="Q36" s="21" t="s">
+      <c r="Q38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="R36" s="21" t="s">
+      <c r="R38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="S36" s="21" t="s">
+      <c r="S38" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="T38" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="T36" s="21" t="s">
+      <c r="U38" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="U36" s="21" t="s">
+      <c r="V38" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="V36" s="21" t="s">
+      <c r="W38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="W36" s="21" t="s">
+      <c r="X38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="X36" s="21" t="s">
+      <c r="Y38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="Y36" s="21" t="s">
+      <c r="Z38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="Z36" s="21" t="s">
+      <c r="AA38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AA36" s="21" t="s">
+      <c r="AB38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AB36" s="21" t="s">
+      <c r="AC38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC36" s="21" t="s">
+      <c r="AD38" s="21" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>291</v>
       </c>
-      <c r="C37" t="str">
-        <f t="shared" ref="C37:T37" si="43">IF(C36="0d", "", CONCATENATE("S",C36))</f>
-        <v/>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M37" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="P37" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="R37" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="S37" t="str">
-        <f t="shared" si="43"/>
+      <c r="C39" t="str">
+        <f t="shared" ref="C39:U39" si="64">IF(C38="0d", "", CONCATENATE("S",C38))</f>
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" ref="F39" si="65">IF(F38="0d", "", CONCATENATE("S",F38))</f>
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="S39" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="64"/>
         <v>S1A</v>
       </c>
-      <c r="T37" t="str">
-        <f t="shared" si="43"/>
+      <c r="U39" t="str">
+        <f t="shared" si="64"/>
         <v>S90d</v>
       </c>
-      <c r="U37" t="str">
-        <f>IF(U36="0d", "", CONCATENATE("S",U36))</f>
+      <c r="V39" t="str">
+        <f>IF(V38="0d", "", CONCATENATE("S",V38))</f>
         <v>S1A</v>
       </c>
-      <c r="V37" t="str">
-        <f>IF(V36="0d", "", CONCATENATE("S",V36))</f>
-        <v/>
-      </c>
-      <c r="W37" t="str">
-        <f>IF(W36="0d", "", CONCATENATE("S",W36))</f>
-        <v/>
-      </c>
-      <c r="X37" t="str">
-        <f>IF(X36="0d", "", CONCATENATE("S",X36))</f>
-        <v/>
-      </c>
-      <c r="Y37" t="str">
-        <f>IF(Y36="0d", "", CONCATENATE("S",Y36))</f>
-        <v/>
-      </c>
-      <c r="Z37" t="str">
-        <f t="shared" ref="Z37" si="44">IF(Z36="0d", "", CONCATENATE("S",Z36))</f>
-        <v/>
-      </c>
-      <c r="AA37" t="str">
-        <f>IF(AA36="0d", "", CONCATENATE("S",AA36))</f>
-        <v/>
-      </c>
-      <c r="AB37" t="str">
-        <f>IF(AB36="0d", "", CONCATENATE("S",AB36))</f>
-        <v/>
-      </c>
-      <c r="AC37" t="str">
-        <f>IF(AC36="0d", "", CONCATENATE("S",AC36))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="W39" t="str">
+        <f>IF(W38="0d", "", CONCATENATE("S",W38))</f>
+        <v/>
+      </c>
+      <c r="X39" t="str">
+        <f>IF(X38="0d", "", CONCATENATE("S",X38))</f>
+        <v/>
+      </c>
+      <c r="Y39" t="str">
+        <f>IF(Y38="0d", "", CONCATENATE("S",Y38))</f>
+        <v/>
+      </c>
+      <c r="Z39" t="str">
+        <f>IF(Z38="0d", "", CONCATENATE("S",Z38))</f>
+        <v/>
+      </c>
+      <c r="AA39" t="str">
+        <f t="shared" ref="AA39" si="66">IF(AA38="0d", "", CONCATENATE("S",AA38))</f>
+        <v/>
+      </c>
+      <c r="AB39" t="str">
+        <f>IF(AB38="0d", "", CONCATENATE("S",AB38))</f>
+        <v/>
+      </c>
+      <c r="AC39" t="str">
+        <f>IF(AC38="0d", "", CONCATENATE("S",AC38))</f>
+        <v/>
+      </c>
+      <c r="AD39" t="str">
+        <f>IF(AD38="0d", "", CONCATENATE("S",AD38))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>292</v>
       </c>
-      <c r="C38" t="str">
-        <f t="shared" ref="C38:T38" si="45">CONCATENATE("S",C36)</f>
+      <c r="C40" t="str">
+        <f t="shared" ref="C40:U40" si="67">CONCATENATE("S",C38)</f>
         <v>S0d</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="45"/>
+      <c r="D40" t="str">
+        <f t="shared" si="67"/>
         <v>S0d</v>
       </c>
-      <c r="E38" t="str">
-        <f t="shared" si="45"/>
+      <c r="E40" t="str">
+        <f t="shared" si="67"/>
         <v>S0d</v>
       </c>
-      <c r="F38" t="str">
-        <f t="shared" si="45"/>
+      <c r="F40" t="str">
+        <f t="shared" ref="F40" si="68">CONCATENATE("S",F38)</f>
         <v>S0d</v>
       </c>
-      <c r="G38" t="str">
-        <f t="shared" si="45"/>
+      <c r="G40" t="str">
+        <f t="shared" si="67"/>
         <v>S0d</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="45"/>
+      <c r="H40" t="str">
+        <f t="shared" si="67"/>
         <v>S0d</v>
       </c>
-      <c r="I38" t="str">
-        <f t="shared" si="45"/>
+      <c r="I40" t="str">
+        <f t="shared" si="67"/>
         <v>S0d</v>
       </c>
-      <c r="J38" t="str">
-        <f t="shared" si="45"/>
+      <c r="J40" t="str">
+        <f t="shared" si="67"/>
         <v>S0d</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" si="45"/>
+      <c r="K40" t="str">
+        <f t="shared" si="67"/>
         <v>S0d</v>
       </c>
-      <c r="L38" t="str">
-        <f t="shared" si="45"/>
+      <c r="L40" t="str">
+        <f t="shared" si="67"/>
         <v>S0d</v>
       </c>
-      <c r="M38" t="str">
-        <f t="shared" si="45"/>
+      <c r="M40" t="str">
+        <f t="shared" si="67"/>
         <v>S0d</v>
       </c>
-      <c r="N38" t="str">
-        <f t="shared" si="45"/>
+      <c r="N40" t="str">
+        <f t="shared" si="67"/>
         <v>S0d</v>
       </c>
-      <c r="O38" t="str">
-        <f t="shared" si="45"/>
+      <c r="O40" t="str">
+        <f t="shared" si="67"/>
         <v>S0d</v>
       </c>
-      <c r="P38" t="str">
-        <f t="shared" si="45"/>
+      <c r="P40" t="str">
+        <f t="shared" si="67"/>
         <v>S0d</v>
       </c>
-      <c r="Q38" t="str">
-        <f t="shared" si="45"/>
+      <c r="Q40" t="str">
+        <f t="shared" si="67"/>
         <v>S0d</v>
       </c>
-      <c r="R38" t="str">
-        <f t="shared" si="45"/>
+      <c r="R40" t="str">
+        <f t="shared" si="67"/>
         <v>S0d</v>
       </c>
-      <c r="S38" t="str">
-        <f t="shared" si="45"/>
+      <c r="S40" t="str">
+        <f t="shared" si="67"/>
+        <v>S0d</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="67"/>
         <v>S1A</v>
       </c>
-      <c r="T38" t="str">
-        <f t="shared" si="45"/>
+      <c r="U40" t="str">
+        <f t="shared" si="67"/>
         <v>S90d</v>
       </c>
-      <c r="U38" t="str">
-        <f>CONCATENATE("S",U36)</f>
+      <c r="V40" t="str">
+        <f>CONCATENATE("S",V38)</f>
         <v>S1A</v>
       </c>
-      <c r="V38" t="str">
-        <f>CONCATENATE("S",V36)</f>
+      <c r="W40" t="str">
+        <f>CONCATENATE("S",W38)</f>
         <v>S0d</v>
       </c>
-      <c r="W38" t="str">
-        <f>CONCATENATE("S",W36)</f>
+      <c r="X40" t="str">
+        <f>CONCATENATE("S",X38)</f>
         <v>S0d</v>
       </c>
-      <c r="X38" t="str">
-        <f>CONCATENATE("S",X36)</f>
+      <c r="Y40" t="str">
+        <f>CONCATENATE("S",Y38)</f>
         <v>S0d</v>
       </c>
-      <c r="Y38" t="str">
-        <f>CONCATENATE("S",Y36)</f>
+      <c r="Z40" t="str">
+        <f>CONCATENATE("S",Z38)</f>
         <v>S0d</v>
       </c>
-      <c r="Z38" t="str">
-        <f t="shared" ref="Z38" si="46">CONCATENATE("S",Z36)</f>
+      <c r="AA40" t="str">
+        <f t="shared" ref="AA40" si="69">CONCATENATE("S",AA38)</f>
         <v>S0d</v>
       </c>
-      <c r="AA38" t="str">
-        <f>CONCATENATE("S",AA36)</f>
+      <c r="AB40" t="str">
+        <f>CONCATENATE("S",AB38)</f>
         <v>S0d</v>
       </c>
-      <c r="AB38" t="str">
-        <f>CONCATENATE("S",AB36)</f>
+      <c r="AC40" t="str">
+        <f>CONCATENATE("S",AC38)</f>
         <v>S0d</v>
       </c>
-      <c r="AC38" t="str">
-        <f>CONCATENATE("S",AC36)</f>
+      <c r="AD40" t="str">
+        <f>CONCATENATE("S",AD38)</f>
         <v>S0d</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21">
         <v>2014</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D41" s="21">
         <v>2014</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E41" s="21">
         <v>2014</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F41" s="21">
         <v>2014</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G41" s="21">
         <v>2014</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H41" s="21">
         <v>2014</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I41" s="21">
         <v>2014</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J41" s="21">
         <v>2014</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K41" s="21">
         <v>2014</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L41" s="21">
         <v>2014</v>
       </c>
-      <c r="M39" s="21">
+      <c r="M41" s="21">
         <v>2014</v>
       </c>
-      <c r="N39" s="21">
+      <c r="N41" s="21">
         <v>2014</v>
       </c>
-      <c r="O39" s="21">
+      <c r="O41" s="21">
         <v>2014</v>
       </c>
-      <c r="P39" s="21">
+      <c r="P41" s="21">
         <v>2014</v>
       </c>
-      <c r="Q39" s="21">
+      <c r="Q41" s="21">
         <v>2014</v>
       </c>
-      <c r="R39" s="21">
+      <c r="R41" s="21">
         <v>2014</v>
       </c>
-      <c r="S39" s="21">
+      <c r="S41" s="21">
         <v>2014</v>
       </c>
-      <c r="T39" s="21">
+      <c r="T41" s="21">
         <v>2014</v>
       </c>
-      <c r="U39" s="21">
+      <c r="U41" s="21">
         <v>2014</v>
       </c>
-      <c r="V39" s="21">
+      <c r="V41" s="21">
         <v>2014</v>
       </c>
-      <c r="W39" s="21">
+      <c r="W41" s="21">
         <v>2014</v>
       </c>
-      <c r="X39" s="21">
+      <c r="X41" s="21">
         <v>2014</v>
       </c>
-      <c r="Y39" s="21">
+      <c r="Y41" s="21">
         <v>2014</v>
       </c>
-      <c r="Z39" s="21">
+      <c r="Z41" s="21">
         <v>2014</v>
       </c>
-      <c r="AA39" s="21">
+      <c r="AA41" s="21">
         <v>2014</v>
       </c>
-      <c r="AB39" s="21">
+      <c r="AB41" s="21">
         <v>2014</v>
       </c>
-      <c r="AC39" s="21">
+      <c r="AC41" s="21">
         <v>2014</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="AD41" s="21">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>294</v>
       </c>
-      <c r="C40" t="str">
-        <f t="shared" ref="C40:T40" si="47">IF(C39=2014,"",CONCATENATE("L",C39))</f>
-        <v/>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="P40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="Q40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="R40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="S40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="U40" t="str">
-        <f>IF(U39=2014,"",CONCATENATE("L",U39))</f>
-        <v/>
-      </c>
-      <c r="V40" t="str">
-        <f>IF(V39=2014,"",CONCATENATE("L",V39))</f>
-        <v/>
-      </c>
-      <c r="W40" t="str">
-        <f>IF(W39=2014,"",CONCATENATE("L",W39))</f>
-        <v/>
-      </c>
-      <c r="X40" t="str">
-        <f>IF(X39=2014,"",CONCATENATE("L",X39))</f>
-        <v/>
-      </c>
-      <c r="Y40" t="str">
-        <f>IF(Y39=2014,"",CONCATENATE("L",Y39))</f>
-        <v/>
-      </c>
-      <c r="Z40" t="str">
-        <f t="shared" ref="Z40" si="48">IF(Z39=2014,"",CONCATENATE("L",Z39))</f>
-        <v/>
-      </c>
-      <c r="AA40" t="str">
-        <f>IF(AA39=2014,"",CONCATENATE("L",AA39))</f>
-        <v/>
-      </c>
-      <c r="AB40" t="str">
-        <f>IF(AB39=2014,"",CONCATENATE("L",AB39))</f>
-        <v/>
-      </c>
-      <c r="AC40" t="str">
-        <f>IF(AC39=2014,"",CONCATENATE("L",AC39))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="C42" t="str">
+        <f t="shared" ref="C42:U42" si="70">IF(C41=2014,"",CONCATENATE("L",C41))</f>
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" ref="F42" si="71">IF(F41=2014,"",CONCATENATE("L",F41))</f>
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="V42" t="str">
+        <f>IF(V41=2014,"",CONCATENATE("L",V41))</f>
+        <v/>
+      </c>
+      <c r="W42" t="str">
+        <f>IF(W41=2014,"",CONCATENATE("L",W41))</f>
+        <v/>
+      </c>
+      <c r="X42" t="str">
+        <f>IF(X41=2014,"",CONCATENATE("L",X41))</f>
+        <v/>
+      </c>
+      <c r="Y42" t="str">
+        <f>IF(Y41=2014,"",CONCATENATE("L",Y41))</f>
+        <v/>
+      </c>
+      <c r="Z42" t="str">
+        <f>IF(Z41=2014,"",CONCATENATE("L",Z41))</f>
+        <v/>
+      </c>
+      <c r="AA42" t="str">
+        <f t="shared" ref="AA42" si="72">IF(AA41=2014,"",CONCATENATE("L",AA41))</f>
+        <v/>
+      </c>
+      <c r="AB42" t="str">
+        <f>IF(AB41=2014,"",CONCATENATE("L",AB41))</f>
+        <v/>
+      </c>
+      <c r="AC42" t="str">
+        <f>IF(AC41=2014,"",CONCATENATE("L",AC41))</f>
+        <v/>
+      </c>
+      <c r="AD42" t="str">
+        <f>IF(AD41=2014,"",CONCATENATE("L",AD41))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B43" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="H43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="I41" s="21" t="s">
+      <c r="I43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="J41" s="21" t="s">
+      <c r="J43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="K41" s="21" t="s">
+      <c r="K43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="L41" s="21" t="s">
+      <c r="L43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="M41" s="21" t="s">
+      <c r="M43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="N41" s="21" t="s">
+      <c r="N43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="O41" s="21" t="s">
+      <c r="O43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="P41" s="21" t="s">
+      <c r="P43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="Q41" s="21" t="s">
+      <c r="Q43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="R41" s="21" t="s">
+      <c r="R43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="S41" s="21" t="s">
+      <c r="S43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="T41" s="21" t="s">
+      <c r="T43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="U41" s="21" t="s">
+      <c r="U43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="V41" s="21" t="s">
+      <c r="V43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="W41" s="21" t="s">
+      <c r="W43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="X41" s="21" t="s">
+      <c r="X43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="Y41" s="21" t="s">
+      <c r="Y43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="Z41" s="21" t="s">
+      <c r="Z43" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="AA41" s="21" t="s">
+      <c r="AA43" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB43" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="AB41" s="21" t="s">
+      <c r="AC43" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="AC41" s="21" t="s">
+      <c r="AD43" s="21" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>298</v>
       </c>
-      <c r="C42" t="str">
-        <f t="shared" ref="C42:T42" si="49">IF(C41="none","",CONCATENATE("L",C41))</f>
-        <v/>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="P42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="Q42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="R42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="S42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="T42" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="U42" t="str">
-        <f>IF(U41="none","",CONCATENATE("L",U41))</f>
-        <v/>
-      </c>
-      <c r="V42" t="str">
-        <f>IF(V41="none","",CONCATENATE("L",V41))</f>
-        <v/>
-      </c>
-      <c r="W42" t="str">
-        <f>IF(W41="none","",CONCATENATE("L",W41))</f>
-        <v/>
-      </c>
-      <c r="X42" t="str">
-        <f>IF(X41="none","",CONCATENATE("L",X41))</f>
-        <v/>
-      </c>
-      <c r="Y42" t="str">
-        <f>IF(Y41="none","",CONCATENATE("L",Y41))</f>
-        <v/>
-      </c>
-      <c r="Z42" t="str">
-        <f t="shared" ref="Z42" si="50">IF(Z41="none","",CONCATENATE("L",Z41))</f>
-        <v/>
-      </c>
-      <c r="AA42" t="str">
-        <f>IF(AA41="none","",CONCATENATE("L",AA41))</f>
+      <c r="C44" t="str">
+        <f t="shared" ref="C44:U44" si="73">IF(C43="none","",CONCATENATE("L",C43))</f>
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" ref="F44" si="74">IF(F43="none","",CONCATENATE("L",F43))</f>
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="S44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="V44" t="str">
+        <f>IF(V43="none","",CONCATENATE("L",V43))</f>
+        <v/>
+      </c>
+      <c r="W44" t="str">
+        <f>IF(W43="none","",CONCATENATE("L",W43))</f>
+        <v/>
+      </c>
+      <c r="X44" t="str">
+        <f>IF(X43="none","",CONCATENATE("L",X43))</f>
+        <v/>
+      </c>
+      <c r="Y44" t="str">
+        <f>IF(Y43="none","",CONCATENATE("L",Y43))</f>
+        <v/>
+      </c>
+      <c r="Z44" t="str">
+        <f>IF(Z43="none","",CONCATENATE("L",Z43))</f>
+        <v/>
+      </c>
+      <c r="AA44" t="str">
+        <f t="shared" ref="AA44" si="75">IF(AA43="none","",CONCATENATE("L",AA43))</f>
+        <v/>
+      </c>
+      <c r="AB44" t="str">
+        <f>IF(AB43="none","",CONCATENATE("L",AB43))</f>
         <v>Lmod_D0_M0_energyOnly</v>
       </c>
-      <c r="AB42" t="str">
-        <f>IF(AB41="none","",CONCATENATE("L",AB41))</f>
+      <c r="AC44" t="str">
+        <f>IF(AC43="none","",CONCATENATE("L",AC43))</f>
         <v>Lmod_D50_M0_energyOnly</v>
       </c>
-      <c r="AC42" t="str">
-        <f>IF(AC41="none","",CONCATENATE("L",AC41))</f>
+      <c r="AD44" t="str">
+        <f>IF(AD43="none","",CONCATENATE("L",AD43))</f>
         <v>Lmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B45" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="H43" s="21" t="s">
+      <c r="H45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="I43" s="21" t="s">
+      <c r="I45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="J43" s="21" t="s">
+      <c r="J45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="K43" s="21" t="s">
+      <c r="K45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="L43" s="21" t="s">
+      <c r="L45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="M43" s="21" t="s">
+      <c r="M45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="N43" s="21" t="s">
+      <c r="N45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="O43" s="21" t="s">
+      <c r="O45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="P43" s="21" t="s">
+      <c r="P45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="Q43" s="21" t="s">
+      <c r="Q45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="R43" s="21" t="s">
+      <c r="R45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="S43" s="21" t="s">
+      <c r="S45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="T43" s="21" t="s">
+      <c r="T45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="U43" s="21" t="s">
+      <c r="U45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="V43" s="21" t="s">
+      <c r="V45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="W43" s="21" t="s">
+      <c r="W45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="X43" s="21" t="s">
+      <c r="X45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="Y43" s="21" t="s">
+      <c r="Y45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="Z43" s="21" t="s">
+      <c r="Z45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="AA43" s="21" t="s">
+      <c r="AA45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="AB43" s="21" t="s">
+      <c r="AB45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="AC43" s="21" t="s">
+      <c r="AC45" s="21" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="AD45" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>302</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>303</v>
       </c>
-      <c r="C45" t="str">
-        <f t="shared" ref="C45:T45" si="51">IF(C43="RT","",CONCATENATE(C43,C44))</f>
-        <v/>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="O45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="P45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="Q45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="R45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="S45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="T45" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="U45" t="str">
-        <f>IF(U43="RT","",CONCATENATE(U43,U44))</f>
-        <v/>
-      </c>
-      <c r="V45" t="str">
-        <f>IF(V43="RT","",CONCATENATE(V43,V44))</f>
-        <v/>
-      </c>
-      <c r="W45" t="str">
-        <f>IF(W43="RT","",CONCATENATE(W43,W44))</f>
-        <v/>
-      </c>
-      <c r="X45" t="str">
-        <f>IF(X43="RT","",CONCATENATE(X43,X44))</f>
-        <v/>
-      </c>
-      <c r="Y45" t="str">
-        <f>IF(Y43="RT","",CONCATENATE(Y43,Y44))</f>
-        <v/>
-      </c>
-      <c r="Z45" t="str">
-        <f t="shared" ref="Z45" si="52">IF(Z43="RT","",CONCATENATE(Z43,Z44))</f>
-        <v/>
-      </c>
-      <c r="AA45" t="str">
-        <f>IF(AA43="RT","",CONCATENATE(AA43,AA44))</f>
-        <v/>
-      </c>
-      <c r="AB45" t="str">
-        <f>IF(AB43="RT","",CONCATENATE(AB43,AB44))</f>
-        <v/>
-      </c>
-      <c r="AC45" t="str">
-        <f>IF(AC43="RT","",CONCATENATE(AC43,AC44))</f>
+      <c r="C47" t="str">
+        <f t="shared" ref="C47:U47" si="76">IF(C45="RT","",CONCATENATE(C45,C46))</f>
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" ref="F47" si="77">IF(F45="RT","",CONCATENATE(F45,F46))</f>
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="V47" t="str">
+        <f>IF(V45="RT","",CONCATENATE(V45,V46))</f>
+        <v/>
+      </c>
+      <c r="W47" t="str">
+        <f>IF(W45="RT","",CONCATENATE(W45,W46))</f>
+        <v/>
+      </c>
+      <c r="X47" t="str">
+        <f>IF(X45="RT","",CONCATENATE(X45,X46))</f>
+        <v/>
+      </c>
+      <c r="Y47" t="str">
+        <f>IF(Y45="RT","",CONCATENATE(Y45,Y46))</f>
+        <v/>
+      </c>
+      <c r="Z47" t="str">
+        <f>IF(Z45="RT","",CONCATENATE(Z45,Z46))</f>
+        <v/>
+      </c>
+      <c r="AA47" t="str">
+        <f t="shared" ref="AA47" si="78">IF(AA45="RT","",CONCATENATE(AA45,AA46))</f>
+        <v/>
+      </c>
+      <c r="AB47" t="str">
+        <f>IF(AB45="RT","",CONCATENATE(AB45,AB46))</f>
+        <v/>
+      </c>
+      <c r="AC47" t="str">
+        <f>IF(AC45="RT","",CONCATENATE(AC45,AC46))</f>
+        <v/>
+      </c>
+      <c r="AD47" t="str">
+        <f>IF(AD45="RT","",CONCATENATE(AD45,AD46))</f>
         <v/>
       </c>
     </row>

--- a/india_REV_input/Scenarios_Cost_Master_v4.xlsx
+++ b/india_REV_input/Scenarios_Cost_Master_v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-30495" yWindow="-3600" windowWidth="25035" windowHeight="14955"/>
+    <workbookView xWindow="-30495" yWindow="-3600" windowWidth="25035" windowHeight="14955" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REvalue_input_csv" sheetId="11" r:id="rId1"/>
@@ -1122,18 +1122,9 @@
     <t>scenario_coal_gas</t>
   </si>
   <si>
-    <t>scenario_wind (blank for base)</t>
-  </si>
-  <si>
-    <t>scenario_solar (blank for base)</t>
-  </si>
-  <si>
     <t>base</t>
   </si>
   <si>
-    <t>scenario_battery (blank for base)</t>
-  </si>
-  <si>
     <t>Battery Capital Cost (USD/kW)</t>
   </si>
   <si>
@@ -1900,6 +1891,15 @@
   </si>
   <si>
     <t>percentage, 50p is base</t>
+  </si>
+  <si>
+    <t>scenario_wind</t>
+  </si>
+  <si>
+    <t>scenario_solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario_battery </t>
   </si>
 </sst>
 </file>
@@ -2412,11 +2412,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2445,102 +2445,102 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G1" t="s">
         <v>228</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>229</v>
       </c>
-      <c r="C1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>231</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>232</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>233</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>234</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>235</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>236</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>237</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>238</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>239</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>241</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>242</v>
       </c>
-      <c r="S1" t="s">
-        <v>243</v>
-      </c>
-      <c r="T1" t="s">
-        <v>244</v>
-      </c>
-      <c r="U1" t="s">
-        <v>245</v>
-      </c>
       <c r="V1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="W1" t="s">
+        <v>419</v>
+      </c>
+      <c r="X1" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>421</v>
+      </c>
+      <c r="Z1" t="s">
         <v>422</v>
       </c>
-      <c r="X1" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>424</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>425</v>
-      </c>
       <c r="AA1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AB1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD1" t="s">
         <v>467</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C2" s="21" t="str">
         <f>C3</f>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C3" t="str">
         <f>CONCATENATE(C10,C13,C17,C19,C21,C25,C29,C33,C36,C39,C42,C44,C47)</f>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4:E4" si="4">CONCATENATE(C10,C13,C15,C17,C19,C21,C36,C39,C42,C44,C47)</f>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ref="C5:U5" si="6">CONCATENATE(C11,C17,C19,C21,C36,C39,C42,C44,C47)</f>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ref="C6:U6" si="9">CONCATENATE(C11,C17,C19,C21,C36,C39,C42,C44,C47)</f>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ref="C7:U7" si="11">CONCATENATE(C37,"_",C40)</f>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C8" t="str">
         <f>CONCATENATE(C11,C29,C33,C25)</f>
@@ -3359,99 +3359,99 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>256</v>
-      </c>
       <c r="E9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="V9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="X9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Y9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Z9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AA9" s="21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AB9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AD9" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C10" t="str">
         <f>CONCATENATE("C", LEFT(C9,1), "c")</f>
@@ -3568,7 +3568,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ref="C11:U11" si="20">CONCATENATE("coal",LEFT(C9,1), "c")</f>
@@ -3685,10 +3685,10 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C12" s="21">
         <v>70</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C13" t="str">
         <f>CONCATENATE("C",C12,"m")</f>
@@ -3894,10 +3894,10 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C14" s="21">
         <v>50</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C15" t="str">
         <f>IF(C14=50,"",CONCATENATE("G",C14, "m"))</f>
@@ -4103,10 +4103,10 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C16" s="21">
         <v>0</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ref="C15:U17" si="27">IF(C16=0,"",CONCATENATE("H",C16))</f>
@@ -4312,10 +4312,10 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C18" s="21">
         <v>0</v>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ref="C19:U19" si="30">IF(C18=0,"",CONCATENATE("N",C18))</f>
@@ -4521,10 +4521,10 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C20" s="21">
         <v>0</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ref="C21:U21" si="33">IF(C20=0,"",CONCATENATE("B",C20))</f>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ref="C22:U22" si="36">CONCATENATE("bat", C20)</f>
@@ -4847,10 +4847,10 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C23" s="21">
         <v>0</v>
@@ -4939,99 +4939,99 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="T24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="U24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="V24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="X24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Y24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Z24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AA24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AB24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AD24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C25" t="str">
         <f>IF(C23=0,"",CONCATENATE("B",C23,LEFT(C24,1),"c"))</f>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C26" t="str">
         <f>CONCATENATE("battery",UPPER(LEFT(C24,1)), "C",C23)</f>
@@ -5265,10 +5265,10 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C27" s="21">
         <v>0</v>
@@ -5357,99 +5357,99 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="T28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="U28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="V28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="X28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Y28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Z28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AA28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AB28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AD28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ref="C29:U29" si="45">IF(C27=0,"",CONCATENATE("W",C27,LEFT(C28,1),"c"))</f>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ref="C30:U30" si="48">CONCATENATE("wind",UPPER(LEFT(C28,1)), "C",C27)</f>
@@ -5683,10 +5683,10 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C31" s="21">
         <v>0</v>
@@ -5775,99 +5775,99 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="T32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="U32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="V32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="X32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Y32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Z32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AA32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AB32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AD32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ref="C33:N33" si="51">IF(C31=0,"",CONCATENATE("W",C31,LEFT(C32,1),"c"))</f>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ref="C34:U34" si="55">CONCATENATE("solar",UPPER(LEFT(C32,1)), "C",C31)</f>
@@ -6101,10 +6101,10 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C35" s="21">
         <v>80</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ref="C36:U36" si="58">IF(C35=80,"", CONCATENATE("W",C35))</f>
@@ -6310,7 +6310,7 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ref="C37:U37" si="61">CONCATENATE("W",C35)</f>
@@ -6427,99 +6427,99 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="M38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="N38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="P38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="R38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="S38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="T38" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="U38" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="J38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="L38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="M38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="N38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="O38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="P38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="R38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="S38" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="T38" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="U38" s="21" t="s">
-        <v>290</v>
-      </c>
       <c r="V38" s="21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="W38" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X38" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y38" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Z38" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AA38" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AB38" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AC38" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AD38" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" ref="C39:U39" si="64">IF(C38="0d", "", CONCATENATE("S",C38))</f>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" ref="C40:U40" si="67">CONCATENATE("S",C38)</f>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="21">
@@ -6843,7 +6843,7 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ref="C42:U42" si="70">IF(C41=2014,"",CONCATENATE("L",C41))</f>
@@ -6960,99 +6960,99 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="R43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="S43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="T43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="U43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="V43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="W43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="X43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Y43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Z43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AA43" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AB43" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC43" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="AC43" s="21" t="s">
-        <v>471</v>
-      </c>
       <c r="AD43" s="21" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" ref="C44:U44" si="73">IF(C43="none","",CONCATENATE("L",C43))</f>
@@ -7169,99 +7169,99 @@
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="N45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="R45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="S45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="T45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="U45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="V45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="W45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="X45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Y45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Z45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AA45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AB45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AC45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AD45" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" ref="C47:U47" si="76">IF(C45="RT","",CONCATENATE(C45,C46))</f>
@@ -7493,41 +7493,41 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D3">
         <v>216</v>
@@ -7546,13 +7546,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D4">
         <v>88</v>
@@ -7571,10 +7571,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E5">
         <f>D5/60</f>
@@ -7590,13 +7590,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D6">
         <v>89</v>
@@ -7658,517 +7658,517 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>231</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>232</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>233</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>234</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>235</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>236</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>237</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>238</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>239</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>240</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>241</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>242</v>
       </c>
-      <c r="Q1" t="s">
-        <v>243</v>
-      </c>
-      <c r="R1" t="s">
-        <v>244</v>
-      </c>
-      <c r="S1" t="s">
-        <v>245</v>
-      </c>
       <c r="T1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="U1" t="s">
+        <v>419</v>
+      </c>
+      <c r="V1" t="s">
+        <v>420</v>
+      </c>
+      <c r="W1" t="s">
+        <v>421</v>
+      </c>
+      <c r="X1" t="s">
         <v>422</v>
       </c>
-      <c r="V1" t="s">
-        <v>423</v>
-      </c>
-      <c r="W1" t="s">
-        <v>424</v>
-      </c>
-      <c r="X1" t="s">
-        <v>425</v>
-      </c>
       <c r="Y1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Z1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AB1" t="s">
         <v>467</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2" t="s">
         <v>442</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>443</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>444</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>445</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>446</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>447</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>448</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>449</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>450</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>451</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>452</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>453</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>454</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>455</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>456</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>457</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>458</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>459</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>460</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>461</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>462</v>
       </c>
-      <c r="W2" t="s">
-        <v>463</v>
-      </c>
-      <c r="X2" t="s">
-        <v>464</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>465</v>
-      </c>
       <c r="Z2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AA2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AB2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="O3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="R3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="S3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="T3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="U3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="V3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="W3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="X3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Y3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Z3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AA3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AB3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="O4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="R4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="S4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="T4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="U4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="V4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="W4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="X4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Y4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Z4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AA4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AB4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="O5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="R5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="T5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="V5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="X5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Y5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="O6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="R6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="T6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="V6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="X6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Y6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" t="s">
         <v>411</v>
       </c>
-      <c r="B7" t="s">
-        <v>414</v>
-      </c>
       <c r="C7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="O7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="R7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="T7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="V7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="X7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Y7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -8186,8 +8186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL73"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="U39" sqref="U39"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9:AE64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8230,7 +8230,7 @@
         <v>65</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
@@ -8282,10 +8282,10 @@
         <v>217</v>
       </c>
       <c r="AK3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AL3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -8341,7 +8341,7 @@
         <v>3.6923076923076925</v>
       </c>
       <c r="AD4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AE4">
         <f>B68</f>
@@ -8352,7 +8352,7 @@
         <v>15</v>
       </c>
       <c r="AG4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AH4">
         <f>C68</f>
@@ -8363,7 +8363,7 @@
         <v>10</v>
       </c>
       <c r="AJ4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AK4">
         <v>2800</v>
@@ -8436,7 +8436,7 @@
         <v>10</v>
       </c>
       <c r="AJ5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AK5">
         <f>$AK$4*0.75</f>
@@ -8486,7 +8486,7 @@
         <v>10</v>
       </c>
       <c r="AJ6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AK6">
         <f>$AK$4*0.5</f>
@@ -8535,7 +8535,7 @@
         <v>3900</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
@@ -8655,13 +8655,13 @@
         <v>42.6768</v>
       </c>
       <c r="R11" t="s">
+        <v>477</v>
+      </c>
+      <c r="S11" t="s">
         <v>220</v>
       </c>
-      <c r="S11" t="s">
-        <v>222</v>
-      </c>
       <c r="T11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="U11" t="s">
         <v>210</v>
@@ -8673,22 +8673,22 @@
         <v>212</v>
       </c>
       <c r="X11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Z11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AA11" t="s">
         <v>212</v>
       </c>
       <c r="AB11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AD11" t="s">
         <v>212</v>
@@ -8703,22 +8703,22 @@
         <v>0.57692307692307687</v>
       </c>
       <c r="R12" t="s">
-        <v>221</v>
+        <v>478</v>
       </c>
       <c r="S12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="T12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="U12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="V12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="W12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="X12" t="s">
         <v>214</v>
@@ -8733,10 +8733,10 @@
         <v>216</v>
       </c>
       <c r="AB12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AD12" t="s">
         <v>216</v>
@@ -8754,43 +8754,43 @@
         <v>59</v>
       </c>
       <c r="R13" t="s">
-        <v>223</v>
+        <v>479</v>
       </c>
       <c r="S13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="T13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="U13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="V13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="W13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="X13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Z13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AA13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AC13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AD13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -8807,7 +8807,7 @@
         <v>184</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" ref="S14:AD14" si="2">$R$5</f>
+        <f t="shared" ref="S14:AE14" si="2">$R$5</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="T14" s="1">
@@ -8854,22 +8854,23 @@
         <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AE14" s="1"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B15">
         <v>3.9</v>
       </c>
       <c r="C15" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="R15" t="s">
         <v>189</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" ref="S15:AD15" si="3">$S$5</f>
+        <f t="shared" ref="S15:AE15" si="3">$S$5</f>
         <v>8.5810517220665614E-2</v>
       </c>
       <c r="T15" s="2">
@@ -8916,6 +8917,7 @@
         <f t="shared" si="3"/>
         <v>8.5810517220665614E-2</v>
       </c>
+      <c r="AE15" s="2"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -8928,7 +8930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -8943,7 +8945,7 @@
         <v>60</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" ref="S17:AD17" si="4">$Y$4</f>
+        <f t="shared" ref="S17:AE17" si="4">$Y$4</f>
         <v>678.26769230769241</v>
       </c>
       <c r="T17" s="5">
@@ -8990,8 +8992,9 @@
         <f t="shared" si="4"/>
         <v>678.26769230769241</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE17" s="5"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>163</v>
       </c>
@@ -9006,7 +9009,7 @@
         <v>58</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:AD18" si="5">$AC$5</f>
+        <f t="shared" ref="S18:AE18" si="5">$AC$5</f>
         <v>10</v>
       </c>
       <c r="T18">
@@ -9054,7 +9057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>165</v>
       </c>
@@ -9066,7 +9069,7 @@
         <v>20</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" ref="S19:AD19" si="6">S$17*S$15+$B$32</f>
+        <f t="shared" ref="S19:AE19" si="6">S$17*S$15+$B$32</f>
         <v>65.002501490990369</v>
       </c>
       <c r="T19" s="5">
@@ -9113,8 +9116,9 @@
         <f t="shared" si="6"/>
         <v>65.002501490990369</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE19" s="5"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -9129,7 +9133,7 @@
         <v>32</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" ref="S20:AD20" si="7">($B$34*S$18*10^-3 + $B$33)/(1-$B$46)</f>
+        <f t="shared" ref="S20:AE20" si="7">($B$34*S$18*10^-3 + $B$33)/(1-$B$46)</f>
         <v>126.97417171717171</v>
       </c>
       <c r="T20" s="5">
@@ -9176,8 +9180,9 @@
         <f t="shared" si="7"/>
         <v>126.97417171717171</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE20" s="5"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -9189,7 +9194,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -9204,7 +9209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -9222,7 +9227,7 @@
         <v>61</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" ref="S23:AD23" si="8">$AA$4</f>
+        <f t="shared" ref="S23:AE23" si="8">$AA$4</f>
         <v>775.16307692307703</v>
       </c>
       <c r="T23" s="5">
@@ -9269,8 +9274,9 @@
         <f t="shared" si="8"/>
         <v>775.16307692307703</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE23" s="5"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -9285,7 +9291,7 @@
         <v>20</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" ref="S24:AD24" si="9">S$23*S$15+$C$32</f>
+        <f t="shared" ref="S24:AE24" si="9">S$23*S$15+$C$32</f>
         <v>77.517144561131843</v>
       </c>
       <c r="T24" s="5">
@@ -9332,8 +9338,9 @@
         <f t="shared" si="9"/>
         <v>77.517144561131843</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE24" s="5"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -9347,7 +9354,7 @@
         <v>32</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" ref="S25:AD25" si="10">($C$34*S$18*10^-3 + $C$33)/(1-$C$46)</f>
+        <f t="shared" ref="S25:AE25" si="10">($C$34*S$18*10^-3 + $C$33)/(1-$C$46)</f>
         <v>84.936820512820518</v>
       </c>
       <c r="T25" s="5">
@@ -9394,8 +9401,9 @@
         <f t="shared" si="10"/>
         <v>84.936820512820518</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE25" s="5"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -9406,12 +9414,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="R27" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -9466,11 +9474,12 @@
         <v>976.42784318082204</v>
       </c>
       <c r="AD28" s="5">
-        <f t="shared" ref="AD28" si="12">INDEX($T$4:$U$5, MATCH(AD10,$T$4:$T$5),2)</f>
+        <f t="shared" ref="AD28:AE28" si="12">INDEX($T$4:$U$5, MATCH(AD10,$T$4:$T$5),2)</f>
         <v>1140</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE28" s="5"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
@@ -9481,7 +9490,7 @@
         <v>183</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" ref="S29:AC29" si="13">$W$4</f>
+        <f t="shared" ref="S29:AE29" si="13">$W$4</f>
         <v>2.6153846153846154</v>
       </c>
       <c r="T29" s="4">
@@ -9528,8 +9537,9 @@
         <f>$W$5</f>
         <v>3.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE29" s="4"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -9555,7 +9565,7 @@
         <v>20</v>
       </c>
       <c r="S30" s="5">
-        <f t="shared" ref="S30:AD30" si="14">S$28*S$15+$D$32</f>
+        <f t="shared" ref="S30:AE30" si="14">S$28*S$15+$D$32</f>
         <v>125.88777825200532</v>
       </c>
       <c r="T30" s="5">
@@ -9602,8 +9612,9 @@
         <f t="shared" si="14"/>
         <v>139.92398963155881</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE30" s="5"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -9638,7 +9649,7 @@
         <v>32</v>
       </c>
       <c r="S31" s="5">
-        <f t="shared" ref="S31:AD31" si="16">($D$34*S$29*$E$3*10^-3 + $D$33)/(1-$D$46)</f>
+        <f t="shared" ref="S31:AE31" si="16">($D$34*S$29*$E$3*10^-3 + $D$33)/(1-$D$46)</f>
         <v>32.466607822649564</v>
       </c>
       <c r="T31" s="5">
@@ -9685,8 +9696,9 @@
         <f t="shared" si="16"/>
         <v>45.902984148611111</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE31" s="5"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -9718,7 +9730,7 @@
         <v>2736.5</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -9754,7 +9766,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -9777,7 +9789,7 @@
         <v>75</v>
       </c>
       <c r="Q34" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="R34" t="s">
         <v>55</v>
@@ -9827,11 +9839,12 @@
         <v>3.3984353954038309E-2</v>
       </c>
       <c r="AD34" s="2">
-        <f t="shared" ref="AD34" si="18">(AD24-AD19)*1000/(AD20-AD25)/8760</f>
+        <f t="shared" ref="AD34:AE34" si="18">(AD24-AD19)*1000/(AD20-AD25)/8760</f>
         <v>3.3984353954038309E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE34" s="2"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -9901,11 +9914,12 @@
         <v>0.10523612453151106</v>
       </c>
       <c r="AD35" s="2">
-        <f t="shared" ref="AD35" si="20">(AD30-AD24)*1000/(AD25-AD31)/8760</f>
+        <f t="shared" ref="AD35:AE35" si="20">(AD30-AD24)*1000/(AD25-AD31)/8760</f>
         <v>0.18251009215426989</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE35" s="2"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -9961,7 +9975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -10030,7 +10044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -10098,8 +10112,9 @@
         <f t="shared" si="22"/>
         <v>678.26769230769241</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE38" s="5"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -10167,8 +10182,9 @@
         <f t="shared" si="23"/>
         <v>775.16307692307703</v>
       </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE39" s="5"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -10240,8 +10256,9 @@
         <f t="shared" si="24"/>
         <v>1140</v>
       </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE40" s="5"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -10262,7 +10279,7 @@
         <v>551.69230769230774</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -10285,7 +10302,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -10308,7 +10325,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -10378,8 +10395,9 @@
         <f t="shared" si="26"/>
         <v>65.002501490990369</v>
       </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE44" s="5"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -10449,8 +10467,9 @@
         <f t="shared" si="27"/>
         <v>1177.2962457334145</v>
       </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE45" s="5"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -10520,8 +10539,9 @@
         <f t="shared" si="28"/>
         <v>77.517144561131843</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE46" s="5"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q47">
         <v>8760</v>
       </c>
@@ -10576,8 +10596,9 @@
         <f t="shared" si="29"/>
         <v>821.56369225343963</v>
       </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE47" s="5"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -10649,8 +10670,9 @@
         <f t="shared" si="30"/>
         <v>139.92398963155881</v>
       </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE48" s="5"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -10720,8 +10742,9 @@
         <f t="shared" si="31"/>
         <v>542.03413077339212</v>
       </c>
-    </row>
-    <row r="50" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE49" s="5"/>
+    </row>
+    <row r="50" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -10738,7 +10761,7 @@
         <v>8.5810517220665614E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -10755,13 +10778,13 @@
         <v>125.88777825200532</v>
       </c>
       <c r="Q51" s="20" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="R51" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -10847,7 +10870,7 @@
         <v>coalhcW30lcS30lc</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -10926,8 +10949,9 @@
         <f t="shared" si="33"/>
         <v>678.26769230769241</v>
       </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE53" s="5"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -10965,7 +10989,7 @@
         <v>199</v>
       </c>
       <c r="S54" s="4">
-        <f t="shared" ref="S54:AD54" si="34">$B$32</f>
+        <f t="shared" ref="S54:AE54" si="34">$B$32</f>
         <v>6.8</v>
       </c>
       <c r="T54" s="4">
@@ -11012,8 +11036,9 @@
         <f t="shared" si="34"/>
         <v>6.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE54" s="4"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>190</v>
       </c>
@@ -11094,8 +11119,9 @@
         <f t="shared" si="35"/>
         <v>775.16307692307703</v>
       </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE55" s="5"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -11110,7 +11136,7 @@
         <v>200</v>
       </c>
       <c r="S56" s="4">
-        <f t="shared" ref="S56:AD56" si="36">$C$32</f>
+        <f t="shared" ref="S56:AE56" si="36">$C$32</f>
         <v>11</v>
       </c>
       <c r="T56" s="4">
@@ -11157,8 +11183,9 @@
         <f t="shared" si="36"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE56" s="4"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
       <c r="Q57" t="s">
         <v>203</v>
@@ -11214,8 +11241,9 @@
         <f t="shared" si="37"/>
         <v>1140</v>
       </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE57" s="5"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
       <c r="Q58" t="s">
         <v>204</v>
@@ -11224,7 +11252,7 @@
         <v>57</v>
       </c>
       <c r="S58" s="4">
-        <f t="shared" ref="S58:AD58" si="38">$D$32</f>
+        <f t="shared" ref="S58:AE58" si="38">$D$32</f>
         <v>42.1</v>
       </c>
       <c r="T58" s="4">
@@ -11271,8 +11299,9 @@
         <f t="shared" si="38"/>
         <v>42.1</v>
       </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE58" s="4"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>149</v>
       </c>
@@ -11331,7 +11360,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>147</v>
       </c>
@@ -11390,7 +11419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -11461,7 +11490,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8760</v>
       </c>
@@ -11532,7 +11561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -11552,7 +11581,7 @@
         <v>203</v>
       </c>
       <c r="R63" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S63">
         <f t="shared" ref="S63:AD63" si="43">INDEX($AJ$4:$AL$7, MATCH(S13,$AJ$4:$AJ$7,0), 2)</f>
@@ -11603,12 +11632,12 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q64" t="s">
         <v>204</v>
       </c>
       <c r="R64" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S64">
         <f t="shared" ref="S64:AD64" si="44">INDEX($AJ$4:$AL$7, MATCH(S13,$AJ$4:$AJ$7,0), 3)</f>
@@ -11661,7 +11690,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -11674,7 +11703,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B68">
         <v>1100</v>
@@ -11685,7 +11714,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B69">
         <v>15</v>
@@ -11696,7 +11725,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B70" s="1">
         <v>0.28000000000000003</v>
@@ -11733,7 +11762,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B73">
         <v>2.4300000000000002</v>
@@ -11758,15 +11787,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -13509,7 +13543,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -13518,12 +13552,12 @@
       </c>
       <c r="E18" s="5"/>
       <c r="H18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -13533,7 +13567,7 @@
       </c>
       <c r="E19" s="5"/>
       <c r="H19" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -14882,47 +14916,47 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -14930,7 +14964,7 @@
         <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -14938,7 +14972,7 @@
         <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -14946,7 +14980,7 @@
         <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -14954,7 +14988,7 @@
         <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -14962,7 +14996,7 @@
         <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -14970,7 +15004,7 @@
         <v>300</v>
       </c>
       <c r="C11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -14978,7 +15012,7 @@
         <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -14986,7 +15020,7 @@
         <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -14994,7 +15028,7 @@
         <v>300</v>
       </c>
       <c r="C14" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -15002,7 +15036,7 @@
         <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -15010,7 +15044,7 @@
         <v>400</v>
       </c>
       <c r="C16" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -15018,7 +15052,7 @@
         <v>400</v>
       </c>
       <c r="C17" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -15026,7 +15060,7 @@
         <v>400</v>
       </c>
       <c r="C18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -15034,7 +15068,7 @@
         <v>400</v>
       </c>
       <c r="C19" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -15042,442 +15076,442 @@
         <v>400</v>
       </c>
       <c r="C20" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D24" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G24" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H25" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E26" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H26" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G27" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H27" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G28" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H28" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G30" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H30" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D31" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G31" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H31" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I31" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D32" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G32" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H32" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I32" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G33" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="22" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G34" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H34" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I34" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G35" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H35" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I35" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" s="22" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G36" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H36" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G37" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H37" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I37" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I38" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I39" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F40" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I40" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F41" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I41" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D42" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G42" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I43" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I44" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G45" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D46" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D47" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G47" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G48" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G49" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E54" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G54" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E55" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G55" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E56" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G56" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E63" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F63" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E64" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F64" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E65" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F65" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
+        <v>316</v>
+      </c>
+      <c r="E66" t="s">
         <v>319</v>
       </c>
-      <c r="E66" t="s">
-        <v>322</v>
-      </c>
       <c r="F66" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F67" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F68" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F69" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F70" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F71" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/india_REV_input/Scenarios_Cost_Master_v4.xlsx
+++ b/india_REV_input/Scenarios_Cost_Master_v4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Electricity_Models\renewable_energy_value\india_REV_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ranjitster/Dropbox/renewable_energy_value/renewable_energy_value/india_REV_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-30495" yWindow="-3600" windowWidth="25035" windowHeight="14955" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="14960"/>
   </bookViews>
   <sheets>
     <sheet name="REvalue_input_csv" sheetId="11" r:id="rId1"/>
@@ -23,13 +23,16 @@
     <sheet name="scenarios" sheetId="13" r:id="rId9"/>
     <sheet name="run_times" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -42,7 +45,7 @@
     <author>Ranjit Deshmukh</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="1" shapeId="0">
+    <comment ref="D6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -102,7 +105,7 @@
     <author>Ranjit</author>
   </authors>
   <commentList>
-    <comment ref="AC5" authorId="0" shapeId="0">
+    <comment ref="AC5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1" shapeId="0">
+    <comment ref="B6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -152,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1" shapeId="0">
+    <comment ref="A8" authorId="1">
       <text>
         <r>
           <rPr>
@@ -176,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="1" shapeId="0">
+    <comment ref="B16" authorId="1">
       <text>
         <r>
           <rPr>
@@ -201,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="1" shapeId="0">
+    <comment ref="B18" authorId="1">
       <text>
         <r>
           <rPr>
@@ -225,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="1" shapeId="0">
+    <comment ref="D34" authorId="1">
       <text>
         <r>
           <rPr>
@@ -250,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="1" shapeId="0">
+    <comment ref="B37" authorId="1">
       <text>
         <r>
           <rPr>
@@ -274,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="1" shapeId="0">
+    <comment ref="D37" authorId="1">
       <text>
         <r>
           <rPr>
@@ -308,7 +311,7 @@
     <author>Ranjit</author>
   </authors>
   <commentList>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0">
+    <comment ref="C22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0">
+    <comment ref="D22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0">
+    <comment ref="E22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="0" shapeId="0">
+    <comment ref="E34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -431,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B61" authorId="0" shapeId="0">
+    <comment ref="B61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2412,38 +2415,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>225</v>
       </c>
@@ -2535,7 +2538,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>243</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>245</v>
       </c>
@@ -2772,7 +2775,7 @@
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>413</v>
       </c>
@@ -2789,8 +2792,8 @@
         <v>ClcC55m</v>
       </c>
       <c r="F4" t="str">
-        <f>CONCATENATE(F10,F13,F15,F17,F19,F21,F36,F39,F42,F44,F47)</f>
-        <v>ClcC0mG0m</v>
+        <f>CONCATENATE(F10,F13,F17,F19,F21,F36,F39,F42,F44,F47)</f>
+        <v>ClcC0m</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:AD4" si="5">CONCATENATE(G10,G13,G15,G17,G19,G21,G36,G39,G42,G44,G47)</f>
@@ -2889,7 +2892,7 @@
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>246</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>coallcLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>247</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>coallcLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>248</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>W80_S0d</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>249</v>
       </c>
@@ -3357,7 +3360,7 @@
         <v>coallc</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>250</v>
       </c>
@@ -3449,7 +3452,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>254</v>
       </c>
@@ -3566,7 +3569,7 @@
         <v>Clc</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>255</v>
       </c>
@@ -3683,7 +3686,7 @@
         <v>coallc</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>256</v>
       </c>
@@ -3775,7 +3778,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>C55m</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" ref="F13:U15" si="24">CONCATENATE("C",F12,"m")</f>
+        <f t="shared" ref="F13" si="24">CONCATENATE("C",F12,"m")</f>
         <v>C0m</v>
       </c>
       <c r="G13" t="str">
@@ -3876,7 +3879,7 @@
         <v>C70m</v>
       </c>
       <c r="AA13" t="str">
-        <f t="shared" ref="AA13:AA15" si="25">CONCATENATE("C",AA12,"m")</f>
+        <f t="shared" ref="AA13" si="25">CONCATENATE("C",AA12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="AB13" t="str">
@@ -3892,7 +3895,7 @@
         <v>C70m</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>474</v>
       </c>
@@ -3984,7 +3987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>475</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>259</v>
       </c>
@@ -4193,12 +4196,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>261</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ref="C15:U17" si="27">IF(C16=0,"",CONCATENATE("H",C16))</f>
+        <f t="shared" ref="C17:U17" si="27">IF(C16=0,"",CONCATENATE("H",C16))</f>
         <v/>
       </c>
       <c r="D17" t="str">
@@ -4310,7 +4313,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>262</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>264</v>
       </c>
@@ -4519,7 +4522,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>265</v>
       </c>
@@ -4611,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>267</v>
       </c>
@@ -4728,7 +4731,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>268</v>
       </c>
@@ -4845,7 +4848,7 @@
         <v>bat0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>415</v>
       </c>
@@ -4937,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>416</v>
       </c>
@@ -5029,7 +5032,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>417</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>418</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>batteryLC0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>269</v>
       </c>
@@ -5355,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>271</v>
       </c>
@@ -5447,7 +5450,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>273</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>274</v>
       </c>
@@ -5681,7 +5684,7 @@
         <v>windLC0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>275</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>276</v>
       </c>
@@ -5865,7 +5868,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>277</v>
       </c>
@@ -5982,7 +5985,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>278</v>
       </c>
@@ -6099,7 +6102,7 @@
         <v>solarLC0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>279</v>
       </c>
@@ -6191,7 +6194,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>281</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>282</v>
       </c>
@@ -6425,7 +6428,7 @@
         <v>W80</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>283</v>
       </c>
@@ -6517,7 +6520,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>288</v>
       </c>
@@ -6634,7 +6637,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>289</v>
       </c>
@@ -6751,7 +6754,7 @@
         <v>S0d</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>290</v>
       </c>
@@ -6841,7 +6844,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>291</v>
       </c>
@@ -6958,7 +6961,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>292</v>
       </c>
@@ -7050,7 +7053,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>295</v>
       </c>
@@ -7167,7 +7170,7 @@
         <v>Lmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
         <v>296</v>
       </c>
@@ -7259,7 +7262,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>299</v>
       </c>
@@ -7348,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>300</v>
       </c>
@@ -7469,11 +7472,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7485,13 +7483,13 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>312</v>
       </c>
@@ -7502,7 +7500,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>309</v>
       </c>
@@ -7519,7 +7517,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -7544,7 +7542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -7569,7 +7567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>303</v>
       </c>
@@ -7588,7 +7586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>303</v>
       </c>
@@ -7616,11 +7614,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7632,31 +7625,31 @@
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>220</v>
       </c>
@@ -7739,7 +7732,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>439</v>
       </c>
@@ -7822,7 +7815,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>409</v>
       </c>
@@ -7908,7 +7901,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>410</v>
       </c>
@@ -7994,7 +7987,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>406</v>
       </c>
@@ -8053,7 +8046,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>407</v>
       </c>
@@ -8112,7 +8105,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>408</v>
       </c>
@@ -8174,11 +8167,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8190,36 +8178,36 @@
       <selection activeCell="AE9" sqref="AE9:AE64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1"/>
-    <col min="21" max="21" width="24.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.5" customWidth="1"/>
+    <col min="21" max="21" width="24.5" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" customWidth="1"/>
-    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" customWidth="1"/>
-    <col min="27" max="27" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" customWidth="1"/>
+    <col min="25" max="25" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5" customWidth="1"/>
+    <col min="27" max="27" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8233,7 +8221,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>35</v>
       </c>
@@ -8241,7 +8229,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>34</v>
       </c>
@@ -8288,7 +8276,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>54</v>
       </c>
@@ -8372,7 +8360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -8446,7 +8434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -8496,7 +8484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -8527,7 +8515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -8538,7 +8526,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -8598,7 +8586,7 @@
         <v>coalhcW30lcS30lc</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -8646,7 +8634,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -8694,7 +8682,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -8742,7 +8730,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -8793,7 +8781,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -8807,7 +8795,7 @@
         <v>184</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" ref="S14:AE14" si="2">$R$5</f>
+        <f t="shared" ref="S14:AD14" si="2">$R$5</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="T14" s="1">
@@ -8856,7 +8844,7 @@
       </c>
       <c r="AE14" s="1"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>434</v>
       </c>
@@ -8870,7 +8858,7 @@
         <v>189</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" ref="S15:AE15" si="3">$S$5</f>
+        <f t="shared" ref="S15:AD15" si="3">$S$5</f>
         <v>8.5810517220665614E-2</v>
       </c>
       <c r="T15" s="2">
@@ -8919,7 +8907,7 @@
       </c>
       <c r="AE15" s="2"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -8930,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -8945,7 +8933,7 @@
         <v>60</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" ref="S17:AE17" si="4">$Y$4</f>
+        <f t="shared" ref="S17:AD17" si="4">$Y$4</f>
         <v>678.26769230769241</v>
       </c>
       <c r="T17" s="5">
@@ -8994,7 +8982,7 @@
       </c>
       <c r="AE17" s="5"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>163</v>
       </c>
@@ -9009,7 +8997,7 @@
         <v>58</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:AE18" si="5">$AC$5</f>
+        <f t="shared" ref="S18:AD18" si="5">$AC$5</f>
         <v>10</v>
       </c>
       <c r="T18">
@@ -9057,7 +9045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>165</v>
       </c>
@@ -9069,7 +9057,7 @@
         <v>20</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" ref="S19:AE19" si="6">S$17*S$15+$B$32</f>
+        <f t="shared" ref="S19:AD19" si="6">S$17*S$15+$B$32</f>
         <v>65.002501490990369</v>
       </c>
       <c r="T19" s="5">
@@ -9118,7 +9106,7 @@
       </c>
       <c r="AE19" s="5"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -9133,7 +9121,7 @@
         <v>32</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" ref="S20:AE20" si="7">($B$34*S$18*10^-3 + $B$33)/(1-$B$46)</f>
+        <f t="shared" ref="S20:AD20" si="7">($B$34*S$18*10^-3 + $B$33)/(1-$B$46)</f>
         <v>126.97417171717171</v>
       </c>
       <c r="T20" s="5">
@@ -9182,7 +9170,7 @@
       </c>
       <c r="AE20" s="5"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -9194,7 +9182,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -9209,7 +9197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -9227,7 +9215,7 @@
         <v>61</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" ref="S23:AE23" si="8">$AA$4</f>
+        <f t="shared" ref="S23:AD23" si="8">$AA$4</f>
         <v>775.16307692307703</v>
       </c>
       <c r="T23" s="5">
@@ -9276,7 +9264,7 @@
       </c>
       <c r="AE23" s="5"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -9291,7 +9279,7 @@
         <v>20</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" ref="S24:AE24" si="9">S$23*S$15+$C$32</f>
+        <f t="shared" ref="S24:AD24" si="9">S$23*S$15+$C$32</f>
         <v>77.517144561131843</v>
       </c>
       <c r="T24" s="5">
@@ -9340,7 +9328,7 @@
       </c>
       <c r="AE24" s="5"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -9354,7 +9342,7 @@
         <v>32</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" ref="S25:AE25" si="10">($C$34*S$18*10^-3 + $C$33)/(1-$C$46)</f>
+        <f t="shared" ref="S25:AD25" si="10">($C$34*S$18*10^-3 + $C$33)/(1-$C$46)</f>
         <v>84.936820512820518</v>
       </c>
       <c r="T25" s="5">
@@ -9403,7 +9391,7 @@
       </c>
       <c r="AE25" s="5"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -9414,12 +9402,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="R27" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -9474,12 +9462,12 @@
         <v>976.42784318082204</v>
       </c>
       <c r="AD28" s="5">
-        <f t="shared" ref="AD28:AE28" si="12">INDEX($T$4:$U$5, MATCH(AD10,$T$4:$T$5),2)</f>
+        <f t="shared" ref="AD28" si="12">INDEX($T$4:$U$5, MATCH(AD10,$T$4:$T$5),2)</f>
         <v>1140</v>
       </c>
       <c r="AE28" s="5"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
@@ -9490,7 +9478,7 @@
         <v>183</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" ref="S29:AE29" si="13">$W$4</f>
+        <f t="shared" ref="S29:AC29" si="13">$W$4</f>
         <v>2.6153846153846154</v>
       </c>
       <c r="T29" s="4">
@@ -9539,7 +9527,7 @@
       </c>
       <c r="AE29" s="4"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -9565,7 +9553,7 @@
         <v>20</v>
       </c>
       <c r="S30" s="5">
-        <f t="shared" ref="S30:AE30" si="14">S$28*S$15+$D$32</f>
+        <f t="shared" ref="S30:AD30" si="14">S$28*S$15+$D$32</f>
         <v>125.88777825200532</v>
       </c>
       <c r="T30" s="5">
@@ -9614,7 +9602,7 @@
       </c>
       <c r="AE30" s="5"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -9649,7 +9637,7 @@
         <v>32</v>
       </c>
       <c r="S31" s="5">
-        <f t="shared" ref="S31:AE31" si="16">($D$34*S$29*$E$3*10^-3 + $D$33)/(1-$D$46)</f>
+        <f t="shared" ref="S31:AD31" si="16">($D$34*S$29*$E$3*10^-3 + $D$33)/(1-$D$46)</f>
         <v>32.466607822649564</v>
       </c>
       <c r="T31" s="5">
@@ -9698,7 +9686,7 @@
       </c>
       <c r="AE31" s="5"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -9730,7 +9718,7 @@
         <v>2736.5</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -9766,7 +9754,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -9839,12 +9827,12 @@
         <v>3.3984353954038309E-2</v>
       </c>
       <c r="AD34" s="2">
-        <f t="shared" ref="AD34:AE34" si="18">(AD24-AD19)*1000/(AD20-AD25)/8760</f>
+        <f t="shared" ref="AD34" si="18">(AD24-AD19)*1000/(AD20-AD25)/8760</f>
         <v>3.3984353954038309E-2</v>
       </c>
       <c r="AE34" s="2"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -9914,12 +9902,12 @@
         <v>0.10523612453151106</v>
       </c>
       <c r="AD35" s="2">
-        <f t="shared" ref="AD35:AE35" si="20">(AD30-AD24)*1000/(AD25-AD31)/8760</f>
+        <f t="shared" ref="AD35" si="20">(AD30-AD24)*1000/(AD25-AD31)/8760</f>
         <v>0.18251009215426989</v>
       </c>
       <c r="AE35" s="2"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -9975,7 +9963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -10044,7 +10032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -10114,7 +10102,7 @@
       </c>
       <c r="AE38" s="5"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -10184,7 +10172,7 @@
       </c>
       <c r="AE39" s="5"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -10258,7 +10246,7 @@
       </c>
       <c r="AE40" s="5"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -10279,7 +10267,7 @@
         <v>551.69230769230774</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -10302,7 +10290,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -10325,7 +10313,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -10397,7 +10385,7 @@
       </c>
       <c r="AE44" s="5"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -10469,7 +10457,7 @@
       </c>
       <c r="AE45" s="5"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -10541,7 +10529,7 @@
       </c>
       <c r="AE46" s="5"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="Q47">
         <v>8760</v>
       </c>
@@ -10598,7 +10586,7 @@
       </c>
       <c r="AE47" s="5"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -10672,7 +10660,7 @@
       </c>
       <c r="AE48" s="5"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -10744,7 +10732,7 @@
       </c>
       <c r="AE49" s="5"/>
     </row>
-    <row r="50" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -10761,7 +10749,7 @@
         <v>8.5810517220665614E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -10784,7 +10772,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -10870,7 +10858,7 @@
         <v>coalhcW30lcS30lc</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -10951,7 +10939,7 @@
       </c>
       <c r="AE53" s="5"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -10989,7 +10977,7 @@
         <v>199</v>
       </c>
       <c r="S54" s="4">
-        <f t="shared" ref="S54:AE54" si="34">$B$32</f>
+        <f t="shared" ref="S54:AD54" si="34">$B$32</f>
         <v>6.8</v>
       </c>
       <c r="T54" s="4">
@@ -11038,7 +11026,7 @@
       </c>
       <c r="AE54" s="4"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>190</v>
       </c>
@@ -11121,7 +11109,7 @@
       </c>
       <c r="AE55" s="5"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -11136,7 +11124,7 @@
         <v>200</v>
       </c>
       <c r="S56" s="4">
-        <f t="shared" ref="S56:AE56" si="36">$C$32</f>
+        <f t="shared" ref="S56:AD56" si="36">$C$32</f>
         <v>11</v>
       </c>
       <c r="T56" s="4">
@@ -11185,7 +11173,7 @@
       </c>
       <c r="AE56" s="4"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B57" s="12"/>
       <c r="Q57" t="s">
         <v>203</v>
@@ -11243,7 +11231,7 @@
       </c>
       <c r="AE57" s="5"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B58" s="12"/>
       <c r="Q58" t="s">
         <v>204</v>
@@ -11252,7 +11240,7 @@
         <v>57</v>
       </c>
       <c r="S58" s="4">
-        <f t="shared" ref="S58:AE58" si="38">$D$32</f>
+        <f t="shared" ref="S58:AD58" si="38">$D$32</f>
         <v>42.1</v>
       </c>
       <c r="T58" s="4">
@@ -11301,7 +11289,7 @@
       </c>
       <c r="AE58" s="4"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>149</v>
       </c>
@@ -11360,7 +11348,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>147</v>
       </c>
@@ -11419,7 +11407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0</v>
       </c>
@@ -11490,7 +11478,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>8760</v>
       </c>
@@ -11561,7 +11549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -11632,7 +11620,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="Q64" t="s">
         <v>204</v>
       </c>
@@ -11688,12 +11676,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>159</v>
       </c>
@@ -11701,7 +11689,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>427</v>
       </c>
@@ -11712,7 +11700,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>428</v>
       </c>
@@ -11723,7 +11711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>430</v>
       </c>
@@ -11734,7 +11722,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -11747,7 +11735,7 @@
         <v>44.890647132724027</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>155</v>
       </c>
@@ -11760,7 +11748,7 @@
         <v>2.917892063627062</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>429</v>
       </c>
@@ -11775,11 +11763,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11787,23 +11770,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>'Screening curves'!Q34</f>
         <v>parameter</v>
@@ -11857,7 +11840,7 @@
         <v>coalhcW30lcS30lc</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Screening curves'!R34</f>
         <v>gas_ct</v>
@@ -11915,7 +11898,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Screening curves'!R35</f>
         <v>gas_ccgt</v>
@@ -11973,7 +11956,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Screening curves'!R36</f>
         <v>coal</v>
@@ -12031,7 +12014,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Screening curves'!R37</f>
         <v>gas_price</v>
@@ -12089,7 +12072,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Screening curves'!R38</f>
         <v>cap_cost_ct</v>
@@ -12147,7 +12130,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Screening curves'!R39</f>
         <v>cap_cost_ccgt</v>
@@ -12205,7 +12188,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>'Screening curves'!R40</f>
         <v>cap_cost_coal</v>
@@ -12266,11 +12249,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12282,13 +12260,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>'Screening curves'!Q43</f>
         <v>hour</v>
@@ -12306,7 +12284,7 @@
         <v>coalhc</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>'Screening curves'!Q44</f>
         <v>0</v>
@@ -12324,7 +12302,7 @@
         <v>65.002501490990369</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>'Screening curves'!Q45</f>
         <v>8760</v>
@@ -12342,7 +12320,7 @@
         <v>1177.2962457334145</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>'Screening curves'!Q46</f>
         <v>0</v>
@@ -12360,7 +12338,7 @@
         <v>77.517144561131843</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>'Screening curves'!Q47</f>
         <v>8760</v>
@@ -12378,7 +12356,7 @@
         <v>821.56369225343963</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>'Screening curves'!Q48</f>
         <v>0</v>
@@ -12396,7 +12374,7 @@
         <v>139.92398963155881</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>'Screening curves'!Q49</f>
         <v>8760</v>
@@ -12416,11 +12394,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12432,20 +12405,20 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>'Screening curves'!Q52</f>
         <v>cost_type</v>
@@ -12503,7 +12476,7 @@
         <v>coalhcW30lcS30lc</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Screening curves'!Q53</f>
         <v>capital</v>
@@ -12561,7 +12534,7 @@
         <v>678.26769230769241</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Screening curves'!Q54</f>
         <v>om</v>
@@ -12619,7 +12592,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Screening curves'!Q55</f>
         <v>capital</v>
@@ -12677,7 +12650,7 @@
         <v>775.16307692307703</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Screening curves'!Q56</f>
         <v>om</v>
@@ -12735,7 +12708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Screening curves'!Q57</f>
         <v>capital</v>
@@ -12793,7 +12766,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Screening curves'!Q58</f>
         <v>om</v>
@@ -12851,7 +12824,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>'Screening curves'!Q59</f>
         <v>capital</v>
@@ -12909,7 +12882,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>'Screening curves'!Q60</f>
         <v>om</v>
@@ -12967,7 +12940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Screening curves'!Q61</f>
         <v>capital</v>
@@ -13025,7 +12998,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Screening curves'!Q62</f>
         <v>om</v>
@@ -13083,7 +13056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Screening curves'!Q63</f>
         <v>capital</v>
@@ -13141,7 +13114,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Screening curves'!Q64</f>
         <v>om</v>
@@ -13202,11 +13175,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13218,17 +13186,17 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -13251,12 +13219,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -13276,7 +13244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -13301,7 +13269,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -13324,7 +13292,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -13353,7 +13321,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -13373,7 +13341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -13397,7 +13365,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -13421,7 +13389,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -13441,7 +13409,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -13465,7 +13433,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -13489,7 +13457,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -13505,7 +13473,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -13523,7 +13491,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -13541,7 +13509,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>432</v>
       </c>
@@ -13555,7 +13523,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>432</v>
       </c>
@@ -13570,12 +13538,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -13595,7 +13563,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -13621,7 +13589,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -13643,7 +13611,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -13665,7 +13633,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -13685,7 +13653,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -13702,7 +13670,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -13725,7 +13693,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -13748,7 +13716,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -13777,7 +13745,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -13806,12 +13774,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -13822,7 +13790,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -13836,7 +13804,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -13856,7 +13824,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -13873,7 +13841,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -13894,7 +13862,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -13914,7 +13882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -13935,17 +13903,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -13956,7 +13924,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="8">
         <v>0.108</v>
       </c>
@@ -13964,12 +13932,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -13980,7 +13948,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>8.5</v>
       </c>
@@ -13988,7 +13956,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="7">
         <v>10</v>
       </c>
@@ -13996,7 +13964,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>5.5</v>
       </c>
@@ -14004,17 +13972,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>150</v>
       </c>
@@ -14025,7 +13993,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>151</v>
       </c>
@@ -14038,7 +14006,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -14050,7 +14018,7 @@
       </c>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>162</v>
       </c>
@@ -14064,7 +14032,7 @@
       </c>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -14076,7 +14044,7 @@
       </c>
       <c r="D63" s="18"/>
     </row>
-    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>156</v>
       </c>
@@ -14088,7 +14056,7 @@
       </c>
       <c r="D64" s="19"/>
     </row>
-    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -14102,7 +14070,7 @@
       </c>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>157</v>
       </c>
@@ -14114,7 +14082,7 @@
       </c>
       <c r="D66" s="16"/>
     </row>
-    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -14126,7 +14094,7 @@
       </c>
       <c r="D67" s="16"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -14140,7 +14108,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -14154,7 +14122,7 @@
       </c>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>155</v>
       </c>
@@ -14172,11 +14140,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14188,40 +14151,40 @@
       <selection activeCell="B14" sqref="B14:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>107</v>
       </c>
@@ -14256,7 +14219,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -14268,7 +14231,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -14283,7 +14246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -14302,7 +14265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -14325,7 +14288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -14352,7 +14315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -14383,7 +14346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -14418,7 +14381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -14457,7 +14420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -14500,7 +14463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -14547,17 +14510,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
         <v>107</v>
       </c>
@@ -14592,7 +14555,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2008</v>
       </c>
@@ -14604,7 +14567,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2009</v>
       </c>
@@ -14619,7 +14582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -14638,7 +14601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -14661,7 +14624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2012</v>
       </c>
@@ -14688,7 +14651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -14719,7 +14682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2014</v>
       </c>
@@ -14754,7 +14717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2015</v>
       </c>
@@ -14793,7 +14756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2016</v>
       </c>
@@ -14836,7 +14799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2017</v>
       </c>
@@ -14885,11 +14848,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14901,25 +14859,25 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>403</v>
       </c>
@@ -14948,7 +14906,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>395</v>
       </c>
@@ -14959,7 +14917,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>200</v>
       </c>
@@ -14967,7 +14925,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>200</v>
       </c>
@@ -14975,7 +14933,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>200</v>
       </c>
@@ -14983,7 +14941,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>200</v>
       </c>
@@ -14991,7 +14949,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>200</v>
       </c>
@@ -14999,7 +14957,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>300</v>
       </c>
@@ -15007,7 +14965,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>300</v>
       </c>
@@ -15015,7 +14973,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>300</v>
       </c>
@@ -15023,7 +14981,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>300</v>
       </c>
@@ -15031,7 +14989,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>300</v>
       </c>
@@ -15039,7 +14997,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>400</v>
       </c>
@@ -15047,7 +15005,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>400</v>
       </c>
@@ -15055,7 +15013,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>400</v>
       </c>
@@ -15063,7 +15021,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>400</v>
       </c>
@@ -15071,7 +15029,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>400</v>
       </c>
@@ -15079,12 +15037,12 @@
         <v>389</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>387</v>
       </c>
@@ -15092,7 +15050,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D24" s="7" t="s">
         <v>385</v>
       </c>
@@ -15100,7 +15058,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D25" s="7" t="s">
         <v>383</v>
       </c>
@@ -15114,7 +15072,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E26" s="7" t="s">
         <v>381</v>
       </c>
@@ -15125,7 +15083,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
         <v>379</v>
       </c>
@@ -15136,7 +15094,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
         <v>377</v>
       </c>
@@ -15147,7 +15105,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
         <v>375</v>
       </c>
@@ -15158,7 +15116,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
         <v>373</v>
       </c>
@@ -15169,7 +15127,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D31" s="7" t="s">
         <v>370</v>
       </c>
@@ -15183,7 +15141,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D32" s="7" t="s">
         <v>367</v>
       </c>
@@ -15197,7 +15155,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D33" s="7" t="s">
         <v>364</v>
       </c>
@@ -15208,7 +15166,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D34" s="22" t="s">
         <v>361</v>
       </c>
@@ -15222,7 +15180,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D35" s="7" t="s">
         <v>359</v>
       </c>
@@ -15236,7 +15194,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D36" s="22" t="s">
         <v>356</v>
       </c>
@@ -15250,7 +15208,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D37" s="7" t="s">
         <v>354</v>
       </c>
@@ -15264,7 +15222,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>350</v>
       </c>
@@ -15272,7 +15230,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>349</v>
       </c>
@@ -15280,7 +15238,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>347</v>
       </c>
@@ -15291,7 +15249,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>345</v>
       </c>
@@ -15302,7 +15260,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D42" s="7" t="s">
         <v>342</v>
       </c>
@@ -15310,7 +15268,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>340</v>
       </c>
@@ -15318,7 +15276,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>339</v>
       </c>
@@ -15326,7 +15284,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>337</v>
       </c>
@@ -15334,7 +15292,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D46" s="7" t="s">
         <v>335</v>
       </c>
@@ -15342,7 +15300,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D47" s="7" t="s">
         <v>333</v>
       </c>
@@ -15350,7 +15308,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>332</v>
       </c>
@@ -15358,7 +15316,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>330</v>
       </c>
@@ -15366,7 +15324,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>329</v>
       </c>
@@ -15380,7 +15338,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>322</v>
       </c>
@@ -15394,7 +15352,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
         <v>320</v>
       </c>
@@ -15405,27 +15363,27 @@
         <v>321</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
         <v>326</v>
       </c>
@@ -15436,7 +15394,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>323</v>
       </c>
@@ -15447,7 +15405,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>321</v>
       </c>
@@ -15458,7 +15416,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
         <v>316</v>
       </c>
@@ -15469,7 +15427,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
         <v>318</v>
       </c>
@@ -15477,7 +15435,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E68" t="s">
         <v>317</v>
       </c>
@@ -15485,7 +15443,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
         <v>316</v>
       </c>
@@ -15493,7 +15451,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
         <v>315</v>
       </c>
@@ -15501,7 +15459,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
         <v>314</v>
       </c>
@@ -15509,7 +15467,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F72" t="s">
         <v>313</v>
       </c>
@@ -15517,10 +15475,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>